--- a/inst/extdata/example2-with-sims.xlsx
+++ b/inst/extdata/example2-with-sims.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaelsola/Github-Collabs/mocaredd/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26260908-1392-3646-982A-508557CF86AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E859A276-F95A-764F-9D4D-75603A48F22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="2200" windowWidth="38760" windowHeight="22760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="760" windowWidth="28860" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="11" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="139">
   <si>
     <t>trunc_pdf</t>
   </si>
@@ -173,12 +173,6 @@
     <t>c_element</t>
   </si>
   <si>
-    <t>lu_initial_id</t>
-  </si>
-  <si>
-    <t>lu_final_id</t>
-  </si>
-  <si>
     <t>trans_area</t>
   </si>
   <si>
@@ -197,15 +191,6 @@
     <t>trans_pdf_c</t>
   </si>
   <si>
-    <t>lu_initial</t>
-  </si>
-  <si>
-    <t>lu_final</t>
-  </si>
-  <si>
-    <t>redd_activity</t>
-  </si>
-  <si>
     <t>EV</t>
   </si>
   <si>
@@ -269,9 +254,6 @@
     <t>c_pdf_c</t>
   </si>
   <si>
-    <t>lu_name</t>
-  </si>
-  <si>
     <t>AGB</t>
   </si>
   <si>
@@ -342,9 +324,6 @@
   </si>
   <si>
     <t>BGB = (AGB * RS)</t>
-  </si>
-  <si>
-    <t>C = (AGB + BGB) * CF</t>
   </si>
   <si>
     <t>C_deg = C * DG_ratio</t>
@@ -489,6 +468,36 @@
   </si>
   <si>
     <t>extension for degradation land use (ex. "_deg") for the code to identify degradaed LU and their corresponding intact class</t>
+  </si>
+  <si>
+    <t>C = AGB * (1 + RS) * CF</t>
+  </si>
+  <si>
+    <t>trans_placeholder</t>
+  </si>
+  <si>
+    <t>trans_lu_initial_id</t>
+  </si>
+  <si>
+    <t>trans_lu_final_id</t>
+  </si>
+  <si>
+    <t>trans_lu_initial</t>
+  </si>
+  <si>
+    <t>trans_lu_final</t>
+  </si>
+  <si>
+    <t>trans_redd_activity</t>
+  </si>
+  <si>
+    <t>c_lu_id</t>
+  </si>
+  <si>
+    <t>c_placeholder</t>
+  </si>
+  <si>
+    <t>c_lu_name</t>
   </si>
 </sst>
 </file>
@@ -1264,27 +1273,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1314,6 +1302,27 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1533,76 +1542,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE355AE-3197-7348-98BC-2DF9070133EC}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+    <sheetView zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="70.5" style="145" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="140"/>
+    <col min="1" max="1" width="70.5" style="136" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="131"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="34" x14ac:dyDescent="0.15">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="143" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A2" s="130"/>
+    </row>
+    <row r="3" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A3" s="132" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="187" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="133" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="134"/>
+    </row>
+    <row r="6" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="132" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="168" x14ac:dyDescent="0.15">
+      <c r="A7" s="133" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="133"/>
+    </row>
+    <row r="9" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="132" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="98" x14ac:dyDescent="0.15">
+      <c r="A10" s="133" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="133"/>
+    </row>
+    <row r="12" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="135" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A2" s="139"/>
-    </row>
-    <row r="3" spans="1:1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A3" s="141" t="s">
+    <row r="13" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A13" s="136" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="187" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="142" t="s">
+    <row r="14" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A14" s="136" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="143"/>
-    </row>
-    <row r="6" spans="1:1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="141" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="168" x14ac:dyDescent="0.15">
-      <c r="A7" s="142" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="142"/>
-    </row>
-    <row r="9" spans="1:1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="141" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="98" x14ac:dyDescent="0.15">
-      <c r="A10" s="142" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="142"/>
-    </row>
-    <row r="12" spans="1:1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="144" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A13" s="145" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A14" s="145" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1635,7 @@
   <sheetData>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B2" s="77" t="str">
         <f t="array" ref="B2:M11">TRANSPOSE(AD_lu_transitions!C2:L13)</f>
@@ -1668,7 +1677,7 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B3" s="79">
         <v>0</v>
@@ -1709,7 +1718,7 @@
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B4" s="79" t="str">
         <v>EV</v>
@@ -1750,7 +1759,7 @@
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B5" s="79" t="str">
         <v>Crop</v>
@@ -1791,7 +1800,7 @@
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="41" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B6" s="81">
         <v>22455</v>
@@ -1832,7 +1841,7 @@
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="41" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B7" s="79">
         <v>7513</v>
@@ -1873,7 +1882,7 @@
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="41" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B8" s="79" t="str">
         <v>normal</v>
@@ -1914,7 +1923,7 @@
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="41" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B9" s="79">
         <v>0</v>
@@ -1955,7 +1964,7 @@
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="51" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B10" s="79">
         <v>0</v>
@@ -1996,7 +2005,7 @@
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="51" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B11" s="79">
         <v>0</v>
@@ -2037,7 +2046,7 @@
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="52" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B12" s="55">
         <v>1</v>
@@ -2093,267 +2102,267 @@
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B14" s="84">
         <f t="shared" ref="B14:M14" ca="1" si="0">MEDIAN(_xlfn.ANCHORARRAY(B20))</f>
-        <v>17720</v>
+        <v>18631.5</v>
       </c>
       <c r="C14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>9609.5</v>
+        <v>12136</v>
       </c>
       <c r="D14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>51234</v>
+        <v>67717.5</v>
       </c>
       <c r="E14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>17987</v>
+        <v>14952</v>
       </c>
       <c r="F14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>329158.5</v>
+        <v>327588.5</v>
       </c>
       <c r="G14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>23506</v>
+        <v>23310</v>
       </c>
       <c r="H14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>2052.5</v>
+        <v>2269.5</v>
       </c>
       <c r="I14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>2077</v>
+        <v>2474</v>
       </c>
       <c r="J14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>7168.5</v>
+        <v>6581</v>
       </c>
       <c r="K14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>6939.5</v>
+        <v>5004.5</v>
       </c>
       <c r="L14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>43322.5</v>
+        <v>46724.5</v>
       </c>
       <c r="M14" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>5832.5</v>
+        <v>5537.5</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B15" s="87">
         <f t="shared" ref="B15:M15" ca="1" si="1">ROUND(B16/B14,2)</f>
-        <v>0.28000000000000003</v>
+        <v>0.59</v>
       </c>
       <c r="C15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49</v>
+        <v>0.4</v>
       </c>
       <c r="D15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="F15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="H15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="I15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="J15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="K15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="M15" s="89">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B16" s="90">
         <f t="shared" ref="B16:M16" ca="1" si="2">(B18-B17)/2</f>
-        <v>5037.4250000000002</v>
+        <v>10958.174999999999</v>
       </c>
       <c r="C16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>4755.5</v>
+        <v>4828.25</v>
       </c>
       <c r="D16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>13351.900000000001</v>
+        <v>13874.325000000004</v>
       </c>
       <c r="E16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>5385.4249999999993</v>
+        <v>2539.8249999999998</v>
       </c>
       <c r="F16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>36460.199999999983</v>
+        <v>45175.575000000012</v>
       </c>
       <c r="G16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>2345.7749999999996</v>
+        <v>2725.4750000000004</v>
       </c>
       <c r="H16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>581.62499999999989</v>
+        <v>613.17500000000007</v>
       </c>
       <c r="I16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>881.17499999999995</v>
+        <v>730.22499999999991</v>
       </c>
       <c r="J16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>2405.0500000000002</v>
+        <v>2417.6749999999997</v>
       </c>
       <c r="K16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>1951.5000000000005</v>
+        <v>1440.125</v>
       </c>
       <c r="L16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>6194.9500000000007</v>
+        <v>5374.1499999999978</v>
       </c>
       <c r="M16" s="92">
         <f t="shared" ca="1" si="2"/>
-        <v>728.60000000000036</v>
+        <v>888.09999999999991</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B17" s="90">
         <f t="shared" ref="B17:M17" ca="1" si="3">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20),ci_alpha/2),2)</f>
-        <v>13167.15</v>
+        <v>11669.75</v>
       </c>
       <c r="C17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>2854.45</v>
+        <v>5686.3</v>
       </c>
       <c r="D17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>46255.199999999997</v>
+        <v>49737.95</v>
       </c>
       <c r="E17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>12289</v>
+        <v>12967.4</v>
       </c>
       <c r="F17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>283823.90000000002</v>
+        <v>277595.55</v>
       </c>
       <c r="G17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>21113.8</v>
+        <v>20673</v>
       </c>
       <c r="H17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>1526.2</v>
+        <v>1763.05</v>
       </c>
       <c r="I17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>1282.8499999999999</v>
+        <v>1438.4</v>
       </c>
       <c r="J17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>4504.3500000000004</v>
+        <v>3624.45</v>
       </c>
       <c r="K17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>4585.95</v>
+        <v>3515.05</v>
       </c>
       <c r="L17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>40264.699999999997</v>
+        <v>41722.400000000001</v>
       </c>
       <c r="M17" s="92">
         <f t="shared" ca="1" si="3"/>
-        <v>4815.6499999999996</v>
+        <v>4487.75</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="57" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B18" s="90">
         <f t="shared" ref="B18:M18" ca="1" si="4">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20), 1 - ci_alpha / 2), 2)</f>
-        <v>23242</v>
+        <v>33586.1</v>
       </c>
       <c r="C18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>12365.45</v>
+        <v>15342.8</v>
       </c>
       <c r="D18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>72959</v>
+        <v>77486.600000000006</v>
       </c>
       <c r="E18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>23059.85</v>
+        <v>18047.05</v>
       </c>
       <c r="F18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>356744.3</v>
+        <v>367946.7</v>
       </c>
       <c r="G18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>25805.35</v>
+        <v>26123.95</v>
       </c>
       <c r="H18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>2689.45</v>
+        <v>2989.4</v>
       </c>
       <c r="I18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>3045.2</v>
+        <v>2898.85</v>
       </c>
       <c r="J18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>9314.4500000000007</v>
+        <v>8459.7999999999993</v>
       </c>
       <c r="K18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>8488.9500000000007</v>
+        <v>6395.3</v>
       </c>
       <c r="L18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>52654.6</v>
+        <v>52470.7</v>
       </c>
       <c r="M18" s="92">
         <f t="shared" ca="1" si="4"/>
-        <v>6272.85</v>
+        <v>6263.95</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2378,51 +2387,51 @@
       </c>
       <c r="B20" s="94" cm="1">
         <f t="array" aca="1" ref="B20:B29" ca="1">IF(B12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),B6,B7),0),_xlfn.SEQUENCE(n_iter, 1, B6, 0))</f>
-        <v>12345</v>
+        <v>15628</v>
       </c>
       <c r="C20" s="95" cm="1">
         <f t="array" aca="1" ref="C20:C29" ca="1">IF(C12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),C6,C7),0),_xlfn.SEQUENCE(n_iter, 1, C6, 0))</f>
-        <v>7407</v>
+        <v>12218</v>
       </c>
       <c r="D20" s="95" cm="1">
         <f t="array" aca="1" ref="D20:D29" ca="1">IF(D12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),D6,D7),0),_xlfn.SEQUENCE(n_iter, 1, D6, 0))</f>
-        <v>71551</v>
+        <v>69311</v>
       </c>
       <c r="E20" s="95" cm="1">
         <f t="array" aca="1" ref="E20:E29" ca="1">IF(E12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),E6,E7),0),_xlfn.SEQUENCE(n_iter, 1, E6, 0))</f>
-        <v>12509</v>
+        <v>19006</v>
       </c>
       <c r="F20" s="95" cm="1">
         <f t="array" aca="1" ref="F20:F29" ca="1">IF(F12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),F6,F7),0),_xlfn.SEQUENCE(n_iter, 1, F6, 0))</f>
-        <v>339371</v>
+        <v>319020</v>
       </c>
       <c r="G20" s="95" cm="1">
         <f t="array" aca="1" ref="G20:G29" ca="1">IF(G12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),G6,G7),0),_xlfn.SEQUENCE(n_iter, 1, G6, 0))</f>
-        <v>24244</v>
+        <v>20664</v>
       </c>
       <c r="H20" s="95" cm="1">
         <f t="array" aca="1" ref="H20:H29" ca="1">IF(H12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),H6,H7),0),_xlfn.SEQUENCE(n_iter, 1, H6, 0))</f>
-        <v>2397</v>
+        <v>2831</v>
       </c>
       <c r="I20" s="95" cm="1">
         <f t="array" aca="1" ref="I20:I29" ca="1">IF(I12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),I6,I7),0),_xlfn.SEQUENCE(n_iter, 1, I6, 0))</f>
-        <v>1169</v>
+        <v>2983</v>
       </c>
       <c r="J20" s="95" cm="1">
         <f t="array" aca="1" ref="J20:J29" ca="1">IF(J12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),J6,J7),0),_xlfn.SEQUENCE(n_iter, 1, J6, 0))</f>
-        <v>5421</v>
+        <v>7706</v>
       </c>
       <c r="K20" s="95" cm="1">
         <f t="array" aca="1" ref="K20:K29" ca="1">IF(K12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),K6,K7),0),_xlfn.SEQUENCE(n_iter, 1, K6, 0))</f>
-        <v>4482</v>
+        <v>3439</v>
       </c>
       <c r="L20" s="95" cm="1">
         <f t="array" aca="1" ref="L20:L29" ca="1">IF(L12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),L6,L7),0),_xlfn.SEQUENCE(n_iter, 1, L6, 0))</f>
-        <v>45378</v>
+        <v>42411</v>
       </c>
       <c r="M20" s="95" cm="1">
         <f t="array" aca="1" ref="M20:M29" ca="1">IF(M12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),M6,M7),0),_xlfn.SEQUENCE(n_iter, 1, M6, 0))</f>
-        <v>5953</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2431,51 +2440,51 @@
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>20232</v>
+        <v>12426</v>
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>9758</v>
+        <v>14232</v>
       </c>
       <c r="D21">
         <f ca="1"/>
-        <v>63773</v>
+        <v>68938</v>
       </c>
       <c r="E21">
         <f ca="1"/>
-        <v>12109</v>
+        <v>14868</v>
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>261818</v>
+        <v>305395</v>
       </c>
       <c r="G21">
         <f ca="1"/>
-        <v>21963</v>
+        <v>23405</v>
       </c>
       <c r="H21">
         <f ca="1"/>
-        <v>2698</v>
+        <v>2278</v>
       </c>
       <c r="I21">
         <f ca="1"/>
-        <v>1940</v>
+        <v>2420</v>
       </c>
       <c r="J21">
         <f ca="1"/>
-        <v>4968</v>
+        <v>8220</v>
       </c>
       <c r="K21">
         <f ca="1"/>
-        <v>8330</v>
+        <v>4344</v>
       </c>
       <c r="L21">
         <f ca="1"/>
-        <v>52483</v>
+        <v>50957</v>
       </c>
       <c r="M21">
         <f ca="1"/>
-        <v>4790</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2484,51 +2493,51 @@
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>19709</v>
+        <v>18979</v>
       </c>
       <c r="C22">
         <f ca="1"/>
-        <v>12518</v>
+        <v>6002</v>
       </c>
       <c r="D22">
         <f ca="1"/>
-        <v>74111</v>
+        <v>49067</v>
       </c>
       <c r="E22">
         <f ca="1"/>
-        <v>17227</v>
+        <v>16875</v>
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>325784</v>
+        <v>354112</v>
       </c>
       <c r="G22">
         <f ca="1"/>
-        <v>26182</v>
+        <v>25508</v>
       </c>
       <c r="H22">
         <f ca="1"/>
-        <v>1733</v>
+        <v>3119</v>
       </c>
       <c r="I22">
         <f ca="1"/>
-        <v>2837</v>
+        <v>2206</v>
       </c>
       <c r="J22">
         <f ca="1"/>
-        <v>6968</v>
+        <v>4109</v>
       </c>
       <c r="K22">
         <f ca="1"/>
-        <v>8619</v>
+        <v>6470</v>
       </c>
       <c r="L22">
         <f ca="1"/>
-        <v>42470</v>
+        <v>48329</v>
       </c>
       <c r="M22">
         <f ca="1"/>
-        <v>6071</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2537,51 +2546,51 @@
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>25438</v>
+        <v>11051</v>
       </c>
       <c r="C23">
         <f ca="1"/>
-        <v>3790</v>
+        <v>10897</v>
       </c>
       <c r="D23">
         <f ca="1"/>
-        <v>50136</v>
+        <v>76336</v>
       </c>
       <c r="E23">
         <f ca="1"/>
-        <v>19294</v>
+        <v>15036</v>
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>346797</v>
+        <v>379266</v>
       </c>
       <c r="G23">
         <f ca="1"/>
-        <v>22697</v>
+        <v>21426</v>
       </c>
       <c r="H23">
         <f ca="1"/>
-        <v>2679</v>
+        <v>1732</v>
       </c>
       <c r="I23">
         <f ca="1"/>
-        <v>2608</v>
+        <v>2528</v>
       </c>
       <c r="J23">
         <f ca="1"/>
-        <v>7377</v>
+        <v>6193</v>
       </c>
       <c r="K23">
         <f ca="1"/>
-        <v>7129</v>
+        <v>4516</v>
       </c>
       <c r="L23">
         <f ca="1"/>
-        <v>47595</v>
+        <v>47770</v>
       </c>
       <c r="M23">
         <f ca="1"/>
-        <v>5939</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2590,51 +2599,51 @@
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>15432</v>
+        <v>18284</v>
       </c>
       <c r="C24">
         <f ca="1"/>
-        <v>9533</v>
+        <v>5428</v>
       </c>
       <c r="D24">
         <f ca="1"/>
-        <v>52332</v>
+        <v>78428</v>
       </c>
       <c r="E24">
         <f ca="1"/>
-        <v>15534</v>
+        <v>12296</v>
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>327522</v>
+        <v>336157</v>
       </c>
       <c r="G24">
         <f ca="1"/>
-        <v>20419</v>
+        <v>23819</v>
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>2467</v>
+        <v>2261</v>
       </c>
       <c r="I24">
         <f ca="1"/>
-        <v>1849</v>
+        <v>2028</v>
       </c>
       <c r="J24">
         <f ca="1"/>
-        <v>10439</v>
+        <v>7316</v>
       </c>
       <c r="K24">
         <f ca="1"/>
-        <v>4713</v>
+        <v>5493</v>
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>40064</v>
+        <v>45679</v>
       </c>
       <c r="M24">
         <f ca="1"/>
-        <v>5852</v>
+        <v>5999</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2643,51 +2652,51 @@
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>18245</v>
+        <v>36539</v>
       </c>
       <c r="C25">
         <f ca="1"/>
-        <v>7188</v>
+        <v>14617</v>
       </c>
       <c r="D25">
         <f ca="1"/>
-        <v>50073</v>
+        <v>68760</v>
       </c>
       <c r="E25">
         <f ca="1"/>
-        <v>22693</v>
+        <v>15921</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>326973</v>
+        <v>351318</v>
       </c>
       <c r="G25">
         <f ca="1"/>
-        <v>25345</v>
+        <v>26137</v>
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>2017</v>
+        <v>2060</v>
       </c>
       <c r="I25">
         <f ca="1"/>
-        <v>2856</v>
+        <v>2548</v>
       </c>
       <c r="J25">
         <f ca="1"/>
-        <v>4125</v>
+        <v>4598</v>
       </c>
       <c r="K25">
         <f ca="1"/>
-        <v>6806</v>
+        <v>6245</v>
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>40510</v>
+        <v>53530</v>
       </c>
       <c r="M25">
         <f ca="1"/>
-        <v>4847</v>
+        <v>5324</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2696,51 +2705,51 @@
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>17195</v>
+        <v>28621</v>
       </c>
       <c r="C26">
         <f ca="1"/>
-        <v>2089</v>
+        <v>15701</v>
       </c>
       <c r="D26">
         <f ca="1"/>
-        <v>55891</v>
+        <v>50558</v>
       </c>
       <c r="E26">
         <f ca="1"/>
-        <v>23360</v>
+        <v>14306</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>330795</v>
+        <v>316494</v>
       </c>
       <c r="G26">
         <f ca="1"/>
-        <v>23510</v>
+        <v>26108</v>
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>1755</v>
+        <v>2548</v>
       </c>
       <c r="I26">
         <f ca="1"/>
-        <v>3200</v>
+        <v>2716</v>
       </c>
       <c r="J26">
         <f ca="1"/>
-        <v>7369</v>
+        <v>6969</v>
       </c>
       <c r="K26">
         <f ca="1"/>
-        <v>7631</v>
+        <v>6304</v>
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>52795</v>
+        <v>43452</v>
       </c>
       <c r="M26">
         <f ca="1"/>
-        <v>5332</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2749,51 +2758,51 @@
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>20558</v>
+        <v>29977</v>
       </c>
       <c r="C27">
         <f ca="1"/>
-        <v>9899</v>
+        <v>8963</v>
       </c>
       <c r="D27">
         <f ca="1"/>
-        <v>47843</v>
+        <v>61787</v>
       </c>
       <c r="E27">
         <f ca="1"/>
-        <v>19883</v>
+        <v>14399</v>
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>364883</v>
+        <v>278772</v>
       </c>
       <c r="G27">
         <f ca="1"/>
-        <v>23502</v>
+        <v>20684</v>
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>2088</v>
+        <v>1846</v>
       </c>
       <c r="I27">
         <f ca="1"/>
-        <v>2068</v>
+        <v>956</v>
       </c>
       <c r="J27">
         <f ca="1"/>
-        <v>7456</v>
+        <v>4624</v>
       </c>
       <c r="K27">
         <f ca="1"/>
-        <v>7073</v>
+        <v>3608</v>
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>42017</v>
+        <v>41159</v>
       </c>
       <c r="M27">
         <f ca="1"/>
-        <v>6438</v>
+        <v>6394</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2802,47 +2811,47 @@
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>14172</v>
+        <v>17464</v>
       </c>
       <c r="C28">
         <f ca="1"/>
-        <v>12179</v>
+        <v>12054</v>
       </c>
       <c r="D28">
         <f ca="1"/>
-        <v>47309</v>
+        <v>59956</v>
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>17189</v>
+        <v>15062</v>
       </c>
       <c r="F28">
         <f ca="1"/>
-        <v>310720</v>
+        <v>276633</v>
       </c>
       <c r="G28">
         <f ca="1"/>
-        <v>22235</v>
+        <v>23215</v>
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>1772</v>
+        <v>1801</v>
       </c>
       <c r="I28">
         <f ca="1"/>
-        <v>1422</v>
+        <v>2266</v>
       </c>
       <c r="J28">
         <f ca="1"/>
-        <v>7940</v>
+        <v>3228</v>
       </c>
       <c r="K28">
         <f ca="1"/>
-        <v>6595</v>
+        <v>3990</v>
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>42745</v>
+        <v>44342</v>
       </c>
       <c r="M28">
         <f ca="1"/>
@@ -2855,51 +2864,51 @@
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>17179</v>
+        <v>28863</v>
       </c>
       <c r="C29">
         <f ca="1"/>
-        <v>9686</v>
+        <v>14905</v>
       </c>
       <c r="D29">
         <f ca="1"/>
-        <v>45393</v>
+        <v>66675</v>
       </c>
       <c r="E29">
         <f ca="1"/>
-        <v>18747</v>
+        <v>13788</v>
       </c>
       <c r="F29">
         <f ca="1"/>
-        <v>339678</v>
+        <v>343452</v>
       </c>
       <c r="G29">
         <f ca="1"/>
-        <v>25311</v>
+        <v>20833</v>
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>1357</v>
+        <v>2495</v>
       </c>
       <c r="I29">
         <f ca="1"/>
-        <v>2086</v>
+        <v>2796</v>
       </c>
       <c r="J29">
         <f ca="1"/>
-        <v>5231</v>
+        <v>8656</v>
       </c>
       <c r="K29">
         <f ca="1"/>
-        <v>4776</v>
+        <v>6207</v>
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>43900</v>
+        <v>51176</v>
       </c>
       <c r="M29">
         <f ca="1"/>
-        <v>5813</v>
+        <v>4445</v>
       </c>
     </row>
   </sheetData>
@@ -2923,7 +2932,7 @@
   <sheetData>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>25</v>
@@ -2974,164 +2983,164 @@
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="N3" s="99" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="W3" s="100"/>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>49</v>
-      </c>
       <c r="D4" s="38" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>49</v>
-      </c>
       <c r="H4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="38" t="s">
-        <v>49</v>
-      </c>
       <c r="J4" s="38" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="38" t="s">
         <v>44</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>49</v>
       </c>
       <c r="N4" s="101"/>
       <c r="W4" s="100"/>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N5" s="99" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W5" s="102" t="s">
         <v>111</v>
-      </c>
-      <c r="W5" s="102" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="41" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B6" s="103">
         <f>ROUND(SIMS_EF!B6 * SIMS_AD!B6,0)</f>
-        <v>14183364</v>
+        <v>14183431</v>
       </c>
       <c r="C6" s="18">
         <f>ROUND(SIMS_EF!C6 * SIMS_AD!C6,0)</f>
@@ -3139,7 +3148,7 @@
       </c>
       <c r="D6" s="18">
         <f>ROUND(SIMS_EF!D6 * SIMS_AD!D6,0)</f>
-        <v>25046388</v>
+        <v>25046554</v>
       </c>
       <c r="E6" s="18">
         <f>ROUND(SIMS_EF!E6 * SIMS_AD!E6,0)</f>
@@ -3155,7 +3164,7 @@
       </c>
       <c r="H6" s="18">
         <f>ROUND(SIMS_EF!H6 * SIMS_AD!H6,0)</f>
-        <v>1298010</v>
+        <v>1298016</v>
       </c>
       <c r="I6" s="18">
         <f>ROUND(SIMS_EF!I6 * SIMS_AD!I6,0)</f>
@@ -3163,7 +3172,7 @@
       </c>
       <c r="J6" s="18">
         <f>ROUND(SIMS_EF!J6 * SIMS_AD!J6,0)</f>
-        <v>2741851</v>
+        <v>2741869</v>
       </c>
       <c r="K6" s="18">
         <f>ROUND(SIMS_EF!K6 * SIMS_AD!K6,0)</f>
@@ -3179,7 +3188,7 @@
       </c>
       <c r="N6" s="104">
         <f>ROUND(SUM(B6:E6)/year_ref,0)</f>
-        <v>10063011</v>
+        <v>10063058</v>
       </c>
       <c r="O6" s="18">
         <f>ROUND(SUM(F6:G6)/year_ref,0)</f>
@@ -3187,7 +3196,7 @@
       </c>
       <c r="Q6" s="18">
         <f>ROUND(SUM(H6:K6)/year_mon,0)</f>
-        <v>3577153</v>
+        <v>3577165</v>
       </c>
       <c r="R6" s="18">
         <f>ROUND(SUM(L6:M6)/year_mon,0)</f>
@@ -3195,20 +3204,20 @@
       </c>
       <c r="T6" s="18">
         <f>SUM(N6:O6)</f>
-        <v>21874114</v>
+        <v>21874161</v>
       </c>
       <c r="U6" s="18">
         <f>SUM(Q6:R6)</f>
-        <v>7925053</v>
+        <v>7925065</v>
       </c>
       <c r="W6" s="105">
         <f>T6-U6</f>
-        <v>13949061</v>
+        <v>13949096</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="41" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B7" s="47"/>
       <c r="N7" s="101"/>
@@ -3216,72 +3225,72 @@
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="41" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N8" s="99" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="102" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="41" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B9" s="47"/>
       <c r="N9" s="101"/>
@@ -3289,7 +3298,7 @@
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="51" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B10" s="47"/>
       <c r="N10" s="101"/>
@@ -3297,7 +3306,7 @@
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="51" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B11" s="47"/>
       <c r="N11" s="101"/>
@@ -3305,7 +3314,7 @@
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="52" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B12" s="55"/>
       <c r="C12" s="54"/>
@@ -3339,422 +3348,422 @@
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B14" s="84">
         <f t="shared" ref="B14:W14" ca="1" si="0">MEDIAN(_xlfn.ANCHORARRAY(B20))</f>
-        <v>10774605</v>
+        <v>11936289</v>
       </c>
       <c r="C14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>4288215</v>
+        <v>5229485</v>
       </c>
       <c r="D14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>23293318</v>
+        <v>24559118.5</v>
       </c>
       <c r="E14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>6850600.5</v>
+        <v>6443499</v>
       </c>
       <c r="F14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>71071960.5</v>
+        <v>55697442</v>
       </c>
       <c r="G14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>1129230.5</v>
+        <v>1482588</v>
       </c>
       <c r="H14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>1124361</v>
+        <v>1698052.5</v>
       </c>
       <c r="I14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>1049336.5</v>
+        <v>1201622</v>
       </c>
       <c r="J14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>2274769</v>
+        <v>3016086.5</v>
       </c>
       <c r="K14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>2859458.5</v>
+        <v>1993874</v>
       </c>
       <c r="L14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>9244567.5</v>
+        <v>7251209.5</v>
       </c>
       <c r="M14" s="110">
         <f t="shared" ca="1" si="0"/>
-        <v>303706</v>
+        <v>317166.5</v>
       </c>
       <c r="N14" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>8449064.5</v>
+        <v>10088756</v>
       </c>
       <c r="O14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>14994156</v>
+        <v>11630801</v>
       </c>
       <c r="P14" s="109"/>
       <c r="Q14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>3845326</v>
+        <v>3800211</v>
       </c>
       <c r="R14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>5067588.5</v>
+        <v>3935104.5</v>
       </c>
       <c r="S14" s="109"/>
       <c r="T14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>23885836</v>
+        <v>23537070.5</v>
       </c>
       <c r="U14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>9810333</v>
+        <v>8715918.5</v>
       </c>
       <c r="V14" s="109"/>
       <c r="W14" s="110">
         <f t="shared" ca="1" si="0"/>
-        <v>13535952.5</v>
+        <v>14627720.5</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B15" s="87">
         <f t="shared" ref="B15:W15" ca="1" si="1">ROUND(B16/B14,2)</f>
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="C15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56000000000000005</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42</v>
+        <v>0.74</v>
       </c>
       <c r="E15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89</v>
+        <v>0.34</v>
       </c>
       <c r="F15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45</v>
+        <v>1.34</v>
       </c>
       <c r="G15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4900000000000002</v>
+        <v>1.27</v>
       </c>
       <c r="H15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54</v>
+        <v>0.39</v>
       </c>
       <c r="I15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
+        <v>0.49</v>
       </c>
       <c r="J15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="K15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="L15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55000000000000004</v>
+        <v>1.42</v>
       </c>
       <c r="M15" s="76">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2799999999999998</v>
+        <v>1.56</v>
       </c>
       <c r="N15" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28000000000000003</v>
+        <v>0.47</v>
       </c>
       <c r="O15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43</v>
+        <v>1.3</v>
       </c>
       <c r="P15" s="75"/>
       <c r="Q15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36</v>
+        <v>0.51</v>
       </c>
       <c r="R15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53</v>
+        <v>1.32</v>
       </c>
       <c r="S15" s="75"/>
       <c r="T15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32</v>
+        <v>0.53</v>
       </c>
       <c r="U15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34</v>
+        <v>0.63</v>
       </c>
       <c r="V15" s="75"/>
       <c r="W15" s="76">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B16" s="84">
         <f t="shared" ref="B16:W16" ca="1" si="2">(B18-B17)/2</f>
-        <v>4326442.6500000004</v>
+        <v>7589118.2000000011</v>
       </c>
       <c r="C16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>2379981.2000000002</v>
+        <v>3050903.4499999997</v>
       </c>
       <c r="D16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>9789662.125</v>
+        <v>18163206.350000001</v>
       </c>
       <c r="E16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>6096290.4000000004</v>
+        <v>2195595.6</v>
       </c>
       <c r="F16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>31911914.575000003</v>
+        <v>74736205.625</v>
       </c>
       <c r="G16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>2807918.3249999997</v>
+        <v>1889637.875</v>
       </c>
       <c r="H16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>603950.60000000009</v>
+        <v>669137.17500000005</v>
       </c>
       <c r="I16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>733711.375</v>
+        <v>584455.77499999991</v>
       </c>
       <c r="J16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>1943591.675</v>
+        <v>1784064.5249999999</v>
       </c>
       <c r="K16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>1867421.4249999998</v>
+        <v>1311176.3999999999</v>
       </c>
       <c r="L16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>5104844.4749999996</v>
+        <v>10271283.35</v>
       </c>
       <c r="M16" s="110">
         <f t="shared" ca="1" si="2"/>
-        <v>692334.9</v>
+        <v>494647.89999999997</v>
       </c>
       <c r="N16" s="90">
         <f t="shared" ca="1" si="2"/>
-        <v>2326232.3499999996</v>
+        <v>4775773.625</v>
       </c>
       <c r="O16" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>6453332.9749999996</v>
+        <v>15069724.15</v>
       </c>
       <c r="P16" s="111"/>
       <c r="Q16" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>1386216.1249999998</v>
+        <v>1925665.0249999999</v>
       </c>
       <c r="R16" s="111">
         <f ca="1">(R18-R17)/2</f>
-        <v>2696283.625</v>
+        <v>5190879.9749999996</v>
       </c>
       <c r="S16" s="111"/>
       <c r="T16" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>7657266.3749999991</v>
+        <v>12575370.875000002</v>
       </c>
       <c r="U16" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>3303870.125</v>
+        <v>5475311.4249999998</v>
       </c>
       <c r="V16" s="111"/>
       <c r="W16" s="112">
         <f t="shared" ca="1" si="2"/>
-        <v>5322739.7749999994</v>
+        <v>7124670.3499999996</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B17" s="84">
         <f t="shared" ref="B17:O17" ca="1" si="3">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20),ci_alpha/2),2)</f>
-        <v>6504763.75</v>
+        <v>6777064.2000000002</v>
       </c>
       <c r="C17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>1651730.75</v>
+        <v>3251404.7999999998</v>
       </c>
       <c r="D17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>12105678.65</v>
+        <v>15788112.4</v>
       </c>
       <c r="E17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>2477113.6</v>
+        <v>3689670.3</v>
       </c>
       <c r="F17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>36026944.549999997</v>
+        <v>-19072615</v>
       </c>
       <c r="G17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>169574.9</v>
+        <v>158490.65</v>
       </c>
       <c r="H17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>801379.9</v>
+        <v>726132.45</v>
       </c>
       <c r="I17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>487190.3</v>
+        <v>586488.9</v>
       </c>
       <c r="J17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>1677580.65</v>
+        <v>1163133</v>
       </c>
       <c r="K17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>815265</v>
+        <v>935694</v>
       </c>
       <c r="L17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>4852930.45</v>
+        <v>-2940156</v>
       </c>
       <c r="M17" s="110">
         <f t="shared" ca="1" si="3"/>
-        <v>40063.15</v>
+        <v>38696.65</v>
       </c>
       <c r="N17" s="90">
         <f t="shared" ca="1" si="3"/>
-        <v>7049198</v>
+        <v>7101734.0499999998</v>
       </c>
       <c r="O17" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v>7297405.7999999998</v>
+        <v>-3386575</v>
       </c>
       <c r="P17" s="111"/>
       <c r="Q17" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(Q20),ci_alpha/2),2)</f>
-        <v>2521732.35</v>
+        <v>2023892</v>
       </c>
       <c r="R17" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(R20),ci_alpha/2),2)</f>
-        <v>2524209.15</v>
+        <v>-1167715.2</v>
       </c>
       <c r="S17" s="111"/>
       <c r="T17" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(T20),ci_alpha/2),2)</f>
-        <v>15219716.15</v>
+        <v>9717453.6999999993</v>
       </c>
       <c r="U17" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(U20),ci_alpha/2),2)</f>
-        <v>5045941.5</v>
+        <v>1721487.5</v>
       </c>
       <c r="V17" s="111"/>
       <c r="W17" s="112">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(W20),ci_alpha/2),2)</f>
-        <v>9032677.5999999996</v>
+        <v>7995966.2000000002</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="57" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B18" s="84">
         <f t="shared" ref="B18:O18" ca="1" si="4">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20), 1 - ci_alpha / 2), 2)</f>
-        <v>15157649.050000001</v>
+        <v>21955300.600000001</v>
       </c>
       <c r="C18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>6411693.1500000004</v>
+        <v>9353211.6999999993</v>
       </c>
       <c r="D18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>31685002.899999999</v>
+        <v>52114525.100000001</v>
       </c>
       <c r="E18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>14669694.4</v>
+        <v>8080861.5</v>
       </c>
       <c r="F18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>99850773.700000003</v>
+        <v>130399796.25</v>
       </c>
       <c r="G18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>5785411.5499999998</v>
+        <v>3937766.4</v>
       </c>
       <c r="H18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>2009281.1</v>
+        <v>2064406.8</v>
       </c>
       <c r="I18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>1954613.05</v>
+        <v>1755400.45</v>
       </c>
       <c r="J18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>5564764</v>
+        <v>4731262.05</v>
       </c>
       <c r="K18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>4550107.8499999996</v>
+        <v>3558046.8</v>
       </c>
       <c r="L18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>15062619.4</v>
+        <v>17602410.699999999</v>
       </c>
       <c r="M18" s="110">
         <f t="shared" ca="1" si="4"/>
-        <v>1424732.95</v>
+        <v>1027992.45</v>
       </c>
       <c r="N18" s="90">
         <f t="shared" ca="1" si="4"/>
-        <v>11701662.699999999</v>
+        <v>16653281.300000001</v>
       </c>
       <c r="O18" s="111">
         <f t="shared" ca="1" si="4"/>
-        <v>20204071.75</v>
+        <v>26752873.300000001</v>
       </c>
       <c r="P18" s="111"/>
       <c r="Q18" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(Q20), 1 - ci_alpha / 2), 2)</f>
-        <v>5294164.5999999996</v>
+        <v>5875222.0499999998</v>
       </c>
       <c r="R18" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(R20), 1 - ci_alpha / 2), 2)</f>
-        <v>7916776.4000000004</v>
+        <v>9214044.75</v>
       </c>
       <c r="S18" s="111"/>
       <c r="T18" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(T20), 1 - ci_alpha / 2), 2)</f>
-        <v>30534248.899999999</v>
+        <v>34868195.450000003</v>
       </c>
       <c r="U18" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(U20), 1 - ci_alpha / 2), 2)</f>
-        <v>11653681.75</v>
+        <v>12672110.35</v>
       </c>
       <c r="V18" s="111"/>
       <c r="W18" s="112">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(W20), 1 - ci_alpha / 2), 2)</f>
-        <v>19678157.149999999</v>
+        <v>22245306.899999999</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3773,7 +3782,7 @@
       <c r="M19" s="115"/>
       <c r="N19" s="116">
         <f ca="1">ROUND(SUM(B20:E20) / year_ref,0)</f>
-        <v>7237507</v>
+        <v>9729433</v>
       </c>
       <c r="O19" s="114"/>
       <c r="P19" s="54"/>
@@ -3792,82 +3801,82 @@
       </c>
       <c r="B20" s="126" cm="1">
         <f t="array" aca="1" ref="B20:B29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!B20) *_xlfn.ANCHORARRAY( SIMS_EF!B20), 0)</f>
-        <v>5549263</v>
+        <v>11642188</v>
       </c>
       <c r="C20" s="126" cm="1">
         <f t="array" aca="1" ref="C20:C29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!C20) *_xlfn.ANCHORARRAY( SIMS_EF!C20), 0)</f>
-        <v>3057861</v>
+        <v>5545078</v>
       </c>
       <c r="D20" s="126" cm="1">
         <f t="array" aca="1" ref="D20:D29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!D20) *_xlfn.ANCHORARRAY( SIMS_EF!D20), 0)</f>
-        <v>22514381</v>
+        <v>25094048</v>
       </c>
       <c r="E20" s="126" cm="1">
         <f t="array" aca="1" ref="E20:E29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!E20) *_xlfn.ANCHORARRAY( SIMS_EF!E20), 0)</f>
-        <v>5066032</v>
+        <v>6365851</v>
       </c>
       <c r="F20" s="126" cm="1">
         <f t="array" aca="1" ref="F20:F29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!F20) *_xlfn.ANCHORARRAY( SIMS_EF!F20), 0)</f>
-        <v>45765197</v>
+        <v>122154672</v>
       </c>
       <c r="G20" s="126" cm="1">
         <f t="array" aca="1" ref="G20:G29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!G20) *_xlfn.ANCHORARRAY( SIMS_EF!G20), 0)</f>
-        <v>190146</v>
+        <v>2457074</v>
       </c>
       <c r="H20" s="126" cm="1">
         <f t="array" aca="1" ref="H20:H29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!H20) *_xlfn.ANCHORARRAY( SIMS_EF!H20), 0)</f>
-        <v>1077487</v>
+        <v>2108973</v>
       </c>
       <c r="I20" s="126" cm="1">
         <f t="array" aca="1" ref="I20:I29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!I20) *_xlfn.ANCHORARRAY( SIMS_EF!I20), 0)</f>
-        <v>482603</v>
+        <v>1353820</v>
       </c>
       <c r="J20" s="126" cm="1">
         <f t="array" aca="1" ref="J20:J29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!J20) *_xlfn.ANCHORARRAY( SIMS_EF!J20), 0)</f>
-        <v>1705783</v>
+        <v>2789957</v>
       </c>
       <c r="K20" s="126" cm="1">
         <f t="array" aca="1" ref="K20:K29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!K20) *_xlfn.ANCHORARRAY( SIMS_EF!K20), 0)</f>
-        <v>1815170</v>
+        <v>1151855</v>
       </c>
       <c r="L20" s="126" cm="1">
         <f t="array" aca="1" ref="L20:L29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!L20) *_xlfn.ANCHORARRAY( SIMS_EF!L20), 0)</f>
-        <v>6119359</v>
+        <v>16239426</v>
       </c>
       <c r="M20" s="126" cm="1">
         <f t="array" aca="1" ref="M20:M29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!M20) *_xlfn.ANCHORARRAY( SIMS_EF!M20), 0)</f>
-        <v>46689</v>
+        <v>725921</v>
       </c>
       <c r="N20" s="117" cm="1">
         <f t="array" aca="1" ref="N20:N29" ca="1">_xlfn.BYROW(_xlfn.ANCHORARRAY(B20):_xlfn.ANCHORARRAY(E20),_xlfn.LAMBDA(_xlpm.x, ROUND(SUM(_xlpm.x)/year_ref,0)))</f>
-        <v>7237507</v>
+        <v>9729433</v>
       </c>
       <c r="O20" s="117" cm="1">
         <f t="array" aca="1" ref="O20:O29" ca="1">_xlfn.BYROW(_xlfn.ANCHORARRAY(F20):_xlfn.ANCHORARRAY(G20),_xlfn.LAMBDA(_xlpm.x, ROUND(SUM(_xlpm.x)/year_ref,0)))</f>
-        <v>9191069</v>
+        <v>24922349</v>
       </c>
       <c r="P20" s="118"/>
       <c r="Q20" s="117" cm="1">
         <f t="array" aca="1" ref="Q20:Q29" ca="1">_xlfn.BYROW(_xlfn.ANCHORARRAY(H20):_xlfn.ANCHORARRAY(K20),_xlfn.LAMBDA(_xlpm.x, ROUND(SUM(_xlpm.x)/year_mon,0)))</f>
-        <v>2540522</v>
+        <v>3702303</v>
       </c>
       <c r="R20" s="117" cm="1">
         <f t="array" aca="1" ref="R20:R29" ca="1">_xlfn.BYROW(_xlfn.ANCHORARRAY(L20):_xlfn.ANCHORARRAY(M20),_xlfn.LAMBDA(_xlpm.x, ROUND(SUM(_xlpm.x)/year_mon,0)))</f>
-        <v>3083024</v>
+        <v>8482674</v>
       </c>
       <c r="S20" s="118"/>
       <c r="T20" s="117" cm="1">
         <f t="array" aca="1" ref="T20:T29" ca="1">_xlfn.ANCHORARRAY(N20) +_xlfn.ANCHORARRAY( O20)</f>
-        <v>16428576</v>
+        <v>34651782</v>
       </c>
       <c r="U20" s="117" cm="1">
         <f t="array" aca="1" ref="U20:U29" ca="1">_xlfn.ANCHORARRAY(Q20) +_xlfn.ANCHORARRAY( R20)</f>
-        <v>5623546</v>
+        <v>12184977</v>
       </c>
       <c r="V20" s="118"/>
       <c r="W20" s="117" cm="1">
         <f t="array" aca="1" ref="W20:W29" ca="1">_xlfn.ANCHORARRAY(T20) -_xlfn.ANCHORARRAY( U20)</f>
-        <v>10805030</v>
+        <v>22466805</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3876,79 +3885,79 @@
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>13669447</v>
+        <v>9525784</v>
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>4807025</v>
+        <v>7416808</v>
       </c>
       <c r="D21">
         <f ca="1"/>
-        <v>23137929</v>
+        <v>34351047</v>
       </c>
       <c r="E21">
         <f ca="1"/>
-        <v>2809615</v>
+        <v>6864927</v>
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>81901383</v>
+        <v>81941143</v>
       </c>
       <c r="G21">
         <f ca="1"/>
-        <v>5723492</v>
+        <v>1390514</v>
       </c>
       <c r="H21">
         <f ca="1"/>
-        <v>1822863</v>
+        <v>1746317</v>
       </c>
       <c r="I21">
         <f ca="1"/>
-        <v>955691</v>
+        <v>1261149</v>
       </c>
       <c r="J21">
         <f ca="1"/>
-        <v>1802475</v>
+        <v>4095936</v>
       </c>
       <c r="K21">
         <f ca="1"/>
-        <v>1932785</v>
+        <v>2005733</v>
       </c>
       <c r="L21">
         <f ca="1"/>
-        <v>16417627</v>
+        <v>13672375</v>
       </c>
       <c r="M21">
         <f ca="1"/>
-        <v>1248260</v>
+        <v>269726</v>
       </c>
       <c r="N21">
         <f ca="1"/>
-        <v>8884803</v>
+        <v>11631713</v>
       </c>
       <c r="O21">
         <f ca="1"/>
-        <v>17524975</v>
+        <v>16666331</v>
       </c>
       <c r="Q21">
         <f ca="1"/>
-        <v>3256907</v>
+        <v>4554568</v>
       </c>
       <c r="R21">
         <f ca="1"/>
-        <v>8832944</v>
+        <v>6971051</v>
       </c>
       <c r="T21">
         <f ca="1"/>
-        <v>26409778</v>
+        <v>28298044</v>
       </c>
       <c r="U21">
         <f ca="1"/>
-        <v>12089851</v>
+        <v>11525619</v>
       </c>
       <c r="W21">
         <f ca="1"/>
-        <v>14319927</v>
+        <v>16772425</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3957,79 +3966,79 @@
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>10119606</v>
+        <v>12230390</v>
       </c>
       <c r="C22">
         <f ca="1"/>
-        <v>6284449</v>
+        <v>3107367</v>
       </c>
       <c r="D22">
         <f ca="1"/>
-        <v>27702025</v>
+        <v>12616156</v>
       </c>
       <c r="E22">
         <f ca="1"/>
-        <v>4808555</v>
+        <v>6019515</v>
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>45498993</v>
+        <v>137145807</v>
       </c>
       <c r="G22">
         <f ca="1"/>
-        <v>5836073</v>
+        <v>4107069</v>
       </c>
       <c r="H22">
         <f ca="1"/>
-        <v>889811</v>
+        <v>2009937</v>
       </c>
       <c r="I22">
         <f ca="1"/>
-        <v>1424268</v>
+        <v>1142095</v>
       </c>
       <c r="J22">
         <f ca="1"/>
-        <v>2604576</v>
+        <v>1056510</v>
       </c>
       <c r="K22">
         <f ca="1"/>
-        <v>2405813</v>
+        <v>2307927</v>
       </c>
       <c r="L22">
         <f ca="1"/>
-        <v>5931360</v>
+        <v>18717580</v>
       </c>
       <c r="M22">
         <f ca="1"/>
-        <v>1353250</v>
+        <v>907297</v>
       </c>
       <c r="N22">
         <f ca="1"/>
-        <v>9782927</v>
+        <v>6794686</v>
       </c>
       <c r="O22">
         <f ca="1"/>
-        <v>10267013</v>
+        <v>28250575</v>
       </c>
       <c r="Q22">
         <f ca="1"/>
-        <v>3662234</v>
+        <v>3258235</v>
       </c>
       <c r="R22">
         <f ca="1"/>
-        <v>3642305</v>
+        <v>9812439</v>
       </c>
       <c r="T22">
         <f ca="1"/>
-        <v>20049940</v>
+        <v>35045261</v>
       </c>
       <c r="U22">
         <f ca="1"/>
-        <v>7304539</v>
+        <v>13070674</v>
       </c>
       <c r="W22">
         <f ca="1"/>
-        <v>12745401</v>
+        <v>21974587</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4038,79 +4047,79 @@
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>11121265</v>
+        <v>4886310</v>
       </c>
       <c r="C23">
         <f ca="1"/>
-        <v>2354234</v>
+        <v>5466371</v>
       </c>
       <c r="D23">
         <f ca="1"/>
-        <v>11244452</v>
+        <v>20893011</v>
       </c>
       <c r="E23">
         <f ca="1"/>
-        <v>9755683</v>
+        <v>6712988</v>
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>73837243</v>
+        <v>63891530</v>
       </c>
       <c r="G23">
         <f ca="1"/>
-        <v>2622343</v>
+        <v>1182287</v>
       </c>
       <c r="H23">
         <f ca="1"/>
-        <v>1171235</v>
+        <v>765821</v>
       </c>
       <c r="I23">
         <f ca="1"/>
-        <v>1620011</v>
+        <v>1268146</v>
       </c>
       <c r="J23">
         <f ca="1"/>
-        <v>1654506</v>
+        <v>1695012</v>
       </c>
       <c r="K23">
         <f ca="1"/>
-        <v>3604658</v>
+        <v>2016218</v>
       </c>
       <c r="L23">
         <f ca="1"/>
-        <v>10133547</v>
+        <v>8047382</v>
       </c>
       <c r="M23">
         <f ca="1"/>
-        <v>686174</v>
+        <v>298358</v>
       </c>
       <c r="N23">
         <f ca="1"/>
-        <v>6895127</v>
+        <v>7591736</v>
       </c>
       <c r="O23">
         <f ca="1"/>
-        <v>15291917</v>
+        <v>13014763</v>
       </c>
       <c r="Q23">
         <f ca="1"/>
-        <v>4025205</v>
+        <v>2872599</v>
       </c>
       <c r="R23">
         <f ca="1"/>
-        <v>5409861</v>
+        <v>4172870</v>
       </c>
       <c r="T23">
         <f ca="1"/>
-        <v>22187044</v>
+        <v>20606499</v>
       </c>
       <c r="U23">
         <f ca="1"/>
-        <v>9435066</v>
+        <v>7045469</v>
       </c>
       <c r="W23">
         <f ca="1"/>
-        <v>12751978</v>
+        <v>13561030</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4119,79 +4128,79 @@
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>13522892</v>
+        <v>14042203</v>
       </c>
       <c r="C24">
         <f ca="1"/>
-        <v>3769405</v>
+        <v>3728922</v>
       </c>
       <c r="D24">
         <f ca="1"/>
-        <v>34943803</v>
+        <v>49150200</v>
       </c>
       <c r="E24">
         <f ca="1"/>
-        <v>2205067</v>
+        <v>6521147</v>
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>68306678</v>
+        <v>47503354</v>
       </c>
       <c r="G24">
         <f ca="1"/>
-        <v>5175298</v>
+        <v>3730841</v>
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>2161805</v>
+        <v>1736459</v>
       </c>
       <c r="I24">
         <f ca="1"/>
-        <v>731106</v>
+        <v>1393193</v>
       </c>
       <c r="J24">
         <f ca="1"/>
-        <v>6970465</v>
+        <v>4584879</v>
       </c>
       <c r="K24">
         <f ca="1"/>
-        <v>669015</v>
+        <v>2913196</v>
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>8355588</v>
+        <v>6455037</v>
       </c>
       <c r="M24">
         <f ca="1"/>
-        <v>1483219</v>
+        <v>939641</v>
       </c>
       <c r="N24">
         <f ca="1"/>
-        <v>10888233</v>
+        <v>14688494</v>
       </c>
       <c r="O24">
         <f ca="1"/>
-        <v>14696395</v>
+        <v>10246839</v>
       </c>
       <c r="Q24">
         <f ca="1"/>
-        <v>5266196</v>
+        <v>5313864</v>
       </c>
       <c r="R24">
         <f ca="1"/>
-        <v>4919404</v>
+        <v>3697339</v>
       </c>
       <c r="T24">
         <f ca="1"/>
-        <v>25584628</v>
+        <v>24935333</v>
       </c>
       <c r="U24">
         <f ca="1"/>
-        <v>10185600</v>
+        <v>9011203</v>
       </c>
       <c r="W24">
         <f ca="1"/>
-        <v>15399028</v>
+        <v>15924130</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4200,79 +4209,79 @@
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>13709548</v>
+        <v>24011896</v>
       </c>
       <c r="C25">
         <f ca="1"/>
-        <v>5376861</v>
+        <v>5065974</v>
       </c>
       <c r="D25">
         <f ca="1"/>
-        <v>24870408</v>
+        <v>54539882</v>
       </c>
       <c r="E25">
         <f ca="1"/>
-        <v>16448908</v>
+        <v>4921993</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>83290159</v>
+        <v>-47790841</v>
       </c>
       <c r="G25">
         <f ca="1"/>
-        <v>587700</v>
+        <v>978282</v>
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>1515602</v>
+        <v>1353745</v>
       </c>
       <c r="I25">
         <f ca="1"/>
-        <v>2136382</v>
+        <v>883088</v>
       </c>
       <c r="J25">
         <f ca="1"/>
-        <v>2048817</v>
+        <v>3647097</v>
       </c>
       <c r="K25">
         <f ca="1"/>
-        <v>4933295</v>
+        <v>1930648</v>
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>10319153</v>
+        <v>-7281846</v>
       </c>
       <c r="M25">
         <f ca="1"/>
-        <v>112392</v>
+        <v>199272</v>
       </c>
       <c r="N25">
         <f ca="1"/>
-        <v>12081145</v>
+        <v>17707949</v>
       </c>
       <c r="O25">
         <f ca="1"/>
-        <v>16775572</v>
+        <v>-9362512</v>
       </c>
       <c r="Q25">
         <f ca="1"/>
-        <v>5317048</v>
+        <v>3907289</v>
       </c>
       <c r="R25">
         <f ca="1"/>
-        <v>5215773</v>
+        <v>-3541287</v>
       </c>
       <c r="T25">
         <f ca="1"/>
-        <v>28856717</v>
+        <v>8345437</v>
       </c>
       <c r="U25">
         <f ca="1"/>
-        <v>10532821</v>
+        <v>366002</v>
       </c>
       <c r="W25">
         <f ca="1"/>
-        <v>18323896</v>
+        <v>7979435</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4281,79 +4290,79 @@
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>7672598</v>
+        <v>19269861</v>
       </c>
       <c r="C26">
         <f ca="1"/>
-        <v>1130966</v>
+        <v>4951342</v>
       </c>
       <c r="D26">
         <f ca="1"/>
-        <v>17756682</v>
+        <v>23521301</v>
       </c>
       <c r="E26">
         <f ca="1"/>
-        <v>12495100</v>
+        <v>4497892</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>42510135</v>
+        <v>65844361</v>
       </c>
       <c r="G26">
         <f ca="1"/>
-        <v>152744</v>
+        <v>24698</v>
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>783100</v>
+        <v>1715510</v>
       </c>
       <c r="I26">
         <f ca="1"/>
-        <v>1732451</v>
+        <v>856496</v>
       </c>
       <c r="J26">
         <f ca="1"/>
-        <v>2341146</v>
+        <v>3242216</v>
       </c>
       <c r="K26">
         <f ca="1"/>
-        <v>4081768</v>
+        <v>1982015</v>
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>6784633</v>
+        <v>9039884</v>
       </c>
       <c r="M26">
         <f ca="1"/>
-        <v>34642</v>
+        <v>5146</v>
       </c>
       <c r="N26">
         <f ca="1"/>
-        <v>7811069</v>
+        <v>10448079</v>
       </c>
       <c r="O26">
         <f ca="1"/>
-        <v>8532576</v>
+        <v>13173812</v>
       </c>
       <c r="Q26">
         <f ca="1"/>
-        <v>4469233</v>
+        <v>3898119</v>
       </c>
       <c r="R26">
         <f ca="1"/>
-        <v>3409638</v>
+        <v>4522515</v>
       </c>
       <c r="T26">
         <f ca="1"/>
-        <v>16343645</v>
+        <v>23621891</v>
       </c>
       <c r="U26">
         <f ca="1"/>
-        <v>7878871</v>
+        <v>8420634</v>
       </c>
       <c r="W26">
         <f ca="1"/>
-        <v>8464774</v>
+        <v>15201257</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4362,79 +4371,79 @@
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>16342459</v>
+        <v>11264277</v>
       </c>
       <c r="C27">
         <f ca="1"/>
-        <v>5471167</v>
+        <v>3427451</v>
       </c>
       <c r="D27">
         <f ca="1"/>
-        <v>24683065</v>
+        <v>19664948</v>
       </c>
       <c r="E27">
         <f ca="1"/>
-        <v>9692565</v>
+        <v>3028398</v>
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>101811844</v>
+        <v>16027439</v>
       </c>
       <c r="G27">
         <f ca="1"/>
-        <v>1532777</v>
+        <v>3559303</v>
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>1659843</v>
+        <v>693660</v>
       </c>
       <c r="I27">
         <f ca="1"/>
-        <v>1142982</v>
+        <v>365574</v>
       </c>
       <c r="J27">
         <f ca="1"/>
-        <v>3846685</v>
+        <v>1471680</v>
       </c>
       <c r="K27">
         <f ca="1"/>
-        <v>3447946</v>
+        <v>758835</v>
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>11723835</v>
+        <v>2366354</v>
       </c>
       <c r="M27">
         <f ca="1"/>
-        <v>419880</v>
+        <v>1100280</v>
       </c>
       <c r="N27">
         <f ca="1"/>
-        <v>11237851</v>
+        <v>7477015</v>
       </c>
       <c r="O27">
         <f ca="1"/>
-        <v>20668924</v>
+        <v>3917348</v>
       </c>
       <c r="Q27">
         <f ca="1"/>
-        <v>5048728</v>
+        <v>1644875</v>
       </c>
       <c r="R27">
         <f ca="1"/>
-        <v>6071858</v>
+        <v>1733317</v>
       </c>
       <c r="T27">
         <f ca="1"/>
-        <v>31906775</v>
+        <v>11394363</v>
       </c>
       <c r="U27">
         <f ca="1"/>
-        <v>11120586</v>
+        <v>3378192</v>
       </c>
       <c r="W27">
         <f ca="1"/>
-        <v>20786189</v>
+        <v>8016171</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4443,79 +4452,79 @@
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>8386621</v>
+        <v>9087986</v>
       </c>
       <c r="C28">
         <f ca="1"/>
-        <v>6515802</v>
+        <v>5392996</v>
       </c>
       <c r="D28">
         <f ca="1"/>
-        <v>13158289</v>
+        <v>24024189</v>
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>8635169</v>
+        <v>6529859</v>
       </c>
       <c r="F28">
         <f ca="1"/>
-        <v>97453910</v>
+        <v>33109374</v>
       </c>
       <c r="G28">
         <f ca="1"/>
-        <v>725684</v>
+        <v>322015</v>
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>1048624</v>
+        <v>937212</v>
       </c>
       <c r="I28">
         <f ca="1"/>
-        <v>760774</v>
+        <v>1013815</v>
       </c>
       <c r="J28">
         <f ca="1"/>
-        <v>2208392</v>
+        <v>1293450</v>
       </c>
       <c r="K28">
         <f ca="1"/>
-        <v>3313104</v>
+        <v>1729793</v>
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>13406499</v>
+        <v>5307161</v>
       </c>
       <c r="M28">
         <f ca="1"/>
-        <v>187532</v>
+        <v>79703</v>
       </c>
       <c r="N28">
         <f ca="1"/>
-        <v>7339176</v>
+        <v>9007006</v>
       </c>
       <c r="O28">
         <f ca="1"/>
-        <v>19635919</v>
+        <v>6686278</v>
       </c>
       <c r="Q28">
         <f ca="1"/>
-        <v>3665447</v>
+        <v>2487135</v>
       </c>
       <c r="R28">
         <f ca="1"/>
-        <v>6797016</v>
+        <v>2693432</v>
       </c>
       <c r="T28">
         <f ca="1"/>
-        <v>26975095</v>
+        <v>15693284</v>
       </c>
       <c r="U28">
         <f ca="1"/>
-        <v>10462463</v>
+        <v>5180567</v>
       </c>
       <c r="W28">
         <f ca="1"/>
-        <v>16512632</v>
+        <v>10512717</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4524,79 +4533,79 @@
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>10427945</v>
+        <v>19441684</v>
       </c>
       <c r="C29">
         <f ca="1"/>
-        <v>2288221</v>
+        <v>10937542</v>
       </c>
       <c r="D29">
         <f ca="1"/>
-        <v>23448707</v>
+        <v>37366270</v>
       </c>
       <c r="E29">
         <f ca="1"/>
-        <v>3901757</v>
+        <v>9075717</v>
       </c>
       <c r="F29">
         <f ca="1"/>
-        <v>30722516</v>
+        <v>38865372</v>
       </c>
       <c r="G29">
         <f ca="1"/>
-        <v>711543</v>
+        <v>1574662</v>
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>823722</v>
+        <v>1680595</v>
       </c>
       <c r="I29">
         <f ca="1"/>
-        <v>492797</v>
+        <v>2051752</v>
       </c>
       <c r="J29">
         <f ca="1"/>
-        <v>2702183</v>
+        <v>4851030</v>
       </c>
       <c r="K29">
         <f ca="1"/>
-        <v>994015</v>
+        <v>4085652</v>
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>3970579</v>
+        <v>5791127</v>
       </c>
       <c r="M29">
         <f ca="1"/>
-        <v>163415</v>
+        <v>335975</v>
       </c>
       <c r="N29">
         <f ca="1"/>
-        <v>8013326</v>
+        <v>15364243</v>
       </c>
       <c r="O29">
         <f ca="1"/>
-        <v>6286812</v>
+        <v>8088007</v>
       </c>
       <c r="Q29">
         <f ca="1"/>
-        <v>2506359</v>
+        <v>6334515</v>
       </c>
       <c r="R29">
         <f ca="1"/>
-        <v>2066997</v>
+        <v>3063551</v>
       </c>
       <c r="T29">
         <f ca="1"/>
-        <v>14300138</v>
+        <v>23452250</v>
       </c>
       <c r="U29">
         <f ca="1"/>
-        <v>4573356</v>
+        <v>9398066</v>
       </c>
       <c r="W29">
         <f ca="1"/>
-        <v>9726782</v>
+        <v>14054184</v>
       </c>
     </row>
   </sheetData>
@@ -4619,99 +4628,99 @@
     <col min="3" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="149" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="151" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="151" t="s">
-        <v>130</v>
+    <row r="1" spans="1:2" s="140" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="142" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="142" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="137" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="137" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="137" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="146" t="s">
-        <v>131</v>
+      <c r="B5" s="137" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="146" t="s">
-        <v>132</v>
+      <c r="B6" s="137" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="146" t="s">
-        <v>133</v>
+      <c r="B7" s="137" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="146" t="s">
-        <v>134</v>
+      <c r="B8" s="137" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="147" t="s">
-        <v>135</v>
+      <c r="B9" s="138" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="146" t="s">
+      <c r="A10" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="138" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="137" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="146" t="s">
+      <c r="B12" s="137" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5732,38 +5741,38 @@
     <col min="12" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="150" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="150" t="s">
+    <row r="1" spans="1:11" s="141" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="150" t="s">
+      <c r="D1" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="150" t="s">
+      <c r="E1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="150" t="s">
+      <c r="F1" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="150" t="s">
+      <c r="G1" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="150" t="s">
+      <c r="H1" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="150" t="s">
+      <c r="I1" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="150" t="s">
+      <c r="J1" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="150" t="s">
+      <c r="K1" s="141" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6823,17 +6832,17 @@
     <col min="5" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="150" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="150" t="s">
+    <row r="1" spans="1:4" s="141" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="150" t="s">
+      <c r="D1" s="141" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7876,7 +7885,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView zoomScale="126" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7884,9 +7893,9 @@
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -7894,51 +7903,51 @@
     <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="149" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="148" t="s">
+    <row r="1" spans="1:15" s="140" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="148" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="148" t="s">
+      <c r="D1" s="139" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="139" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="139" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="148" t="s">
+      <c r="H1" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="148" t="s">
+      <c r="I1" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="148" t="s">
+      <c r="J1" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="148" t="s">
+      <c r="K1" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="148" t="s">
+      <c r="L1" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="148" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="148" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="148" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="148" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="148" t="s">
-        <v>43</v>
+      <c r="M1" s="139" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="139" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7954,10 +7963,10 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G2" s="3">
         <v>22455</v>
@@ -7972,13 +7981,13 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7994,10 +8003,10 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G3" s="3">
         <v>11327</v>
@@ -8012,13 +8021,13 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8034,10 +8043,10 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G4" s="4">
         <v>55074</v>
@@ -8052,13 +8061,13 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8074,10 +8083,10 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G5" s="4">
         <v>16734</v>
@@ -8092,13 +8101,13 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8114,10 +8123,10 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G6" s="5">
         <v>316681</v>
@@ -8132,13 +8141,13 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8154,10 +8163,10 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G7" s="5">
         <v>22954</v>
@@ -8172,13 +8181,13 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8194,10 +8203,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G8" s="3">
         <v>2055</v>
@@ -8212,13 +8221,13 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8234,10 +8243,10 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G9" s="3">
         <v>2107</v>
@@ -8252,13 +8261,13 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8274,10 +8283,10 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G10" s="4">
         <v>6029</v>
@@ -8292,13 +8301,13 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8314,10 +8323,10 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G11" s="4">
         <v>6195</v>
@@ -8332,13 +8341,13 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8354,10 +8363,10 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G12" s="5">
         <v>44939</v>
@@ -8372,13 +8381,13 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8394,10 +8403,10 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G13" s="5">
         <v>5633</v>
@@ -8412,13 +8421,13 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9421,8 +9430,8 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9432,7 +9441,7 @@
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" customWidth="1"/>
     <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5" customWidth="1"/>
@@ -9442,43 +9451,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="M1" s="6" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -9493,10 +9502,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7">
@@ -9512,7 +9521,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
@@ -9527,10 +9536,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7">
@@ -9546,7 +9555,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -9561,10 +9570,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8">
@@ -9580,7 +9589,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
@@ -9595,10 +9604,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8">
@@ -9614,7 +9623,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -9629,10 +9638,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7">
@@ -9642,7 +9651,7 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" ref="J6:J7" si="1">ROUND((G6*(1-G6)/(H6*H6)-1)*G6,3)</f>
@@ -9654,7 +9663,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -9669,10 +9678,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7">
@@ -9682,7 +9691,7 @@
         <v>0.20699999999999999</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" si="1"/>
@@ -9694,7 +9703,7 @@
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -9712,7 +9721,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9">
@@ -9728,7 +9737,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="10"/>
       <c r="M8" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -9775,50 +9784,50 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
+      <c r="H2" s="144" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
     </row>
     <row r="3" spans="2:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="132" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="H3" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="134"/>
-      <c r="J3" s="135"/>
+      <c r="B3" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="H3" s="147" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="148"/>
+      <c r="J3" s="149"/>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="129" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="J4" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="129" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9840,15 +9849,15 @@
       </c>
       <c r="H5" s="16">
         <f>SIMS_E!W6</f>
-        <v>13949061</v>
+        <v>13949096</v>
       </c>
       <c r="I5" s="16">
         <f ca="1">SIMS_E!W14</f>
-        <v>13535952.5</v>
+        <v>14627720.5</v>
       </c>
       <c r="J5" s="17">
         <f ca="1">SIMS_E!W15</f>
-        <v>0.39</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="16" x14ac:dyDescent="0.2">
@@ -9864,11 +9873,11 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="H7" s="136" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
+      <c r="H7" s="150" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
     </row>
     <row r="8" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
@@ -9877,13 +9886,13 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="H8" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="16" x14ac:dyDescent="0.2">
@@ -9894,15 +9903,15 @@
       <c r="F9" s="11"/>
       <c r="H9" s="18">
         <f ca="1">I5* (1 - 0.524417 * J5 / 1.645006)</f>
-        <v>11853035.474253545</v>
+        <v>12342742.574260054</v>
       </c>
       <c r="I9" s="18">
         <f ca="1">I5 * (1-I12)</f>
-        <v>12453076.300000001</v>
+        <v>13457502.860000001</v>
       </c>
       <c r="J9" s="18">
         <f ca="1">I5* ( 1 - 2/44)</f>
-        <v>12920681.931818182</v>
+        <v>13962824.113636363</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="16" x14ac:dyDescent="0.2">
@@ -9919,7 +9928,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="I11" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="16" x14ac:dyDescent="0.2">
@@ -9974,7 +9983,7 @@
   <dimension ref="A2:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9984,7 +9993,7 @@
   <sheetData>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>20</v>
@@ -10036,10 +10045,10 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C3" s="27" t="str">
         <v>AGB</v>
@@ -10062,26 +10071,26 @@
       <c r="I3" s="27" t="str">
         <v>ALL</v>
       </c>
-      <c r="J3" s="137" t="s">
-        <v>89</v>
-      </c>
-      <c r="K3" s="131"/>
-      <c r="L3" s="138" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" s="131"/>
-      <c r="N3" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="O3" s="131"/>
+      <c r="J3" s="151" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="145"/>
+      <c r="L3" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="M3" s="145"/>
+      <c r="N3" s="152" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="145"/>
       <c r="P3" s="30" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="31"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="34" t="str">
@@ -10106,31 +10115,31 @@
         <v>Crop</v>
       </c>
       <c r="J4" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="36" t="s">
-        <v>49</v>
-      </c>
       <c r="L4" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="36" t="s">
-        <v>49</v>
-      </c>
       <c r="N4" s="36" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P4" s="37" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="34">
@@ -10165,7 +10174,7 @@
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="41" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B6" s="42">
         <f t="array" ref="B6:B8">TRANSPOSE(user_inputs!E2:G2)</f>
@@ -10201,19 +10210,19 @@
         <v>79.600999999999999</v>
       </c>
       <c r="L6" s="44">
-        <f t="shared" ref="L6:M6" si="1">ROUND((C6+J6)*$B$6, 3)</f>
-        <v>172.26400000000001</v>
+        <f>ROUND(C6 * (1 +E6) * $B$6, 3)</f>
+        <v>172.26499999999999</v>
       </c>
       <c r="M6" s="44">
+        <f>ROUND(D6 * (1 +F6) * $B$6, 3)</f>
+        <v>129.33500000000001</v>
+      </c>
+      <c r="N6" s="44">
+        <f t="shared" ref="N6:O6" si="1">ROUND(L6*G6, 3)</f>
+        <v>124.03100000000001</v>
+      </c>
+      <c r="O6" s="44">
         <f t="shared" si="1"/>
-        <v>129.33500000000001</v>
-      </c>
-      <c r="N6" s="44">
-        <f t="shared" ref="N6:O6" si="2">ROUND(L6*G6, 3)</f>
-        <v>124.03</v>
-      </c>
-      <c r="O6" s="44">
-        <f t="shared" si="2"/>
         <v>93.120999999999995</v>
       </c>
       <c r="P6" s="45">
@@ -10224,7 +10233,7 @@
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="41" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B7" s="46">
         <v>1.2999999999999999E-2</v>
@@ -10255,7 +10264,7 @@
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="41" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B8" s="46" t="str">
         <v>normal</v>
@@ -10282,31 +10291,31 @@
         <v>normal</v>
       </c>
       <c r="J8" s="49" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="P8" s="50" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="41" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="34">
@@ -10335,7 +10344,7 @@
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="51" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="34">
@@ -10364,7 +10373,7 @@
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="51" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="34">
@@ -10393,7 +10402,7 @@
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="52" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B12" s="53">
         <v>1</v>
@@ -10442,66 +10451,66 @@
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B14" s="119">
         <f ca="1">MEDIAN(_xlfn.ANCHORARRAY(B20))</f>
-        <v>0.46200000000000002</v>
+        <v>0.46150000000000002</v>
       </c>
       <c r="C14" s="58">
-        <f t="shared" ref="C14:P14" ca="1" si="3">MEDIAN(_xlfn.ANCHORARRAY(C20))</f>
-        <v>265.56700000000001</v>
+        <f t="shared" ref="C14:P14" ca="1" si="2">MEDIAN(_xlfn.ANCHORARRAY(C20))</f>
+        <v>297.70650000000001</v>
       </c>
       <c r="D14" s="59">
-        <f t="shared" ca="1" si="3"/>
-        <v>214.90350000000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>197.559</v>
       </c>
       <c r="E14" s="59">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.33150000000000002</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32300000000000001</v>
       </c>
       <c r="F14" s="59">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.43049999999999999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.41149999999999998</v>
       </c>
       <c r="G14" s="59">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.68049999999999999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.73049999999999993</v>
       </c>
       <c r="H14" s="59">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.88149999999999995</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.88800000000000001</v>
       </c>
       <c r="I14" s="60">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J14" s="58">
-        <f t="shared" ca="1" si="3"/>
-        <v>87.89</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>96.217500000000001</v>
       </c>
       <c r="K14" s="59">
-        <f t="shared" ca="1" si="3"/>
-        <v>87.314999999999998</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>79.313999999999993</v>
       </c>
       <c r="L14" s="59">
-        <f t="shared" ca="1" si="3"/>
-        <v>163.47149999999999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>181.423</v>
       </c>
       <c r="M14" s="59">
-        <f t="shared" ca="1" si="3"/>
-        <v>141.41399999999999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>130.29349999999999</v>
       </c>
       <c r="N14" s="59">
-        <f t="shared" ca="1" si="3"/>
-        <v>100.4465</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>118.08150000000001</v>
       </c>
       <c r="O14" s="59">
-        <f t="shared" ca="1" si="3"/>
-        <v>121.70050000000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>107.76050000000001</v>
       </c>
       <c r="P14" s="60">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="Q14" s="123"/>
@@ -10510,66 +10519,66 @@
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B15" s="61">
-        <f t="shared" ref="B15" ca="1" si="4">ROUND(B16/B14,2)</f>
-        <v>0.03</v>
+        <f t="shared" ref="B15" ca="1" si="3">ROUND(B16/B14,2)</f>
+        <v>0.04</v>
       </c>
       <c r="C15" s="62">
-        <f t="shared" ref="C15:P15" ca="1" si="5">ROUND(C16/C14,2)</f>
-        <v>0.32</v>
+        <f t="shared" ref="C15:P15" ca="1" si="4">ROUND(C16/C14,2)</f>
+        <v>0.25</v>
       </c>
       <c r="D15" s="63">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.34</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.37</v>
       </c>
       <c r="E15" s="63">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.11</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.15</v>
       </c>
       <c r="F15" s="63">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.09</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12</v>
       </c>
       <c r="G15" s="63">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.24</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.42</v>
       </c>
       <c r="H15" s="63">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.32</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.21</v>
       </c>
       <c r="I15" s="64" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="62">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="K15" s="63">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="L15" s="63">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.27</v>
+      </c>
+      <c r="M15" s="63">
+        <f t="shared" ca="1" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="K15" s="63">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.41</v>
-      </c>
-      <c r="L15" s="63">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.33</v>
-      </c>
-      <c r="M15" s="63">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.37</v>
-      </c>
       <c r="N15" s="63">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.48</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.52</v>
       </c>
       <c r="O15" s="63">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.52</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.44</v>
       </c>
       <c r="P15" s="64" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q15" s="125"/>
@@ -10577,200 +10586,200 @@
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B16" s="65">
-        <f t="shared" ref="B16" ca="1" si="6">(B18-B17)/2</f>
-        <v>1.4999999999999986E-2</v>
+        <f t="shared" ref="B16" ca="1" si="5">(B18-B17)/2</f>
+        <v>1.999999999999999E-2</v>
       </c>
       <c r="C16" s="66">
-        <f t="shared" ref="C16:P16" ca="1" si="7">(C18-C17)/2</f>
-        <v>86.110000000000014</v>
+        <f t="shared" ref="C16:P16" ca="1" si="6">(C18-C17)/2</f>
+        <v>75.114999999999995</v>
       </c>
       <c r="D16" s="67">
+        <f t="shared" ca="1" si="6"/>
+        <v>72.185000000000002</v>
+      </c>
+      <c r="E16" s="67">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="F16" s="67">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.0000000000000017E-2</v>
+      </c>
+      <c r="G16" s="67">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.30500000000000005</v>
+      </c>
+      <c r="H16" s="67">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.185</v>
+      </c>
+      <c r="I16" s="68">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="66">
+        <f t="shared" ca="1" si="6"/>
+        <v>29.26</v>
+      </c>
+      <c r="K16" s="67">
+        <f t="shared" ca="1" si="6"/>
+        <v>35.405000000000001</v>
+      </c>
+      <c r="L16" s="67">
+        <f t="shared" ca="1" si="6"/>
+        <v>49.325000000000003</v>
+      </c>
+      <c r="M16" s="67">
+        <f t="shared" ca="1" si="6"/>
+        <v>52.269999999999996</v>
+      </c>
+      <c r="N16" s="67">
+        <f t="shared" ca="1" si="6"/>
+        <v>61.864999999999995</v>
+      </c>
+      <c r="O16" s="67">
+        <f t="shared" ca="1" si="6"/>
+        <v>47.164999999999999</v>
+      </c>
+      <c r="P16" s="68">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="124"/>
+    </row>
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="120">
+        <f t="shared" ref="B17:P17" ca="1" si="7">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20),ci_alpha/2),2)</f>
+        <v>0.45</v>
+      </c>
+      <c r="C17" s="66">
         <f t="shared" ca="1" si="7"/>
-        <v>72.34</v>
-      </c>
-      <c r="E16" s="67">
+        <v>183.02</v>
+      </c>
+      <c r="D17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="F16" s="67">
+        <v>142.88</v>
+      </c>
+      <c r="E17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="G16" s="67">
+        <v>0.27</v>
+      </c>
+      <c r="F17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="H16" s="67">
+        <v>0.35</v>
+      </c>
+      <c r="G17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="I16" s="68">
+        <v>0.44</v>
+      </c>
+      <c r="H17" s="67">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.61</v>
+      </c>
+      <c r="I17" s="68">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="J16" s="66">
+      <c r="J17" s="66">
         <f t="shared" ca="1" si="7"/>
-        <v>34.88000000000001</v>
-      </c>
-      <c r="K16" s="67">
+        <v>56.73</v>
+      </c>
+      <c r="K17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>35.634999999999998</v>
-      </c>
-      <c r="L16" s="67">
+        <v>54.94</v>
+      </c>
+      <c r="L17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>54.33</v>
-      </c>
-      <c r="M16" s="67">
+        <v>110.63</v>
+      </c>
+      <c r="M17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>52.24</v>
-      </c>
-      <c r="N16" s="67">
+        <v>89.84</v>
+      </c>
+      <c r="N17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>47.89</v>
-      </c>
-      <c r="O16" s="67">
+        <v>72.16</v>
+      </c>
+      <c r="O17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>63.765000000000001</v>
-      </c>
-      <c r="P16" s="68">
+        <v>69.489999999999995</v>
+      </c>
+      <c r="P17" s="68">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="124"/>
-    </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="120">
-        <f t="shared" ref="B17:P17" ca="1" si="8">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20),ci_alpha/2),2)</f>
-        <v>0.46</v>
-      </c>
-      <c r="C17" s="66">
+      <c r="Q17" s="123"/>
+      <c r="R17" s="124"/>
+    </row>
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="120">
+        <f t="shared" ref="B18:P18" ca="1" si="8">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20), 1 - ci_alpha / 2), 2)</f>
+        <v>0.49</v>
+      </c>
+      <c r="C18" s="66">
         <f t="shared" ca="1" si="8"/>
-        <v>187.88</v>
-      </c>
-      <c r="D17" s="67">
+        <v>333.25</v>
+      </c>
+      <c r="D18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>129.43</v>
-      </c>
-      <c r="E17" s="67">
+        <v>287.25</v>
+      </c>
+      <c r="E18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>0.31</v>
-      </c>
-      <c r="F17" s="67">
+        <v>0.37</v>
+      </c>
+      <c r="F18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>0.38</v>
-      </c>
-      <c r="G17" s="67">
+        <v>0.45</v>
+      </c>
+      <c r="G18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>0.49</v>
-      </c>
-      <c r="H17" s="67">
+        <v>1.05</v>
+      </c>
+      <c r="H18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>0.41</v>
-      </c>
-      <c r="I17" s="68">
+        <v>0.98</v>
+      </c>
+      <c r="I18" s="68">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="J17" s="66">
+      <c r="J18" s="66">
         <f t="shared" ca="1" si="8"/>
-        <v>60.6</v>
-      </c>
-      <c r="K17" s="67">
+        <v>115.25</v>
+      </c>
+      <c r="K18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>53.92</v>
-      </c>
-      <c r="L17" s="67">
+        <v>125.75</v>
+      </c>
+      <c r="L18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>120.34</v>
-      </c>
-      <c r="M17" s="67">
+        <v>209.28</v>
+      </c>
+      <c r="M18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>83.96</v>
-      </c>
-      <c r="N17" s="67">
+        <v>194.38</v>
+      </c>
+      <c r="N18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>67.78</v>
-      </c>
-      <c r="O17" s="67">
+        <v>195.89</v>
+      </c>
+      <c r="O18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>46.84</v>
-      </c>
-      <c r="P17" s="68">
+        <v>163.82</v>
+      </c>
+      <c r="P18" s="68">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="124"/>
-    </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="120">
-        <f t="shared" ref="B18:P18" ca="1" si="9">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20), 1 - ci_alpha / 2), 2)</f>
-        <v>0.49</v>
-      </c>
-      <c r="C18" s="66">
-        <f t="shared" ca="1" si="9"/>
-        <v>360.1</v>
-      </c>
-      <c r="D18" s="67">
-        <f t="shared" ca="1" si="9"/>
-        <v>274.11</v>
-      </c>
-      <c r="E18" s="67">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.38</v>
-      </c>
-      <c r="F18" s="67">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.46</v>
-      </c>
-      <c r="G18" s="67">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.81</v>
-      </c>
-      <c r="H18" s="67">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.98</v>
-      </c>
-      <c r="I18" s="68">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="66">
-        <f t="shared" ca="1" si="9"/>
-        <v>130.36000000000001</v>
-      </c>
-      <c r="K18" s="67">
-        <f t="shared" ca="1" si="9"/>
-        <v>125.19</v>
-      </c>
-      <c r="L18" s="67">
-        <f t="shared" ca="1" si="9"/>
-        <v>229</v>
-      </c>
-      <c r="M18" s="67">
-        <f t="shared" ca="1" si="9"/>
-        <v>188.44</v>
-      </c>
-      <c r="N18" s="67">
-        <f t="shared" ca="1" si="9"/>
-        <v>163.56</v>
-      </c>
-      <c r="O18" s="67">
-        <f t="shared" ca="1" si="9"/>
-        <v>174.37</v>
-      </c>
-      <c r="P18" s="68">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="Q18" s="123"/>
@@ -10788,17 +10797,17 @@
       <c r="I19" s="56"/>
       <c r="J19" s="69">
         <f ca="1">ROUND(C20*E20, 3)</f>
-        <v>62.6</v>
+        <v>115.989</v>
       </c>
       <c r="K19" s="54"/>
       <c r="L19" s="70">
-        <f ca="1">ROUND((C20 + J20) * $B20,3)</f>
-        <v>122.595</v>
+        <f ca="1">ROUND(C20 * (1  + E20) * $B20,3)</f>
+        <v>203.17</v>
       </c>
       <c r="M19" s="70"/>
       <c r="N19" s="70">
         <f ca="1">ROUND(L20*G20, 3)</f>
-        <v>85.816999999999993</v>
+        <v>98.741</v>
       </c>
       <c r="O19" s="54"/>
       <c r="P19" s="56"/>
@@ -10810,31 +10819,31 @@
       </c>
       <c r="B20" s="72" cm="1">
         <f t="array" aca="1" ref="B20:B29" ca="1">IF(B12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),B6,B7),3),_xlfn.SEQUENCE(n_iter, 1, B6, 0))</f>
-        <v>0.46</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C20" s="72" cm="1">
         <f t="array" aca="1" ref="C20:C29" ca="1">IF(C12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),C6,C7),3),_xlfn.SEQUENCE(n_iter, 1, C6, 0))</f>
-        <v>203.91</v>
+        <v>312.63900000000001</v>
       </c>
       <c r="D20" s="72" cm="1">
         <f t="array" aca="1" ref="D20:D29" ca="1">IF(D12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),D6,D7),3),_xlfn.SEQUENCE(n_iter, 1, D6, 0))</f>
-        <v>170.92400000000001</v>
+        <v>188.952</v>
       </c>
       <c r="E20" s="72" cm="1">
         <f t="array" aca="1" ref="E20:E29" ca="1">IF(E12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),E6,E7),3),_xlfn.SEQUENCE(n_iter, 1, E6, 0))</f>
-        <v>0.307</v>
+        <v>0.371</v>
       </c>
       <c r="F20" s="72" cm="1">
         <f t="array" aca="1" ref="F20:F29" ca="1">IF(F12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),F6,F7),3),_xlfn.SEQUENCE(n_iter, 1, F6, 0))</f>
-        <v>0.432</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="G20" s="72" cm="1">
         <f t="array" aca="1" ref="G20:G29" ca="1">IF(G12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),G6,G7),3),_xlfn.SEQUENCE(n_iter, 1, G6, 0))</f>
-        <v>0.7</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="H20" s="72" cm="1">
         <f t="array" aca="1" ref="H20:H29" ca="1">IF(H12=1, ROUND(BETAINV(_xlfn.RANDARRAY(n_iter, 1),H9,H10),3),_xlfn.SEQUENCE(n_iter, 1, H6, 0))</f>
-        <v>0.98099999999999998</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="I20" s="72" cm="1">
         <f t="array" aca="1" ref="I20:I29" ca="1">IF(I12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),I6,I7),3),_xlfn.SEQUENCE(n_iter, 1, I6, 0))</f>
@@ -10842,27 +10851,27 @@
       </c>
       <c r="J20" s="121" cm="1">
         <f t="array" aca="1" ref="J20:J29" ca="1">ROUND(_xlfn.ANCHORARRAY(C20) *_xlfn.ANCHORARRAY( E20), 3)</f>
-        <v>62.6</v>
+        <v>115.989</v>
       </c>
       <c r="K20" s="121" cm="1">
         <f t="array" aca="1" ref="K20:K29" ca="1">ROUND(_xlfn.ANCHORARRAY(D20) *_xlfn.ANCHORARRAY( F20), 3)</f>
-        <v>73.838999999999999</v>
+        <v>72.180000000000007</v>
       </c>
       <c r="L20" s="121" cm="1">
-        <f t="array" aca="1" ref="L20:L29" ca="1">ROUND((_xlfn.ANCHORARRAY(C20) +_xlfn.ANCHORARRAY( J20)) *_xlfn.ANCHORARRAY( $B20), 3)</f>
-        <v>122.595</v>
+        <f t="array" aca="1" ref="L20:L29" ca="1">ROUND(_xlfn.ANCHORARRAY(C20) * (1 +_xlfn.ANCHORARRAY( E20)) *_xlfn.ANCHORARRAY( $B20), 3)</f>
+        <v>203.17</v>
       </c>
       <c r="M20" s="121" cm="1">
-        <f t="array" aca="1" ref="M20:M29" ca="1">ROUND((_xlfn.ANCHORARRAY(D20) +_xlfn.ANCHORARRAY( K20)) *_xlfn.ANCHORARRAY( $B20), 3)</f>
-        <v>112.59099999999999</v>
+        <f t="array" aca="1" ref="M20:M29" ca="1">ROUND(_xlfn.ANCHORARRAY(D20) * (1 +_xlfn.ANCHORARRAY( F20)) *_xlfn.ANCHORARRAY( $B20), 3)</f>
+        <v>123.776</v>
       </c>
       <c r="N20" s="121" cm="1">
         <f t="array" aca="1" ref="N20:N29" ca="1">ROUND(_xlfn.ANCHORARRAY(L20) *_xlfn.ANCHORARRAY( G20), 3)</f>
-        <v>85.816999999999993</v>
+        <v>98.741</v>
       </c>
       <c r="O20" s="121" cm="1">
         <f t="array" aca="1" ref="O20:O29" ca="1">ROUND(_xlfn.ANCHORARRAY(M20) *_xlfn.ANCHORARRAY( H20), 3)</f>
-        <v>110.452</v>
+        <v>91.346999999999994</v>
       </c>
       <c r="P20" s="122" cm="1">
         <f t="array" aca="1" ref="P20:P29" ca="1">_xlfn.ANCHORARRAY(I20)</f>
@@ -10876,31 +10885,31 @@
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>0.45800000000000002</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>299.79399999999998</v>
+        <v>316.73700000000002</v>
       </c>
       <c r="D21">
         <f ca="1"/>
-        <v>204.70599999999999</v>
+        <v>210.97800000000001</v>
       </c>
       <c r="E21">
         <f ca="1"/>
-        <v>0.34200000000000003</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>0.433</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="G21">
         <f ca="1"/>
-        <v>0.53700000000000003</v>
+        <v>0.65</v>
       </c>
       <c r="H21">
         <f ca="1"/>
-        <v>0.47099999999999997</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="I21">
         <f ca="1"/>
@@ -10908,27 +10917,27 @@
       </c>
       <c r="J21">
         <f ca="1"/>
-        <v>102.53</v>
+        <v>114.342</v>
       </c>
       <c r="K21">
         <f ca="1"/>
-        <v>88.638000000000005</v>
+        <v>82.07</v>
       </c>
       <c r="L21">
         <f ca="1"/>
-        <v>184.26400000000001</v>
+        <v>209.07300000000001</v>
       </c>
       <c r="M21">
         <f ca="1"/>
-        <v>134.352</v>
+        <v>142.12799999999999</v>
       </c>
       <c r="N21">
         <f ca="1"/>
-        <v>98.95</v>
+        <v>135.89699999999999</v>
       </c>
       <c r="O21">
         <f ca="1"/>
-        <v>63.28</v>
+        <v>125.925</v>
       </c>
       <c r="P21">
         <f ca="1"/>
@@ -10941,31 +10950,31 @@
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>0.47799999999999998</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="C22">
         <f ca="1"/>
-        <v>216.04300000000001</v>
+        <v>261.84500000000003</v>
       </c>
       <c r="D22">
         <f ca="1"/>
-        <v>200.44800000000001</v>
+        <v>204.67599999999999</v>
       </c>
       <c r="E22">
         <f ca="1"/>
-        <v>0.35599999999999998</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>0.42899999999999999</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="G22">
         <f ca="1"/>
-        <v>0.72799999999999998</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="H22">
         <f ca="1"/>
-        <v>0.55600000000000005</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="I22">
         <f ca="1"/>
@@ -10973,27 +10982,27 @@
       </c>
       <c r="J22">
         <f ca="1"/>
-        <v>76.911000000000001</v>
+        <v>96.096999999999994</v>
       </c>
       <c r="K22">
         <f ca="1"/>
-        <v>85.992000000000004</v>
+        <v>82.894000000000005</v>
       </c>
       <c r="L22">
         <f ca="1"/>
-        <v>140.03200000000001</v>
+        <v>175.75</v>
       </c>
       <c r="M22">
         <f ca="1"/>
-        <v>136.91800000000001</v>
+        <v>141.197</v>
       </c>
       <c r="N22">
         <f ca="1"/>
-        <v>101.943</v>
+        <v>70.123999999999995</v>
       </c>
       <c r="O22">
         <f ca="1"/>
-        <v>76.126000000000005</v>
+        <v>97.284999999999997</v>
       </c>
       <c r="P22">
         <f ca="1"/>
@@ -11006,31 +11015,31 @@
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>0.48899999999999999</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="C23">
         <f ca="1"/>
-        <v>184.86099999999999</v>
+        <v>195.995</v>
       </c>
       <c r="D23">
         <f ca="1"/>
-        <v>241.928</v>
+        <v>207.935</v>
       </c>
       <c r="E23">
         <f ca="1"/>
-        <v>0.31900000000000001</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>0.432</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="G23">
         <f ca="1"/>
-        <v>0.51300000000000001</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="H23">
         <f ca="1"/>
-        <v>0.81399999999999995</v>
+        <v>0.89</v>
       </c>
       <c r="I23">
         <f ca="1"/>
@@ -11038,27 +11047,27 @@
       </c>
       <c r="J23">
         <f ca="1"/>
-        <v>58.970999999999997</v>
+        <v>63.893999999999998</v>
       </c>
       <c r="K23">
         <f ca="1"/>
-        <v>104.51300000000001</v>
+        <v>86.917000000000002</v>
       </c>
       <c r="L23">
         <f ca="1"/>
-        <v>119.23399999999999</v>
+        <v>120.589</v>
       </c>
       <c r="M23">
         <f ca="1"/>
-        <v>169.41</v>
+        <v>136.81100000000001</v>
       </c>
       <c r="N23">
         <f ca="1"/>
-        <v>61.167000000000002</v>
+        <v>74.644999999999996</v>
       </c>
       <c r="O23">
         <f ca="1"/>
-        <v>137.9</v>
+        <v>121.762</v>
       </c>
       <c r="P23">
         <f ca="1"/>
@@ -11071,31 +11080,31 @@
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>0.45500000000000002</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="C24">
         <f ca="1"/>
-        <v>378.96699999999998</v>
+        <v>346.75599999999997</v>
       </c>
       <c r="D24">
         <f ca="1"/>
-        <v>164.47300000000001</v>
+        <v>286.649</v>
       </c>
       <c r="E24">
         <f ca="1"/>
-        <v>0.38600000000000001</v>
+        <v>0.316</v>
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>0.441</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="G24">
         <f ca="1"/>
-        <v>0.76200000000000001</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>0.35899999999999999</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="I24">
         <f ca="1"/>
@@ -11103,27 +11112,27 @@
       </c>
       <c r="J24">
         <f ca="1"/>
-        <v>146.28100000000001</v>
+        <v>109.575</v>
       </c>
       <c r="K24">
         <f ca="1"/>
-        <v>72.533000000000001</v>
+        <v>121.539</v>
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>238.988</v>
+        <v>209.45599999999999</v>
       </c>
       <c r="M24">
         <f ca="1"/>
-        <v>107.83799999999999</v>
+        <v>187.358</v>
       </c>
       <c r="N24">
         <f ca="1"/>
-        <v>182.10900000000001</v>
+        <v>170.916</v>
       </c>
       <c r="O24">
         <f ca="1"/>
-        <v>38.713999999999999</v>
+        <v>144.63999999999999</v>
       </c>
       <c r="P24">
         <f ca="1"/>
@@ -11136,31 +11145,31 @@
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>0.46100000000000002</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="C25">
         <f ca="1"/>
-        <v>336.51499999999999</v>
+        <v>301.05599999999998</v>
       </c>
       <c r="D25">
         <f ca="1"/>
-        <v>300.43200000000002</v>
+        <v>143.649</v>
       </c>
       <c r="E25">
         <f ca="1"/>
-        <v>0.32100000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>0.47299999999999998</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="G25">
         <f ca="1"/>
-        <v>0.66100000000000003</v>
+        <v>1.2070000000000001</v>
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>0.96899999999999997</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="I25">
         <f ca="1"/>
@@ -11168,27 +11177,27 @@
       </c>
       <c r="J25">
         <f ca="1"/>
-        <v>108.021</v>
+        <v>96.337999999999994</v>
       </c>
       <c r="K25">
         <f ca="1"/>
-        <v>142.10400000000001</v>
+        <v>65.935000000000002</v>
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>204.93100000000001</v>
+        <v>179.22499999999999</v>
       </c>
       <c r="M25">
         <f ca="1"/>
-        <v>204.00899999999999</v>
+        <v>94.522000000000006</v>
       </c>
       <c r="N25">
         <f ca="1"/>
-        <v>135.459</v>
+        <v>216.32499999999999</v>
       </c>
       <c r="O25">
         <f ca="1"/>
-        <v>197.685</v>
+        <v>84.313999999999993</v>
       </c>
       <c r="P25">
         <f ca="1"/>
@@ -11201,31 +11210,31 @@
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>0.46200000000000002</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="C26">
         <f ca="1"/>
-        <v>191.56899999999999</v>
+        <v>294.35700000000003</v>
       </c>
       <c r="D26">
         <f ca="1"/>
-        <v>228.934</v>
+        <v>142.24799999999999</v>
       </c>
       <c r="E26">
         <f ca="1"/>
-        <v>0.375</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>0.39600000000000002</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="G26">
         <f ca="1"/>
-        <v>0.71199999999999997</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>0.98799999999999999</v>
+        <v>0.997</v>
       </c>
       <c r="I26">
         <f ca="1"/>
@@ -11233,27 +11242,27 @@
       </c>
       <c r="J26">
         <f ca="1"/>
-        <v>71.837999999999994</v>
+        <v>107.44</v>
       </c>
       <c r="K26">
         <f ca="1"/>
-        <v>90.658000000000001</v>
+        <v>45.945999999999998</v>
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>121.694</v>
+        <v>183.62100000000001</v>
       </c>
       <c r="M26">
         <f ca="1"/>
-        <v>147.65199999999999</v>
+        <v>86.004999999999995</v>
       </c>
       <c r="N26">
         <f ca="1"/>
-        <v>86.646000000000001</v>
+        <v>126.88200000000001</v>
       </c>
       <c r="O26">
         <f ca="1"/>
-        <v>145.88</v>
+        <v>85.747</v>
       </c>
       <c r="P26">
         <f ca="1"/>
@@ -11266,31 +11275,31 @@
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>0.48399999999999999</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="C27">
         <f ca="1"/>
-        <v>337.05099999999999</v>
+        <v>172.40899999999999</v>
       </c>
       <c r="D27">
         <f ca="1"/>
-        <v>226.501</v>
+        <v>157.78700000000001</v>
       </c>
       <c r="E27">
         <f ca="1"/>
-        <v>0.32900000000000001</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>0.375</v>
+        <v>0.44</v>
       </c>
       <c r="G27">
         <f ca="1"/>
-        <v>0.64900000000000002</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>0.88200000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I27">
         <f ca="1"/>
@@ -11298,27 +11307,27 @@
       </c>
       <c r="J27">
         <f ca="1"/>
-        <v>110.89</v>
+        <v>50.860999999999997</v>
       </c>
       <c r="K27">
         <f ca="1"/>
-        <v>84.938000000000002</v>
+        <v>69.426000000000002</v>
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>216.803</v>
+        <v>102.48099999999999</v>
       </c>
       <c r="M27">
         <f ca="1"/>
-        <v>150.73599999999999</v>
+        <v>104.291</v>
       </c>
       <c r="N27">
         <f ca="1"/>
-        <v>140.70500000000001</v>
+        <v>86.801000000000002</v>
       </c>
       <c r="O27">
         <f ca="1"/>
-        <v>132.94900000000001</v>
+        <v>57.36</v>
       </c>
       <c r="P27">
         <f ca="1"/>
@@ -11331,31 +11340,31 @@
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>0.46300000000000002</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="C28">
         <f ca="1"/>
-        <v>261.30399999999997</v>
+        <v>238.52099999999999</v>
       </c>
       <c r="D28">
         <f ca="1"/>
-        <v>225.101</v>
+        <v>190.44200000000001</v>
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>0.33400000000000002</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="F28">
         <f ca="1"/>
-        <v>0.4</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="G28">
         <f ca="1"/>
-        <v>0.47</v>
+        <v>0.77</v>
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>0.93899999999999995</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="I28">
         <f ca="1"/>
@@ -11363,27 +11372,27 @@
       </c>
       <c r="J28">
         <f ca="1"/>
-        <v>87.275999999999996</v>
+        <v>72.033000000000001</v>
       </c>
       <c r="K28">
         <f ca="1"/>
-        <v>90.04</v>
+        <v>76.558000000000007</v>
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>161.393</v>
+        <v>141.923</v>
       </c>
       <c r="M28">
         <f ca="1"/>
-        <v>145.91</v>
+        <v>122.01900000000001</v>
       </c>
       <c r="N28">
         <f ca="1"/>
-        <v>75.855000000000004</v>
+        <v>109.28100000000001</v>
       </c>
       <c r="O28">
         <f ca="1"/>
-        <v>137.00899999999999</v>
+        <v>118.236</v>
       </c>
       <c r="P28">
         <f ca="1"/>
@@ -11396,31 +11405,31 @@
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>0.46200000000000002</v>
+        <v>0.48</v>
       </c>
       <c r="C29">
         <f ca="1"/>
-        <v>269.83</v>
+        <v>307.404</v>
       </c>
       <c r="D29">
         <f ca="1"/>
-        <v>100.764</v>
+        <v>287.74400000000003</v>
       </c>
       <c r="E29">
         <f ca="1"/>
-        <v>0.32800000000000001</v>
+        <v>0.245</v>
       </c>
       <c r="F29">
         <f ca="1"/>
-        <v>0.38400000000000001</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="G29">
         <f ca="1"/>
-        <v>0.85099999999999998</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>0.88100000000000001</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="I29">
         <f ca="1"/>
@@ -11428,27 +11437,27 @@
       </c>
       <c r="J29">
         <f ca="1"/>
-        <v>88.504000000000005</v>
+        <v>75.313999999999993</v>
       </c>
       <c r="K29">
         <f ca="1"/>
-        <v>38.692999999999998</v>
+        <v>129.197</v>
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>165.55</v>
+        <v>183.70500000000001</v>
       </c>
       <c r="M29">
         <f ca="1"/>
-        <v>64.429000000000002</v>
+        <v>200.13200000000001</v>
       </c>
       <c r="N29">
         <f ca="1"/>
-        <v>140.88300000000001</v>
+        <v>152.84299999999999</v>
       </c>
       <c r="O29">
         <f ca="1"/>
-        <v>56.762</v>
+        <v>179.518</v>
       </c>
       <c r="P29">
         <f ca="1"/>
@@ -11481,7 +11490,7 @@
   <sheetData>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>25</v>
@@ -11522,134 +11531,134 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>49</v>
-      </c>
       <c r="D4" s="38" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>49</v>
-      </c>
       <c r="H4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="38" t="s">
-        <v>49</v>
-      </c>
       <c r="J4" s="38" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="40" t="s">
         <v>44</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="41" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B6" s="43" cm="1">
         <f t="array" ref="B6">ROUND((_xlfn.XLOOKUP(B$4, SIMS_EF_preparation!$L$4:$P$4, SIMS_EF_preparation!$L6:'SIMS_EF_preparation'!$P6,0) - _xlfn.XLOOKUP(B$5, SIMS_EF_preparation!$L$4:$P$4, SIMS_EF_preparation!$L6:'SIMS_EF_preparation'!$P6,0)) * 44/12, 3)</f>
-        <v>631.63499999999999</v>
+        <v>631.63800000000003</v>
       </c>
       <c r="C6" s="44" cm="1">
         <f t="array" ref="C6">ROUND((_xlfn.XLOOKUP(C$4, SIMS_EF_preparation!$L$4:$P$4, SIMS_EF_preparation!$L6:'SIMS_EF_preparation'!$P6,0) - _xlfn.XLOOKUP(C$5, SIMS_EF_preparation!$L$4:$P$4, SIMS_EF_preparation!$L6:'SIMS_EF_preparation'!$P6,0)) * 44/12, 3)</f>
@@ -11657,7 +11666,7 @@
       </c>
       <c r="D6" s="44" cm="1">
         <f t="array" ref="D6">ROUND((_xlfn.XLOOKUP(D$4, SIMS_EF_preparation!$L$4:$P$4, SIMS_EF_preparation!$L6:'SIMS_EF_preparation'!$P6,0) - _xlfn.XLOOKUP(D$5, SIMS_EF_preparation!$L$4:$P$4, SIMS_EF_preparation!$L6:'SIMS_EF_preparation'!$P6,0)) * 44/12, 3)</f>
-        <v>454.77699999999999</v>
+        <v>454.78</v>
       </c>
       <c r="E6" s="44" cm="1">
         <f t="array" ref="E6">ROUND((_xlfn.XLOOKUP(E$4, SIMS_EF_preparation!$L$4:$P$4, SIMS_EF_preparation!$L6:'SIMS_EF_preparation'!$P6,0) - _xlfn.XLOOKUP(E$5, SIMS_EF_preparation!$L$4:$P$4, SIMS_EF_preparation!$L6:'SIMS_EF_preparation'!$P6,0)) * 44/12, 3)</f>
@@ -11673,7 +11682,7 @@
       </c>
       <c r="H6" s="44" cm="1">
         <f t="array" ref="H6">ROUND((_xlfn.XLOOKUP(H$4, SIMS_EF_preparation!$L$4:$P$4, SIMS_EF_preparation!$L6:'SIMS_EF_preparation'!$P6,0) - _xlfn.XLOOKUP(H$5, SIMS_EF_preparation!$L$4:$P$4, SIMS_EF_preparation!$L6:'SIMS_EF_preparation'!$P6,0)) * 44/12, 3)</f>
-        <v>631.63499999999999</v>
+        <v>631.63800000000003</v>
       </c>
       <c r="I6" s="44" cm="1">
         <f t="array" ref="I6">ROUND((_xlfn.XLOOKUP(I$4, SIMS_EF_preparation!$L$4:$P$4, SIMS_EF_preparation!$L6:'SIMS_EF_preparation'!$P6,0) - _xlfn.XLOOKUP(I$5, SIMS_EF_preparation!$L$4:$P$4, SIMS_EF_preparation!$L6:'SIMS_EF_preparation'!$P6,0)) * 44/12, 3)</f>
@@ -11681,7 +11690,7 @@
       </c>
       <c r="J6" s="44" cm="1">
         <f t="array" ref="J6">ROUND((_xlfn.XLOOKUP(J$4, SIMS_EF_preparation!$L$4:$P$4, SIMS_EF_preparation!$L6:'SIMS_EF_preparation'!$P6,0) - _xlfn.XLOOKUP(J$5, SIMS_EF_preparation!$L$4:$P$4, SIMS_EF_preparation!$L6:'SIMS_EF_preparation'!$P6,0)) * 44/12, 3)</f>
-        <v>454.77699999999999</v>
+        <v>454.78</v>
       </c>
       <c r="K6" s="44" cm="1">
         <f t="array" ref="K6">ROUND((_xlfn.XLOOKUP(K$4, SIMS_EF_preparation!$L$4:$P$4, SIMS_EF_preparation!$L6:'SIMS_EF_preparation'!$P6,0) - _xlfn.XLOOKUP(K$5, SIMS_EF_preparation!$L$4:$P$4, SIMS_EF_preparation!$L6:'SIMS_EF_preparation'!$P6,0)) * 44/12, 3)</f>
@@ -11698,76 +11707,76 @@
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="41" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B7" s="47"/>
       <c r="M7" s="48"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="41" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M8" s="50" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="41" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B9" s="47"/>
       <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="51" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B10" s="47"/>
       <c r="M10" s="48"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="51" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B11" s="47"/>
       <c r="M11" s="48"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="52" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B12" s="55"/>
       <c r="C12" s="54"/>
@@ -11789,278 +11798,278 @@
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B14" s="58">
         <f t="shared" ref="B14:M14" ca="1" si="0">MEDIAN(_xlfn.ANCHORARRAY(B20))</f>
-        <v>599.39550000000008</v>
+        <v>665.21749999999997</v>
       </c>
       <c r="C14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>518.51800000000003</v>
+        <v>477.74250000000001</v>
       </c>
       <c r="D14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>368.30399999999997</v>
+        <v>432.96550000000002</v>
       </c>
       <c r="E14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>446.2355</v>
+        <v>395.12199999999996</v>
       </c>
       <c r="F14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>210.73400000000001</v>
+        <v>154.887</v>
       </c>
       <c r="G14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>48.927999999999997</v>
+        <v>67.49799999999999</v>
       </c>
       <c r="H14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>599.39550000000008</v>
+        <v>665.21749999999997</v>
       </c>
       <c r="I14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>518.51800000000003</v>
+        <v>477.74250000000001</v>
       </c>
       <c r="J14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>368.30399999999997</v>
+        <v>432.96550000000002</v>
       </c>
       <c r="K14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>446.2355</v>
+        <v>395.12199999999996</v>
       </c>
       <c r="L14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>210.73400000000001</v>
+        <v>154.887</v>
       </c>
       <c r="M14" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>48.927999999999997</v>
+        <v>67.49799999999999</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B15" s="62">
         <f t="shared" ref="B15:M15" ca="1" si="1">ROUND(B16/B14,2)</f>
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="C15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="D15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="E15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="F15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49</v>
+        <v>1.4</v>
       </c>
       <c r="G15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>2.56</v>
+        <v>1.19</v>
       </c>
       <c r="H15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="I15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="J15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="K15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="L15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49</v>
+        <v>1.4</v>
       </c>
       <c r="M15" s="76">
         <f t="shared" ca="1" si="1"/>
-        <v>2.56</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B16" s="58">
         <f t="shared" ref="B16:M16" ca="1" si="2">(B18-B17)/2</f>
-        <v>199.21499999999997</v>
+        <v>180.86500000000001</v>
       </c>
       <c r="C16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>191.54000000000002</v>
+        <v>191.66499999999999</v>
       </c>
       <c r="D16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>175.60000000000002</v>
+        <v>226.845</v>
       </c>
       <c r="E16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>233.82</v>
+        <v>172.94499999999999</v>
       </c>
       <c r="F16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>102.85</v>
+        <v>217.13499999999999</v>
       </c>
       <c r="G16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>125.14</v>
+        <v>80.17</v>
       </c>
       <c r="H16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>199.21499999999997</v>
+        <v>180.86500000000001</v>
       </c>
       <c r="I16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>191.54000000000002</v>
+        <v>191.66499999999999</v>
       </c>
       <c r="J16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>175.60000000000002</v>
+        <v>226.845</v>
       </c>
       <c r="K16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>233.82</v>
+        <v>172.94499999999999</v>
       </c>
       <c r="L16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>102.85</v>
+        <v>217.13499999999999</v>
       </c>
       <c r="M16" s="74">
         <f t="shared" ca="1" si="2"/>
-        <v>125.14</v>
+        <v>80.17</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B17" s="58">
         <f t="shared" ref="B17:M17" ca="1" si="3">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20),ci_alpha/2),2)</f>
-        <v>441.25</v>
+        <v>405.64</v>
       </c>
       <c r="C17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>307.86</v>
+        <v>329.41</v>
       </c>
       <c r="D17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>248.51</v>
+        <v>264.58</v>
       </c>
       <c r="E17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>171.73</v>
+        <v>254.79</v>
       </c>
       <c r="F17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>107.57</v>
+        <v>-48.95</v>
       </c>
       <c r="G17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1</v>
+        <v>6.76</v>
       </c>
       <c r="H17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>441.25</v>
+        <v>405.64</v>
       </c>
       <c r="I17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>307.86</v>
+        <v>329.41</v>
       </c>
       <c r="J17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>248.51</v>
+        <v>264.58</v>
       </c>
       <c r="K17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>171.73</v>
+        <v>254.79</v>
       </c>
       <c r="L17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>107.57</v>
+        <v>-48.95</v>
       </c>
       <c r="M17" s="74">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="57" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B18" s="58">
         <f t="shared" ref="B18:M18" ca="1" si="4">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20), 1 - ci_alpha / 2), 2)</f>
-        <v>839.68</v>
+        <v>767.37</v>
       </c>
       <c r="C18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>690.94</v>
+        <v>712.74</v>
       </c>
       <c r="D18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>599.71</v>
+        <v>718.27</v>
       </c>
       <c r="E18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>639.37</v>
+        <v>600.67999999999995</v>
       </c>
       <c r="F18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>313.27</v>
+        <v>385.32</v>
       </c>
       <c r="G18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>257.38</v>
+        <v>167.1</v>
       </c>
       <c r="H18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>839.68</v>
+        <v>767.37</v>
       </c>
       <c r="I18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>690.94</v>
+        <v>712.74</v>
       </c>
       <c r="J18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>599.71</v>
+        <v>718.27</v>
       </c>
       <c r="K18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>639.37</v>
+        <v>600.67999999999995</v>
       </c>
       <c r="L18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>313.27</v>
+        <v>385.32</v>
       </c>
       <c r="M18" s="74">
         <f t="shared" ca="1" si="4"/>
-        <v>257.38</v>
+        <v>167.1</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="69">
         <f ca="1">ROUND((SIMS_EF_preparation!L20 - SIMS_EF_preparation!P20) * 44 / 12, 3)</f>
-        <v>449.51499999999999</v>
+        <v>744.95699999999999</v>
       </c>
       <c r="C19" s="127">
         <f ca="1">ROUND((SIMS_EF_preparation!M20 - SIMS_EF_preparation!P20) * 44 / 12, 3)</f>
-        <v>412.834</v>
+        <v>453.84500000000003</v>
       </c>
       <c r="D19" s="54"/>
       <c r="E19" s="54"/>
@@ -12080,51 +12089,51 @@
       </c>
       <c r="B20" s="72" cm="1">
         <f t="array" aca="1" ref="B20:B29" ca="1">ROUND((_xlfn.XLOOKUP(B$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(B$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>449.51499999999999</v>
+        <v>744.95699999999999</v>
       </c>
       <c r="C20" s="72" cm="1">
         <f t="array" aca="1" ref="C20:C29" ca="1">ROUND((_xlfn.XLOOKUP(C$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(C$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>412.834</v>
+        <v>453.84500000000003</v>
       </c>
       <c r="D20" s="72" cm="1">
         <f t="array" aca="1" ref="D20:D29" ca="1">ROUND((_xlfn.XLOOKUP(D$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(D$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>314.66199999999998</v>
+        <v>362.05</v>
       </c>
       <c r="E20" s="72" cm="1">
         <f t="array" aca="1" ref="E20:E29" ca="1">ROUND((_xlfn.XLOOKUP(E$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(E$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>404.99099999999999</v>
+        <v>334.93900000000002</v>
       </c>
       <c r="F20" s="72" cm="1">
         <f t="array" aca="1" ref="F20:F29" ca="1">ROUND((_xlfn.XLOOKUP(F$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(F$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>134.85300000000001</v>
+        <v>382.90600000000001</v>
       </c>
       <c r="G20" s="72" cm="1">
         <f t="array" aca="1" ref="G20:G29" ca="1">ROUND((_xlfn.XLOOKUP(G$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(G$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>7.843</v>
+        <v>118.90600000000001</v>
       </c>
       <c r="H20" s="72" cm="1">
         <f t="array" aca="1" ref="H20:H29" ca="1">ROUND((_xlfn.XLOOKUP(H$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(H$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>449.51499999999999</v>
+        <v>744.95699999999999</v>
       </c>
       <c r="I20" s="72" cm="1">
         <f t="array" aca="1" ref="I20:I29" ca="1">ROUND((_xlfn.XLOOKUP(I$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(I$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>412.834</v>
+        <v>453.84500000000003</v>
       </c>
       <c r="J20" s="72" cm="1">
         <f t="array" aca="1" ref="J20:J29" ca="1">ROUND((_xlfn.XLOOKUP(J$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(J$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>314.66199999999998</v>
+        <v>362.05</v>
       </c>
       <c r="K20" s="72" cm="1">
         <f t="array" aca="1" ref="K20:K29" ca="1">ROUND((_xlfn.XLOOKUP(K$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(K$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>404.99099999999999</v>
+        <v>334.93900000000002</v>
       </c>
       <c r="L20" s="72" cm="1">
         <f t="array" aca="1" ref="L20:L29" ca="1">ROUND((_xlfn.XLOOKUP(L$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(L$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>134.85300000000001</v>
+        <v>382.90600000000001</v>
       </c>
       <c r="M20" s="72" cm="1">
         <f t="array" aca="1" ref="M20:M29" ca="1">ROUND((_xlfn.XLOOKUP(M$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(M$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>7.843</v>
+        <v>118.90600000000001</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12133,51 +12142,51 @@
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>675.63499999999999</v>
+        <v>766.601</v>
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>492.62400000000002</v>
+        <v>521.13599999999997</v>
       </c>
       <c r="D21">
         <f ca="1"/>
-        <v>362.81700000000001</v>
+        <v>498.28899999999999</v>
       </c>
       <c r="E21">
         <f ca="1"/>
-        <v>232.02699999999999</v>
+        <v>461.72500000000002</v>
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>312.81799999999998</v>
+        <v>268.31200000000001</v>
       </c>
       <c r="G21">
         <f ca="1"/>
-        <v>260.59699999999998</v>
+        <v>59.411000000000001</v>
       </c>
       <c r="H21">
         <f ca="1"/>
-        <v>675.63499999999999</v>
+        <v>766.601</v>
       </c>
       <c r="I21">
         <f ca="1"/>
-        <v>492.62400000000002</v>
+        <v>521.13599999999997</v>
       </c>
       <c r="J21">
         <f ca="1"/>
-        <v>362.81700000000001</v>
+        <v>498.28899999999999</v>
       </c>
       <c r="K21">
         <f ca="1"/>
-        <v>232.02699999999999</v>
+        <v>461.72500000000002</v>
       </c>
       <c r="L21">
         <f ca="1"/>
-        <v>312.81799999999998</v>
+        <v>268.31200000000001</v>
       </c>
       <c r="M21">
         <f ca="1"/>
-        <v>260.59699999999998</v>
+        <v>59.411000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12186,51 +12195,51 @@
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>513.45100000000002</v>
+        <v>644.41700000000003</v>
       </c>
       <c r="C22">
         <f ca="1"/>
-        <v>502.03300000000002</v>
+        <v>517.72199999999998</v>
       </c>
       <c r="D22">
         <f ca="1"/>
-        <v>373.791</v>
+        <v>257.12099999999998</v>
       </c>
       <c r="E22">
         <f ca="1"/>
-        <v>279.12900000000002</v>
+        <v>356.71199999999999</v>
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>139.66</v>
+        <v>387.29500000000002</v>
       </c>
       <c r="G22">
         <f ca="1"/>
-        <v>222.904</v>
+        <v>161.011</v>
       </c>
       <c r="H22">
         <f ca="1"/>
-        <v>513.45100000000002</v>
+        <v>644.41700000000003</v>
       </c>
       <c r="I22">
         <f ca="1"/>
-        <v>502.03300000000002</v>
+        <v>517.72199999999998</v>
       </c>
       <c r="J22">
         <f ca="1"/>
-        <v>373.791</v>
+        <v>257.12099999999998</v>
       </c>
       <c r="K22">
         <f ca="1"/>
-        <v>279.12900000000002</v>
+        <v>356.71199999999999</v>
       </c>
       <c r="L22">
         <f ca="1"/>
-        <v>139.66</v>
+        <v>387.29500000000002</v>
       </c>
       <c r="M22">
         <f ca="1"/>
-        <v>222.904</v>
+        <v>161.011</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12239,51 +12248,51 @@
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>437.19099999999997</v>
+        <v>442.16</v>
       </c>
       <c r="C23">
         <f ca="1"/>
-        <v>621.16999999999996</v>
+        <v>501.64</v>
       </c>
       <c r="D23">
         <f ca="1"/>
-        <v>224.279</v>
+        <v>273.69799999999998</v>
       </c>
       <c r="E23">
         <f ca="1"/>
-        <v>505.63299999999998</v>
+        <v>446.46100000000001</v>
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>212.91200000000001</v>
+        <v>168.46100000000001</v>
       </c>
       <c r="G23">
         <f ca="1"/>
-        <v>115.53700000000001</v>
+        <v>55.18</v>
       </c>
       <c r="H23">
         <f ca="1"/>
-        <v>437.19099999999997</v>
+        <v>442.16</v>
       </c>
       <c r="I23">
         <f ca="1"/>
-        <v>621.16999999999996</v>
+        <v>501.64</v>
       </c>
       <c r="J23">
         <f ca="1"/>
-        <v>224.279</v>
+        <v>273.69799999999998</v>
       </c>
       <c r="K23">
         <f ca="1"/>
-        <v>505.63299999999998</v>
+        <v>446.46100000000001</v>
       </c>
       <c r="L23">
         <f ca="1"/>
-        <v>212.91200000000001</v>
+        <v>168.46100000000001</v>
       </c>
       <c r="M23">
         <f ca="1"/>
-        <v>115.53700000000001</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12292,51 +12301,51 @@
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>876.28899999999999</v>
+        <v>768.005</v>
       </c>
       <c r="C24">
         <f ca="1"/>
-        <v>395.40600000000001</v>
+        <v>686.97900000000004</v>
       </c>
       <c r="D24">
         <f ca="1"/>
-        <v>667.73299999999995</v>
+        <v>626.69200000000001</v>
       </c>
       <c r="E24">
         <f ca="1"/>
-        <v>141.95099999999999</v>
+        <v>530.34699999999998</v>
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>208.55600000000001</v>
+        <v>141.31299999999999</v>
       </c>
       <c r="G24">
         <f ca="1"/>
-        <v>253.45500000000001</v>
+        <v>156.63300000000001</v>
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>876.28899999999999</v>
+        <v>768.005</v>
       </c>
       <c r="I24">
         <f ca="1"/>
-        <v>395.40600000000001</v>
+        <v>686.97900000000004</v>
       </c>
       <c r="J24">
         <f ca="1"/>
-        <v>667.73299999999995</v>
+        <v>626.69200000000001</v>
       </c>
       <c r="K24">
         <f ca="1"/>
-        <v>141.95099999999999</v>
+        <v>530.34699999999998</v>
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>208.55600000000001</v>
+        <v>141.31299999999999</v>
       </c>
       <c r="M24">
         <f ca="1"/>
-        <v>253.45500000000001</v>
+        <v>156.63300000000001</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12345,51 +12354,51 @@
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>751.41399999999999</v>
+        <v>657.15800000000002</v>
       </c>
       <c r="C25">
         <f ca="1"/>
-        <v>748.03300000000002</v>
+        <v>346.58100000000002</v>
       </c>
       <c r="D25">
         <f ca="1"/>
-        <v>496.68299999999999</v>
+        <v>793.19200000000001</v>
       </c>
       <c r="E25">
         <f ca="1"/>
-        <v>724.84500000000003</v>
+        <v>309.15100000000001</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>254.73099999999999</v>
+        <v>-136.03299999999999</v>
       </c>
       <c r="G25">
         <f ca="1"/>
-        <v>23.187999999999999</v>
+        <v>37.429000000000002</v>
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>751.41399999999999</v>
+        <v>657.15800000000002</v>
       </c>
       <c r="I25">
         <f ca="1"/>
-        <v>748.03300000000002</v>
+        <v>346.58100000000002</v>
       </c>
       <c r="J25">
         <f ca="1"/>
-        <v>496.68299999999999</v>
+        <v>793.19200000000001</v>
       </c>
       <c r="K25">
         <f ca="1"/>
-        <v>724.84500000000003</v>
+        <v>309.15100000000001</v>
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>254.73099999999999</v>
+        <v>-136.03299999999999</v>
       </c>
       <c r="M25">
         <f ca="1"/>
-        <v>23.187999999999999</v>
+        <v>37.429000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12398,51 +12407,51 @@
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>446.21100000000001</v>
+        <v>673.27700000000004</v>
       </c>
       <c r="C26">
         <f ca="1"/>
-        <v>541.39099999999996</v>
+        <v>315.35199999999998</v>
       </c>
       <c r="D26">
         <f ca="1"/>
-        <v>317.702</v>
+        <v>465.23399999999998</v>
       </c>
       <c r="E26">
         <f ca="1"/>
-        <v>534.89300000000003</v>
+        <v>314.40600000000001</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>128.50899999999999</v>
+        <v>208.04300000000001</v>
       </c>
       <c r="G26">
         <f ca="1"/>
-        <v>6.4969999999999999</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>446.21100000000001</v>
+        <v>673.27700000000004</v>
       </c>
       <c r="I26">
         <f ca="1"/>
-        <v>541.39099999999996</v>
+        <v>315.35199999999998</v>
       </c>
       <c r="J26">
         <f ca="1"/>
-        <v>317.702</v>
+        <v>465.23399999999998</v>
       </c>
       <c r="K26">
         <f ca="1"/>
-        <v>534.89300000000003</v>
+        <v>314.40600000000001</v>
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>128.50899999999999</v>
+        <v>208.04300000000001</v>
       </c>
       <c r="M26">
         <f ca="1"/>
-        <v>6.4969999999999999</v>
+        <v>0.94599999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12451,51 +12460,51 @@
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>794.94399999999996</v>
+        <v>375.76400000000001</v>
       </c>
       <c r="C27">
         <f ca="1"/>
-        <v>552.69899999999996</v>
+        <v>382.4</v>
       </c>
       <c r="D27">
         <f ca="1"/>
-        <v>515.91800000000001</v>
+        <v>318.27</v>
       </c>
       <c r="E27">
         <f ca="1"/>
-        <v>487.48</v>
+        <v>210.32</v>
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>279.02600000000001</v>
+        <v>57.493000000000002</v>
       </c>
       <c r="G27">
         <f ca="1"/>
-        <v>65.218999999999994</v>
+        <v>172.08</v>
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>794.94399999999996</v>
+        <v>375.76400000000001</v>
       </c>
       <c r="I27">
         <f ca="1"/>
-        <v>552.69899999999996</v>
+        <v>382.4</v>
       </c>
       <c r="J27">
         <f ca="1"/>
-        <v>515.91800000000001</v>
+        <v>318.27</v>
       </c>
       <c r="K27">
         <f ca="1"/>
-        <v>487.48</v>
+        <v>210.32</v>
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>279.02600000000001</v>
+        <v>57.493000000000002</v>
       </c>
       <c r="M27">
         <f ca="1"/>
-        <v>65.218999999999994</v>
+        <v>172.08</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12504,51 +12513,51 @@
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>591.774</v>
+        <v>520.38400000000001</v>
       </c>
       <c r="C28">
         <f ca="1"/>
-        <v>535.00300000000004</v>
+        <v>447.40300000000002</v>
       </c>
       <c r="D28">
         <f ca="1"/>
-        <v>278.13499999999999</v>
+        <v>400.697</v>
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>502.36599999999999</v>
+        <v>433.53199999999998</v>
       </c>
       <c r="F28">
         <f ca="1"/>
-        <v>313.63900000000001</v>
+        <v>119.687</v>
       </c>
       <c r="G28">
         <f ca="1"/>
-        <v>32.637</v>
+        <v>13.871</v>
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>591.774</v>
+        <v>520.38400000000001</v>
       </c>
       <c r="I28">
         <f ca="1"/>
-        <v>535.00300000000004</v>
+        <v>447.40300000000002</v>
       </c>
       <c r="J28">
         <f ca="1"/>
-        <v>278.13499999999999</v>
+        <v>400.697</v>
       </c>
       <c r="K28">
         <f ca="1"/>
-        <v>502.36599999999999</v>
+        <v>433.53199999999998</v>
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>313.63900000000001</v>
+        <v>119.687</v>
       </c>
       <c r="M28">
         <f ca="1"/>
-        <v>32.637</v>
+        <v>13.871</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12557,51 +12566,51 @@
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>607.01700000000005</v>
+        <v>673.58500000000004</v>
       </c>
       <c r="C29">
         <f ca="1"/>
-        <v>236.24</v>
+        <v>733.81700000000001</v>
       </c>
       <c r="D29">
         <f ca="1"/>
-        <v>516.57100000000003</v>
+        <v>560.42399999999998</v>
       </c>
       <c r="E29">
         <f ca="1"/>
-        <v>208.12700000000001</v>
+        <v>658.23299999999995</v>
       </c>
       <c r="F29">
         <f ca="1"/>
-        <v>90.445999999999998</v>
+        <v>113.161</v>
       </c>
       <c r="G29">
         <f ca="1"/>
-        <v>28.111999999999998</v>
+        <v>75.584999999999994</v>
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>607.01700000000005</v>
+        <v>673.58500000000004</v>
       </c>
       <c r="I29">
         <f ca="1"/>
-        <v>236.24</v>
+        <v>733.81700000000001</v>
       </c>
       <c r="J29">
         <f ca="1"/>
-        <v>516.57100000000003</v>
+        <v>560.42399999999998</v>
       </c>
       <c r="K29">
         <f ca="1"/>
-        <v>208.12700000000001</v>
+        <v>658.23299999999995</v>
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>90.445999999999998</v>
+        <v>113.161</v>
       </c>
       <c r="M29">
         <f ca="1"/>
-        <v>28.111999999999998</v>
+        <v>75.584999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/example2-with-sims.xlsx
+++ b/inst/extdata/example2-with-sims.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaelsola/Github-Collabs/mocaredd/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E859A276-F95A-764F-9D4D-75603A48F22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06B2346-E486-7C4E-9D6E-1F7560B249E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="760" windowWidth="28860" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2106,51 +2106,51 @@
       </c>
       <c r="B14" s="84">
         <f t="shared" ref="B14:M14" ca="1" si="0">MEDIAN(_xlfn.ANCHORARRAY(B20))</f>
-        <v>18631.5</v>
+        <v>22583</v>
       </c>
       <c r="C14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>12136</v>
+        <v>10736.5</v>
       </c>
       <c r="D14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>67717.5</v>
+        <v>59789</v>
       </c>
       <c r="E14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>14952</v>
+        <v>17531</v>
       </c>
       <c r="F14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>327588.5</v>
+        <v>309288.5</v>
       </c>
       <c r="G14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>23310</v>
+        <v>23121</v>
       </c>
       <c r="H14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>2269.5</v>
+        <v>1988</v>
       </c>
       <c r="I14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>2474</v>
+        <v>2311.5</v>
       </c>
       <c r="J14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>6581</v>
+        <v>6774</v>
       </c>
       <c r="K14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>5004.5</v>
+        <v>6088.5</v>
       </c>
       <c r="L14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>46724.5</v>
+        <v>45604</v>
       </c>
       <c r="M14" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>5537.5</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2159,51 +2159,51 @@
       </c>
       <c r="B15" s="87">
         <f t="shared" ref="B15:M15" ca="1" si="1">ROUND(B16/B14,2)</f>
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="C15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="D15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="I15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="J15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37</v>
+        <v>0.24</v>
       </c>
       <c r="K15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="L15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="M15" s="89">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2212,51 +2212,51 @@
       </c>
       <c r="B16" s="90">
         <f t="shared" ref="B16:M16" ca="1" si="2">(B18-B17)/2</f>
-        <v>10958.174999999999</v>
+        <v>10840.45</v>
       </c>
       <c r="C16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>4828.25</v>
+        <v>2578.0499999999997</v>
       </c>
       <c r="D16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>13874.325000000004</v>
+        <v>23948.300000000003</v>
       </c>
       <c r="E16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>2539.8249999999998</v>
+        <v>5020.8000000000011</v>
       </c>
       <c r="F16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>45175.575000000012</v>
+        <v>19204.924999999988</v>
       </c>
       <c r="G16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>2725.4750000000004</v>
+        <v>3168.9750000000004</v>
       </c>
       <c r="H16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>613.17500000000007</v>
+        <v>638.17500000000007</v>
       </c>
       <c r="I16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>730.22499999999991</v>
+        <v>763.1</v>
       </c>
       <c r="J16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>2417.6749999999997</v>
+        <v>1634.2000000000003</v>
       </c>
       <c r="K16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>1440.125</v>
+        <v>1516.8750000000002</v>
       </c>
       <c r="L16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>5374.1499999999978</v>
+        <v>3981.25</v>
       </c>
       <c r="M16" s="92">
         <f t="shared" ca="1" si="2"/>
-        <v>888.09999999999991</v>
+        <v>642.14999999999964</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2265,51 +2265,51 @@
       </c>
       <c r="B17" s="90">
         <f t="shared" ref="B17:M17" ca="1" si="3">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20),ci_alpha/2),2)</f>
-        <v>11669.75</v>
+        <v>12211.25</v>
       </c>
       <c r="C17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>5686.3</v>
+        <v>8012.05</v>
       </c>
       <c r="D17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>49737.95</v>
+        <v>30248.75</v>
       </c>
       <c r="E17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>12967.4</v>
+        <v>10195.049999999999</v>
       </c>
       <c r="F17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>277595.55</v>
+        <v>289676.65000000002</v>
       </c>
       <c r="G17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>20673</v>
+        <v>18918.8</v>
       </c>
       <c r="H17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>1763.05</v>
+        <v>1605.3</v>
       </c>
       <c r="I17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>1438.4</v>
+        <v>1435.2</v>
       </c>
       <c r="J17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>3624.45</v>
+        <v>4488.45</v>
       </c>
       <c r="K17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>3515.05</v>
+        <v>3980.1</v>
       </c>
       <c r="L17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>41722.400000000001</v>
+        <v>40830.85</v>
       </c>
       <c r="M17" s="92">
         <f t="shared" ca="1" si="3"/>
-        <v>4487.75</v>
+        <v>4829.3500000000004</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2318,51 +2318,51 @@
       </c>
       <c r="B18" s="90">
         <f t="shared" ref="B18:M18" ca="1" si="4">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20), 1 - ci_alpha / 2), 2)</f>
-        <v>33586.1</v>
+        <v>33892.15</v>
       </c>
       <c r="C18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>15342.8</v>
+        <v>13168.15</v>
       </c>
       <c r="D18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>77486.600000000006</v>
+        <v>78145.350000000006</v>
       </c>
       <c r="E18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>18047.05</v>
+        <v>20236.650000000001</v>
       </c>
       <c r="F18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>367946.7</v>
+        <v>328086.5</v>
       </c>
       <c r="G18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>26123.95</v>
+        <v>25256.75</v>
       </c>
       <c r="H18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>2989.4</v>
+        <v>2881.65</v>
       </c>
       <c r="I18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>2898.85</v>
+        <v>2961.4</v>
       </c>
       <c r="J18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>8459.7999999999993</v>
+        <v>7756.85</v>
       </c>
       <c r="K18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>6395.3</v>
+        <v>7013.85</v>
       </c>
       <c r="L18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>52470.7</v>
+        <v>48793.35</v>
       </c>
       <c r="M18" s="92">
         <f t="shared" ca="1" si="4"/>
-        <v>6263.95</v>
+        <v>6113.65</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2387,51 +2387,51 @@
       </c>
       <c r="B20" s="94" cm="1">
         <f t="array" aca="1" ref="B20:B29" ca="1">IF(B12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),B6,B7),0),_xlfn.SEQUENCE(n_iter, 1, B6, 0))</f>
-        <v>15628</v>
+        <v>15621</v>
       </c>
       <c r="C20" s="95" cm="1">
         <f t="array" aca="1" ref="C20:C29" ca="1">IF(C12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),C6,C7),0),_xlfn.SEQUENCE(n_iter, 1, C6, 0))</f>
-        <v>12218</v>
+        <v>9001</v>
       </c>
       <c r="D20" s="95" cm="1">
         <f t="array" aca="1" ref="D20:D29" ca="1">IF(D12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),D6,D7),0),_xlfn.SEQUENCE(n_iter, 1, D6, 0))</f>
-        <v>69311</v>
+        <v>57602</v>
       </c>
       <c r="E20" s="95" cm="1">
         <f t="array" aca="1" ref="E20:E29" ca="1">IF(E12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),E6,E7),0),_xlfn.SEQUENCE(n_iter, 1, E6, 0))</f>
-        <v>19006</v>
+        <v>14514</v>
       </c>
       <c r="F20" s="95" cm="1">
         <f t="array" aca="1" ref="F20:F29" ca="1">IF(F12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),F6,F7),0),_xlfn.SEQUENCE(n_iter, 1, F6, 0))</f>
-        <v>319020</v>
+        <v>328280</v>
       </c>
       <c r="G20" s="95" cm="1">
         <f t="array" aca="1" ref="G20:G29" ca="1">IF(G12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),G6,G7),0),_xlfn.SEQUENCE(n_iter, 1, G6, 0))</f>
-        <v>20664</v>
+        <v>23487</v>
       </c>
       <c r="H20" s="95" cm="1">
         <f t="array" aca="1" ref="H20:H29" ca="1">IF(H12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),H6,H7),0),_xlfn.SEQUENCE(n_iter, 1, H6, 0))</f>
-        <v>2831</v>
+        <v>2964</v>
       </c>
       <c r="I20" s="95" cm="1">
         <f t="array" aca="1" ref="I20:I29" ca="1">IF(I12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),I6,I7),0),_xlfn.SEQUENCE(n_iter, 1, I6, 0))</f>
-        <v>2983</v>
+        <v>2342</v>
       </c>
       <c r="J20" s="95" cm="1">
         <f t="array" aca="1" ref="J20:J29" ca="1">IF(J12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),J6,J7),0),_xlfn.SEQUENCE(n_iter, 1, J6, 0))</f>
-        <v>7706</v>
+        <v>5303</v>
       </c>
       <c r="K20" s="95" cm="1">
         <f t="array" aca="1" ref="K20:K29" ca="1">IF(K12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),K6,K7),0),_xlfn.SEQUENCE(n_iter, 1, K6, 0))</f>
-        <v>3439</v>
+        <v>5932</v>
       </c>
       <c r="L20" s="95" cm="1">
         <f t="array" aca="1" ref="L20:L29" ca="1">IF(L12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),L6,L7),0),_xlfn.SEQUENCE(n_iter, 1, L6, 0))</f>
-        <v>42411</v>
+        <v>45468</v>
       </c>
       <c r="M20" s="95" cm="1">
         <f t="array" aca="1" ref="M20:M29" ca="1">IF(M12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),M6,M7),0),_xlfn.SEQUENCE(n_iter, 1, M6, 0))</f>
-        <v>6105</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2440,51 +2440,51 @@
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>12426</v>
+        <v>12555</v>
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>14232</v>
+        <v>11868</v>
       </c>
       <c r="D21">
         <f ca="1"/>
-        <v>68938</v>
+        <v>59332</v>
       </c>
       <c r="E21">
         <f ca="1"/>
-        <v>14868</v>
+        <v>8877</v>
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>305395</v>
+        <v>303730</v>
       </c>
       <c r="G21">
         <f ca="1"/>
-        <v>23405</v>
+        <v>22436</v>
       </c>
       <c r="H21">
         <f ca="1"/>
-        <v>2278</v>
+        <v>1812</v>
       </c>
       <c r="I21">
         <f ca="1"/>
-        <v>2420</v>
+        <v>2838</v>
       </c>
       <c r="J21">
         <f ca="1"/>
-        <v>8220</v>
+        <v>6842</v>
       </c>
       <c r="K21">
         <f ca="1"/>
-        <v>4344</v>
+        <v>3666</v>
       </c>
       <c r="L21">
         <f ca="1"/>
-        <v>50957</v>
+        <v>40366</v>
       </c>
       <c r="M21">
         <f ca="1"/>
-        <v>4540</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2493,51 +2493,51 @@
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>18979</v>
+        <v>37183</v>
       </c>
       <c r="C22">
         <f ca="1"/>
-        <v>6002</v>
+        <v>11113</v>
       </c>
       <c r="D22">
         <f ca="1"/>
-        <v>49067</v>
+        <v>71415</v>
       </c>
       <c r="E22">
         <f ca="1"/>
-        <v>16875</v>
+        <v>19408</v>
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>354112</v>
+        <v>286609</v>
       </c>
       <c r="G22">
         <f ca="1"/>
-        <v>25508</v>
+        <v>20626</v>
       </c>
       <c r="H22">
         <f ca="1"/>
-        <v>3119</v>
+        <v>2123</v>
       </c>
       <c r="I22">
         <f ca="1"/>
-        <v>2206</v>
+        <v>3001</v>
       </c>
       <c r="J22">
         <f ca="1"/>
-        <v>4109</v>
+        <v>7303</v>
       </c>
       <c r="K22">
         <f ca="1"/>
-        <v>6470</v>
+        <v>4788</v>
       </c>
       <c r="L22">
         <f ca="1"/>
-        <v>48329</v>
+        <v>47973</v>
       </c>
       <c r="M22">
         <f ca="1"/>
-        <v>5635</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2546,51 +2546,51 @@
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>11051</v>
+        <v>23775</v>
       </c>
       <c r="C23">
         <f ca="1"/>
-        <v>10897</v>
+        <v>10360</v>
       </c>
       <c r="D23">
         <f ca="1"/>
-        <v>76336</v>
+        <v>83652</v>
       </c>
       <c r="E23">
         <f ca="1"/>
-        <v>15036</v>
+        <v>20364</v>
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>379266</v>
+        <v>293426</v>
       </c>
       <c r="G23">
         <f ca="1"/>
-        <v>21426</v>
+        <v>24809</v>
       </c>
       <c r="H23">
         <f ca="1"/>
-        <v>1732</v>
+        <v>1455</v>
       </c>
       <c r="I23">
         <f ca="1"/>
-        <v>2528</v>
+        <v>1877</v>
       </c>
       <c r="J23">
         <f ca="1"/>
-        <v>6193</v>
+        <v>6421</v>
       </c>
       <c r="K23">
         <f ca="1"/>
-        <v>4516</v>
+        <v>6758</v>
       </c>
       <c r="L23">
         <f ca="1"/>
-        <v>47770</v>
+        <v>43445</v>
       </c>
       <c r="M23">
         <f ca="1"/>
-        <v>5407</v>
+        <v>5531</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2599,51 +2599,51 @@
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>18284</v>
+        <v>11930</v>
       </c>
       <c r="C24">
         <f ca="1"/>
-        <v>5428</v>
+        <v>13705</v>
       </c>
       <c r="D24">
         <f ca="1"/>
-        <v>78428</v>
+        <v>47120</v>
       </c>
       <c r="E24">
         <f ca="1"/>
-        <v>12296</v>
+        <v>12771</v>
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>336157</v>
+        <v>310895</v>
       </c>
       <c r="G24">
         <f ca="1"/>
-        <v>23819</v>
+        <v>23430</v>
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>2261</v>
+        <v>2781</v>
       </c>
       <c r="I24">
         <f ca="1"/>
-        <v>2028</v>
+        <v>2373</v>
       </c>
       <c r="J24">
         <f ca="1"/>
-        <v>7316</v>
+        <v>6560</v>
       </c>
       <c r="K24">
         <f ca="1"/>
-        <v>5493</v>
+        <v>5408</v>
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>45679</v>
+        <v>41399</v>
       </c>
       <c r="M24">
         <f ca="1"/>
-        <v>5999</v>
+        <v>5656</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2652,51 +2652,51 @@
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>36539</v>
+        <v>25592</v>
       </c>
       <c r="C25">
         <f ca="1"/>
-        <v>14617</v>
+        <v>8842</v>
       </c>
       <c r="D25">
         <f ca="1"/>
-        <v>68760</v>
+        <v>49440</v>
       </c>
       <c r="E25">
         <f ca="1"/>
-        <v>15921</v>
+        <v>11806</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>351318</v>
+        <v>323090</v>
       </c>
       <c r="G25">
         <f ca="1"/>
-        <v>26137</v>
+        <v>25565</v>
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>2060</v>
+        <v>2034</v>
       </c>
       <c r="I25">
         <f ca="1"/>
-        <v>2548</v>
+        <v>1428</v>
       </c>
       <c r="J25">
         <f ca="1"/>
-        <v>4598</v>
+        <v>8012</v>
       </c>
       <c r="K25">
         <f ca="1"/>
-        <v>6245</v>
+        <v>4364</v>
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>53530</v>
+        <v>48641</v>
       </c>
       <c r="M25">
         <f ca="1"/>
-        <v>5324</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2705,51 +2705,51 @@
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>28621</v>
+        <v>18770</v>
       </c>
       <c r="C26">
         <f ca="1"/>
-        <v>15701</v>
+        <v>12512</v>
       </c>
       <c r="D26">
         <f ca="1"/>
-        <v>50558</v>
+        <v>63820</v>
       </c>
       <c r="E26">
         <f ca="1"/>
-        <v>14306</v>
+        <v>20037</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>316494</v>
+        <v>307682</v>
       </c>
       <c r="G26">
         <f ca="1"/>
-        <v>26108</v>
+        <v>24880</v>
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>2548</v>
+        <v>1789</v>
       </c>
       <c r="I26">
         <f ca="1"/>
-        <v>2716</v>
+        <v>2281</v>
       </c>
       <c r="J26">
         <f ca="1"/>
-        <v>6969</v>
+        <v>6706</v>
       </c>
       <c r="K26">
         <f ca="1"/>
-        <v>6304</v>
+        <v>6889</v>
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>43452</v>
+        <v>45128</v>
       </c>
       <c r="M26">
         <f ca="1"/>
-        <v>5440</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2758,51 +2758,51 @@
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>29977</v>
+        <v>21391</v>
       </c>
       <c r="C27">
         <f ca="1"/>
-        <v>8963</v>
+        <v>9190</v>
       </c>
       <c r="D27">
         <f ca="1"/>
-        <v>61787</v>
+        <v>61870</v>
       </c>
       <c r="E27">
         <f ca="1"/>
-        <v>14399</v>
+        <v>20081</v>
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>278772</v>
+        <v>303339</v>
       </c>
       <c r="G27">
         <f ca="1"/>
-        <v>20684</v>
+        <v>17522</v>
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>1846</v>
+        <v>1942</v>
       </c>
       <c r="I27">
         <f ca="1"/>
-        <v>956</v>
+        <v>1713</v>
       </c>
       <c r="J27">
         <f ca="1"/>
-        <v>4624</v>
+        <v>3822</v>
       </c>
       <c r="K27">
         <f ca="1"/>
-        <v>3608</v>
+        <v>6514</v>
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>41159</v>
+        <v>48918</v>
       </c>
       <c r="M27">
         <f ca="1"/>
-        <v>6394</v>
+        <v>6124</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2811,51 +2811,51 @@
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>17464</v>
+        <v>25999</v>
       </c>
       <c r="C28">
         <f ca="1"/>
-        <v>12054</v>
+        <v>7333</v>
       </c>
       <c r="D28">
         <f ca="1"/>
-        <v>59956</v>
+        <v>16445</v>
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>15062</v>
+        <v>16362</v>
       </c>
       <c r="F28">
         <f ca="1"/>
-        <v>276633</v>
+        <v>320486</v>
       </c>
       <c r="G28">
         <f ca="1"/>
-        <v>23215</v>
+        <v>20817</v>
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>1801</v>
+        <v>1914</v>
       </c>
       <c r="I28">
         <f ca="1"/>
-        <v>2266</v>
+        <v>2913</v>
       </c>
       <c r="J28">
         <f ca="1"/>
-        <v>3228</v>
+        <v>7445</v>
       </c>
       <c r="K28">
         <f ca="1"/>
-        <v>3990</v>
+        <v>7116</v>
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>44342</v>
+        <v>45740</v>
       </c>
       <c r="M28">
         <f ca="1"/>
-        <v>5746</v>
+        <v>6101</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2864,51 +2864,51 @@
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>28863</v>
+        <v>29870</v>
       </c>
       <c r="C29">
         <f ca="1"/>
-        <v>14905</v>
+        <v>11481</v>
       </c>
       <c r="D29">
         <f ca="1"/>
-        <v>66675</v>
+        <v>60246</v>
       </c>
       <c r="E29">
         <f ca="1"/>
-        <v>13788</v>
+        <v>18700</v>
       </c>
       <c r="F29">
         <f ca="1"/>
-        <v>343452</v>
+        <v>327850</v>
       </c>
       <c r="G29">
         <f ca="1"/>
-        <v>20833</v>
+        <v>22812</v>
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>2495</v>
+        <v>2411</v>
       </c>
       <c r="I29">
         <f ca="1"/>
-        <v>2796</v>
+        <v>1444</v>
       </c>
       <c r="J29">
         <f ca="1"/>
-        <v>8656</v>
+        <v>6921</v>
       </c>
       <c r="K29">
         <f ca="1"/>
-        <v>6207</v>
+        <v>6245</v>
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>51176</v>
+        <v>46027</v>
       </c>
       <c r="M29">
         <f ca="1"/>
-        <v>4445</v>
+        <v>5663</v>
       </c>
     </row>
   </sheetData>
@@ -3352,82 +3352,82 @@
       </c>
       <c r="B14" s="84">
         <f t="shared" ref="B14:W14" ca="1" si="0">MEDIAN(_xlfn.ANCHORARRAY(B20))</f>
-        <v>11936289</v>
+        <v>10292426</v>
       </c>
       <c r="C14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>5229485</v>
+        <v>4572496.5</v>
       </c>
       <c r="D14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>24559118.5</v>
+        <v>28038978</v>
       </c>
       <c r="E14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>6443499</v>
+        <v>4824194</v>
       </c>
       <c r="F14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>55697442</v>
+        <v>39462962</v>
       </c>
       <c r="G14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>1482588</v>
+        <v>1745000</v>
       </c>
       <c r="H14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>1698052.5</v>
+        <v>1003886.5</v>
       </c>
       <c r="I14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>1201622</v>
+        <v>1095451</v>
       </c>
       <c r="J14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>3016086.5</v>
+        <v>2595510</v>
       </c>
       <c r="K14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>1993874</v>
+        <v>1861703</v>
       </c>
       <c r="L14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>7251209.5</v>
+        <v>5942173.5</v>
       </c>
       <c r="M14" s="110">
         <f t="shared" ca="1" si="0"/>
-        <v>317166.5</v>
+        <v>414268</v>
       </c>
       <c r="N14" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>10088756</v>
+        <v>10738699</v>
       </c>
       <c r="O14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>11630801</v>
+        <v>8362900.5</v>
       </c>
       <c r="P14" s="109"/>
       <c r="Q14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>3800211</v>
+        <v>3269929</v>
       </c>
       <c r="R14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>3935104.5</v>
+        <v>3116439</v>
       </c>
       <c r="S14" s="109"/>
       <c r="T14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>23537070.5</v>
+        <v>16774508.5</v>
       </c>
       <c r="U14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>8715918.5</v>
+        <v>6276286</v>
       </c>
       <c r="V14" s="109"/>
       <c r="W14" s="110">
         <f t="shared" ca="1" si="0"/>
-        <v>14627720.5</v>
+        <v>9986495.5</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3436,82 +3436,82 @@
       </c>
       <c r="B15" s="87">
         <f t="shared" ref="B15:W15" ca="1" si="1">ROUND(B16/B14,2)</f>
-        <v>0.64</v>
+        <v>0.89</v>
       </c>
       <c r="C15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57999999999999996</v>
+        <v>0.61</v>
       </c>
       <c r="D15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74</v>
+        <v>0.63</v>
       </c>
       <c r="E15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34</v>
+        <v>0.87</v>
       </c>
       <c r="F15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>1.34</v>
+        <v>0.83</v>
       </c>
       <c r="G15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>1.27</v>
+        <v>0.94</v>
       </c>
       <c r="H15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39</v>
+        <v>0.64</v>
       </c>
       <c r="I15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49</v>
+        <v>0.59</v>
       </c>
       <c r="J15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="K15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66</v>
+        <v>0.83</v>
       </c>
       <c r="L15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>1.42</v>
+        <v>0.81</v>
       </c>
       <c r="M15" s="76">
         <f t="shared" ca="1" si="1"/>
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="N15" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="O15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3</v>
+        <v>0.79</v>
       </c>
       <c r="P15" s="75"/>
       <c r="Q15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="R15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>1.32</v>
+        <v>0.77</v>
       </c>
       <c r="S15" s="75"/>
       <c r="T15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="U15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63</v>
+        <v>0.4</v>
       </c>
       <c r="V15" s="75"/>
       <c r="W15" s="76">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3520,82 +3520,82 @@
       </c>
       <c r="B16" s="84">
         <f t="shared" ref="B16:W16" ca="1" si="2">(B18-B17)/2</f>
-        <v>7589118.2000000011</v>
+        <v>9129100.9499999993</v>
       </c>
       <c r="C16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>3050903.4499999997</v>
+        <v>2811815.6749999998</v>
       </c>
       <c r="D16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>18163206.350000001</v>
+        <v>17716971.475000001</v>
       </c>
       <c r="E16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>2195595.6</v>
+        <v>4200785.8</v>
       </c>
       <c r="F16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>74736205.625</v>
+        <v>32657216.624999996</v>
       </c>
       <c r="G16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>1889637.875</v>
+        <v>1631663.1749999998</v>
       </c>
       <c r="H16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>669137.17500000005</v>
+        <v>643936.42500000005</v>
       </c>
       <c r="I16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>584455.77499999991</v>
+        <v>649859.25</v>
       </c>
       <c r="J16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>1784064.5249999999</v>
+        <v>1410187.45</v>
       </c>
       <c r="K16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>1311176.3999999999</v>
+        <v>1552606.7000000002</v>
       </c>
       <c r="L16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>10271283.35</v>
+        <v>4812823.625</v>
       </c>
       <c r="M16" s="110">
         <f t="shared" ca="1" si="2"/>
-        <v>494647.89999999997</v>
+        <v>412666.52499999997</v>
       </c>
       <c r="N16" s="90">
         <f t="shared" ca="1" si="2"/>
-        <v>4775773.625</v>
+        <v>4807437.0749999993</v>
       </c>
       <c r="O16" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>15069724.15</v>
+        <v>6570359.0499999998</v>
       </c>
       <c r="P16" s="111"/>
       <c r="Q16" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>1925665.0249999999</v>
+        <v>1156265.7</v>
       </c>
       <c r="R16" s="111">
         <f ca="1">(R18-R17)/2</f>
-        <v>5190879.9749999996</v>
+        <v>2389164.5</v>
       </c>
       <c r="S16" s="111"/>
       <c r="T16" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>12575370.875000002</v>
+        <v>8099711.4749999996</v>
       </c>
       <c r="U16" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>5475311.4249999998</v>
+        <v>2493227.2250000001</v>
       </c>
       <c r="V16" s="111"/>
       <c r="W16" s="112">
         <f t="shared" ca="1" si="2"/>
-        <v>7124670.3499999996</v>
+        <v>5715507.0250000004</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3604,82 +3604,82 @@
       </c>
       <c r="B17" s="84">
         <f t="shared" ref="B17:O17" ca="1" si="3">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20),ci_alpha/2),2)</f>
-        <v>6777064.2000000002</v>
+        <v>5680298.6500000004</v>
       </c>
       <c r="C17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>3251404.7999999998</v>
+        <v>2459711.15</v>
       </c>
       <c r="D17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>15788112.4</v>
+        <v>8222980.25</v>
       </c>
       <c r="E17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>3689670.3</v>
+        <v>2570451.25</v>
       </c>
       <c r="F17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>-19072615</v>
+        <v>10507995.35</v>
       </c>
       <c r="G17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>158490.65</v>
+        <v>1119596</v>
       </c>
       <c r="H17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>726132.45</v>
+        <v>730874.7</v>
       </c>
       <c r="I17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>586488.9</v>
+        <v>386130.45</v>
       </c>
       <c r="J17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>1163133</v>
+        <v>1768522.6</v>
       </c>
       <c r="K17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>935694</v>
+        <v>850245.8</v>
       </c>
       <c r="L17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>-2940156</v>
+        <v>1529389.3</v>
       </c>
       <c r="M17" s="110">
         <f t="shared" ca="1" si="3"/>
-        <v>38696.65</v>
+        <v>289418.59999999998</v>
       </c>
       <c r="N17" s="90">
         <f t="shared" ca="1" si="3"/>
-        <v>7101734.0499999998</v>
+        <v>5299220.2</v>
       </c>
       <c r="O17" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v>-3386575</v>
+        <v>2405228.1</v>
       </c>
       <c r="P17" s="111"/>
       <c r="Q17" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(Q20),ci_alpha/2),2)</f>
-        <v>2023892</v>
+        <v>2672763.6</v>
       </c>
       <c r="R17" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(R20),ci_alpha/2),2)</f>
-        <v>-1167715.2</v>
+        <v>992862.15</v>
       </c>
       <c r="S17" s="111"/>
       <c r="T17" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(T20),ci_alpha/2),2)</f>
-        <v>9717453.6999999993</v>
+        <v>12030608</v>
       </c>
       <c r="U17" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(U20),ci_alpha/2),2)</f>
-        <v>1721487.5</v>
+        <v>4914207.3</v>
       </c>
       <c r="V17" s="111"/>
       <c r="W17" s="112">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(W20),ci_alpha/2),2)</f>
-        <v>7995966.2000000002</v>
+        <v>6936365.2999999998</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3688,82 +3688,82 @@
       </c>
       <c r="B18" s="84">
         <f t="shared" ref="B18:O18" ca="1" si="4">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20), 1 - ci_alpha / 2), 2)</f>
-        <v>21955300.600000001</v>
+        <v>23938500.550000001</v>
       </c>
       <c r="C18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>9353211.6999999993</v>
+        <v>8083342.5</v>
       </c>
       <c r="D18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>52114525.100000001</v>
+        <v>43656923.200000003</v>
       </c>
       <c r="E18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>8080861.5</v>
+        <v>10972022.85</v>
       </c>
       <c r="F18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>130399796.25</v>
+        <v>75822428.599999994</v>
       </c>
       <c r="G18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>3937766.4</v>
+        <v>4382922.3499999996</v>
       </c>
       <c r="H18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>2064406.8</v>
+        <v>2018747.55</v>
       </c>
       <c r="I18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>1755400.45</v>
+        <v>1685848.95</v>
       </c>
       <c r="J18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>4731262.05</v>
+        <v>4588897.5</v>
       </c>
       <c r="K18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>3558046.8</v>
+        <v>3955459.2</v>
       </c>
       <c r="L18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>17602410.699999999</v>
+        <v>11155036.550000001</v>
       </c>
       <c r="M18" s="110">
         <f t="shared" ca="1" si="4"/>
-        <v>1027992.45</v>
+        <v>1114751.6499999999</v>
       </c>
       <c r="N18" s="90">
         <f t="shared" ca="1" si="4"/>
-        <v>16653281.300000001</v>
+        <v>14914094.35</v>
       </c>
       <c r="O18" s="111">
         <f t="shared" ca="1" si="4"/>
-        <v>26752873.300000001</v>
+        <v>15545946.199999999</v>
       </c>
       <c r="P18" s="111"/>
       <c r="Q18" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(Q20), 1 - ci_alpha / 2), 2)</f>
-        <v>5875222.0499999998</v>
+        <v>4985295</v>
       </c>
       <c r="R18" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(R20), 1 - ci_alpha / 2), 2)</f>
-        <v>9214044.75</v>
+        <v>5771191.1500000004</v>
       </c>
       <c r="S18" s="111"/>
       <c r="T18" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(T20), 1 - ci_alpha / 2), 2)</f>
-        <v>34868195.450000003</v>
+        <v>28230030.949999999</v>
       </c>
       <c r="U18" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(U20), 1 - ci_alpha / 2), 2)</f>
-        <v>12672110.35</v>
+        <v>9900661.75</v>
       </c>
       <c r="V18" s="111"/>
       <c r="W18" s="112">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(W20), 1 - ci_alpha / 2), 2)</f>
-        <v>22245306.899999999</v>
+        <v>18367379.350000001</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3782,7 +3782,7 @@
       <c r="M19" s="115"/>
       <c r="N19" s="116">
         <f ca="1">ROUND(SUM(B20:E20) / year_ref,0)</f>
-        <v>9729433</v>
+        <v>10785645</v>
       </c>
       <c r="O19" s="114"/>
       <c r="P19" s="54"/>
@@ -3801,82 +3801,82 @@
       </c>
       <c r="B20" s="126" cm="1">
         <f t="array" aca="1" ref="B20:B29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!B20) *_xlfn.ANCHORARRAY( SIMS_EF!B20), 0)</f>
-        <v>11642188</v>
+        <v>8923527</v>
       </c>
       <c r="C20" s="126" cm="1">
         <f t="array" aca="1" ref="C20:C29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!C20) *_xlfn.ANCHORARRAY( SIMS_EF!C20), 0)</f>
-        <v>5545078</v>
+        <v>6066539</v>
       </c>
       <c r="D20" s="126" cm="1">
         <f t="array" aca="1" ref="D20:D29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!D20) *_xlfn.ANCHORARRAY( SIMS_EF!D20), 0)</f>
-        <v>25094048</v>
+        <v>30075502</v>
       </c>
       <c r="E20" s="126" cm="1">
         <f t="array" aca="1" ref="E20:E29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!E20) *_xlfn.ANCHORARRAY( SIMS_EF!E20), 0)</f>
-        <v>6365851</v>
+        <v>8862655</v>
       </c>
       <c r="F20" s="126" cm="1">
         <f t="array" aca="1" ref="F20:F29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!F20) *_xlfn.ANCHORARRAY( SIMS_EF!F20), 0)</f>
-        <v>122154672</v>
+        <v>16127083</v>
       </c>
       <c r="G20" s="126" cm="1">
         <f t="array" aca="1" ref="G20:G29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!G20) *_xlfn.ANCHORARRAY( SIMS_EF!G20), 0)</f>
-        <v>2457074</v>
+        <v>1488042</v>
       </c>
       <c r="H20" s="126" cm="1">
         <f t="array" aca="1" ref="H20:H29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!H20) *_xlfn.ANCHORARRAY( SIMS_EF!H20), 0)</f>
-        <v>2108973</v>
+        <v>1693191</v>
       </c>
       <c r="I20" s="126" cm="1">
         <f t="array" aca="1" ref="I20:I29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!I20) *_xlfn.ANCHORARRAY( SIMS_EF!I20), 0)</f>
-        <v>1353820</v>
+        <v>1578473</v>
       </c>
       <c r="J20" s="126" cm="1">
         <f t="array" aca="1" ref="J20:J29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!J20) *_xlfn.ANCHORARRAY( SIMS_EF!J20), 0)</f>
-        <v>2789957</v>
+        <v>2768834</v>
       </c>
       <c r="K20" s="126" cm="1">
         <f t="array" aca="1" ref="K20:K29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!K20) *_xlfn.ANCHORARRAY( SIMS_EF!K20), 0)</f>
-        <v>1151855</v>
+        <v>3622245</v>
       </c>
       <c r="L20" s="126" cm="1">
         <f t="array" aca="1" ref="L20:L29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!L20) *_xlfn.ANCHORARRAY( SIMS_EF!L20), 0)</f>
-        <v>16239426</v>
+        <v>2233661</v>
       </c>
       <c r="M20" s="126" cm="1">
         <f t="array" aca="1" ref="M20:M29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!M20) *_xlfn.ANCHORARRAY( SIMS_EF!M20), 0)</f>
-        <v>725921</v>
+        <v>355047</v>
       </c>
       <c r="N20" s="117" cm="1">
         <f t="array" aca="1" ref="N20:N29" ca="1">_xlfn.BYROW(_xlfn.ANCHORARRAY(B20):_xlfn.ANCHORARRAY(E20),_xlfn.LAMBDA(_xlpm.x, ROUND(SUM(_xlpm.x)/year_ref,0)))</f>
-        <v>9729433</v>
+        <v>10785645</v>
       </c>
       <c r="O20" s="117" cm="1">
         <f t="array" aca="1" ref="O20:O29" ca="1">_xlfn.BYROW(_xlfn.ANCHORARRAY(F20):_xlfn.ANCHORARRAY(G20),_xlfn.LAMBDA(_xlpm.x, ROUND(SUM(_xlpm.x)/year_ref,0)))</f>
-        <v>24922349</v>
+        <v>3523025</v>
       </c>
       <c r="P20" s="118"/>
       <c r="Q20" s="117" cm="1">
         <f t="array" aca="1" ref="Q20:Q29" ca="1">_xlfn.BYROW(_xlfn.ANCHORARRAY(H20):_xlfn.ANCHORARRAY(K20),_xlfn.LAMBDA(_xlpm.x, ROUND(SUM(_xlpm.x)/year_mon,0)))</f>
-        <v>3702303</v>
+        <v>4831372</v>
       </c>
       <c r="R20" s="117" cm="1">
         <f t="array" aca="1" ref="R20:R29" ca="1">_xlfn.BYROW(_xlfn.ANCHORARRAY(L20):_xlfn.ANCHORARRAY(M20),_xlfn.LAMBDA(_xlpm.x, ROUND(SUM(_xlpm.x)/year_mon,0)))</f>
-        <v>8482674</v>
+        <v>1294354</v>
       </c>
       <c r="S20" s="118"/>
       <c r="T20" s="117" cm="1">
         <f t="array" aca="1" ref="T20:T29" ca="1">_xlfn.ANCHORARRAY(N20) +_xlfn.ANCHORARRAY( O20)</f>
-        <v>34651782</v>
+        <v>14308670</v>
       </c>
       <c r="U20" s="117" cm="1">
         <f t="array" aca="1" ref="U20:U29" ca="1">_xlfn.ANCHORARRAY(Q20) +_xlfn.ANCHORARRAY( R20)</f>
-        <v>12184977</v>
+        <v>6125726</v>
       </c>
       <c r="V20" s="118"/>
       <c r="W20" s="117" cm="1">
         <f t="array" aca="1" ref="W20:W29" ca="1">_xlfn.ANCHORARRAY(T20) -_xlfn.ANCHORARRAY( U20)</f>
-        <v>22466805</v>
+        <v>8182944</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3885,79 +3885,79 @@
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>9525784</v>
+        <v>5122264</v>
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>7416808</v>
+        <v>7417298</v>
       </c>
       <c r="D21">
         <f ca="1"/>
-        <v>34351047</v>
+        <v>15201808</v>
       </c>
       <c r="E21">
         <f ca="1"/>
-        <v>6864927</v>
+        <v>5142970</v>
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>81941143</v>
+        <v>46097406</v>
       </c>
       <c r="G21">
         <f ca="1"/>
-        <v>1390514</v>
+        <v>1023620</v>
       </c>
       <c r="H21">
         <f ca="1"/>
-        <v>1746317</v>
+        <v>739271</v>
       </c>
       <c r="I21">
         <f ca="1"/>
-        <v>1261149</v>
+        <v>1773702</v>
       </c>
       <c r="J21">
         <f ca="1"/>
-        <v>4095936</v>
+        <v>1753030</v>
       </c>
       <c r="K21">
         <f ca="1"/>
-        <v>2005733</v>
+        <v>2123930</v>
       </c>
       <c r="L21">
         <f ca="1"/>
-        <v>13672375</v>
+        <v>6126388</v>
       </c>
       <c r="M21">
         <f ca="1"/>
-        <v>269726</v>
+        <v>277850</v>
       </c>
       <c r="N21">
         <f ca="1"/>
-        <v>11631713</v>
+        <v>6576868</v>
       </c>
       <c r="O21">
         <f ca="1"/>
-        <v>16666331</v>
+        <v>9424205</v>
       </c>
       <c r="Q21">
         <f ca="1"/>
-        <v>4554568</v>
+        <v>3194967</v>
       </c>
       <c r="R21">
         <f ca="1"/>
-        <v>6971051</v>
+        <v>3202119</v>
       </c>
       <c r="T21">
         <f ca="1"/>
-        <v>28298044</v>
+        <v>16001073</v>
       </c>
       <c r="U21">
         <f ca="1"/>
-        <v>11525619</v>
+        <v>6397086</v>
       </c>
       <c r="W21">
         <f ca="1"/>
-        <v>16772425</v>
+        <v>9603987</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3966,79 +3966,79 @@
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>12230390</v>
+        <v>18595107</v>
       </c>
       <c r="C22">
         <f ca="1"/>
-        <v>3107367</v>
+        <v>3282836</v>
       </c>
       <c r="D22">
         <f ca="1"/>
-        <v>12616156</v>
+        <v>27142842</v>
       </c>
       <c r="E22">
         <f ca="1"/>
-        <v>6019515</v>
+        <v>4569361</v>
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>137145807</v>
+        <v>34400245</v>
       </c>
       <c r="G22">
         <f ca="1"/>
-        <v>4107069</v>
+        <v>1236900</v>
       </c>
       <c r="H22">
         <f ca="1"/>
-        <v>2009937</v>
+        <v>1061706</v>
       </c>
       <c r="I22">
         <f ca="1"/>
-        <v>1142095</v>
+        <v>886510</v>
       </c>
       <c r="J22">
         <f ca="1"/>
-        <v>1056510</v>
+        <v>2775666</v>
       </c>
       <c r="K22">
         <f ca="1"/>
-        <v>2307927</v>
+        <v>1127272</v>
       </c>
       <c r="L22">
         <f ca="1"/>
-        <v>18717580</v>
+        <v>5757959</v>
       </c>
       <c r="M22">
         <f ca="1"/>
-        <v>907297</v>
+        <v>303558</v>
       </c>
       <c r="N22">
         <f ca="1"/>
-        <v>6794686</v>
+        <v>10718029</v>
       </c>
       <c r="O22">
         <f ca="1"/>
-        <v>28250575</v>
+        <v>7127429</v>
       </c>
       <c r="Q22">
         <f ca="1"/>
-        <v>3258235</v>
+        <v>2925577</v>
       </c>
       <c r="R22">
         <f ca="1"/>
-        <v>9812439</v>
+        <v>3030759</v>
       </c>
       <c r="T22">
         <f ca="1"/>
-        <v>35045261</v>
+        <v>17845458</v>
       </c>
       <c r="U22">
         <f ca="1"/>
-        <v>13070674</v>
+        <v>5956336</v>
       </c>
       <c r="W22">
         <f ca="1"/>
-        <v>21974587</v>
+        <v>11889122</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4047,79 +4047,79 @@
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>4886310</v>
+        <v>14335136</v>
       </c>
       <c r="C23">
         <f ca="1"/>
-        <v>5466371</v>
+        <v>3078971</v>
       </c>
       <c r="D23">
         <f ca="1"/>
-        <v>20893011</v>
+        <v>34903044</v>
       </c>
       <c r="E23">
         <f ca="1"/>
-        <v>6712988</v>
+        <v>4466497</v>
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>63891530</v>
+        <v>54491849</v>
       </c>
       <c r="G23">
         <f ca="1"/>
-        <v>1182287</v>
+        <v>1931753</v>
       </c>
       <c r="H23">
         <f ca="1"/>
-        <v>765821</v>
+        <v>877292</v>
       </c>
       <c r="I23">
         <f ca="1"/>
-        <v>1268146</v>
+        <v>557841</v>
       </c>
       <c r="J23">
         <f ca="1"/>
-        <v>1695012</v>
+        <v>2679104</v>
       </c>
       <c r="K23">
         <f ca="1"/>
-        <v>2016218</v>
+        <v>1482252</v>
       </c>
       <c r="L23">
         <f ca="1"/>
-        <v>8047382</v>
+        <v>8068128</v>
       </c>
       <c r="M23">
         <f ca="1"/>
-        <v>298358</v>
+        <v>430671</v>
       </c>
       <c r="N23">
         <f ca="1"/>
-        <v>7591736</v>
+        <v>11356730</v>
       </c>
       <c r="O23">
         <f ca="1"/>
-        <v>13014763</v>
+        <v>11284720</v>
       </c>
       <c r="Q23">
         <f ca="1"/>
-        <v>2872599</v>
+        <v>2798245</v>
       </c>
       <c r="R23">
         <f ca="1"/>
-        <v>4172870</v>
+        <v>4249400</v>
       </c>
       <c r="T23">
         <f ca="1"/>
-        <v>20606499</v>
+        <v>22641450</v>
       </c>
       <c r="U23">
         <f ca="1"/>
-        <v>7045469</v>
+        <v>7047645</v>
       </c>
       <c r="W23">
         <f ca="1"/>
-        <v>13561030</v>
+        <v>15593805</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4128,79 +4128,79 @@
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>14042203</v>
+        <v>6362341</v>
       </c>
       <c r="C24">
         <f ca="1"/>
-        <v>3728922</v>
+        <v>7174883</v>
       </c>
       <c r="D24">
         <f ca="1"/>
-        <v>49150200</v>
+        <v>18042908</v>
       </c>
       <c r="E24">
         <f ca="1"/>
-        <v>6521147</v>
+        <v>3429895</v>
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>47503354</v>
+        <v>46756121</v>
       </c>
       <c r="G24">
         <f ca="1"/>
-        <v>3730841</v>
+        <v>5973572</v>
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>1736459</v>
+        <v>1483124</v>
       </c>
       <c r="I24">
         <f ca="1"/>
-        <v>1393193</v>
+        <v>1242320</v>
       </c>
       <c r="J24">
         <f ca="1"/>
-        <v>4584879</v>
+        <v>2511916</v>
       </c>
       <c r="K24">
         <f ca="1"/>
-        <v>2913196</v>
+        <v>1452421</v>
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>6455037</v>
+        <v>6226078</v>
       </c>
       <c r="M24">
         <f ca="1"/>
-        <v>939641</v>
+        <v>1442020</v>
       </c>
       <c r="N24">
         <f ca="1"/>
-        <v>14688494</v>
+        <v>7002005</v>
       </c>
       <c r="O24">
         <f ca="1"/>
-        <v>10246839</v>
+        <v>10545939</v>
       </c>
       <c r="Q24">
         <f ca="1"/>
-        <v>5313864</v>
+        <v>3344891</v>
       </c>
       <c r="R24">
         <f ca="1"/>
-        <v>3697339</v>
+        <v>3834049</v>
       </c>
       <c r="T24">
         <f ca="1"/>
-        <v>24935333</v>
+        <v>17547944</v>
       </c>
       <c r="U24">
         <f ca="1"/>
-        <v>9011203</v>
+        <v>7178940</v>
       </c>
       <c r="W24">
         <f ca="1"/>
-        <v>15924130</v>
+        <v>10369004</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4209,79 +4209,79 @@
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>24011896</v>
+        <v>10163991</v>
       </c>
       <c r="C25">
         <f ca="1"/>
-        <v>5065974</v>
+        <v>4055985</v>
       </c>
       <c r="D25">
         <f ca="1"/>
-        <v>54539882</v>
+        <v>12821918</v>
       </c>
       <c r="E25">
         <f ca="1"/>
-        <v>4921993</v>
+        <v>4327088</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>-47790841</v>
+        <v>44525679</v>
       </c>
       <c r="G25">
         <f ca="1"/>
-        <v>978282</v>
+        <v>2357144</v>
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>1353745</v>
+        <v>807813</v>
       </c>
       <c r="I25">
         <f ca="1"/>
-        <v>883088</v>
+        <v>655049</v>
       </c>
       <c r="J25">
         <f ca="1"/>
-        <v>3647097</v>
+        <v>2077856</v>
       </c>
       <c r="K25">
         <f ca="1"/>
-        <v>1930648</v>
+        <v>1599476</v>
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>-7281846</v>
+        <v>6703313</v>
       </c>
       <c r="M25">
         <f ca="1"/>
-        <v>199272</v>
+        <v>467464</v>
       </c>
       <c r="N25">
         <f ca="1"/>
-        <v>17707949</v>
+        <v>6273796</v>
       </c>
       <c r="O25">
         <f ca="1"/>
-        <v>-9362512</v>
+        <v>9376565</v>
       </c>
       <c r="Q25">
         <f ca="1"/>
-        <v>3907289</v>
+        <v>2570097</v>
       </c>
       <c r="R25">
         <f ca="1"/>
-        <v>-3541287</v>
+        <v>3585389</v>
       </c>
       <c r="T25">
         <f ca="1"/>
-        <v>8345437</v>
+        <v>15650361</v>
       </c>
       <c r="U25">
         <f ca="1"/>
-        <v>366002</v>
+        <v>6155486</v>
       </c>
       <c r="W25">
         <f ca="1"/>
-        <v>7979435</v>
+        <v>9494875</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4290,79 +4290,79 @@
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>19269861</v>
+        <v>14261089</v>
       </c>
       <c r="C26">
         <f ca="1"/>
-        <v>4951342</v>
+        <v>8628288</v>
       </c>
       <c r="D26">
         <f ca="1"/>
-        <v>23521301</v>
+        <v>29141999</v>
       </c>
       <c r="E26">
         <f ca="1"/>
-        <v>4497892</v>
+        <v>12297609</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>65844361</v>
+        <v>93274721</v>
       </c>
       <c r="G26">
         <f ca="1"/>
-        <v>24698</v>
+        <v>1887297</v>
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>1715510</v>
+        <v>1359248</v>
       </c>
       <c r="I26">
         <f ca="1"/>
-        <v>856496</v>
+        <v>1572980</v>
       </c>
       <c r="J26">
         <f ca="1"/>
-        <v>3242216</v>
+        <v>3062147</v>
       </c>
       <c r="K26">
         <f ca="1"/>
-        <v>1982015</v>
+        <v>4228089</v>
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>9039884</v>
+        <v>13680689</v>
       </c>
       <c r="M26">
         <f ca="1"/>
-        <v>5146</v>
+        <v>351896</v>
       </c>
       <c r="N26">
         <f ca="1"/>
-        <v>10448079</v>
+        <v>12865797</v>
       </c>
       <c r="O26">
         <f ca="1"/>
-        <v>13173812</v>
+        <v>19032404</v>
       </c>
       <c r="Q26">
         <f ca="1"/>
-        <v>3898119</v>
+        <v>5111232</v>
       </c>
       <c r="R26">
         <f ca="1"/>
-        <v>4522515</v>
+        <v>7016293</v>
       </c>
       <c r="T26">
         <f ca="1"/>
-        <v>23621891</v>
+        <v>31898201</v>
       </c>
       <c r="U26">
         <f ca="1"/>
-        <v>8420634</v>
+        <v>12127525</v>
       </c>
       <c r="W26">
         <f ca="1"/>
-        <v>15201257</v>
+        <v>19770676</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4371,79 +4371,79 @@
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>11264277</v>
+        <v>10420861</v>
       </c>
       <c r="C27">
         <f ca="1"/>
-        <v>3427451</v>
+        <v>5089008</v>
       </c>
       <c r="D27">
         <f ca="1"/>
-        <v>19664948</v>
+        <v>28935114</v>
       </c>
       <c r="E27">
         <f ca="1"/>
-        <v>3028398</v>
+        <v>9351862</v>
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>16027439</v>
+        <v>5910560</v>
       </c>
       <c r="G27">
         <f ca="1"/>
-        <v>3559303</v>
+        <v>1542777</v>
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>693660</v>
+        <v>946067</v>
       </c>
       <c r="I27">
         <f ca="1"/>
-        <v>365574</v>
+        <v>948582</v>
       </c>
       <c r="J27">
         <f ca="1"/>
-        <v>1471680</v>
+        <v>1787458</v>
       </c>
       <c r="K27">
         <f ca="1"/>
-        <v>758835</v>
+        <v>3033615</v>
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>2366354</v>
+        <v>953167</v>
       </c>
       <c r="M27">
         <f ca="1"/>
-        <v>1100280</v>
+        <v>539206</v>
       </c>
       <c r="N27">
         <f ca="1"/>
-        <v>7477015</v>
+        <v>10759369</v>
       </c>
       <c r="O27">
         <f ca="1"/>
-        <v>3917348</v>
+        <v>1490667</v>
       </c>
       <c r="Q27">
         <f ca="1"/>
-        <v>1644875</v>
+        <v>3357861</v>
       </c>
       <c r="R27">
         <f ca="1"/>
-        <v>1733317</v>
+        <v>746187</v>
       </c>
       <c r="T27">
         <f ca="1"/>
-        <v>11394363</v>
+        <v>12250036</v>
       </c>
       <c r="U27">
         <f ca="1"/>
-        <v>3378192</v>
+        <v>4104048</v>
       </c>
       <c r="W27">
         <f ca="1"/>
-        <v>8016171</v>
+        <v>8145988</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4452,79 +4452,79 @@
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>9087986</v>
+        <v>9834590</v>
       </c>
       <c r="C28">
         <f ca="1"/>
-        <v>5392996</v>
+        <v>3135371</v>
       </c>
       <c r="D28">
         <f ca="1"/>
-        <v>24024189</v>
+        <v>4460213</v>
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>6529859</v>
+        <v>5079027</v>
       </c>
       <c r="F28">
         <f ca="1"/>
-        <v>33109374</v>
+        <v>34307385</v>
       </c>
       <c r="G28">
         <f ca="1"/>
-        <v>322015</v>
+        <v>2438795</v>
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>937212</v>
+        <v>724005</v>
       </c>
       <c r="I28">
         <f ca="1"/>
-        <v>1013815</v>
+        <v>1245511</v>
       </c>
       <c r="J28">
         <f ca="1"/>
-        <v>1293450</v>
+        <v>2019233</v>
       </c>
       <c r="K28">
         <f ca="1"/>
-        <v>1729793</v>
+        <v>2208920</v>
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>5307161</v>
+        <v>4896376</v>
       </c>
       <c r="M28">
         <f ca="1"/>
-        <v>79703</v>
+        <v>714757</v>
       </c>
       <c r="N28">
         <f ca="1"/>
-        <v>9007006</v>
+        <v>4501840</v>
       </c>
       <c r="O28">
         <f ca="1"/>
-        <v>6686278</v>
+        <v>7349236</v>
       </c>
       <c r="Q28">
         <f ca="1"/>
-        <v>2487135</v>
+        <v>3098835</v>
       </c>
       <c r="R28">
         <f ca="1"/>
-        <v>2693432</v>
+        <v>2805567</v>
       </c>
       <c r="T28">
         <f ca="1"/>
-        <v>15693284</v>
+        <v>11851076</v>
       </c>
       <c r="U28">
         <f ca="1"/>
-        <v>5180567</v>
+        <v>5904402</v>
       </c>
       <c r="W28">
         <f ca="1"/>
-        <v>10512717</v>
+        <v>5946674</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4533,79 +4533,79 @@
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>19441684</v>
+        <v>28310368</v>
       </c>
       <c r="C29">
         <f ca="1"/>
-        <v>10937542</v>
+        <v>1953044</v>
       </c>
       <c r="D29">
         <f ca="1"/>
-        <v>37366270</v>
+        <v>50819188</v>
       </c>
       <c r="E29">
         <f ca="1"/>
-        <v>9075717</v>
+        <v>1867270</v>
       </c>
       <c r="F29">
         <f ca="1"/>
-        <v>38865372</v>
+        <v>34180985</v>
       </c>
       <c r="G29">
         <f ca="1"/>
-        <v>1574662</v>
+        <v>1602703</v>
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>1680595</v>
+        <v>2285112</v>
       </c>
       <c r="I29">
         <f ca="1"/>
-        <v>2051752</v>
+        <v>245640</v>
       </c>
       <c r="J29">
         <f ca="1"/>
-        <v>4851030</v>
+        <v>5838057</v>
       </c>
       <c r="K29">
         <f ca="1"/>
-        <v>4085652</v>
+        <v>623588</v>
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>5791127</v>
+        <v>4798683</v>
       </c>
       <c r="M29">
         <f ca="1"/>
-        <v>335975</v>
+        <v>397865</v>
       </c>
       <c r="N29">
         <f ca="1"/>
-        <v>15364243</v>
+        <v>16589974</v>
       </c>
       <c r="O29">
         <f ca="1"/>
-        <v>8088007</v>
+        <v>7156738</v>
       </c>
       <c r="Q29">
         <f ca="1"/>
-        <v>6334515</v>
+        <v>4496199</v>
       </c>
       <c r="R29">
         <f ca="1"/>
-        <v>3063551</v>
+        <v>2598274</v>
       </c>
       <c r="T29">
         <f ca="1"/>
-        <v>23452250</v>
+        <v>23746712</v>
       </c>
       <c r="U29">
         <f ca="1"/>
-        <v>9398066</v>
+        <v>7094473</v>
       </c>
       <c r="W29">
         <f ca="1"/>
-        <v>14054184</v>
+        <v>16652239</v>
       </c>
     </row>
   </sheetData>
@@ -9755,16 +9755,18 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9853,11 +9855,11 @@
       </c>
       <c r="I5" s="16">
         <f ca="1">SIMS_E!W14</f>
-        <v>14627720.5</v>
+        <v>9986495.5</v>
       </c>
       <c r="J5" s="17">
         <f ca="1">SIMS_E!W15</f>
-        <v>0.49</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="16" x14ac:dyDescent="0.2">
@@ -9903,15 +9905,15 @@
       <c r="F9" s="11"/>
       <c r="H9" s="18">
         <f ca="1">I5* (1 - 0.524417 * J5 / 1.645006)</f>
-        <v>12342742.574260054</v>
+        <v>8171827.2458687713</v>
       </c>
       <c r="I9" s="18">
         <f ca="1">I5 * (1-I12)</f>
-        <v>13457502.860000001</v>
+        <v>9187575.8600000013</v>
       </c>
       <c r="J9" s="18">
         <f ca="1">I5* ( 1 - 2/44)</f>
-        <v>13962824.113636363</v>
+        <v>9532563.8863636367</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="16" x14ac:dyDescent="0.2">
@@ -10455,31 +10457,31 @@
       </c>
       <c r="B14" s="119">
         <f ca="1">MEDIAN(_xlfn.ANCHORARRAY(B20))</f>
-        <v>0.46150000000000002</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="C14" s="58">
         <f t="shared" ref="C14:P14" ca="1" si="2">MEDIAN(_xlfn.ANCHORARRAY(C20))</f>
-        <v>297.70650000000001</v>
+        <v>222.98700000000002</v>
       </c>
       <c r="D14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>197.559</v>
+        <v>198.185</v>
       </c>
       <c r="E14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32300000000000001</v>
+        <v>0.32650000000000001</v>
       </c>
       <c r="F14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41149999999999998</v>
+        <v>0.41300000000000003</v>
       </c>
       <c r="G14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73049999999999993</v>
+        <v>0.71750000000000003</v>
       </c>
       <c r="H14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88800000000000001</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="I14" s="60">
         <f t="shared" ca="1" si="2"/>
@@ -10487,27 +10489,27 @@
       </c>
       <c r="J14" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>96.217500000000001</v>
+        <v>76.375500000000002</v>
       </c>
       <c r="K14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>79.313999999999993</v>
+        <v>81.195999999999998</v>
       </c>
       <c r="L14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>181.423</v>
+        <v>140.91849999999999</v>
       </c>
       <c r="M14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>130.29349999999999</v>
+        <v>133.94200000000001</v>
       </c>
       <c r="N14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>118.08150000000001</v>
+        <v>109.11199999999999</v>
       </c>
       <c r="O14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>107.76050000000001</v>
+        <v>92.308999999999997</v>
       </c>
       <c r="P14" s="60">
         <f t="shared" ca="1" si="2"/>
@@ -10523,19 +10525,19 @@
       </c>
       <c r="B15" s="61">
         <f t="shared" ref="B15" ca="1" si="3">ROUND(B16/B14,2)</f>
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="C15" s="62">
         <f t="shared" ref="C15:P15" ca="1" si="4">ROUND(C16/C14,2)</f>
-        <v>0.25</v>
+        <v>0.47</v>
       </c>
       <c r="D15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37</v>
+        <v>0.48</v>
       </c>
       <c r="E15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="F15" s="63">
         <f t="shared" ca="1" si="4"/>
@@ -10543,11 +10545,11 @@
       </c>
       <c r="G15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42</v>
+        <v>0.23</v>
       </c>
       <c r="H15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I15" s="64" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -10555,27 +10557,27 @@
       </c>
       <c r="J15" s="62">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="K15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="L15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
       <c r="M15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="N15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44</v>
+        <v>0.68</v>
       </c>
       <c r="P15" s="64" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -10590,27 +10592,27 @@
       </c>
       <c r="B16" s="65">
         <f t="shared" ref="B16" ca="1" si="5">(B18-B17)/2</f>
-        <v>1.999999999999999E-2</v>
+        <v>1.4999999999999986E-2</v>
       </c>
       <c r="C16" s="66">
         <f t="shared" ref="C16:P16" ca="1" si="6">(C18-C17)/2</f>
-        <v>75.114999999999995</v>
+        <v>103.71999999999998</v>
       </c>
       <c r="D16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>72.185000000000002</v>
+        <v>95.97</v>
       </c>
       <c r="E16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9999999999999989E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0000000000000017E-2</v>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="G16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>0.30500000000000005</v>
+        <v>0.16499999999999998</v>
       </c>
       <c r="H16" s="67">
         <f t="shared" ca="1" si="6"/>
@@ -10622,27 +10624,27 @@
       </c>
       <c r="J16" s="66">
         <f t="shared" ca="1" si="6"/>
-        <v>29.26</v>
+        <v>34.064999999999998</v>
       </c>
       <c r="K16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>35.405000000000001</v>
+        <v>40.370000000000005</v>
       </c>
       <c r="L16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>49.325000000000003</v>
+        <v>64.965000000000003</v>
       </c>
       <c r="M16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>52.269999999999996</v>
+        <v>62.194999999999993</v>
       </c>
       <c r="N16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>61.864999999999995</v>
+        <v>60.175000000000004</v>
       </c>
       <c r="O16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>47.164999999999999</v>
+        <v>62.55</v>
       </c>
       <c r="P16" s="68">
         <f t="shared" ca="1" si="6"/>
@@ -10657,31 +10659,31 @@
       </c>
       <c r="B17" s="120">
         <f t="shared" ref="B17:P17" ca="1" si="7">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20),ci_alpha/2),2)</f>
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="C17" s="66">
         <f t="shared" ca="1" si="7"/>
-        <v>183.02</v>
+        <v>164.34</v>
       </c>
       <c r="D17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>142.88</v>
+        <v>92.45</v>
       </c>
       <c r="E17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="F17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="G17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="H17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>0.61</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I17" s="68">
         <f t="shared" ca="1" si="7"/>
@@ -10689,27 +10691,27 @@
       </c>
       <c r="J17" s="66">
         <f t="shared" ca="1" si="7"/>
-        <v>56.73</v>
+        <v>53.07</v>
       </c>
       <c r="K17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>54.94</v>
+        <v>36.44</v>
       </c>
       <c r="L17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>110.63</v>
+        <v>105.48</v>
       </c>
       <c r="M17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>89.84</v>
+        <v>61.77</v>
       </c>
       <c r="N17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>72.16</v>
+        <v>70.260000000000005</v>
       </c>
       <c r="O17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>69.489999999999995</v>
+        <v>41.9</v>
       </c>
       <c r="P17" s="68">
         <f t="shared" ca="1" si="7"/>
@@ -10728,11 +10730,11 @@
       </c>
       <c r="C18" s="66">
         <f t="shared" ca="1" si="8"/>
-        <v>333.25</v>
+        <v>371.78</v>
       </c>
       <c r="D18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>287.25</v>
+        <v>284.39</v>
       </c>
       <c r="E18" s="67">
         <f t="shared" ca="1" si="8"/>
@@ -10740,15 +10742,15 @@
       </c>
       <c r="F18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="G18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>1.05</v>
+        <v>0.94</v>
       </c>
       <c r="H18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="I18" s="68">
         <f t="shared" ca="1" si="8"/>
@@ -10756,27 +10758,27 @@
       </c>
       <c r="J18" s="66">
         <f t="shared" ca="1" si="8"/>
-        <v>115.25</v>
+        <v>121.2</v>
       </c>
       <c r="K18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>125.75</v>
+        <v>117.18</v>
       </c>
       <c r="L18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>209.28</v>
+        <v>235.41</v>
       </c>
       <c r="M18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>194.38</v>
+        <v>186.16</v>
       </c>
       <c r="N18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>195.89</v>
+        <v>190.61</v>
       </c>
       <c r="O18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>163.82</v>
+        <v>167</v>
       </c>
       <c r="P18" s="68">
         <f t="shared" ca="1" si="8"/>
@@ -10797,17 +10799,17 @@
       <c r="I19" s="56"/>
       <c r="J19" s="69">
         <f ca="1">ROUND(C20*E20, 3)</f>
-        <v>115.989</v>
+        <v>77.861000000000004</v>
       </c>
       <c r="K19" s="54"/>
       <c r="L19" s="70">
         <f ca="1">ROUND(C20 * (1  + E20) * $B20,3)</f>
-        <v>203.17</v>
+        <v>155.79599999999999</v>
       </c>
       <c r="M19" s="70"/>
       <c r="N19" s="70">
         <f ca="1">ROUND(L20*G20, 3)</f>
-        <v>98.741</v>
+        <v>142.398</v>
       </c>
       <c r="O19" s="54"/>
       <c r="P19" s="56"/>
@@ -10819,31 +10821,31 @@
       </c>
       <c r="B20" s="72" cm="1">
         <f t="array" aca="1" ref="B20:B29" ca="1">IF(B12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),B6,B7),3),_xlfn.SEQUENCE(n_iter, 1, B6, 0))</f>
-        <v>0.47399999999999998</v>
+        <v>0.47</v>
       </c>
       <c r="C20" s="72" cm="1">
         <f t="array" aca="1" ref="C20:C29" ca="1">IF(C12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),C6,C7),3),_xlfn.SEQUENCE(n_iter, 1, C6, 0))</f>
-        <v>312.63900000000001</v>
+        <v>253.62</v>
       </c>
       <c r="D20" s="72" cm="1">
         <f t="array" aca="1" ref="D20:D29" ca="1">IF(D12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),D6,D7),3),_xlfn.SEQUENCE(n_iter, 1, D6, 0))</f>
-        <v>188.952</v>
+        <v>287.14600000000002</v>
       </c>
       <c r="E20" s="72" cm="1">
         <f t="array" aca="1" ref="E20:E29" ca="1">IF(E12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),E6,E7),3),_xlfn.SEQUENCE(n_iter, 1, E6, 0))</f>
-        <v>0.371</v>
+        <v>0.307</v>
       </c>
       <c r="F20" s="72" cm="1">
         <f t="array" aca="1" ref="F20:F29" ca="1">IF(F12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),F6,F7),3),_xlfn.SEQUENCE(n_iter, 1, F6, 0))</f>
-        <v>0.38200000000000001</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="G20" s="72" cm="1">
         <f t="array" aca="1" ref="G20:G29" ca="1">IF(G12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),G6,G7),3),_xlfn.SEQUENCE(n_iter, 1, G6, 0))</f>
-        <v>0.48599999999999999</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="H20" s="72" cm="1">
         <f t="array" aca="1" ref="H20:H29" ca="1">IF(H12=1, ROUND(BETAINV(_xlfn.RANDARRAY(n_iter, 1),H9,H10),3),_xlfn.SEQUENCE(n_iter, 1, H6, 0))</f>
-        <v>0.73799999999999999</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="I20" s="72" cm="1">
         <f t="array" aca="1" ref="I20:I29" ca="1">IF(I12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),I6,I7),3),_xlfn.SEQUENCE(n_iter, 1, I6, 0))</f>
@@ -10851,27 +10853,27 @@
       </c>
       <c r="J20" s="121" cm="1">
         <f t="array" aca="1" ref="J20:J29" ca="1">ROUND(_xlfn.ANCHORARRAY(C20) *_xlfn.ANCHORARRAY( E20), 3)</f>
-        <v>115.989</v>
+        <v>77.861000000000004</v>
       </c>
       <c r="K20" s="121" cm="1">
         <f t="array" aca="1" ref="K20:K29" ca="1">ROUND(_xlfn.ANCHORARRAY(D20) *_xlfn.ANCHORARRAY( F20), 3)</f>
-        <v>72.180000000000007</v>
+        <v>103.947</v>
       </c>
       <c r="L20" s="121" cm="1">
         <f t="array" aca="1" ref="L20:L29" ca="1">ROUND(_xlfn.ANCHORARRAY(C20) * (1 +_xlfn.ANCHORARRAY( E20)) *_xlfn.ANCHORARRAY( $B20), 3)</f>
-        <v>203.17</v>
+        <v>155.79599999999999</v>
       </c>
       <c r="M20" s="121" cm="1">
         <f t="array" aca="1" ref="M20:M29" ca="1">ROUND(_xlfn.ANCHORARRAY(D20) * (1 +_xlfn.ANCHORARRAY( F20)) *_xlfn.ANCHORARRAY( $B20), 3)</f>
-        <v>123.776</v>
+        <v>183.81399999999999</v>
       </c>
       <c r="N20" s="121" cm="1">
         <f t="array" aca="1" ref="N20:N29" ca="1">ROUND(_xlfn.ANCHORARRAY(L20) *_xlfn.ANCHORARRAY( G20), 3)</f>
-        <v>98.741</v>
+        <v>142.398</v>
       </c>
       <c r="O20" s="121" cm="1">
         <f t="array" aca="1" ref="O20:O29" ca="1">ROUND(_xlfn.ANCHORARRAY(M20) *_xlfn.ANCHORARRAY( H20), 3)</f>
-        <v>91.346999999999994</v>
+        <v>166.535</v>
       </c>
       <c r="P20" s="122" cm="1">
         <f t="array" aca="1" ref="P20:P29" ca="1">_xlfn.ANCHORARRAY(I20)</f>
@@ -10885,31 +10887,31 @@
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>0.48499999999999999</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>316.73700000000002</v>
+        <v>181.69200000000001</v>
       </c>
       <c r="D21">
         <f ca="1"/>
-        <v>210.97800000000001</v>
+        <v>253.85</v>
       </c>
       <c r="E21">
         <f ca="1"/>
-        <v>0.36099999999999999</v>
+        <v>0.317</v>
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>0.38900000000000001</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="G21">
         <f ca="1"/>
-        <v>0.65</v>
+        <v>0.628</v>
       </c>
       <c r="H21">
         <f ca="1"/>
-        <v>0.88600000000000001</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="I21">
         <f ca="1"/>
@@ -10917,27 +10919,27 @@
       </c>
       <c r="J21">
         <f ca="1"/>
-        <v>114.342</v>
+        <v>57.595999999999997</v>
       </c>
       <c r="K21">
         <f ca="1"/>
-        <v>82.07</v>
+        <v>112.709</v>
       </c>
       <c r="L21">
         <f ca="1"/>
-        <v>209.07300000000001</v>
+        <v>111.26900000000001</v>
       </c>
       <c r="M21">
         <f ca="1"/>
-        <v>142.12799999999999</v>
+        <v>170.45</v>
       </c>
       <c r="N21">
         <f ca="1"/>
-        <v>135.89699999999999</v>
+        <v>69.876999999999995</v>
       </c>
       <c r="O21">
         <f ca="1"/>
-        <v>125.925</v>
+        <v>158.00700000000001</v>
       </c>
       <c r="P21">
         <f ca="1"/>
@@ -10950,31 +10952,31 @@
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>0.49099999999999999</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="C22">
         <f ca="1"/>
-        <v>261.84500000000003</v>
+        <v>221.71</v>
       </c>
       <c r="D22">
         <f ca="1"/>
-        <v>204.67599999999999</v>
+        <v>119.925</v>
       </c>
       <c r="E22">
         <f ca="1"/>
-        <v>0.36699999999999999</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>0.40500000000000003</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="G22">
         <f ca="1"/>
-        <v>0.39900000000000002</v>
+        <v>0.76</v>
       </c>
       <c r="H22">
         <f ca="1"/>
-        <v>0.68899999999999995</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="I22">
         <f ca="1"/>
@@ -10982,27 +10984,27 @@
       </c>
       <c r="J22">
         <f ca="1"/>
-        <v>96.096999999999994</v>
+        <v>79.372</v>
       </c>
       <c r="K22">
         <f ca="1"/>
-        <v>82.894000000000005</v>
+        <v>57.923999999999999</v>
       </c>
       <c r="L22">
         <f ca="1"/>
-        <v>175.75</v>
+        <v>136.38999999999999</v>
       </c>
       <c r="M22">
         <f ca="1"/>
-        <v>141.197</v>
+        <v>80.564999999999998</v>
       </c>
       <c r="N22">
         <f ca="1"/>
-        <v>70.123999999999995</v>
+        <v>103.65600000000001</v>
       </c>
       <c r="O22">
         <f ca="1"/>
-        <v>97.284999999999997</v>
+        <v>64.209999999999994</v>
       </c>
       <c r="P22">
         <f ca="1"/>
@@ -11015,31 +11017,31 @@
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>0.46400000000000002</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="C23">
         <f ca="1"/>
-        <v>195.995</v>
+        <v>255.154</v>
       </c>
       <c r="D23">
         <f ca="1"/>
-        <v>207.935</v>
+        <v>124.596</v>
       </c>
       <c r="E23">
         <f ca="1"/>
-        <v>0.32600000000000001</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>0.41799999999999998</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="G23">
         <f ca="1"/>
-        <v>0.61899999999999999</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="H23">
         <f ca="1"/>
-        <v>0.89</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="I23">
         <f ca="1"/>
@@ -11047,27 +11049,27 @@
       </c>
       <c r="J23">
         <f ca="1"/>
-        <v>63.893999999999998</v>
+        <v>97.724000000000004</v>
       </c>
       <c r="K23">
         <f ca="1"/>
-        <v>86.917000000000002</v>
+        <v>49.34</v>
       </c>
       <c r="L23">
         <f ca="1"/>
-        <v>120.589</v>
+        <v>164.441</v>
       </c>
       <c r="M23">
         <f ca="1"/>
-        <v>136.81100000000001</v>
+        <v>81.054000000000002</v>
       </c>
       <c r="N23">
         <f ca="1"/>
-        <v>74.644999999999996</v>
+        <v>113.79300000000001</v>
       </c>
       <c r="O23">
         <f ca="1"/>
-        <v>121.762</v>
+        <v>59.817999999999998</v>
       </c>
       <c r="P23">
         <f ca="1"/>
@@ -11080,31 +11082,31 @@
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>0.45900000000000002</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="C24">
         <f ca="1"/>
-        <v>346.75599999999997</v>
+        <v>224.26400000000001</v>
       </c>
       <c r="D24">
         <f ca="1"/>
-        <v>286.649</v>
+        <v>204.459</v>
       </c>
       <c r="E24">
         <f ca="1"/>
-        <v>0.316</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>0.42399999999999999</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="G24">
         <f ca="1"/>
-        <v>0.81599999999999995</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>0.77200000000000002</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="I24">
         <f ca="1"/>
@@ -11112,27 +11114,27 @@
       </c>
       <c r="J24">
         <f ca="1"/>
-        <v>109.575</v>
+        <v>73.783000000000001</v>
       </c>
       <c r="K24">
         <f ca="1"/>
-        <v>121.539</v>
+        <v>88.122</v>
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>209.45599999999999</v>
+        <v>145.447</v>
       </c>
       <c r="M24">
         <f ca="1"/>
-        <v>187.358</v>
+        <v>142.779</v>
       </c>
       <c r="N24">
         <f ca="1"/>
-        <v>170.916</v>
+        <v>104.431</v>
       </c>
       <c r="O24">
         <f ca="1"/>
-        <v>144.63999999999999</v>
+        <v>73.245999999999995</v>
       </c>
       <c r="P24">
         <f ca="1"/>
@@ -11145,31 +11147,31 @@
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>0.45100000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="C25">
         <f ca="1"/>
-        <v>301.05599999999998</v>
+        <v>174.06100000000001</v>
       </c>
       <c r="D25">
         <f ca="1"/>
-        <v>143.649</v>
+        <v>191.911</v>
       </c>
       <c r="E25">
         <f ca="1"/>
-        <v>0.32</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>0.45900000000000002</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="G25">
         <f ca="1"/>
-        <v>1.2070000000000001</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>0.89200000000000002</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="I25">
         <f ca="1"/>
@@ -11177,27 +11179,27 @@
       </c>
       <c r="J25">
         <f ca="1"/>
-        <v>96.337999999999994</v>
+        <v>56.396000000000001</v>
       </c>
       <c r="K25">
         <f ca="1"/>
-        <v>65.935000000000002</v>
+        <v>74.27</v>
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>179.22499999999999</v>
+        <v>108.315</v>
       </c>
       <c r="M25">
         <f ca="1"/>
-        <v>94.522000000000006</v>
+        <v>125.105</v>
       </c>
       <c r="N25">
         <f ca="1"/>
-        <v>216.32499999999999</v>
+        <v>70.73</v>
       </c>
       <c r="O25">
         <f ca="1"/>
-        <v>84.313999999999993</v>
+        <v>99.959000000000003</v>
       </c>
       <c r="P25">
         <f ca="1"/>
@@ -11210,31 +11212,31 @@
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>0.45700000000000002</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="C26">
         <f ca="1"/>
-        <v>294.35700000000003</v>
+        <v>330.17399999999998</v>
       </c>
       <c r="D26">
         <f ca="1"/>
-        <v>142.24799999999999</v>
+        <v>281.024</v>
       </c>
       <c r="E26">
         <f ca="1"/>
-        <v>0.36499999999999999</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>0.32300000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="G26">
         <f ca="1"/>
-        <v>0.69099999999999995</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>0.997</v>
+        <v>0.89</v>
       </c>
       <c r="I26">
         <f ca="1"/>
@@ -11242,27 +11244,27 @@
       </c>
       <c r="J26">
         <f ca="1"/>
-        <v>107.44</v>
+        <v>112.589</v>
       </c>
       <c r="K26">
         <f ca="1"/>
-        <v>45.945999999999998</v>
+        <v>120.84</v>
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>183.62100000000001</v>
+        <v>207.21299999999999</v>
       </c>
       <c r="M26">
         <f ca="1"/>
-        <v>86.004999999999995</v>
+        <v>188.07300000000001</v>
       </c>
       <c r="N26">
         <f ca="1"/>
-        <v>126.88200000000001</v>
+        <v>124.535</v>
       </c>
       <c r="O26">
         <f ca="1"/>
-        <v>85.747</v>
+        <v>167.38499999999999</v>
       </c>
       <c r="P26">
         <f ca="1"/>
@@ -11275,31 +11277,31 @@
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>0.45900000000000002</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="C27">
         <f ca="1"/>
-        <v>172.40899999999999</v>
+        <v>215.20099999999999</v>
       </c>
       <c r="D27">
         <f ca="1"/>
-        <v>157.78700000000001</v>
+        <v>227.56800000000001</v>
       </c>
       <c r="E27">
         <f ca="1"/>
-        <v>0.29499999999999998</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>0.44</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="G27">
         <f ca="1"/>
-        <v>0.84699999999999998</v>
+        <v>0.96</v>
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>0.55000000000000004</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="I27">
         <f ca="1"/>
@@ -11307,27 +11309,27 @@
       </c>
       <c r="J27">
         <f ca="1"/>
-        <v>50.860999999999997</v>
+        <v>74.89</v>
       </c>
       <c r="K27">
         <f ca="1"/>
-        <v>69.426000000000002</v>
+        <v>102.178</v>
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>102.48099999999999</v>
+        <v>132.86199999999999</v>
       </c>
       <c r="M27">
         <f ca="1"/>
-        <v>104.291</v>
+        <v>151.024</v>
       </c>
       <c r="N27">
         <f ca="1"/>
-        <v>86.801000000000002</v>
+        <v>127.548</v>
       </c>
       <c r="O27">
         <f ca="1"/>
-        <v>57.36</v>
+        <v>127.011</v>
       </c>
       <c r="P27">
         <f ca="1"/>
@@ -11340,31 +11342,31 @@
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>0.45700000000000002</v>
+        <v>0.499</v>
       </c>
       <c r="C28">
         <f ca="1"/>
-        <v>238.52099999999999</v>
+        <v>156.386</v>
       </c>
       <c r="D28">
         <f ca="1"/>
-        <v>190.44200000000001</v>
+        <v>167.63800000000001</v>
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>0.30199999999999999</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="F28">
         <f ca="1"/>
-        <v>0.40200000000000002</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="G28">
         <f ca="1"/>
-        <v>0.77</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>0.96899999999999997</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="I28">
         <f ca="1"/>
@@ -11372,27 +11374,27 @@
       </c>
       <c r="J28">
         <f ca="1"/>
-        <v>72.033000000000001</v>
+        <v>50.356000000000002</v>
       </c>
       <c r="K28">
         <f ca="1"/>
-        <v>76.558000000000007</v>
+        <v>66.049000000000007</v>
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>141.923</v>
+        <v>103.164</v>
       </c>
       <c r="M28">
         <f ca="1"/>
-        <v>122.01900000000001</v>
+        <v>116.61</v>
       </c>
       <c r="N28">
         <f ca="1"/>
-        <v>109.28100000000001</v>
+        <v>73.968999999999994</v>
       </c>
       <c r="O28">
         <f ca="1"/>
-        <v>118.236</v>
+        <v>84.659000000000006</v>
       </c>
       <c r="P28">
         <f ca="1"/>
@@ -11405,31 +11407,31 @@
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>0.48</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="C29">
         <f ca="1"/>
-        <v>307.404</v>
+        <v>405.82299999999998</v>
       </c>
       <c r="D29">
         <f ca="1"/>
-        <v>287.74400000000003</v>
+        <v>69.966999999999999</v>
       </c>
       <c r="E29">
         <f ca="1"/>
-        <v>0.245</v>
+        <v>0.316</v>
       </c>
       <c r="F29">
         <f ca="1"/>
-        <v>0.44900000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="G29">
         <f ca="1"/>
-        <v>0.83199999999999996</v>
+        <v>0.89</v>
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>0.89700000000000002</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="I29">
         <f ca="1"/>
@@ -11437,27 +11439,27 @@
       </c>
       <c r="J29">
         <f ca="1"/>
-        <v>75.313999999999993</v>
+        <v>128.24</v>
       </c>
       <c r="K29">
         <f ca="1"/>
-        <v>129.197</v>
+        <v>25.888000000000002</v>
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>183.70500000000001</v>
+        <v>258.48700000000002</v>
       </c>
       <c r="M29">
         <f ca="1"/>
-        <v>200.13200000000001</v>
+        <v>46.393999999999998</v>
       </c>
       <c r="N29">
         <f ca="1"/>
-        <v>152.84299999999999</v>
+        <v>230.053</v>
       </c>
       <c r="O29">
         <f ca="1"/>
-        <v>179.518</v>
+        <v>27.233000000000001</v>
       </c>
       <c r="P29">
         <f ca="1"/>
@@ -11802,51 +11804,51 @@
       </c>
       <c r="B14" s="58">
         <f t="shared" ref="B14:M14" ca="1" si="0">MEDIAN(_xlfn.ANCHORARRAY(B20))</f>
-        <v>665.21749999999997</v>
+        <v>516.70150000000001</v>
       </c>
       <c r="C14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>477.74250000000001</v>
+        <v>491.12049999999999</v>
       </c>
       <c r="D14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>432.96550000000002</v>
+        <v>400.07749999999999</v>
       </c>
       <c r="E14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>395.12199999999996</v>
+        <v>338.46600000000001</v>
       </c>
       <c r="F14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>154.887</v>
+        <v>128.91849999999999</v>
       </c>
       <c r="G14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>67.49799999999999</v>
+        <v>76.860500000000002</v>
       </c>
       <c r="H14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>665.21749999999997</v>
+        <v>516.70150000000001</v>
       </c>
       <c r="I14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>477.74250000000001</v>
+        <v>491.12049999999999</v>
       </c>
       <c r="J14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>432.96550000000002</v>
+        <v>400.07749999999999</v>
       </c>
       <c r="K14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>395.12199999999996</v>
+        <v>338.46600000000001</v>
       </c>
       <c r="L14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>154.887</v>
+        <v>128.91849999999999</v>
       </c>
       <c r="M14" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>67.49799999999999</v>
+        <v>76.860500000000002</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11855,51 +11857,51 @@
       </c>
       <c r="B15" s="62">
         <f t="shared" ref="B15:M15" ca="1" si="1">ROUND(B16/B14,2)</f>
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
       <c r="C15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="D15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44</v>
+        <v>0.68</v>
       </c>
       <c r="F15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4</v>
+        <v>0.84</v>
       </c>
       <c r="G15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>1.19</v>
+        <v>0.92</v>
       </c>
       <c r="H15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
       <c r="I15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="J15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44</v>
+        <v>0.68</v>
       </c>
       <c r="L15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4</v>
+        <v>0.84</v>
       </c>
       <c r="M15" s="76">
         <f t="shared" ca="1" si="1"/>
-        <v>1.19</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11908,51 +11910,51 @@
       </c>
       <c r="B16" s="58">
         <f t="shared" ref="B16:M16" ca="1" si="2">(B18-B17)/2</f>
-        <v>180.86500000000001</v>
+        <v>238.20499999999998</v>
       </c>
       <c r="C16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>191.66499999999999</v>
+        <v>228.04000000000002</v>
       </c>
       <c r="D16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>226.845</v>
+        <v>220.64</v>
       </c>
       <c r="E16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>172.94499999999999</v>
+        <v>229.36</v>
       </c>
       <c r="F16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>217.13499999999999</v>
+        <v>108.74000000000001</v>
       </c>
       <c r="G16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>80.17</v>
+        <v>70.430000000000007</v>
       </c>
       <c r="H16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>180.86500000000001</v>
+        <v>238.20499999999998</v>
       </c>
       <c r="I16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>191.66499999999999</v>
+        <v>228.04000000000002</v>
       </c>
       <c r="J16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>226.845</v>
+        <v>220.64</v>
       </c>
       <c r="K16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>172.94499999999999</v>
+        <v>229.36</v>
       </c>
       <c r="L16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>217.13499999999999</v>
+        <v>108.74000000000001</v>
       </c>
       <c r="M16" s="74">
         <f t="shared" ca="1" si="2"/>
-        <v>80.17</v>
+        <v>70.430000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11961,51 +11963,51 @@
       </c>
       <c r="B17" s="58">
         <f t="shared" ref="B17:M17" ca="1" si="3">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20),ci_alpha/2),2)</f>
-        <v>405.64</v>
+        <v>386.77</v>
       </c>
       <c r="C17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>329.41</v>
+        <v>226.49</v>
       </c>
       <c r="D17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>264.58</v>
+        <v>257.62</v>
       </c>
       <c r="E17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>254.79</v>
+        <v>153.62</v>
       </c>
       <c r="F17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>-48.95</v>
+        <v>32.82</v>
       </c>
       <c r="G17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>6.76</v>
+        <v>52.08</v>
       </c>
       <c r="H17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>405.64</v>
+        <v>386.77</v>
       </c>
       <c r="I17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>329.41</v>
+        <v>226.49</v>
       </c>
       <c r="J17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>264.58</v>
+        <v>257.62</v>
       </c>
       <c r="K17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>254.79</v>
+        <v>153.62</v>
       </c>
       <c r="L17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>-48.95</v>
+        <v>32.82</v>
       </c>
       <c r="M17" s="74">
         <f t="shared" ca="1" si="3"/>
-        <v>6.76</v>
+        <v>52.08</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12014,62 +12016,62 @@
       </c>
       <c r="B18" s="58">
         <f t="shared" ref="B18:M18" ca="1" si="4">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20), 1 - ci_alpha / 2), 2)</f>
-        <v>767.37</v>
+        <v>863.18</v>
       </c>
       <c r="C18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>712.74</v>
+        <v>682.57</v>
       </c>
       <c r="D18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>718.27</v>
+        <v>698.9</v>
       </c>
       <c r="E18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>600.67999999999995</v>
+        <v>612.34</v>
       </c>
       <c r="F18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>385.32</v>
+        <v>250.3</v>
       </c>
       <c r="G18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>167.1</v>
+        <v>192.94</v>
       </c>
       <c r="H18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>767.37</v>
+        <v>863.18</v>
       </c>
       <c r="I18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>712.74</v>
+        <v>682.57</v>
       </c>
       <c r="J18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>718.27</v>
+        <v>698.9</v>
       </c>
       <c r="K18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>600.67999999999995</v>
+        <v>612.34</v>
       </c>
       <c r="L18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>385.32</v>
+        <v>250.3</v>
       </c>
       <c r="M18" s="74">
         <f t="shared" ca="1" si="4"/>
-        <v>167.1</v>
+        <v>192.94</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="69">
         <f ca="1">ROUND((SIMS_EF_preparation!L20 - SIMS_EF_preparation!P20) * 44 / 12, 3)</f>
-        <v>744.95699999999999</v>
+        <v>571.25199999999995</v>
       </c>
       <c r="C19" s="127">
         <f ca="1">ROUND((SIMS_EF_preparation!M20 - SIMS_EF_preparation!P20) * 44 / 12, 3)</f>
-        <v>453.84500000000003</v>
+        <v>673.98500000000001</v>
       </c>
       <c r="D19" s="54"/>
       <c r="E19" s="54"/>
@@ -12089,51 +12091,51 @@
       </c>
       <c r="B20" s="72" cm="1">
         <f t="array" aca="1" ref="B20:B29" ca="1">ROUND((_xlfn.XLOOKUP(B$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(B$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>744.95699999999999</v>
+        <v>571.25199999999995</v>
       </c>
       <c r="C20" s="72" cm="1">
         <f t="array" aca="1" ref="C20:C29" ca="1">ROUND((_xlfn.XLOOKUP(C$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(C$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>453.84500000000003</v>
+        <v>673.98500000000001</v>
       </c>
       <c r="D20" s="72" cm="1">
         <f t="array" aca="1" ref="D20:D29" ca="1">ROUND((_xlfn.XLOOKUP(D$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(D$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>362.05</v>
+        <v>522.12599999999998</v>
       </c>
       <c r="E20" s="72" cm="1">
         <f t="array" aca="1" ref="E20:E29" ca="1">ROUND((_xlfn.XLOOKUP(E$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(E$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>334.93900000000002</v>
+        <v>610.62800000000004</v>
       </c>
       <c r="F20" s="72" cm="1">
         <f t="array" aca="1" ref="F20:F29" ca="1">ROUND((_xlfn.XLOOKUP(F$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(F$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>382.90600000000001</v>
+        <v>49.125999999999998</v>
       </c>
       <c r="G20" s="72" cm="1">
         <f t="array" aca="1" ref="G20:G29" ca="1">ROUND((_xlfn.XLOOKUP(G$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(G$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>118.90600000000001</v>
+        <v>63.356000000000002</v>
       </c>
       <c r="H20" s="72" cm="1">
         <f t="array" aca="1" ref="H20:H29" ca="1">ROUND((_xlfn.XLOOKUP(H$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(H$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>744.95699999999999</v>
+        <v>571.25199999999995</v>
       </c>
       <c r="I20" s="72" cm="1">
         <f t="array" aca="1" ref="I20:I29" ca="1">ROUND((_xlfn.XLOOKUP(I$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(I$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>453.84500000000003</v>
+        <v>673.98500000000001</v>
       </c>
       <c r="J20" s="72" cm="1">
         <f t="array" aca="1" ref="J20:J29" ca="1">ROUND((_xlfn.XLOOKUP(J$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(J$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>362.05</v>
+        <v>522.12599999999998</v>
       </c>
       <c r="K20" s="72" cm="1">
         <f t="array" aca="1" ref="K20:K29" ca="1">ROUND((_xlfn.XLOOKUP(K$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(K$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>334.93900000000002</v>
+        <v>610.62800000000004</v>
       </c>
       <c r="L20" s="72" cm="1">
         <f t="array" aca="1" ref="L20:L29" ca="1">ROUND((_xlfn.XLOOKUP(L$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(L$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>382.90600000000001</v>
+        <v>49.125999999999998</v>
       </c>
       <c r="M20" s="72" cm="1">
         <f t="array" aca="1" ref="M20:M29" ca="1">ROUND((_xlfn.XLOOKUP(M$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(M$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>118.90600000000001</v>
+        <v>63.356000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12142,51 +12144,51 @@
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>766.601</v>
+        <v>407.98599999999999</v>
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>521.13599999999997</v>
+        <v>624.98299999999995</v>
       </c>
       <c r="D21">
         <f ca="1"/>
-        <v>498.28899999999999</v>
+        <v>256.21600000000001</v>
       </c>
       <c r="E21">
         <f ca="1"/>
-        <v>461.72500000000002</v>
+        <v>579.35900000000004</v>
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>268.31200000000001</v>
+        <v>151.77099999999999</v>
       </c>
       <c r="G21">
         <f ca="1"/>
-        <v>59.411000000000001</v>
+        <v>45.624000000000002</v>
       </c>
       <c r="H21">
         <f ca="1"/>
-        <v>766.601</v>
+        <v>407.98599999999999</v>
       </c>
       <c r="I21">
         <f ca="1"/>
-        <v>521.13599999999997</v>
+        <v>624.98299999999995</v>
       </c>
       <c r="J21">
         <f ca="1"/>
-        <v>498.28899999999999</v>
+        <v>256.21600000000001</v>
       </c>
       <c r="K21">
         <f ca="1"/>
-        <v>461.72500000000002</v>
+        <v>579.35900000000004</v>
       </c>
       <c r="L21">
         <f ca="1"/>
-        <v>268.31200000000001</v>
+        <v>151.77099999999999</v>
       </c>
       <c r="M21">
         <f ca="1"/>
-        <v>59.411000000000001</v>
+        <v>45.624000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12195,51 +12197,51 @@
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>644.41700000000003</v>
+        <v>500.09699999999998</v>
       </c>
       <c r="C22">
         <f ca="1"/>
-        <v>517.72199999999998</v>
+        <v>295.40499999999997</v>
       </c>
       <c r="D22">
         <f ca="1"/>
-        <v>257.12099999999998</v>
+        <v>380.072</v>
       </c>
       <c r="E22">
         <f ca="1"/>
-        <v>356.71199999999999</v>
+        <v>235.43700000000001</v>
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>387.29500000000002</v>
+        <v>120.02500000000001</v>
       </c>
       <c r="G22">
         <f ca="1"/>
-        <v>161.011</v>
+        <v>59.968000000000004</v>
       </c>
       <c r="H22">
         <f ca="1"/>
-        <v>644.41700000000003</v>
+        <v>500.09699999999998</v>
       </c>
       <c r="I22">
         <f ca="1"/>
-        <v>517.72199999999998</v>
+        <v>295.40499999999997</v>
       </c>
       <c r="J22">
         <f ca="1"/>
-        <v>257.12099999999998</v>
+        <v>380.072</v>
       </c>
       <c r="K22">
         <f ca="1"/>
-        <v>356.71199999999999</v>
+        <v>235.43700000000001</v>
       </c>
       <c r="L22">
         <f ca="1"/>
-        <v>387.29500000000002</v>
+        <v>120.02500000000001</v>
       </c>
       <c r="M22">
         <f ca="1"/>
-        <v>161.011</v>
+        <v>59.968000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12248,51 +12250,51 @@
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>442.16</v>
+        <v>602.95000000000005</v>
       </c>
       <c r="C23">
         <f ca="1"/>
-        <v>501.64</v>
+        <v>297.19799999999998</v>
       </c>
       <c r="D23">
         <f ca="1"/>
-        <v>273.69799999999998</v>
+        <v>417.24099999999999</v>
       </c>
       <c r="E23">
         <f ca="1"/>
-        <v>446.46100000000001</v>
+        <v>219.333</v>
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>168.46100000000001</v>
+        <v>185.709</v>
       </c>
       <c r="G23">
         <f ca="1"/>
-        <v>55.18</v>
+        <v>77.864999999999995</v>
       </c>
       <c r="H23">
         <f ca="1"/>
-        <v>442.16</v>
+        <v>602.95000000000005</v>
       </c>
       <c r="I23">
         <f ca="1"/>
-        <v>501.64</v>
+        <v>297.19799999999998</v>
       </c>
       <c r="J23">
         <f ca="1"/>
-        <v>273.69799999999998</v>
+        <v>417.24099999999999</v>
       </c>
       <c r="K23">
         <f ca="1"/>
-        <v>446.46100000000001</v>
+        <v>219.333</v>
       </c>
       <c r="L23">
         <f ca="1"/>
-        <v>168.46100000000001</v>
+        <v>185.709</v>
       </c>
       <c r="M23">
         <f ca="1"/>
-        <v>55.18</v>
+        <v>77.864999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12301,51 +12303,51 @@
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>768.005</v>
+        <v>533.30600000000004</v>
       </c>
       <c r="C24">
         <f ca="1"/>
-        <v>686.97900000000004</v>
+        <v>523.52300000000002</v>
       </c>
       <c r="D24">
         <f ca="1"/>
-        <v>626.69200000000001</v>
+        <v>382.91399999999999</v>
       </c>
       <c r="E24">
         <f ca="1"/>
-        <v>530.34699999999998</v>
+        <v>268.56900000000002</v>
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>141.31299999999999</v>
+        <v>150.392</v>
       </c>
       <c r="G24">
         <f ca="1"/>
-        <v>156.63300000000001</v>
+        <v>254.95400000000001</v>
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>768.005</v>
+        <v>533.30600000000004</v>
       </c>
       <c r="I24">
         <f ca="1"/>
-        <v>686.97900000000004</v>
+        <v>523.52300000000002</v>
       </c>
       <c r="J24">
         <f ca="1"/>
-        <v>626.69200000000001</v>
+        <v>382.91399999999999</v>
       </c>
       <c r="K24">
         <f ca="1"/>
-        <v>530.34699999999998</v>
+        <v>268.56900000000002</v>
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>141.31299999999999</v>
+        <v>150.392</v>
       </c>
       <c r="M24">
         <f ca="1"/>
-        <v>156.63300000000001</v>
+        <v>254.95400000000001</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12354,51 +12356,51 @@
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>657.15800000000002</v>
+        <v>397.15499999999997</v>
       </c>
       <c r="C25">
         <f ca="1"/>
-        <v>346.58100000000002</v>
+        <v>458.71800000000002</v>
       </c>
       <c r="D25">
         <f ca="1"/>
-        <v>793.19200000000001</v>
+        <v>259.34300000000002</v>
       </c>
       <c r="E25">
         <f ca="1"/>
-        <v>309.15100000000001</v>
+        <v>366.51600000000002</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>-136.03299999999999</v>
+        <v>137.81200000000001</v>
       </c>
       <c r="G25">
         <f ca="1"/>
-        <v>37.429000000000002</v>
+        <v>92.201999999999998</v>
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>657.15800000000002</v>
+        <v>397.15499999999997</v>
       </c>
       <c r="I25">
         <f ca="1"/>
-        <v>346.58100000000002</v>
+        <v>458.71800000000002</v>
       </c>
       <c r="J25">
         <f ca="1"/>
-        <v>793.19200000000001</v>
+        <v>259.34300000000002</v>
       </c>
       <c r="K25">
         <f ca="1"/>
-        <v>309.15100000000001</v>
+        <v>366.51600000000002</v>
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>-136.03299999999999</v>
+        <v>137.81200000000001</v>
       </c>
       <c r="M25">
         <f ca="1"/>
-        <v>37.429000000000002</v>
+        <v>92.201999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12407,51 +12409,51 @@
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>673.27700000000004</v>
+        <v>759.78099999999995</v>
       </c>
       <c r="C26">
         <f ca="1"/>
-        <v>315.35199999999998</v>
+        <v>689.601</v>
       </c>
       <c r="D26">
         <f ca="1"/>
-        <v>465.23399999999998</v>
+        <v>456.62799999999999</v>
       </c>
       <c r="E26">
         <f ca="1"/>
-        <v>314.40600000000001</v>
+        <v>613.745</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>208.04300000000001</v>
+        <v>303.15300000000002</v>
       </c>
       <c r="G26">
         <f ca="1"/>
-        <v>0.94599999999999995</v>
+        <v>75.855999999999995</v>
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>673.27700000000004</v>
+        <v>759.78099999999995</v>
       </c>
       <c r="I26">
         <f ca="1"/>
-        <v>315.35199999999998</v>
+        <v>689.601</v>
       </c>
       <c r="J26">
         <f ca="1"/>
-        <v>465.23399999999998</v>
+        <v>456.62799999999999</v>
       </c>
       <c r="K26">
         <f ca="1"/>
-        <v>314.40600000000001</v>
+        <v>613.745</v>
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>208.04300000000001</v>
+        <v>303.15300000000002</v>
       </c>
       <c r="M26">
         <f ca="1"/>
-        <v>0.94599999999999995</v>
+        <v>75.855999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12460,51 +12462,51 @@
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>375.76400000000001</v>
+        <v>487.161</v>
       </c>
       <c r="C27">
         <f ca="1"/>
-        <v>382.4</v>
+        <v>553.755</v>
       </c>
       <c r="D27">
         <f ca="1"/>
-        <v>318.27</v>
+        <v>467.67599999999999</v>
       </c>
       <c r="E27">
         <f ca="1"/>
-        <v>210.32</v>
+        <v>465.70699999999999</v>
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>57.493000000000002</v>
+        <v>19.484999999999999</v>
       </c>
       <c r="G27">
         <f ca="1"/>
-        <v>172.08</v>
+        <v>88.048000000000002</v>
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>375.76400000000001</v>
+        <v>487.161</v>
       </c>
       <c r="I27">
         <f ca="1"/>
-        <v>382.4</v>
+        <v>553.755</v>
       </c>
       <c r="J27">
         <f ca="1"/>
-        <v>318.27</v>
+        <v>467.67599999999999</v>
       </c>
       <c r="K27">
         <f ca="1"/>
-        <v>210.32</v>
+        <v>465.70699999999999</v>
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>57.493000000000002</v>
+        <v>19.484999999999999</v>
       </c>
       <c r="M27">
         <f ca="1"/>
-        <v>172.08</v>
+        <v>88.048000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12513,51 +12515,51 @@
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>520.38400000000001</v>
+        <v>378.26799999999997</v>
       </c>
       <c r="C28">
         <f ca="1"/>
-        <v>447.40300000000002</v>
+        <v>427.57</v>
       </c>
       <c r="D28">
         <f ca="1"/>
-        <v>400.697</v>
+        <v>271.22000000000003</v>
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>433.53199999999998</v>
+        <v>310.416</v>
       </c>
       <c r="F28">
         <f ca="1"/>
-        <v>119.687</v>
+        <v>107.048</v>
       </c>
       <c r="G28">
         <f ca="1"/>
-        <v>13.871</v>
+        <v>117.154</v>
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>520.38400000000001</v>
+        <v>378.26799999999997</v>
       </c>
       <c r="I28">
         <f ca="1"/>
-        <v>447.40300000000002</v>
+        <v>427.57</v>
       </c>
       <c r="J28">
         <f ca="1"/>
-        <v>400.697</v>
+        <v>271.22000000000003</v>
       </c>
       <c r="K28">
         <f ca="1"/>
-        <v>433.53199999999998</v>
+        <v>310.416</v>
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>119.687</v>
+        <v>107.048</v>
       </c>
       <c r="M28">
         <f ca="1"/>
-        <v>13.871</v>
+        <v>117.154</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12566,51 +12568,51 @@
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>673.58500000000004</v>
+        <v>947.78599999999994</v>
       </c>
       <c r="C29">
         <f ca="1"/>
-        <v>733.81700000000001</v>
+        <v>170.11099999999999</v>
       </c>
       <c r="D29">
         <f ca="1"/>
-        <v>560.42399999999998</v>
+        <v>843.52800000000002</v>
       </c>
       <c r="E29">
         <f ca="1"/>
-        <v>658.23299999999995</v>
+        <v>99.853999999999999</v>
       </c>
       <c r="F29">
         <f ca="1"/>
-        <v>113.161</v>
+        <v>104.258</v>
       </c>
       <c r="G29">
         <f ca="1"/>
-        <v>75.584999999999994</v>
+        <v>70.257000000000005</v>
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>673.58500000000004</v>
+        <v>947.78599999999994</v>
       </c>
       <c r="I29">
         <f ca="1"/>
-        <v>733.81700000000001</v>
+        <v>170.11099999999999</v>
       </c>
       <c r="J29">
         <f ca="1"/>
-        <v>560.42399999999998</v>
+        <v>843.52800000000002</v>
       </c>
       <c r="K29">
         <f ca="1"/>
-        <v>658.23299999999995</v>
+        <v>99.853999999999999</v>
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>113.161</v>
+        <v>104.258</v>
       </c>
       <c r="M29">
         <f ca="1"/>
-        <v>75.584999999999994</v>
+        <v>70.257000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/example2-with-sims.xlsx
+++ b/inst/extdata/example2-with-sims.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaelsola/Github-Collabs/mocaredd/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06B2346-E486-7C4E-9D6E-1F7560B249E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DF2BE8-2CE4-7847-A242-5A5A63D0394E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="760" windowWidth="28860" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,21 +476,6 @@
     <t>trans_placeholder</t>
   </si>
   <si>
-    <t>trans_lu_initial_id</t>
-  </si>
-  <si>
-    <t>trans_lu_final_id</t>
-  </si>
-  <si>
-    <t>trans_lu_initial</t>
-  </si>
-  <si>
-    <t>trans_lu_final</t>
-  </si>
-  <si>
-    <t>trans_redd_activity</t>
-  </si>
-  <si>
     <t>c_lu_id</t>
   </si>
   <si>
@@ -498,6 +483,21 @@
   </si>
   <si>
     <t>c_lu_name</t>
+  </si>
+  <si>
+    <t>lu_initial_id</t>
+  </si>
+  <si>
+    <t>lu_final_id</t>
+  </si>
+  <si>
+    <t>lu_initial</t>
+  </si>
+  <si>
+    <t>lu_final</t>
+  </si>
+  <si>
+    <t>redd_activity</t>
   </si>
 </sst>
 </file>
@@ -2106,51 +2106,51 @@
       </c>
       <c r="B14" s="84">
         <f t="shared" ref="B14:M14" ca="1" si="0">MEDIAN(_xlfn.ANCHORARRAY(B20))</f>
-        <v>22583</v>
+        <v>21732.5</v>
       </c>
       <c r="C14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>10736.5</v>
+        <v>11672</v>
       </c>
       <c r="D14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>59789</v>
+        <v>57795</v>
       </c>
       <c r="E14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>17531</v>
+        <v>16884</v>
       </c>
       <c r="F14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>309288.5</v>
+        <v>312948</v>
       </c>
       <c r="G14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>23121</v>
+        <v>22836</v>
       </c>
       <c r="H14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>1988</v>
+        <v>2178</v>
       </c>
       <c r="I14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>2311.5</v>
+        <v>1826</v>
       </c>
       <c r="J14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>6774</v>
+        <v>6495</v>
       </c>
       <c r="K14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>6088.5</v>
+        <v>6785</v>
       </c>
       <c r="L14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>46156</v>
       </c>
       <c r="M14" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>5630</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2159,51 +2159,51 @@
       </c>
       <c r="B15" s="87">
         <f t="shared" ref="B15:M15" ca="1" si="1">ROUND(B16/B14,2)</f>
-        <v>0.48</v>
+        <v>0.69</v>
       </c>
       <c r="C15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="D15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="E15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="F15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="G15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="H15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="I15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="J15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="K15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="L15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M15" s="89">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2212,51 +2212,51 @@
       </c>
       <c r="B16" s="90">
         <f t="shared" ref="B16:M16" ca="1" si="2">(B18-B17)/2</f>
-        <v>10840.45</v>
+        <v>14902.650000000001</v>
       </c>
       <c r="C16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>2578.0499999999997</v>
+        <v>2430.5</v>
       </c>
       <c r="D16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>23948.300000000003</v>
+        <v>20340.650000000001</v>
       </c>
       <c r="E16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>5020.8000000000011</v>
+        <v>5099.4250000000002</v>
       </c>
       <c r="F16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>19204.924999999988</v>
+        <v>49590.875</v>
       </c>
       <c r="G16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>3168.9750000000004</v>
+        <v>2921.7250000000004</v>
       </c>
       <c r="H16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>638.17500000000007</v>
+        <v>533.25</v>
       </c>
       <c r="I16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>763.1</v>
+        <v>420.44999999999993</v>
       </c>
       <c r="J16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>1634.2000000000003</v>
+        <v>1718.1749999999997</v>
       </c>
       <c r="K16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>1516.8750000000002</v>
+        <v>2209.9</v>
       </c>
       <c r="L16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>3981.25</v>
+        <v>3136.3250000000007</v>
       </c>
       <c r="M16" s="92">
         <f t="shared" ca="1" si="2"/>
-        <v>642.14999999999964</v>
+        <v>538.94999999999982</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2265,51 +2265,51 @@
       </c>
       <c r="B17" s="90">
         <f t="shared" ref="B17:M17" ca="1" si="3">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20),ci_alpha/2),2)</f>
-        <v>12211.25</v>
+        <v>3511.85</v>
       </c>
       <c r="C17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>8012.05</v>
+        <v>8695.35</v>
       </c>
       <c r="D17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>30248.75</v>
+        <v>30410.2</v>
       </c>
       <c r="E17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>10195.049999999999</v>
+        <v>12819.9</v>
       </c>
       <c r="F17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>289676.65000000002</v>
+        <v>273653.75</v>
       </c>
       <c r="G17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>18918.8</v>
+        <v>19615.55</v>
       </c>
       <c r="H17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>1605.3</v>
+        <v>1486.15</v>
       </c>
       <c r="I17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>1435.2</v>
+        <v>1436.05</v>
       </c>
       <c r="J17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>4488.45</v>
+        <v>5146.7</v>
       </c>
       <c r="K17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>3980.1</v>
+        <v>3860.2</v>
       </c>
       <c r="L17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>40830.85</v>
+        <v>42213.65</v>
       </c>
       <c r="M17" s="92">
         <f t="shared" ca="1" si="3"/>
-        <v>4829.3500000000004</v>
+        <v>5217.8500000000004</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2318,51 +2318,51 @@
       </c>
       <c r="B18" s="90">
         <f t="shared" ref="B18:M18" ca="1" si="4">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20), 1 - ci_alpha / 2), 2)</f>
-        <v>33892.15</v>
+        <v>33317.15</v>
       </c>
       <c r="C18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>13168.15</v>
+        <v>13556.35</v>
       </c>
       <c r="D18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>78145.350000000006</v>
+        <v>71091.5</v>
       </c>
       <c r="E18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>20236.650000000001</v>
+        <v>23018.75</v>
       </c>
       <c r="F18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>328086.5</v>
+        <v>372835.5</v>
       </c>
       <c r="G18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>25256.75</v>
+        <v>25459</v>
       </c>
       <c r="H18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>2881.65</v>
+        <v>2552.65</v>
       </c>
       <c r="I18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>2961.4</v>
+        <v>2276.9499999999998</v>
       </c>
       <c r="J18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>7756.85</v>
+        <v>8583.0499999999993</v>
       </c>
       <c r="K18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>7013.85</v>
+        <v>8280</v>
       </c>
       <c r="L18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>48793.35</v>
+        <v>48486.3</v>
       </c>
       <c r="M18" s="92">
         <f t="shared" ca="1" si="4"/>
-        <v>6113.65</v>
+        <v>6295.75</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2387,51 +2387,51 @@
       </c>
       <c r="B20" s="94" cm="1">
         <f t="array" aca="1" ref="B20:B29" ca="1">IF(B12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),B6,B7),0),_xlfn.SEQUENCE(n_iter, 1, B6, 0))</f>
-        <v>15621</v>
+        <v>27788</v>
       </c>
       <c r="C20" s="95" cm="1">
         <f t="array" aca="1" ref="C20:C29" ca="1">IF(C12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),C6,C7),0),_xlfn.SEQUENCE(n_iter, 1, C6, 0))</f>
-        <v>9001</v>
+        <v>11822</v>
       </c>
       <c r="D20" s="95" cm="1">
         <f t="array" aca="1" ref="D20:D29" ca="1">IF(D12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),D6,D7),0),_xlfn.SEQUENCE(n_iter, 1, D6, 0))</f>
-        <v>57602</v>
+        <v>68721</v>
       </c>
       <c r="E20" s="95" cm="1">
         <f t="array" aca="1" ref="E20:E29" ca="1">IF(E12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),E6,E7),0),_xlfn.SEQUENCE(n_iter, 1, E6, 0))</f>
-        <v>14514</v>
+        <v>22235</v>
       </c>
       <c r="F20" s="95" cm="1">
         <f t="array" aca="1" ref="F20:F29" ca="1">IF(F12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),F6,F7),0),_xlfn.SEQUENCE(n_iter, 1, F6, 0))</f>
-        <v>328280</v>
+        <v>274003</v>
       </c>
       <c r="G20" s="95" cm="1">
         <f t="array" aca="1" ref="G20:G29" ca="1">IF(G12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),G6,G7),0),_xlfn.SEQUENCE(n_iter, 1, G6, 0))</f>
-        <v>23487</v>
+        <v>22640</v>
       </c>
       <c r="H20" s="95" cm="1">
         <f t="array" aca="1" ref="H20:H29" ca="1">IF(H12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),H6,H7),0),_xlfn.SEQUENCE(n_iter, 1, H6, 0))</f>
-        <v>2964</v>
+        <v>2180</v>
       </c>
       <c r="I20" s="95" cm="1">
         <f t="array" aca="1" ref="I20:I29" ca="1">IF(I12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),I6,I7),0),_xlfn.SEQUENCE(n_iter, 1, I6, 0))</f>
-        <v>2342</v>
+        <v>2299</v>
       </c>
       <c r="J20" s="95" cm="1">
         <f t="array" aca="1" ref="J20:J29" ca="1">IF(J12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),J6,J7),0),_xlfn.SEQUENCE(n_iter, 1, J6, 0))</f>
-        <v>5303</v>
+        <v>6557</v>
       </c>
       <c r="K20" s="95" cm="1">
         <f t="array" aca="1" ref="K20:K29" ca="1">IF(K12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),K6,K7),0),_xlfn.SEQUENCE(n_iter, 1, K6, 0))</f>
-        <v>5932</v>
+        <v>6890</v>
       </c>
       <c r="L20" s="95" cm="1">
         <f t="array" aca="1" ref="L20:L29" ca="1">IF(L12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),L6,L7),0),_xlfn.SEQUENCE(n_iter, 1, L6, 0))</f>
-        <v>45468</v>
+        <v>47528</v>
       </c>
       <c r="M20" s="95" cm="1">
         <f t="array" aca="1" ref="M20:M29" ca="1">IF(M12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),M6,M7),0),_xlfn.SEQUENCE(n_iter, 1, M6, 0))</f>
-        <v>5604</v>
+        <v>5434</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2440,51 +2440,51 @@
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>12555</v>
+        <v>23807</v>
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>11868</v>
+        <v>11510</v>
       </c>
       <c r="D21">
         <f ca="1"/>
-        <v>59332</v>
+        <v>55599</v>
       </c>
       <c r="E21">
         <f ca="1"/>
-        <v>8877</v>
+        <v>11415</v>
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>303730</v>
+        <v>273368</v>
       </c>
       <c r="G21">
         <f ca="1"/>
-        <v>22436</v>
+        <v>24124</v>
       </c>
       <c r="H21">
         <f ca="1"/>
-        <v>1812</v>
+        <v>1688</v>
       </c>
       <c r="I21">
         <f ca="1"/>
-        <v>2838</v>
+        <v>1691</v>
       </c>
       <c r="J21">
         <f ca="1"/>
-        <v>6842</v>
+        <v>6084</v>
       </c>
       <c r="K21">
         <f ca="1"/>
-        <v>3666</v>
+        <v>7109</v>
       </c>
       <c r="L21">
         <f ca="1"/>
-        <v>40366</v>
+        <v>48016</v>
       </c>
       <c r="M21">
         <f ca="1"/>
-        <v>6090</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2493,51 +2493,51 @@
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>37183</v>
+        <v>36014</v>
       </c>
       <c r="C22">
         <f ca="1"/>
-        <v>11113</v>
+        <v>13897</v>
       </c>
       <c r="D22">
         <f ca="1"/>
-        <v>71415</v>
+        <v>73031</v>
       </c>
       <c r="E22">
         <f ca="1"/>
-        <v>19408</v>
+        <v>14537</v>
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>286609</v>
+        <v>324593</v>
       </c>
       <c r="G22">
         <f ca="1"/>
-        <v>20626</v>
+        <v>21584</v>
       </c>
       <c r="H22">
         <f ca="1"/>
-        <v>2123</v>
+        <v>2441</v>
       </c>
       <c r="I22">
         <f ca="1"/>
-        <v>3001</v>
+        <v>1813</v>
       </c>
       <c r="J22">
         <f ca="1"/>
-        <v>7303</v>
+        <v>6498</v>
       </c>
       <c r="K22">
         <f ca="1"/>
-        <v>4788</v>
+        <v>6680</v>
       </c>
       <c r="L22">
         <f ca="1"/>
-        <v>47973</v>
+        <v>45455</v>
       </c>
       <c r="M22">
         <f ca="1"/>
-        <v>5062</v>
+        <v>6568</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2546,51 +2546,51 @@
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>23775</v>
+        <v>17485</v>
       </c>
       <c r="C23">
         <f ca="1"/>
-        <v>10360</v>
+        <v>10061</v>
       </c>
       <c r="D23">
         <f ca="1"/>
-        <v>83652</v>
+        <v>55190</v>
       </c>
       <c r="E23">
         <f ca="1"/>
-        <v>20364</v>
+        <v>16775</v>
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>293426</v>
+        <v>347654</v>
       </c>
       <c r="G23">
         <f ca="1"/>
-        <v>24809</v>
+        <v>22011</v>
       </c>
       <c r="H23">
         <f ca="1"/>
-        <v>1455</v>
+        <v>2258</v>
       </c>
       <c r="I23">
         <f ca="1"/>
-        <v>1877</v>
+        <v>2250</v>
       </c>
       <c r="J23">
         <f ca="1"/>
-        <v>6421</v>
+        <v>8456</v>
       </c>
       <c r="K23">
         <f ca="1"/>
-        <v>6758</v>
+        <v>6065</v>
       </c>
       <c r="L23">
         <f ca="1"/>
-        <v>43445</v>
+        <v>48120</v>
       </c>
       <c r="M23">
         <f ca="1"/>
-        <v>5531</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2599,51 +2599,51 @@
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>11930</v>
+        <v>30021</v>
       </c>
       <c r="C24">
         <f ca="1"/>
-        <v>13705</v>
+        <v>7578</v>
       </c>
       <c r="D24">
         <f ca="1"/>
-        <v>47120</v>
+        <v>59991</v>
       </c>
       <c r="E24">
         <f ca="1"/>
-        <v>12771</v>
+        <v>15951</v>
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>310895</v>
+        <v>304630</v>
       </c>
       <c r="G24">
         <f ca="1"/>
-        <v>23430</v>
+        <v>18833</v>
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>2781</v>
+        <v>1689</v>
       </c>
       <c r="I24">
         <f ca="1"/>
-        <v>2373</v>
+        <v>1315</v>
       </c>
       <c r="J24">
         <f ca="1"/>
-        <v>6560</v>
+        <v>4550</v>
       </c>
       <c r="K24">
         <f ca="1"/>
-        <v>5408</v>
+        <v>7708</v>
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>41399</v>
+        <v>42443</v>
       </c>
       <c r="M24">
         <f ca="1"/>
-        <v>5656</v>
+        <v>5335</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2652,51 +2652,51 @@
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>25592</v>
+        <v>374</v>
       </c>
       <c r="C25">
         <f ca="1"/>
-        <v>8842</v>
+        <v>12889</v>
       </c>
       <c r="D25">
         <f ca="1"/>
-        <v>49440</v>
+        <v>46479</v>
       </c>
       <c r="E25">
         <f ca="1"/>
-        <v>11806</v>
+        <v>16993</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>323090</v>
+        <v>359663</v>
       </c>
       <c r="G25">
         <f ca="1"/>
-        <v>25565</v>
+        <v>23032</v>
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>2034</v>
+        <v>2176</v>
       </c>
       <c r="I25">
         <f ca="1"/>
-        <v>1428</v>
+        <v>1623</v>
       </c>
       <c r="J25">
         <f ca="1"/>
-        <v>8012</v>
+        <v>6492</v>
       </c>
       <c r="K25">
         <f ca="1"/>
-        <v>4364</v>
+        <v>8748</v>
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>48641</v>
+        <v>42026</v>
       </c>
       <c r="M25">
         <f ca="1"/>
-        <v>5070</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2705,51 +2705,51 @@
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>18770</v>
+        <v>7347</v>
       </c>
       <c r="C26">
         <f ca="1"/>
-        <v>12512</v>
+        <v>12590</v>
       </c>
       <c r="D26">
         <f ca="1"/>
-        <v>63820</v>
+        <v>68032</v>
       </c>
       <c r="E26">
         <f ca="1"/>
-        <v>20037</v>
+        <v>19640</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>307682</v>
+        <v>290304</v>
       </c>
       <c r="G26">
         <f ca="1"/>
-        <v>24880</v>
+        <v>20572</v>
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>1789</v>
+        <v>1979</v>
       </c>
       <c r="I26">
         <f ca="1"/>
-        <v>2281</v>
+        <v>1839</v>
       </c>
       <c r="J26">
         <f ca="1"/>
-        <v>6706</v>
+        <v>6162</v>
       </c>
       <c r="K26">
         <f ca="1"/>
-        <v>6889</v>
+        <v>4771</v>
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>45128</v>
+        <v>43590</v>
       </c>
       <c r="M26">
         <f ca="1"/>
-        <v>4639</v>
+        <v>5963</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2758,51 +2758,51 @@
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>21391</v>
+        <v>14038</v>
       </c>
       <c r="C27">
         <f ca="1"/>
-        <v>9190</v>
+        <v>11522</v>
       </c>
       <c r="D27">
         <f ca="1"/>
-        <v>61870</v>
+        <v>49745</v>
       </c>
       <c r="E27">
         <f ca="1"/>
-        <v>20081</v>
+        <v>15157</v>
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>303339</v>
+        <v>383613</v>
       </c>
       <c r="G27">
         <f ca="1"/>
-        <v>17522</v>
+        <v>24733</v>
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>1942</v>
+        <v>2644</v>
       </c>
       <c r="I27">
         <f ca="1"/>
-        <v>1713</v>
+        <v>1851</v>
       </c>
       <c r="J27">
         <f ca="1"/>
-        <v>3822</v>
+        <v>5876</v>
       </c>
       <c r="K27">
         <f ca="1"/>
-        <v>6514</v>
+        <v>3115</v>
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>48918</v>
+        <v>48786</v>
       </c>
       <c r="M27">
         <f ca="1"/>
-        <v>6124</v>
+        <v>5602</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2811,51 +2811,51 @@
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>25999</v>
+        <v>19658</v>
       </c>
       <c r="C28">
         <f ca="1"/>
-        <v>7333</v>
+        <v>13140</v>
       </c>
       <c r="D28">
         <f ca="1"/>
-        <v>16445</v>
+        <v>64942</v>
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>16362</v>
+        <v>18763</v>
       </c>
       <c r="F28">
         <f ca="1"/>
-        <v>320486</v>
+        <v>274252</v>
       </c>
       <c r="G28">
         <f ca="1"/>
-        <v>20817</v>
+        <v>26053</v>
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>1914</v>
+        <v>2347</v>
       </c>
       <c r="I28">
         <f ca="1"/>
-        <v>2913</v>
+        <v>2079</v>
       </c>
       <c r="J28">
         <f ca="1"/>
-        <v>7445</v>
+        <v>8687</v>
       </c>
       <c r="K28">
         <f ca="1"/>
-        <v>7116</v>
+        <v>6309</v>
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>45740</v>
+        <v>46154</v>
       </c>
       <c r="M28">
         <f ca="1"/>
-        <v>6101</v>
+        <v>5676</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2864,51 +2864,51 @@
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>29870</v>
+        <v>27357</v>
       </c>
       <c r="C29">
         <f ca="1"/>
-        <v>11481</v>
+        <v>10509</v>
       </c>
       <c r="D29">
         <f ca="1"/>
-        <v>60246</v>
+        <v>17263</v>
       </c>
       <c r="E29">
         <f ca="1"/>
-        <v>18700</v>
+        <v>23660</v>
       </c>
       <c r="F29">
         <f ca="1"/>
-        <v>327850</v>
+        <v>321266</v>
       </c>
       <c r="G29">
         <f ca="1"/>
-        <v>22812</v>
+        <v>24173</v>
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>2411</v>
+        <v>1321</v>
       </c>
       <c r="I29">
         <f ca="1"/>
-        <v>1444</v>
+        <v>1584</v>
       </c>
       <c r="J29">
         <f ca="1"/>
-        <v>6921</v>
+        <v>7035</v>
       </c>
       <c r="K29">
         <f ca="1"/>
-        <v>6245</v>
+        <v>7313</v>
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>46027</v>
+        <v>46158</v>
       </c>
       <c r="M29">
         <f ca="1"/>
-        <v>5663</v>
+        <v>5871</v>
       </c>
     </row>
   </sheetData>
@@ -3352,82 +3352,82 @@
       </c>
       <c r="B14" s="84">
         <f t="shared" ref="B14:W14" ca="1" si="0">MEDIAN(_xlfn.ANCHORARRAY(B20))</f>
-        <v>10292426</v>
+        <v>14026898</v>
       </c>
       <c r="C14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>4572496.5</v>
+        <v>5426681.5</v>
       </c>
       <c r="D14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>28038978</v>
+        <v>31401396</v>
       </c>
       <c r="E14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>4824194</v>
+        <v>6523698</v>
       </c>
       <c r="F14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>39462962</v>
+        <v>43728169.5</v>
       </c>
       <c r="G14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>1745000</v>
+        <v>2584538.5</v>
       </c>
       <c r="H14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>1003886.5</v>
+        <v>1333066.5</v>
       </c>
       <c r="I14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>1095451</v>
+        <v>870888.5</v>
       </c>
       <c r="J14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>2595510</v>
+        <v>3269087</v>
       </c>
       <c r="K14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>1861703</v>
+        <v>2218934</v>
       </c>
       <c r="L14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>5942173.5</v>
+        <v>7305498.5</v>
       </c>
       <c r="M14" s="110">
         <f t="shared" ca="1" si="0"/>
-        <v>414268</v>
+        <v>631925.5</v>
       </c>
       <c r="N14" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>10738699</v>
+        <v>11850801</v>
       </c>
       <c r="O14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>8362900.5</v>
+        <v>9283585.5</v>
       </c>
       <c r="P14" s="109"/>
       <c r="Q14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>3269929</v>
+        <v>3859794</v>
       </c>
       <c r="R14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>3116439</v>
+        <v>3876647.5</v>
       </c>
       <c r="S14" s="109"/>
       <c r="T14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>16774508.5</v>
+        <v>20309610.5</v>
       </c>
       <c r="U14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>6276286</v>
+        <v>7536411</v>
       </c>
       <c r="V14" s="109"/>
       <c r="W14" s="110">
         <f t="shared" ca="1" si="0"/>
-        <v>9986495.5</v>
+        <v>12413375.5</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3436,82 +3436,82 @@
       </c>
       <c r="B15" s="87">
         <f t="shared" ref="B15:W15" ca="1" si="1">ROUND(B16/B14,2)</f>
-        <v>0.89</v>
+        <v>0.73</v>
       </c>
       <c r="C15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61</v>
+        <v>0.41</v>
       </c>
       <c r="D15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
       <c r="E15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87</v>
+        <v>0.42</v>
       </c>
       <c r="F15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83</v>
+        <v>1.19</v>
       </c>
       <c r="G15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94</v>
+        <v>0.72</v>
       </c>
       <c r="H15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64</v>
+        <v>0.26</v>
       </c>
       <c r="I15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59</v>
+        <v>0.42</v>
       </c>
       <c r="J15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54</v>
+        <v>0.32</v>
       </c>
       <c r="K15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83</v>
+        <v>0.44</v>
       </c>
       <c r="L15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81</v>
+        <v>1.08</v>
       </c>
       <c r="M15" s="76">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="N15" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
       <c r="O15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="P15" s="75"/>
       <c r="Q15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="R15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77</v>
+        <v>1.05</v>
       </c>
       <c r="S15" s="75"/>
       <c r="T15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="U15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.52</v>
       </c>
       <c r="V15" s="75"/>
       <c r="W15" s="76">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56999999999999995</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3520,82 +3520,82 @@
       </c>
       <c r="B16" s="84">
         <f t="shared" ref="B16:W16" ca="1" si="2">(B18-B17)/2</f>
-        <v>9129100.9499999993</v>
+        <v>10260025.925000001</v>
       </c>
       <c r="C16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>2811815.6749999998</v>
+        <v>2229258.5</v>
       </c>
       <c r="D16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>17716971.475000001</v>
+        <v>14681378.725</v>
       </c>
       <c r="E16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>4200785.8</v>
+        <v>2710407.7250000001</v>
       </c>
       <c r="F16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>32657216.624999996</v>
+        <v>51823082.350000001</v>
       </c>
       <c r="G16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>1631663.1749999998</v>
+        <v>1873697.15</v>
       </c>
       <c r="H16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>643936.42500000005</v>
+        <v>347853.375</v>
       </c>
       <c r="I16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>649859.25</v>
+        <v>365580.54999999993</v>
       </c>
       <c r="J16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>1410187.45</v>
+        <v>1032991.5</v>
       </c>
       <c r="K16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>1552606.7000000002</v>
+        <v>974153.60000000009</v>
       </c>
       <c r="L16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>4812823.625</v>
+        <v>7881039.4749999996</v>
       </c>
       <c r="M16" s="110">
         <f t="shared" ca="1" si="2"/>
-        <v>412666.52499999997</v>
+        <v>422148.92500000005</v>
       </c>
       <c r="N16" s="90">
         <f t="shared" ca="1" si="2"/>
-        <v>4807437.0749999993</v>
+        <v>3644453.8000000003</v>
       </c>
       <c r="O16" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>6570359.0499999998</v>
+        <v>10457840.1</v>
       </c>
       <c r="P16" s="111"/>
       <c r="Q16" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>1156265.7</v>
+        <v>807580.52499999991</v>
       </c>
       <c r="R16" s="111">
         <f ca="1">(R18-R17)/2</f>
-        <v>2389164.5</v>
+        <v>4051823.8000000003</v>
       </c>
       <c r="S16" s="111"/>
       <c r="T16" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>8099711.4749999996</v>
+        <v>9146761.75</v>
       </c>
       <c r="U16" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>2493227.2250000001</v>
+        <v>3948210.5999999996</v>
       </c>
       <c r="V16" s="111"/>
       <c r="W16" s="112">
         <f t="shared" ca="1" si="2"/>
-        <v>5715507.0250000004</v>
+        <v>5391592.1500000004</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3604,82 +3604,82 @@
       </c>
       <c r="B17" s="84">
         <f t="shared" ref="B17:O17" ca="1" si="3">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20),ci_alpha/2),2)</f>
-        <v>5680298.6500000004</v>
+        <v>2026186.65</v>
       </c>
       <c r="C17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>2459711.15</v>
+        <v>3424718.2</v>
       </c>
       <c r="D17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>8222980.25</v>
+        <v>12044651.699999999</v>
       </c>
       <c r="E17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>2570451.25</v>
+        <v>4362960.95</v>
       </c>
       <c r="F17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>10507995.35</v>
+        <v>-9786245.0500000007</v>
       </c>
       <c r="G17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>1119596</v>
+        <v>558025.69999999995</v>
       </c>
       <c r="H17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>730874.7</v>
+        <v>939353.75</v>
       </c>
       <c r="I17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>386130.45</v>
+        <v>551193.55000000005</v>
       </c>
       <c r="J17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>1768522.6</v>
+        <v>2390434.9500000002</v>
       </c>
       <c r="K17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>850245.8</v>
+        <v>1572090.4</v>
       </c>
       <c r="L17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>1529389.3</v>
+        <v>-1467846.5</v>
       </c>
       <c r="M17" s="110">
         <f t="shared" ca="1" si="3"/>
-        <v>289418.59999999998</v>
+        <v>147062.54999999999</v>
       </c>
       <c r="N17" s="90">
         <f t="shared" ca="1" si="3"/>
-        <v>5299220.2</v>
+        <v>6444301.7999999998</v>
       </c>
       <c r="O17" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v>2405228.1</v>
+        <v>-1756371.25</v>
       </c>
       <c r="P17" s="111"/>
       <c r="Q17" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(Q20),ci_alpha/2),2)</f>
-        <v>2672763.6</v>
+        <v>3236375.5</v>
       </c>
       <c r="R17" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(R20),ci_alpha/2),2)</f>
-        <v>992862.15</v>
+        <v>-586629.9</v>
       </c>
       <c r="S17" s="111"/>
       <c r="T17" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(T20),ci_alpha/2),2)</f>
-        <v>12030608</v>
+        <v>11955733.35</v>
       </c>
       <c r="U17" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(U20),ci_alpha/2),2)</f>
-        <v>4914207.3</v>
+        <v>3733002.65</v>
       </c>
       <c r="V17" s="111"/>
       <c r="W17" s="112">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(W20),ci_alpha/2),2)</f>
-        <v>6936365.2999999998</v>
+        <v>7836648.7000000002</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3688,82 +3688,82 @@
       </c>
       <c r="B18" s="84">
         <f t="shared" ref="B18:O18" ca="1" si="4">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20), 1 - ci_alpha / 2), 2)</f>
-        <v>23938500.550000001</v>
+        <v>22546238.5</v>
       </c>
       <c r="C18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>8083342.5</v>
+        <v>7883235.2000000002</v>
       </c>
       <c r="D18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>43656923.200000003</v>
+        <v>41407409.149999999</v>
       </c>
       <c r="E18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>10972022.85</v>
+        <v>9783776.4000000004</v>
       </c>
       <c r="F18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>75822428.599999994</v>
+        <v>93859919.650000006</v>
       </c>
       <c r="G18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>4382922.3499999996</v>
+        <v>4305420</v>
       </c>
       <c r="H18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>2018747.55</v>
+        <v>1635060.5</v>
       </c>
       <c r="I18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>1685848.95</v>
+        <v>1282354.6499999999</v>
       </c>
       <c r="J18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>4588897.5</v>
+        <v>4456417.95</v>
       </c>
       <c r="K18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>3955459.2</v>
+        <v>3520397.6</v>
       </c>
       <c r="L18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>11155036.550000001</v>
+        <v>14294232.449999999</v>
       </c>
       <c r="M18" s="110">
         <f t="shared" ca="1" si="4"/>
-        <v>1114751.6499999999</v>
+        <v>991360.4</v>
       </c>
       <c r="N18" s="90">
         <f t="shared" ca="1" si="4"/>
-        <v>14914094.35</v>
+        <v>13733209.4</v>
       </c>
       <c r="O18" s="111">
         <f t="shared" ca="1" si="4"/>
-        <v>15545946.199999999</v>
+        <v>19159308.949999999</v>
       </c>
       <c r="P18" s="111"/>
       <c r="Q18" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(Q20), 1 - ci_alpha / 2), 2)</f>
-        <v>4985295</v>
+        <v>4851536.55</v>
       </c>
       <c r="R18" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(R20), 1 - ci_alpha / 2), 2)</f>
-        <v>5771191.1500000004</v>
+        <v>7517017.7000000002</v>
       </c>
       <c r="S18" s="111"/>
       <c r="T18" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(T20), 1 - ci_alpha / 2), 2)</f>
-        <v>28230030.949999999</v>
+        <v>30249256.850000001</v>
       </c>
       <c r="U18" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(U20), 1 - ci_alpha / 2), 2)</f>
-        <v>9900661.75</v>
+        <v>11629423.85</v>
       </c>
       <c r="V18" s="111"/>
       <c r="W18" s="112">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(W20), 1 - ci_alpha / 2), 2)</f>
-        <v>18367379.350000001</v>
+        <v>18619833</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3782,7 +3782,7 @@
       <c r="M19" s="115"/>
       <c r="N19" s="116">
         <f ca="1">ROUND(SUM(B20:E20) / year_ref,0)</f>
-        <v>10785645</v>
+        <v>12592475</v>
       </c>
       <c r="O19" s="114"/>
       <c r="P19" s="54"/>
@@ -3801,82 +3801,82 @@
       </c>
       <c r="B20" s="126" cm="1">
         <f t="array" aca="1" ref="B20:B29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!B20) *_xlfn.ANCHORARRAY( SIMS_EF!B20), 0)</f>
-        <v>8923527</v>
+        <v>18317044</v>
       </c>
       <c r="C20" s="126" cm="1">
         <f t="array" aca="1" ref="C20:C29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!C20) *_xlfn.ANCHORARRAY( SIMS_EF!C20), 0)</f>
-        <v>6066539</v>
+        <v>4892097</v>
       </c>
       <c r="D20" s="126" cm="1">
         <f t="array" aca="1" ref="D20:D29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!D20) *_xlfn.ANCHORARRAY( SIMS_EF!D20), 0)</f>
-        <v>30075502</v>
+        <v>33340062</v>
       </c>
       <c r="E20" s="126" cm="1">
         <f t="array" aca="1" ref="E20:E29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!E20) *_xlfn.ANCHORARRAY( SIMS_EF!E20), 0)</f>
-        <v>8862655</v>
+        <v>6413174</v>
       </c>
       <c r="F20" s="126" cm="1">
         <f t="array" aca="1" ref="F20:F29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!F20) *_xlfn.ANCHORARRAY( SIMS_EF!F20), 0)</f>
-        <v>16127083</v>
+        <v>47682002</v>
       </c>
       <c r="G20" s="126" cm="1">
         <f t="array" aca="1" ref="G20:G29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!G20) *_xlfn.ANCHORARRAY( SIMS_EF!G20), 0)</f>
-        <v>1488042</v>
+        <v>2838716</v>
       </c>
       <c r="H20" s="126" cm="1">
         <f t="array" aca="1" ref="H20:H29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!H20) *_xlfn.ANCHORARRAY( SIMS_EF!H20), 0)</f>
-        <v>1693191</v>
+        <v>1436993</v>
       </c>
       <c r="I20" s="126" cm="1">
         <f t="array" aca="1" ref="I20:I29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!I20) *_xlfn.ANCHORARRAY( SIMS_EF!I20), 0)</f>
-        <v>1578473</v>
+        <v>951356</v>
       </c>
       <c r="J20" s="126" cm="1">
         <f t="array" aca="1" ref="J20:J29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!J20) *_xlfn.ANCHORARRAY( SIMS_EF!J20), 0)</f>
-        <v>2768834</v>
+        <v>3181135</v>
       </c>
       <c r="K20" s="126" cm="1">
         <f t="array" aca="1" ref="K20:K29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!K20) *_xlfn.ANCHORARRAY( SIMS_EF!K20), 0)</f>
-        <v>3622245</v>
+        <v>1987262</v>
       </c>
       <c r="L20" s="126" cm="1">
         <f t="array" aca="1" ref="L20:L29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!L20) *_xlfn.ANCHORARRAY( SIMS_EF!L20), 0)</f>
-        <v>2233661</v>
+        <v>8270823</v>
       </c>
       <c r="M20" s="126" cm="1">
         <f t="array" aca="1" ref="M20:M29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!M20) *_xlfn.ANCHORARRAY( SIMS_EF!M20), 0)</f>
-        <v>355047</v>
+        <v>681342</v>
       </c>
       <c r="N20" s="117" cm="1">
         <f t="array" aca="1" ref="N20:N29" ca="1">_xlfn.BYROW(_xlfn.ANCHORARRAY(B20):_xlfn.ANCHORARRAY(E20),_xlfn.LAMBDA(_xlpm.x, ROUND(SUM(_xlpm.x)/year_ref,0)))</f>
-        <v>10785645</v>
+        <v>12592475</v>
       </c>
       <c r="O20" s="117" cm="1">
         <f t="array" aca="1" ref="O20:O29" ca="1">_xlfn.BYROW(_xlfn.ANCHORARRAY(F20):_xlfn.ANCHORARRAY(G20),_xlfn.LAMBDA(_xlpm.x, ROUND(SUM(_xlpm.x)/year_ref,0)))</f>
-        <v>3523025</v>
+        <v>10104144</v>
       </c>
       <c r="P20" s="118"/>
       <c r="Q20" s="117" cm="1">
         <f t="array" aca="1" ref="Q20:Q29" ca="1">_xlfn.BYROW(_xlfn.ANCHORARRAY(H20):_xlfn.ANCHORARRAY(K20),_xlfn.LAMBDA(_xlpm.x, ROUND(SUM(_xlpm.x)/year_mon,0)))</f>
-        <v>4831372</v>
+        <v>3778373</v>
       </c>
       <c r="R20" s="117" cm="1">
         <f t="array" aca="1" ref="R20:R29" ca="1">_xlfn.BYROW(_xlfn.ANCHORARRAY(L20):_xlfn.ANCHORARRAY(M20),_xlfn.LAMBDA(_xlpm.x, ROUND(SUM(_xlpm.x)/year_mon,0)))</f>
-        <v>1294354</v>
+        <v>4476083</v>
       </c>
       <c r="S20" s="118"/>
       <c r="T20" s="117" cm="1">
         <f t="array" aca="1" ref="T20:T29" ca="1">_xlfn.ANCHORARRAY(N20) +_xlfn.ANCHORARRAY( O20)</f>
-        <v>14308670</v>
+        <v>22696619</v>
       </c>
       <c r="U20" s="117" cm="1">
         <f t="array" aca="1" ref="U20:U29" ca="1">_xlfn.ANCHORARRAY(Q20) +_xlfn.ANCHORARRAY( R20)</f>
-        <v>6125726</v>
+        <v>8254456</v>
       </c>
       <c r="V20" s="118"/>
       <c r="W20" s="117" cm="1">
         <f t="array" aca="1" ref="W20:W29" ca="1">_xlfn.ANCHORARRAY(T20) -_xlfn.ANCHORARRAY( U20)</f>
-        <v>8182944</v>
+        <v>14442163</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3885,79 +3885,79 @@
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>5122264</v>
+        <v>21412540</v>
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>7417298</v>
+        <v>7007864</v>
       </c>
       <c r="D21">
         <f ca="1"/>
-        <v>15201808</v>
+        <v>30804292</v>
       </c>
       <c r="E21">
         <f ca="1"/>
-        <v>5142970</v>
+        <v>5664283</v>
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>46097406</v>
+        <v>94415293</v>
       </c>
       <c r="G21">
         <f ca="1"/>
-        <v>1023620</v>
+        <v>2717231</v>
       </c>
       <c r="H21">
         <f ca="1"/>
-        <v>739271</v>
+        <v>1518224</v>
       </c>
       <c r="I21">
         <f ca="1"/>
-        <v>1773702</v>
+        <v>1029565</v>
       </c>
       <c r="J21">
         <f ca="1"/>
-        <v>1753030</v>
+        <v>3370804</v>
       </c>
       <c r="K21">
         <f ca="1"/>
-        <v>2123930</v>
+        <v>3527585</v>
       </c>
       <c r="L21">
         <f ca="1"/>
-        <v>6126388</v>
+        <v>16583670</v>
       </c>
       <c r="M21">
         <f ca="1"/>
-        <v>277850</v>
+        <v>646756</v>
       </c>
       <c r="N21">
         <f ca="1"/>
-        <v>6576868</v>
+        <v>12977796</v>
       </c>
       <c r="O21">
         <f ca="1"/>
-        <v>9424205</v>
+        <v>19426505</v>
       </c>
       <c r="Q21">
         <f ca="1"/>
-        <v>3194967</v>
+        <v>4723089</v>
       </c>
       <c r="R21">
         <f ca="1"/>
-        <v>3202119</v>
+        <v>8615213</v>
       </c>
       <c r="T21">
         <f ca="1"/>
-        <v>16001073</v>
+        <v>32404301</v>
       </c>
       <c r="U21">
         <f ca="1"/>
-        <v>6397086</v>
+        <v>13338302</v>
       </c>
       <c r="W21">
         <f ca="1"/>
-        <v>9603987</v>
+        <v>19065999</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3966,79 +3966,79 @@
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>18595107</v>
+        <v>19312652</v>
       </c>
       <c r="C22">
         <f ca="1"/>
-        <v>3282836</v>
+        <v>5349219</v>
       </c>
       <c r="D22">
         <f ca="1"/>
-        <v>27142842</v>
+        <v>39241601</v>
       </c>
       <c r="E22">
         <f ca="1"/>
-        <v>4569361</v>
+        <v>5237434</v>
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>34400245</v>
+        <v>-348613</v>
       </c>
       <c r="G22">
         <f ca="1"/>
-        <v>1236900</v>
+        <v>531743</v>
       </c>
       <c r="H22">
         <f ca="1"/>
-        <v>1061706</v>
+        <v>1308996</v>
       </c>
       <c r="I22">
         <f ca="1"/>
-        <v>886510</v>
+        <v>697858</v>
       </c>
       <c r="J22">
         <f ca="1"/>
-        <v>2775666</v>
+        <v>3491557</v>
       </c>
       <c r="K22">
         <f ca="1"/>
-        <v>1127272</v>
+        <v>2406690</v>
       </c>
       <c r="L22">
         <f ca="1"/>
-        <v>5757959</v>
+        <v>-48819</v>
       </c>
       <c r="M22">
         <f ca="1"/>
-        <v>303558</v>
+        <v>161809</v>
       </c>
       <c r="N22">
         <f ca="1"/>
-        <v>10718029</v>
+        <v>13828181</v>
       </c>
       <c r="O22">
         <f ca="1"/>
-        <v>7127429</v>
+        <v>36626</v>
       </c>
       <c r="Q22">
         <f ca="1"/>
-        <v>2925577</v>
+        <v>3952551</v>
       </c>
       <c r="R22">
         <f ca="1"/>
-        <v>3030759</v>
+        <v>56495</v>
       </c>
       <c r="T22">
         <f ca="1"/>
-        <v>17845458</v>
+        <v>13864807</v>
       </c>
       <c r="U22">
         <f ca="1"/>
-        <v>5956336</v>
+        <v>4009046</v>
       </c>
       <c r="W22">
         <f ca="1"/>
-        <v>11889122</v>
+        <v>9855761</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4047,79 +4047,79 @@
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>14335136</v>
+        <v>11612348</v>
       </c>
       <c r="C23">
         <f ca="1"/>
-        <v>3078971</v>
+        <v>5830148</v>
       </c>
       <c r="D23">
         <f ca="1"/>
-        <v>34903044</v>
+        <v>31998500</v>
       </c>
       <c r="E23">
         <f ca="1"/>
-        <v>4466497</v>
+        <v>6104641</v>
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>54491849</v>
+        <v>29322529</v>
       </c>
       <c r="G23">
         <f ca="1"/>
-        <v>1931753</v>
+        <v>4744845</v>
       </c>
       <c r="H23">
         <f ca="1"/>
-        <v>877292</v>
+        <v>1499610</v>
       </c>
       <c r="I23">
         <f ca="1"/>
-        <v>557841</v>
+        <v>1303830</v>
       </c>
       <c r="J23">
         <f ca="1"/>
-        <v>2679104</v>
+        <v>4902687</v>
       </c>
       <c r="K23">
         <f ca="1"/>
-        <v>1482252</v>
+        <v>2207132</v>
       </c>
       <c r="L23">
         <f ca="1"/>
-        <v>8068128</v>
+        <v>4058633</v>
       </c>
       <c r="M23">
         <f ca="1"/>
-        <v>430671</v>
+        <v>1104134</v>
       </c>
       <c r="N23">
         <f ca="1"/>
-        <v>11356730</v>
+        <v>11109127</v>
       </c>
       <c r="O23">
         <f ca="1"/>
-        <v>11284720</v>
+        <v>6813475</v>
       </c>
       <c r="Q23">
         <f ca="1"/>
-        <v>2798245</v>
+        <v>4956630</v>
       </c>
       <c r="R23">
         <f ca="1"/>
-        <v>4249400</v>
+        <v>2581384</v>
       </c>
       <c r="T23">
         <f ca="1"/>
-        <v>22641450</v>
+        <v>17922602</v>
       </c>
       <c r="U23">
         <f ca="1"/>
-        <v>7047645</v>
+        <v>7538014</v>
       </c>
       <c r="W23">
         <f ca="1"/>
-        <v>15593805</v>
+        <v>10384588</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4128,79 +4128,79 @@
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>6362341</v>
+        <v>23473810</v>
       </c>
       <c r="C24">
         <f ca="1"/>
-        <v>7174883</v>
+        <v>2790409</v>
       </c>
       <c r="D24">
         <f ca="1"/>
-        <v>18042908</v>
+        <v>35509033</v>
       </c>
       <c r="E24">
         <f ca="1"/>
-        <v>3429895</v>
+        <v>3647483</v>
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>46756121</v>
+        <v>57881832</v>
       </c>
       <c r="G24">
         <f ca="1"/>
-        <v>5973572</v>
+        <v>2628277</v>
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>1483124</v>
+        <v>1320651</v>
       </c>
       <c r="I24">
         <f ca="1"/>
-        <v>1242320</v>
+        <v>484216</v>
       </c>
       <c r="J24">
         <f ca="1"/>
-        <v>2511916</v>
+        <v>2693172</v>
       </c>
       <c r="K24">
         <f ca="1"/>
-        <v>1452421</v>
+        <v>1762573</v>
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>6226078</v>
+        <v>8064467</v>
       </c>
       <c r="M24">
         <f ca="1"/>
-        <v>1442020</v>
+        <v>744537</v>
       </c>
       <c r="N24">
         <f ca="1"/>
-        <v>7002005</v>
+        <v>13084147</v>
       </c>
       <c r="O24">
         <f ca="1"/>
-        <v>10545939</v>
+        <v>12102022</v>
       </c>
       <c r="Q24">
         <f ca="1"/>
-        <v>3344891</v>
+        <v>3130306</v>
       </c>
       <c r="R24">
         <f ca="1"/>
-        <v>3834049</v>
+        <v>4404502</v>
       </c>
       <c r="T24">
         <f ca="1"/>
-        <v>17547944</v>
+        <v>25186169</v>
       </c>
       <c r="U24">
         <f ca="1"/>
-        <v>7178940</v>
+        <v>7534808</v>
       </c>
       <c r="W24">
         <f ca="1"/>
-        <v>10369004</v>
+        <v>17651361</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4209,79 +4209,79 @@
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>10163991</v>
+        <v>231255</v>
       </c>
       <c r="C25">
         <f ca="1"/>
-        <v>4055985</v>
+        <v>5504144</v>
       </c>
       <c r="D25">
         <f ca="1"/>
-        <v>12821918</v>
+        <v>16697534</v>
       </c>
       <c r="E25">
         <f ca="1"/>
-        <v>4327088</v>
+        <v>6821313</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>44525679</v>
+        <v>93181130</v>
       </c>
       <c r="G25">
         <f ca="1"/>
-        <v>2357144</v>
+        <v>590149</v>
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>807813</v>
+        <v>1345482</v>
       </c>
       <c r="I25">
         <f ca="1"/>
-        <v>655049</v>
+        <v>693089</v>
       </c>
       <c r="J25">
         <f ca="1"/>
-        <v>2077856</v>
+        <v>2332245</v>
       </c>
       <c r="K25">
         <f ca="1"/>
-        <v>1599476</v>
+        <v>3511613</v>
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>6703313</v>
+        <v>10888054</v>
       </c>
       <c r="M25">
         <f ca="1"/>
-        <v>467464</v>
+        <v>143796</v>
       </c>
       <c r="N25">
         <f ca="1"/>
-        <v>6273796</v>
+        <v>5850849</v>
       </c>
       <c r="O25">
         <f ca="1"/>
-        <v>9376565</v>
+        <v>18754256</v>
       </c>
       <c r="Q25">
         <f ca="1"/>
-        <v>2570097</v>
+        <v>3941215</v>
       </c>
       <c r="R25">
         <f ca="1"/>
-        <v>3585389</v>
+        <v>5515925</v>
       </c>
       <c r="T25">
         <f ca="1"/>
-        <v>15650361</v>
+        <v>24605105</v>
       </c>
       <c r="U25">
         <f ca="1"/>
-        <v>6155486</v>
+        <v>9457140</v>
       </c>
       <c r="W25">
         <f ca="1"/>
-        <v>9494875</v>
+        <v>15147965</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4290,79 +4290,79 @@
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>14261089</v>
+        <v>4219992</v>
       </c>
       <c r="C26">
         <f ca="1"/>
-        <v>8628288</v>
+        <v>8599448</v>
       </c>
       <c r="D26">
         <f ca="1"/>
-        <v>29141999</v>
+        <v>43179434</v>
       </c>
       <c r="E26">
         <f ca="1"/>
-        <v>12297609</v>
+        <v>12086790</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>93274721</v>
+        <v>-17507944</v>
       </c>
       <c r="G26">
         <f ca="1"/>
-        <v>1887297</v>
+        <v>1391099</v>
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>1359248</v>
+        <v>1136704</v>
       </c>
       <c r="I26">
         <f ca="1"/>
-        <v>1572980</v>
+        <v>1256107</v>
       </c>
       <c r="J26">
         <f ca="1"/>
-        <v>3062147</v>
+        <v>3910978</v>
       </c>
       <c r="K26">
         <f ca="1"/>
-        <v>4228089</v>
+        <v>2936155</v>
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>13680689</v>
+        <v>-2628869</v>
       </c>
       <c r="M26">
         <f ca="1"/>
-        <v>351896</v>
+        <v>403224</v>
       </c>
       <c r="N26">
         <f ca="1"/>
-        <v>12865797</v>
+        <v>13617133</v>
       </c>
       <c r="O26">
         <f ca="1"/>
-        <v>19032404</v>
+        <v>-3223369</v>
       </c>
       <c r="Q26">
         <f ca="1"/>
-        <v>5111232</v>
+        <v>4619972</v>
       </c>
       <c r="R26">
         <f ca="1"/>
-        <v>7016293</v>
+        <v>-1112823</v>
       </c>
       <c r="T26">
         <f ca="1"/>
-        <v>31898201</v>
+        <v>10393764</v>
       </c>
       <c r="U26">
         <f ca="1"/>
-        <v>12127525</v>
+        <v>3507149</v>
       </c>
       <c r="W26">
         <f ca="1"/>
-        <v>19770676</v>
+        <v>6886615</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4371,79 +4371,79 @@
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>10420861</v>
+        <v>9188699</v>
       </c>
       <c r="C27">
         <f ca="1"/>
-        <v>5089008</v>
+        <v>6994004</v>
       </c>
       <c r="D27">
         <f ca="1"/>
-        <v>28935114</v>
+        <v>20839026</v>
       </c>
       <c r="E27">
         <f ca="1"/>
-        <v>9351862</v>
+        <v>6891160</v>
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>5910560</v>
+        <v>90395335</v>
       </c>
       <c r="G27">
         <f ca="1"/>
-        <v>1542777</v>
+        <v>3768345</v>
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>946067</v>
+        <v>1730654</v>
       </c>
       <c r="I27">
         <f ca="1"/>
-        <v>948582</v>
+        <v>1123581</v>
       </c>
       <c r="J27">
         <f ca="1"/>
-        <v>1787458</v>
+        <v>2461556</v>
       </c>
       <c r="K27">
         <f ca="1"/>
-        <v>3033615</v>
+        <v>1416241</v>
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>953167</v>
+        <v>11496031</v>
       </c>
       <c r="M27">
         <f ca="1"/>
-        <v>539206</v>
+        <v>853526</v>
       </c>
       <c r="N27">
         <f ca="1"/>
-        <v>10759369</v>
+        <v>8782578</v>
       </c>
       <c r="O27">
         <f ca="1"/>
-        <v>1490667</v>
+        <v>18832736</v>
       </c>
       <c r="Q27">
         <f ca="1"/>
-        <v>3357861</v>
+        <v>3366016</v>
       </c>
       <c r="R27">
         <f ca="1"/>
-        <v>746187</v>
+        <v>6174779</v>
       </c>
       <c r="T27">
         <f ca="1"/>
-        <v>12250036</v>
+        <v>27615314</v>
       </c>
       <c r="U27">
         <f ca="1"/>
-        <v>4104048</v>
+        <v>9540795</v>
       </c>
       <c r="W27">
         <f ca="1"/>
-        <v>8145988</v>
+        <v>18074519</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4452,79 +4452,79 @@
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>9834590</v>
+        <v>9356697</v>
       </c>
       <c r="C28">
         <f ca="1"/>
-        <v>3135371</v>
+        <v>4995736</v>
       </c>
       <c r="D28">
         <f ca="1"/>
-        <v>4460213</v>
+        <v>21699200</v>
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>5079027</v>
+        <v>6634222</v>
       </c>
       <c r="F28">
         <f ca="1"/>
-        <v>34307385</v>
+        <v>38900178</v>
       </c>
       <c r="G28">
         <f ca="1"/>
-        <v>2438795</v>
+        <v>693348</v>
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>724005</v>
+        <v>1117111</v>
       </c>
       <c r="I28">
         <f ca="1"/>
-        <v>1245511</v>
+        <v>790421</v>
       </c>
       <c r="J28">
         <f ca="1"/>
-        <v>2019233</v>
+        <v>2902605</v>
       </c>
       <c r="K28">
         <f ca="1"/>
-        <v>2208920</v>
+        <v>2230736</v>
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>4896376</v>
+        <v>6546530</v>
       </c>
       <c r="M28">
         <f ca="1"/>
-        <v>714757</v>
+        <v>151055</v>
       </c>
       <c r="N28">
         <f ca="1"/>
-        <v>4501840</v>
+        <v>8537171</v>
       </c>
       <c r="O28">
         <f ca="1"/>
-        <v>7349236</v>
+        <v>7918705</v>
       </c>
       <c r="Q28">
         <f ca="1"/>
-        <v>3098835</v>
+        <v>3520437</v>
       </c>
       <c r="R28">
         <f ca="1"/>
-        <v>2805567</v>
+        <v>3348793</v>
       </c>
       <c r="T28">
         <f ca="1"/>
-        <v>11851076</v>
+        <v>16455876</v>
       </c>
       <c r="U28">
         <f ca="1"/>
-        <v>5904402</v>
+        <v>6869230</v>
       </c>
       <c r="W28">
         <f ca="1"/>
-        <v>5946674</v>
+        <v>9586646</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4533,79 +4533,79 @@
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>28310368</v>
+        <v>16441448</v>
       </c>
       <c r="C29">
         <f ca="1"/>
-        <v>1953044</v>
+        <v>4199985</v>
       </c>
       <c r="D29">
         <f ca="1"/>
-        <v>50819188</v>
+        <v>8237748</v>
       </c>
       <c r="E29">
         <f ca="1"/>
-        <v>1867270</v>
+        <v>6968982</v>
       </c>
       <c r="F29">
         <f ca="1"/>
-        <v>34180985</v>
+        <v>39774337</v>
       </c>
       <c r="G29">
         <f ca="1"/>
-        <v>1602703</v>
+        <v>2540800</v>
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>2285112</v>
+        <v>793916</v>
       </c>
       <c r="I29">
         <f ca="1"/>
-        <v>245640</v>
+        <v>633055</v>
       </c>
       <c r="J29">
         <f ca="1"/>
-        <v>5838057</v>
+        <v>3357039</v>
       </c>
       <c r="K29">
         <f ca="1"/>
-        <v>623588</v>
+        <v>2154022</v>
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>4798683</v>
+        <v>5714591</v>
       </c>
       <c r="M29">
         <f ca="1"/>
-        <v>397865</v>
+        <v>617095</v>
       </c>
       <c r="N29">
         <f ca="1"/>
-        <v>16589974</v>
+        <v>7169633</v>
       </c>
       <c r="O29">
         <f ca="1"/>
-        <v>7156738</v>
+        <v>8463027</v>
       </c>
       <c r="Q29">
         <f ca="1"/>
-        <v>4496199</v>
+        <v>3469016</v>
       </c>
       <c r="R29">
         <f ca="1"/>
-        <v>2598274</v>
+        <v>3165843</v>
       </c>
       <c r="T29">
         <f ca="1"/>
-        <v>23746712</v>
+        <v>15632660</v>
       </c>
       <c r="U29">
         <f ca="1"/>
-        <v>7094473</v>
+        <v>6634859</v>
       </c>
       <c r="W29">
         <f ca="1"/>
-        <v>16652239</v>
+        <v>8997801</v>
       </c>
     </row>
   </sheetData>
@@ -7884,8 +7884,8 @@
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView zoomScale="126" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="F1" zoomScale="126" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7917,10 +7917,10 @@
         <v>130</v>
       </c>
       <c r="E1" s="139" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F1" s="139" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G1" s="139" t="s">
         <v>33</v>
@@ -7941,13 +7941,13 @@
         <v>38</v>
       </c>
       <c r="M1" s="139" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N1" s="139" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O1" s="139" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9463,10 +9463,10 @@
         <v>32</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>54</v>
@@ -9487,7 +9487,7 @@
         <v>59</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -9855,11 +9855,11 @@
       </c>
       <c r="I5" s="16">
         <f ca="1">SIMS_E!W14</f>
-        <v>9986495.5</v>
+        <v>12413375.5</v>
       </c>
       <c r="J5" s="17">
         <f ca="1">SIMS_E!W15</f>
-        <v>0.56999999999999995</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="16" x14ac:dyDescent="0.2">
@@ -9905,15 +9905,15 @@
       <c r="F9" s="11"/>
       <c r="H9" s="18">
         <f ca="1">I5* (1 - 0.524417 * J5 / 1.645006)</f>
-        <v>8171827.2458687713</v>
+        <v>10711735.743050236</v>
       </c>
       <c r="I9" s="18">
         <f ca="1">I5 * (1-I12)</f>
-        <v>9187575.8600000013</v>
+        <v>11420305.460000001</v>
       </c>
       <c r="J9" s="18">
         <f ca="1">I5* ( 1 - 2/44)</f>
-        <v>9532563.8863636367</v>
+        <v>11849131.15909091</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="16" x14ac:dyDescent="0.2">
@@ -10457,31 +10457,31 @@
       </c>
       <c r="B14" s="119">
         <f ca="1">MEDIAN(_xlfn.ANCHORARRAY(B20))</f>
-        <v>0.46899999999999997</v>
+        <v>0.46650000000000003</v>
       </c>
       <c r="C14" s="58">
         <f t="shared" ref="C14:P14" ca="1" si="2">MEDIAN(_xlfn.ANCHORARRAY(C20))</f>
-        <v>222.98700000000002</v>
+        <v>273.37700000000001</v>
       </c>
       <c r="D14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>198.185</v>
+        <v>171.80500000000001</v>
       </c>
       <c r="E14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32650000000000001</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="F14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41300000000000003</v>
+        <v>0.39150000000000001</v>
       </c>
       <c r="G14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71750000000000003</v>
+        <v>0.74649999999999994</v>
       </c>
       <c r="H14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79800000000000004</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="I14" s="60">
         <f t="shared" ca="1" si="2"/>
@@ -10489,27 +10489,27 @@
       </c>
       <c r="J14" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>76.375500000000002</v>
+        <v>90.774000000000001</v>
       </c>
       <c r="K14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>81.195999999999998</v>
+        <v>72.254999999999995</v>
       </c>
       <c r="L14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>140.91849999999999</v>
+        <v>173.57549999999998</v>
       </c>
       <c r="M14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>133.94200000000001</v>
+        <v>114.66200000000001</v>
       </c>
       <c r="N14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>109.11199999999999</v>
+        <v>139.429</v>
       </c>
       <c r="O14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>92.308999999999997</v>
+        <v>98.753999999999991</v>
       </c>
       <c r="P14" s="60">
         <f t="shared" ca="1" si="2"/>
@@ -10525,31 +10525,31 @@
       </c>
       <c r="B15" s="61">
         <f t="shared" ref="B15" ca="1" si="3">ROUND(B16/B14,2)</f>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="C15" s="62">
         <f t="shared" ref="C15:P15" ca="1" si="4">ROUND(C16/C14,2)</f>
-        <v>0.47</v>
+        <v>0.23</v>
       </c>
       <c r="D15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48</v>
+        <v>0.37</v>
       </c>
       <c r="E15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.09</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="H15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="I15" s="64" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -10557,27 +10557,27 @@
       </c>
       <c r="J15" s="62">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="K15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="L15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46</v>
+        <v>0.27</v>
       </c>
       <c r="M15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46</v>
+        <v>0.33</v>
       </c>
       <c r="N15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55000000000000004</v>
+        <v>0.26</v>
       </c>
       <c r="O15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.68</v>
+        <v>0.42</v>
       </c>
       <c r="P15" s="64" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -10592,31 +10592,31 @@
       </c>
       <c r="B16" s="65">
         <f t="shared" ref="B16" ca="1" si="5">(B18-B17)/2</f>
-        <v>1.4999999999999986E-2</v>
+        <v>1.999999999999999E-2</v>
       </c>
       <c r="C16" s="66">
         <f t="shared" ref="C16:P16" ca="1" si="6">(C18-C17)/2</f>
-        <v>103.71999999999998</v>
+        <v>63.24499999999999</v>
       </c>
       <c r="D16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>95.97</v>
+        <v>64.314999999999984</v>
       </c>
       <c r="E16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>0.03</v>
+        <v>4.5000000000000012E-2</v>
       </c>
       <c r="F16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9999999999999989E-2</v>
+        <v>4.5000000000000012E-2</v>
       </c>
       <c r="G16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>0.16499999999999998</v>
+        <v>0.23000000000000004</v>
       </c>
       <c r="H16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>0.185</v>
+        <v>0.15999999999999998</v>
       </c>
       <c r="I16" s="68">
         <f t="shared" ca="1" si="6"/>
@@ -10624,27 +10624,27 @@
       </c>
       <c r="J16" s="66">
         <f t="shared" ca="1" si="6"/>
-        <v>34.064999999999998</v>
+        <v>28.93</v>
       </c>
       <c r="K16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>40.370000000000005</v>
+        <v>24.715</v>
       </c>
       <c r="L16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>64.965000000000003</v>
+        <v>46.834999999999994</v>
       </c>
       <c r="M16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>62.194999999999993</v>
+        <v>37.645000000000003</v>
       </c>
       <c r="N16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>60.175000000000004</v>
+        <v>36.82</v>
       </c>
       <c r="O16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>62.55</v>
+        <v>41.755000000000003</v>
       </c>
       <c r="P16" s="68">
         <f t="shared" ca="1" si="6"/>
@@ -10659,31 +10659,31 @@
       </c>
       <c r="B17" s="120">
         <f t="shared" ref="B17:P17" ca="1" si="7">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20),ci_alpha/2),2)</f>
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="C17" s="66">
         <f t="shared" ca="1" si="7"/>
-        <v>164.34</v>
+        <v>233.71</v>
       </c>
       <c r="D17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>92.45</v>
+        <v>152.71</v>
       </c>
       <c r="E17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>0.31</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="G17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="H17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>0.55000000000000004</v>
+        <v>0.62</v>
       </c>
       <c r="I17" s="68">
         <f t="shared" ca="1" si="7"/>
@@ -10691,27 +10691,27 @@
       </c>
       <c r="J17" s="66">
         <f t="shared" ca="1" si="7"/>
-        <v>53.07</v>
+        <v>71.17</v>
       </c>
       <c r="K17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>36.44</v>
+        <v>59.12</v>
       </c>
       <c r="L17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>105.48</v>
+        <v>137.21</v>
       </c>
       <c r="M17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>61.77</v>
+        <v>101.89</v>
       </c>
       <c r="N17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>70.260000000000005</v>
+        <v>94.21</v>
       </c>
       <c r="O17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>41.9</v>
+        <v>69.7</v>
       </c>
       <c r="P17" s="68">
         <f t="shared" ca="1" si="7"/>
@@ -10730,27 +10730,27 @@
       </c>
       <c r="C18" s="66">
         <f t="shared" ca="1" si="8"/>
-        <v>371.78</v>
+        <v>360.2</v>
       </c>
       <c r="D18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>284.39</v>
+        <v>281.33999999999997</v>
       </c>
       <c r="E18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="F18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="G18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>0.94</v>
+        <v>1.06</v>
       </c>
       <c r="H18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="I18" s="68">
         <f t="shared" ca="1" si="8"/>
@@ -10758,27 +10758,27 @@
       </c>
       <c r="J18" s="66">
         <f t="shared" ca="1" si="8"/>
-        <v>121.2</v>
+        <v>129.03</v>
       </c>
       <c r="K18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>117.18</v>
+        <v>108.55</v>
       </c>
       <c r="L18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>235.41</v>
+        <v>230.88</v>
       </c>
       <c r="M18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>186.16</v>
+        <v>177.18</v>
       </c>
       <c r="N18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>190.61</v>
+        <v>167.85</v>
       </c>
       <c r="O18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>167</v>
+        <v>153.21</v>
       </c>
       <c r="P18" s="68">
         <f t="shared" ca="1" si="8"/>
@@ -10799,17 +10799,17 @@
       <c r="I19" s="56"/>
       <c r="J19" s="69">
         <f ca="1">ROUND(C20*E20, 3)</f>
-        <v>77.861000000000004</v>
+        <v>108.465</v>
       </c>
       <c r="K19" s="54"/>
       <c r="L19" s="70">
         <f ca="1">ROUND(C20 * (1  + E20) * $B20,3)</f>
-        <v>155.79599999999999</v>
+        <v>179.774</v>
       </c>
       <c r="M19" s="70"/>
       <c r="N19" s="70">
         <f ca="1">ROUND(L20*G20, 3)</f>
-        <v>142.398</v>
+        <v>132.31399999999999</v>
       </c>
       <c r="O19" s="54"/>
       <c r="P19" s="56"/>
@@ -10821,31 +10821,31 @@
       </c>
       <c r="B20" s="72" cm="1">
         <f t="array" aca="1" ref="B20:B29" ca="1">IF(B12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),B6,B7),3),_xlfn.SEQUENCE(n_iter, 1, B6, 0))</f>
-        <v>0.47</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="C20" s="72" cm="1">
         <f t="array" aca="1" ref="C20:C29" ca="1">IF(C12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),C6,C7),3),_xlfn.SEQUENCE(n_iter, 1, C6, 0))</f>
-        <v>253.62</v>
+        <v>283.19900000000001</v>
       </c>
       <c r="D20" s="72" cm="1">
         <f t="array" aca="1" ref="D20:D29" ca="1">IF(D12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),D6,D7),3),_xlfn.SEQUENCE(n_iter, 1, D6, 0))</f>
-        <v>287.14600000000002</v>
+        <v>172.78800000000001</v>
       </c>
       <c r="E20" s="72" cm="1">
         <f t="array" aca="1" ref="E20:E29" ca="1">IF(E12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),E6,E7),3),_xlfn.SEQUENCE(n_iter, 1, E6, 0))</f>
-        <v>0.307</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="F20" s="72" cm="1">
         <f t="array" aca="1" ref="F20:F29" ca="1">IF(F12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),F6,F7),3),_xlfn.SEQUENCE(n_iter, 1, F6, 0))</f>
-        <v>0.36199999999999999</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="G20" s="72" cm="1">
         <f t="array" aca="1" ref="G20:G29" ca="1">IF(G12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),G6,G7),3),_xlfn.SEQUENCE(n_iter, 1, G6, 0))</f>
-        <v>0.91400000000000003</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="H20" s="72" cm="1">
         <f t="array" aca="1" ref="H20:H29" ca="1">IF(H12=1, ROUND(BETAINV(_xlfn.RANDARRAY(n_iter, 1),H9,H10),3),_xlfn.SEQUENCE(n_iter, 1, H6, 0))</f>
-        <v>0.90600000000000003</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="I20" s="72" cm="1">
         <f t="array" aca="1" ref="I20:I29" ca="1">IF(I12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),I6,I7),3),_xlfn.SEQUENCE(n_iter, 1, I6, 0))</f>
@@ -10853,27 +10853,27 @@
       </c>
       <c r="J20" s="121" cm="1">
         <f t="array" aca="1" ref="J20:J29" ca="1">ROUND(_xlfn.ANCHORARRAY(C20) *_xlfn.ANCHORARRAY( E20), 3)</f>
-        <v>77.861000000000004</v>
+        <v>108.465</v>
       </c>
       <c r="K20" s="121" cm="1">
         <f t="array" aca="1" ref="K20:K29" ca="1">ROUND(_xlfn.ANCHORARRAY(D20) *_xlfn.ANCHORARRAY( F20), 3)</f>
-        <v>103.947</v>
+        <v>73.088999999999999</v>
       </c>
       <c r="L20" s="121" cm="1">
         <f t="array" aca="1" ref="L20:L29" ca="1">ROUND(_xlfn.ANCHORARRAY(C20) * (1 +_xlfn.ANCHORARRAY( E20)) *_xlfn.ANCHORARRAY( $B20), 3)</f>
-        <v>155.79599999999999</v>
+        <v>179.774</v>
       </c>
       <c r="M20" s="121" cm="1">
         <f t="array" aca="1" ref="M20:M29" ca="1">ROUND(_xlfn.ANCHORARRAY(D20) * (1 +_xlfn.ANCHORARRAY( F20)) *_xlfn.ANCHORARRAY( $B20), 3)</f>
-        <v>183.81399999999999</v>
+        <v>112.858</v>
       </c>
       <c r="N20" s="121" cm="1">
         <f t="array" aca="1" ref="N20:N29" ca="1">ROUND(_xlfn.ANCHORARRAY(L20) *_xlfn.ANCHORARRAY( G20), 3)</f>
-        <v>142.398</v>
+        <v>132.31399999999999</v>
       </c>
       <c r="O20" s="121" cm="1">
         <f t="array" aca="1" ref="O20:O29" ca="1">ROUND(_xlfn.ANCHORARRAY(M20) *_xlfn.ANCHORARRAY( H20), 3)</f>
-        <v>166.535</v>
+        <v>78.662000000000006</v>
       </c>
       <c r="P20" s="122" cm="1">
         <f t="array" aca="1" ref="P20:P29" ca="1">_xlfn.ANCHORARRAY(I20)</f>
@@ -10887,31 +10887,31 @@
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>0.46500000000000002</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>181.69200000000001</v>
+        <v>381.45299999999997</v>
       </c>
       <c r="D21">
         <f ca="1"/>
-        <v>253.85</v>
+        <v>259.91699999999997</v>
       </c>
       <c r="E21">
         <f ca="1"/>
-        <v>0.317</v>
+        <v>0.377</v>
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>0.44400000000000001</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="G21">
         <f ca="1"/>
-        <v>0.628</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="H21">
         <f ca="1"/>
-        <v>0.92700000000000005</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="I21">
         <f ca="1"/>
@@ -10919,27 +10919,27 @@
       </c>
       <c r="J21">
         <f ca="1"/>
-        <v>57.595999999999997</v>
+        <v>143.80799999999999</v>
       </c>
       <c r="K21">
         <f ca="1"/>
-        <v>112.709</v>
+        <v>95.649000000000001</v>
       </c>
       <c r="L21">
         <f ca="1"/>
-        <v>111.26900000000001</v>
+        <v>245.297</v>
       </c>
       <c r="M21">
         <f ca="1"/>
-        <v>170.45</v>
+        <v>166.05</v>
       </c>
       <c r="N21">
         <f ca="1"/>
-        <v>69.876999999999995</v>
+        <v>151.10300000000001</v>
       </c>
       <c r="O21">
         <f ca="1"/>
-        <v>158.00700000000001</v>
+        <v>135.33099999999999</v>
       </c>
       <c r="P21">
         <f ca="1"/>
@@ -10952,31 +10952,31 @@
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>0.45300000000000001</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="C22">
         <f ca="1"/>
-        <v>221.71</v>
+        <v>253.39500000000001</v>
       </c>
       <c r="D22">
         <f ca="1"/>
-        <v>119.925</v>
+        <v>170.822</v>
       </c>
       <c r="E22">
         <f ca="1"/>
-        <v>0.35799999999999998</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>0.48299999999999998</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="G22">
         <f ca="1"/>
-        <v>0.76</v>
+        <v>1.002</v>
       </c>
       <c r="H22">
         <f ca="1"/>
-        <v>0.79700000000000004</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="I22">
         <f ca="1"/>
@@ -10984,27 +10984,27 @@
       </c>
       <c r="J22">
         <f ca="1"/>
-        <v>79.372</v>
+        <v>75.257999999999996</v>
       </c>
       <c r="K22">
         <f ca="1"/>
-        <v>57.923999999999999</v>
+        <v>65.082999999999998</v>
       </c>
       <c r="L22">
         <f ca="1"/>
-        <v>136.38999999999999</v>
+        <v>146.251</v>
       </c>
       <c r="M22">
         <f ca="1"/>
-        <v>80.564999999999998</v>
+        <v>104.97799999999999</v>
       </c>
       <c r="N22">
         <f ca="1"/>
-        <v>103.65600000000001</v>
+        <v>146.54400000000001</v>
       </c>
       <c r="O22">
         <f ca="1"/>
-        <v>64.209999999999994</v>
+        <v>98.259</v>
       </c>
       <c r="P22">
         <f ca="1"/>
@@ -11017,31 +11017,31 @@
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>0.46600000000000003</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="C23">
         <f ca="1"/>
-        <v>255.154</v>
+        <v>290.33999999999997</v>
       </c>
       <c r="D23">
         <f ca="1"/>
-        <v>124.596</v>
+        <v>251.63300000000001</v>
       </c>
       <c r="E23">
         <f ca="1"/>
-        <v>0.38300000000000001</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>0.39600000000000002</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="G23">
         <f ca="1"/>
-        <v>0.69199999999999995</v>
+        <v>0.873</v>
       </c>
       <c r="H23">
         <f ca="1"/>
-        <v>0.73799999999999999</v>
+        <v>0.628</v>
       </c>
       <c r="I23">
         <f ca="1"/>
@@ -11049,27 +11049,27 @@
       </c>
       <c r="J23">
         <f ca="1"/>
-        <v>97.724000000000004</v>
+        <v>96.683000000000007</v>
       </c>
       <c r="K23">
         <f ca="1"/>
-        <v>49.34</v>
+        <v>86.058000000000007</v>
       </c>
       <c r="L23">
         <f ca="1"/>
-        <v>164.441</v>
+        <v>181.12700000000001</v>
       </c>
       <c r="M23">
         <f ca="1"/>
-        <v>81.054000000000002</v>
+        <v>158.04</v>
       </c>
       <c r="N23">
         <f ca="1"/>
-        <v>113.79300000000001</v>
+        <v>158.124</v>
       </c>
       <c r="O23">
         <f ca="1"/>
-        <v>59.817999999999998</v>
+        <v>99.248999999999995</v>
       </c>
       <c r="P23">
         <f ca="1"/>
@@ -11082,31 +11082,31 @@
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>0.48799999999999999</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="C24">
         <f ca="1"/>
-        <v>224.26400000000001</v>
+        <v>334.23200000000003</v>
       </c>
       <c r="D24">
         <f ca="1"/>
-        <v>204.459</v>
+        <v>149.221</v>
       </c>
       <c r="E24">
         <f ca="1"/>
-        <v>0.32900000000000001</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>0.43099999999999999</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="G24">
         <f ca="1"/>
-        <v>0.71799999999999997</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>0.51300000000000001</v>
+        <v>0.621</v>
       </c>
       <c r="I24">
         <f ca="1"/>
@@ -11114,27 +11114,27 @@
       </c>
       <c r="J24">
         <f ca="1"/>
-        <v>73.783000000000001</v>
+        <v>110.965</v>
       </c>
       <c r="K24">
         <f ca="1"/>
-        <v>88.122</v>
+        <v>60.435000000000002</v>
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>145.447</v>
+        <v>213.249</v>
       </c>
       <c r="M24">
         <f ca="1"/>
-        <v>142.779</v>
+        <v>100.425</v>
       </c>
       <c r="N24">
         <f ca="1"/>
-        <v>104.431</v>
+        <v>161.429</v>
       </c>
       <c r="O24">
         <f ca="1"/>
-        <v>73.245999999999995</v>
+        <v>62.363999999999997</v>
       </c>
       <c r="P24">
         <f ca="1"/>
@@ -11147,31 +11147,31 @@
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>0.47</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="C25">
         <f ca="1"/>
-        <v>174.06100000000001</v>
+        <v>263.55500000000001</v>
       </c>
       <c r="D25">
         <f ca="1"/>
-        <v>191.911</v>
+        <v>170.29900000000001</v>
       </c>
       <c r="E25">
         <f ca="1"/>
-        <v>0.32400000000000001</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>0.38700000000000001</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="G25">
         <f ca="1"/>
-        <v>0.65300000000000002</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>0.79900000000000004</v>
+        <v>0.94</v>
       </c>
       <c r="I25">
         <f ca="1"/>
@@ -11179,27 +11179,27 @@
       </c>
       <c r="J25">
         <f ca="1"/>
-        <v>56.396000000000001</v>
+        <v>84.864999999999995</v>
       </c>
       <c r="K25">
         <f ca="1"/>
-        <v>74.27</v>
+        <v>70.332999999999998</v>
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>108.315</v>
+        <v>168.63499999999999</v>
       </c>
       <c r="M25">
         <f ca="1"/>
-        <v>125.105</v>
+        <v>116.46599999999999</v>
       </c>
       <c r="N25">
         <f ca="1"/>
-        <v>70.73</v>
+        <v>97.977000000000004</v>
       </c>
       <c r="O25">
         <f ca="1"/>
-        <v>99.959000000000003</v>
+        <v>109.47799999999999</v>
       </c>
       <c r="P25">
         <f ca="1"/>
@@ -11212,31 +11212,31 @@
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>0.46800000000000003</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="C26">
         <f ca="1"/>
-        <v>330.17399999999998</v>
+        <v>263.13600000000002</v>
       </c>
       <c r="D26">
         <f ca="1"/>
-        <v>281.024</v>
+        <v>298.875</v>
       </c>
       <c r="E26">
         <f ca="1"/>
-        <v>0.34100000000000003</v>
+        <v>0.32</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>0.43</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="G26">
         <f ca="1"/>
-        <v>0.60099999999999998</v>
+        <v>1.105</v>
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>0.89</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="I26">
         <f ca="1"/>
@@ -11244,27 +11244,27 @@
       </c>
       <c r="J26">
         <f ca="1"/>
-        <v>112.589</v>
+        <v>84.203999999999994</v>
       </c>
       <c r="K26">
         <f ca="1"/>
-        <v>120.84</v>
+        <v>114.17</v>
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>207.21299999999999</v>
+        <v>156.65</v>
       </c>
       <c r="M26">
         <f ca="1"/>
-        <v>188.07300000000001</v>
+        <v>186.28299999999999</v>
       </c>
       <c r="N26">
         <f ca="1"/>
-        <v>124.535</v>
+        <v>173.09800000000001</v>
       </c>
       <c r="O26">
         <f ca="1"/>
-        <v>167.38499999999999</v>
+        <v>167.84100000000001</v>
       </c>
       <c r="P26">
         <f ca="1"/>
@@ -11277,31 +11277,31 @@
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>0.45800000000000002</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="C27">
         <f ca="1"/>
-        <v>215.20099999999999</v>
+        <v>286.09500000000003</v>
       </c>
       <c r="D27">
         <f ca="1"/>
-        <v>227.56800000000001</v>
+        <v>253.572</v>
       </c>
       <c r="E27">
         <f ca="1"/>
-        <v>0.34799999999999998</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>0.44900000000000001</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="G27">
         <f ca="1"/>
-        <v>0.96</v>
+        <v>0.64</v>
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>0.84099999999999997</v>
+        <v>0.749</v>
       </c>
       <c r="I27">
         <f ca="1"/>
@@ -11309,27 +11309,27 @@
       </c>
       <c r="J27">
         <f ca="1"/>
-        <v>74.89</v>
+        <v>96.986000000000004</v>
       </c>
       <c r="K27">
         <f ca="1"/>
-        <v>102.178</v>
+        <v>101.682</v>
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>132.86199999999999</v>
+        <v>178.51599999999999</v>
       </c>
       <c r="M27">
         <f ca="1"/>
-        <v>151.024</v>
+        <v>165.54900000000001</v>
       </c>
       <c r="N27">
         <f ca="1"/>
-        <v>127.548</v>
+        <v>114.25</v>
       </c>
       <c r="O27">
         <f ca="1"/>
-        <v>127.011</v>
+        <v>123.996</v>
       </c>
       <c r="P27">
         <f ca="1"/>
@@ -11342,31 +11342,31 @@
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>0.499</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="C28">
         <f ca="1"/>
-        <v>156.386</v>
+        <v>217.6</v>
       </c>
       <c r="D28">
         <f ca="1"/>
-        <v>167.63800000000001</v>
+        <v>156.96899999999999</v>
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>0.32200000000000001</v>
+        <v>0.314</v>
       </c>
       <c r="F28">
         <f ca="1"/>
-        <v>0.39400000000000002</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="G28">
         <f ca="1"/>
-        <v>0.71699999999999997</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>0.72599999999999998</v>
+        <v>0.93</v>
       </c>
       <c r="I28">
         <f ca="1"/>
@@ -11374,27 +11374,27 @@
       </c>
       <c r="J28">
         <f ca="1"/>
-        <v>50.356000000000002</v>
+        <v>68.325999999999993</v>
       </c>
       <c r="K28">
         <f ca="1"/>
-        <v>66.049000000000007</v>
+        <v>71.421000000000006</v>
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>103.164</v>
+        <v>129.81100000000001</v>
       </c>
       <c r="M28">
         <f ca="1"/>
-        <v>116.61</v>
+        <v>103.68899999999999</v>
       </c>
       <c r="N28">
         <f ca="1"/>
-        <v>73.968999999999994</v>
+        <v>91.126999999999995</v>
       </c>
       <c r="O28">
         <f ca="1"/>
-        <v>84.659000000000006</v>
+        <v>96.430999999999997</v>
       </c>
       <c r="P28">
         <f ca="1"/>
@@ -11407,31 +11407,31 @@
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>0.48399999999999999</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="C29">
         <f ca="1"/>
-        <v>405.82299999999998</v>
+        <v>259.18</v>
       </c>
       <c r="D29">
         <f ca="1"/>
-        <v>69.966999999999999</v>
+        <v>163.95099999999999</v>
       </c>
       <c r="E29">
         <f ca="1"/>
-        <v>0.316</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="F29">
         <f ca="1"/>
-        <v>0.37</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="G29">
         <f ca="1"/>
-        <v>0.89</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>0.58699999999999997</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="I29">
         <f ca="1"/>
@@ -11439,27 +11439,27 @@
       </c>
       <c r="J29">
         <f ca="1"/>
-        <v>128.24</v>
+        <v>74.644000000000005</v>
       </c>
       <c r="K29">
         <f ca="1"/>
-        <v>25.888000000000002</v>
+        <v>58.039000000000001</v>
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>258.48700000000002</v>
+        <v>163.90799999999999</v>
       </c>
       <c r="M29">
         <f ca="1"/>
-        <v>46.393999999999998</v>
+        <v>108.997</v>
       </c>
       <c r="N29">
         <f ca="1"/>
-        <v>230.053</v>
+        <v>130.143</v>
       </c>
       <c r="O29">
         <f ca="1"/>
-        <v>27.233000000000001</v>
+        <v>80.331000000000003</v>
       </c>
       <c r="P29">
         <f ca="1"/>
@@ -11804,51 +11804,51 @@
       </c>
       <c r="B14" s="58">
         <f t="shared" ref="B14:M14" ca="1" si="0">MEDIAN(_xlfn.ANCHORARRAY(B20))</f>
-        <v>516.70150000000001</v>
+        <v>636.44349999999997</v>
       </c>
       <c r="C14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>491.12049999999999</v>
+        <v>420.42750000000001</v>
       </c>
       <c r="D14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>400.07749999999999</v>
+        <v>511.23950000000002</v>
       </c>
       <c r="E14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>338.46600000000001</v>
+        <v>362.09800000000001</v>
       </c>
       <c r="F14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>128.91849999999999</v>
+        <v>157.93049999999999</v>
       </c>
       <c r="G14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>76.860500000000002</v>
+        <v>108.8725</v>
       </c>
       <c r="H14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>516.70150000000001</v>
+        <v>636.44349999999997</v>
       </c>
       <c r="I14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>491.12049999999999</v>
+        <v>420.42750000000001</v>
       </c>
       <c r="J14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>400.07749999999999</v>
+        <v>511.23950000000002</v>
       </c>
       <c r="K14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>338.46600000000001</v>
+        <v>362.09800000000001</v>
       </c>
       <c r="L14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>128.91849999999999</v>
+        <v>157.93049999999999</v>
       </c>
       <c r="M14" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>76.860500000000002</v>
+        <v>108.8725</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11857,51 +11857,51 @@
       </c>
       <c r="B15" s="62">
         <f t="shared" ref="B15:M15" ca="1" si="1">ROUND(B16/B14,2)</f>
-        <v>0.46</v>
+        <v>0.27</v>
       </c>
       <c r="C15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46</v>
+        <v>0.33</v>
       </c>
       <c r="D15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55000000000000004</v>
+        <v>0.26</v>
       </c>
       <c r="E15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68</v>
+        <v>0.42</v>
       </c>
       <c r="F15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84</v>
+        <v>1.08</v>
       </c>
       <c r="G15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92</v>
+        <v>0.74</v>
       </c>
       <c r="H15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46</v>
+        <v>0.27</v>
       </c>
       <c r="I15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46</v>
+        <v>0.33</v>
       </c>
       <c r="J15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55000000000000004</v>
+        <v>0.26</v>
       </c>
       <c r="K15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68</v>
+        <v>0.42</v>
       </c>
       <c r="L15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84</v>
+        <v>1.08</v>
       </c>
       <c r="M15" s="76">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11910,51 +11910,51 @@
       </c>
       <c r="B16" s="58">
         <f t="shared" ref="B16:M16" ca="1" si="2">(B18-B17)/2</f>
-        <v>238.20499999999998</v>
+        <v>171.71999999999997</v>
       </c>
       <c r="C16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>228.04000000000002</v>
+        <v>138.01999999999998</v>
       </c>
       <c r="D16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>220.64</v>
+        <v>135.00500000000002</v>
       </c>
       <c r="E16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>229.36</v>
+        <v>153.10999999999999</v>
       </c>
       <c r="F16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>108.74000000000001</v>
+        <v>170.095</v>
       </c>
       <c r="G16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>70.430000000000007</v>
+        <v>81.02000000000001</v>
       </c>
       <c r="H16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>238.20499999999998</v>
+        <v>171.71999999999997</v>
       </c>
       <c r="I16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>228.04000000000002</v>
+        <v>138.01999999999998</v>
       </c>
       <c r="J16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>220.64</v>
+        <v>135.00500000000002</v>
       </c>
       <c r="K16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>229.36</v>
+        <v>153.10999999999999</v>
       </c>
       <c r="L16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>108.74000000000001</v>
+        <v>170.095</v>
       </c>
       <c r="M16" s="74">
         <f t="shared" ca="1" si="2"/>
-        <v>70.430000000000007</v>
+        <v>81.02000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11963,51 +11963,51 @@
       </c>
       <c r="B17" s="58">
         <f t="shared" ref="B17:M17" ca="1" si="3">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20),ci_alpha/2),2)</f>
-        <v>386.77</v>
+        <v>503.1</v>
       </c>
       <c r="C17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>226.49</v>
+        <v>373.61</v>
       </c>
       <c r="D17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>257.62</v>
+        <v>345.43</v>
       </c>
       <c r="E17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>153.62</v>
+        <v>255.56</v>
       </c>
       <c r="F17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>32.82</v>
+        <v>-33.65</v>
       </c>
       <c r="G17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>52.08</v>
+        <v>25.08</v>
       </c>
       <c r="H17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>386.77</v>
+        <v>503.1</v>
       </c>
       <c r="I17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>226.49</v>
+        <v>373.61</v>
       </c>
       <c r="J17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>257.62</v>
+        <v>345.43</v>
       </c>
       <c r="K17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>153.62</v>
+        <v>255.56</v>
       </c>
       <c r="L17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>32.82</v>
+        <v>-33.65</v>
       </c>
       <c r="M17" s="74">
         <f t="shared" ca="1" si="3"/>
-        <v>52.08</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12016,62 +12016,62 @@
       </c>
       <c r="B18" s="58">
         <f t="shared" ref="B18:M18" ca="1" si="4">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20), 1 - ci_alpha / 2), 2)</f>
-        <v>863.18</v>
+        <v>846.54</v>
       </c>
       <c r="C18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>682.57</v>
+        <v>649.65</v>
       </c>
       <c r="D18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>698.9</v>
+        <v>615.44000000000005</v>
       </c>
       <c r="E18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>612.34</v>
+        <v>561.78</v>
       </c>
       <c r="F18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>250.3</v>
+        <v>306.54000000000002</v>
       </c>
       <c r="G18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>192.94</v>
+        <v>187.12</v>
       </c>
       <c r="H18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>863.18</v>
+        <v>846.54</v>
       </c>
       <c r="I18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>682.57</v>
+        <v>649.65</v>
       </c>
       <c r="J18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>698.9</v>
+        <v>615.44000000000005</v>
       </c>
       <c r="K18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>612.34</v>
+        <v>561.78</v>
       </c>
       <c r="L18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>250.3</v>
+        <v>306.54000000000002</v>
       </c>
       <c r="M18" s="74">
         <f t="shared" ca="1" si="4"/>
-        <v>192.94</v>
+        <v>187.12</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="69">
         <f ca="1">ROUND((SIMS_EF_preparation!L20 - SIMS_EF_preparation!P20) * 44 / 12, 3)</f>
-        <v>571.25199999999995</v>
+        <v>659.17100000000005</v>
       </c>
       <c r="C19" s="127">
         <f ca="1">ROUND((SIMS_EF_preparation!M20 - SIMS_EF_preparation!P20) * 44 / 12, 3)</f>
-        <v>673.98500000000001</v>
+        <v>413.81299999999999</v>
       </c>
       <c r="D19" s="54"/>
       <c r="E19" s="54"/>
@@ -12091,51 +12091,51 @@
       </c>
       <c r="B20" s="72" cm="1">
         <f t="array" aca="1" ref="B20:B29" ca="1">ROUND((_xlfn.XLOOKUP(B$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(B$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>571.25199999999995</v>
+        <v>659.17100000000005</v>
       </c>
       <c r="C20" s="72" cm="1">
         <f t="array" aca="1" ref="C20:C29" ca="1">ROUND((_xlfn.XLOOKUP(C$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(C$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>673.98500000000001</v>
+        <v>413.81299999999999</v>
       </c>
       <c r="D20" s="72" cm="1">
         <f t="array" aca="1" ref="D20:D29" ca="1">ROUND((_xlfn.XLOOKUP(D$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(D$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>522.12599999999998</v>
+        <v>485.15100000000001</v>
       </c>
       <c r="E20" s="72" cm="1">
         <f t="array" aca="1" ref="E20:E29" ca="1">ROUND((_xlfn.XLOOKUP(E$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(E$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>610.62800000000004</v>
+        <v>288.42700000000002</v>
       </c>
       <c r="F20" s="72" cm="1">
         <f t="array" aca="1" ref="F20:F29" ca="1">ROUND((_xlfn.XLOOKUP(F$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(F$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>49.125999999999998</v>
+        <v>174.02</v>
       </c>
       <c r="G20" s="72" cm="1">
         <f t="array" aca="1" ref="G20:G29" ca="1">ROUND((_xlfn.XLOOKUP(G$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(G$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>63.356000000000002</v>
+        <v>125.38500000000001</v>
       </c>
       <c r="H20" s="72" cm="1">
         <f t="array" aca="1" ref="H20:H29" ca="1">ROUND((_xlfn.XLOOKUP(H$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(H$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>571.25199999999995</v>
+        <v>659.17100000000005</v>
       </c>
       <c r="I20" s="72" cm="1">
         <f t="array" aca="1" ref="I20:I29" ca="1">ROUND((_xlfn.XLOOKUP(I$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(I$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>673.98500000000001</v>
+        <v>413.81299999999999</v>
       </c>
       <c r="J20" s="72" cm="1">
         <f t="array" aca="1" ref="J20:J29" ca="1">ROUND((_xlfn.XLOOKUP(J$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(J$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>522.12599999999998</v>
+        <v>485.15100000000001</v>
       </c>
       <c r="K20" s="72" cm="1">
         <f t="array" aca="1" ref="K20:K29" ca="1">ROUND((_xlfn.XLOOKUP(K$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(K$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>610.62800000000004</v>
+        <v>288.42700000000002</v>
       </c>
       <c r="L20" s="72" cm="1">
         <f t="array" aca="1" ref="L20:L29" ca="1">ROUND((_xlfn.XLOOKUP(L$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(L$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>49.125999999999998</v>
+        <v>174.02</v>
       </c>
       <c r="M20" s="72" cm="1">
         <f t="array" aca="1" ref="M20:M29" ca="1">ROUND((_xlfn.XLOOKUP(M$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(M$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>63.356000000000002</v>
+        <v>125.38500000000001</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12144,51 +12144,51 @@
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>407.98599999999999</v>
+        <v>899.42200000000003</v>
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>624.98299999999995</v>
+        <v>608.85</v>
       </c>
       <c r="D21">
         <f ca="1"/>
-        <v>256.21600000000001</v>
+        <v>554.04399999999998</v>
       </c>
       <c r="E21">
         <f ca="1"/>
-        <v>579.35900000000004</v>
+        <v>496.214</v>
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>151.77099999999999</v>
+        <v>345.37799999999999</v>
       </c>
       <c r="G21">
         <f ca="1"/>
-        <v>45.624000000000002</v>
+        <v>112.636</v>
       </c>
       <c r="H21">
         <f ca="1"/>
-        <v>407.98599999999999</v>
+        <v>899.42200000000003</v>
       </c>
       <c r="I21">
         <f ca="1"/>
-        <v>624.98299999999995</v>
+        <v>608.85</v>
       </c>
       <c r="J21">
         <f ca="1"/>
-        <v>256.21600000000001</v>
+        <v>554.04399999999998</v>
       </c>
       <c r="K21">
         <f ca="1"/>
-        <v>579.35900000000004</v>
+        <v>496.214</v>
       </c>
       <c r="L21">
         <f ca="1"/>
-        <v>151.77099999999999</v>
+        <v>345.37799999999999</v>
       </c>
       <c r="M21">
         <f ca="1"/>
-        <v>45.624000000000002</v>
+        <v>112.636</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12197,51 +12197,51 @@
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>500.09699999999998</v>
+        <v>536.25400000000002</v>
       </c>
       <c r="C22">
         <f ca="1"/>
-        <v>295.40499999999997</v>
+        <v>384.91899999999998</v>
       </c>
       <c r="D22">
         <f ca="1"/>
-        <v>380.072</v>
+        <v>537.32799999999997</v>
       </c>
       <c r="E22">
         <f ca="1"/>
-        <v>235.43700000000001</v>
+        <v>360.28300000000002</v>
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>120.02500000000001</v>
+        <v>-1.0740000000000001</v>
       </c>
       <c r="G22">
         <f ca="1"/>
-        <v>59.968000000000004</v>
+        <v>24.635999999999999</v>
       </c>
       <c r="H22">
         <f ca="1"/>
-        <v>500.09699999999998</v>
+        <v>536.25400000000002</v>
       </c>
       <c r="I22">
         <f ca="1"/>
-        <v>295.40499999999997</v>
+        <v>384.91899999999998</v>
       </c>
       <c r="J22">
         <f ca="1"/>
-        <v>380.072</v>
+        <v>537.32799999999997</v>
       </c>
       <c r="K22">
         <f ca="1"/>
-        <v>235.43700000000001</v>
+        <v>360.28300000000002</v>
       </c>
       <c r="L22">
         <f ca="1"/>
-        <v>120.02500000000001</v>
+        <v>-1.0740000000000001</v>
       </c>
       <c r="M22">
         <f ca="1"/>
-        <v>59.968000000000004</v>
+        <v>24.635999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12250,51 +12250,51 @@
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>602.95000000000005</v>
+        <v>664.13199999999995</v>
       </c>
       <c r="C23">
         <f ca="1"/>
-        <v>297.19799999999998</v>
+        <v>579.48</v>
       </c>
       <c r="D23">
         <f ca="1"/>
-        <v>417.24099999999999</v>
+        <v>579.78800000000001</v>
       </c>
       <c r="E23">
         <f ca="1"/>
-        <v>219.333</v>
+        <v>363.91300000000001</v>
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>185.709</v>
+        <v>84.343999999999994</v>
       </c>
       <c r="G23">
         <f ca="1"/>
-        <v>77.864999999999995</v>
+        <v>215.56700000000001</v>
       </c>
       <c r="H23">
         <f ca="1"/>
-        <v>602.95000000000005</v>
+        <v>664.13199999999995</v>
       </c>
       <c r="I23">
         <f ca="1"/>
-        <v>297.19799999999998</v>
+        <v>579.48</v>
       </c>
       <c r="J23">
         <f ca="1"/>
-        <v>417.24099999999999</v>
+        <v>579.78800000000001</v>
       </c>
       <c r="K23">
         <f ca="1"/>
-        <v>219.333</v>
+        <v>363.91300000000001</v>
       </c>
       <c r="L23">
         <f ca="1"/>
-        <v>185.709</v>
+        <v>84.343999999999994</v>
       </c>
       <c r="M23">
         <f ca="1"/>
-        <v>77.864999999999995</v>
+        <v>215.56700000000001</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12303,51 +12303,51 @@
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>533.30600000000004</v>
+        <v>781.91300000000001</v>
       </c>
       <c r="C24">
         <f ca="1"/>
-        <v>523.52300000000002</v>
+        <v>368.22500000000002</v>
       </c>
       <c r="D24">
         <f ca="1"/>
-        <v>382.91399999999999</v>
+        <v>591.90599999999995</v>
       </c>
       <c r="E24">
         <f ca="1"/>
-        <v>268.56900000000002</v>
+        <v>228.66800000000001</v>
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>150.392</v>
+        <v>190.00700000000001</v>
       </c>
       <c r="G24">
         <f ca="1"/>
-        <v>254.95400000000001</v>
+        <v>139.55699999999999</v>
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>533.30600000000004</v>
+        <v>781.91300000000001</v>
       </c>
       <c r="I24">
         <f ca="1"/>
-        <v>523.52300000000002</v>
+        <v>368.22500000000002</v>
       </c>
       <c r="J24">
         <f ca="1"/>
-        <v>382.91399999999999</v>
+        <v>591.90599999999995</v>
       </c>
       <c r="K24">
         <f ca="1"/>
-        <v>268.56900000000002</v>
+        <v>228.66800000000001</v>
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>150.392</v>
+        <v>190.00700000000001</v>
       </c>
       <c r="M24">
         <f ca="1"/>
-        <v>254.95400000000001</v>
+        <v>139.55699999999999</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12356,51 +12356,51 @@
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>397.15499999999997</v>
+        <v>618.32799999999997</v>
       </c>
       <c r="C25">
         <f ca="1"/>
-        <v>458.71800000000002</v>
+        <v>427.04199999999997</v>
       </c>
       <c r="D25">
         <f ca="1"/>
-        <v>259.34300000000002</v>
+        <v>359.24900000000002</v>
       </c>
       <c r="E25">
         <f ca="1"/>
-        <v>366.51600000000002</v>
+        <v>401.41899999999998</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>137.81200000000001</v>
+        <v>259.07900000000001</v>
       </c>
       <c r="G25">
         <f ca="1"/>
-        <v>92.201999999999998</v>
+        <v>25.623000000000001</v>
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>397.15499999999997</v>
+        <v>618.32799999999997</v>
       </c>
       <c r="I25">
         <f ca="1"/>
-        <v>458.71800000000002</v>
+        <v>427.04199999999997</v>
       </c>
       <c r="J25">
         <f ca="1"/>
-        <v>259.34300000000002</v>
+        <v>359.24900000000002</v>
       </c>
       <c r="K25">
         <f ca="1"/>
-        <v>366.51600000000002</v>
+        <v>401.41899999999998</v>
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>137.81200000000001</v>
+        <v>259.07900000000001</v>
       </c>
       <c r="M25">
         <f ca="1"/>
-        <v>92.201999999999998</v>
+        <v>25.623000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12409,51 +12409,51 @@
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>759.78099999999995</v>
+        <v>574.38300000000004</v>
       </c>
       <c r="C26">
         <f ca="1"/>
-        <v>689.601</v>
+        <v>683.03800000000001</v>
       </c>
       <c r="D26">
         <f ca="1"/>
-        <v>456.62799999999999</v>
+        <v>634.69299999999998</v>
       </c>
       <c r="E26">
         <f ca="1"/>
-        <v>613.745</v>
+        <v>615.41700000000003</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>303.15300000000002</v>
+        <v>-60.308999999999997</v>
       </c>
       <c r="G26">
         <f ca="1"/>
-        <v>75.855999999999995</v>
+        <v>67.620999999999995</v>
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>759.78099999999995</v>
+        <v>574.38300000000004</v>
       </c>
       <c r="I26">
         <f ca="1"/>
-        <v>689.601</v>
+        <v>683.03800000000001</v>
       </c>
       <c r="J26">
         <f ca="1"/>
-        <v>456.62799999999999</v>
+        <v>634.69299999999998</v>
       </c>
       <c r="K26">
         <f ca="1"/>
-        <v>613.745</v>
+        <v>615.41700000000003</v>
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>303.15300000000002</v>
+        <v>-60.308999999999997</v>
       </c>
       <c r="M26">
         <f ca="1"/>
-        <v>75.855999999999995</v>
+        <v>67.620999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12462,51 +12462,51 @@
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>487.161</v>
+        <v>654.55899999999997</v>
       </c>
       <c r="C27">
         <f ca="1"/>
-        <v>553.755</v>
+        <v>607.01300000000003</v>
       </c>
       <c r="D27">
         <f ca="1"/>
-        <v>467.67599999999999</v>
+        <v>418.91699999999997</v>
       </c>
       <c r="E27">
         <f ca="1"/>
-        <v>465.70699999999999</v>
+        <v>454.65199999999999</v>
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>19.484999999999999</v>
+        <v>235.642</v>
       </c>
       <c r="G27">
         <f ca="1"/>
-        <v>88.048000000000002</v>
+        <v>152.36099999999999</v>
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>487.161</v>
+        <v>654.55899999999997</v>
       </c>
       <c r="I27">
         <f ca="1"/>
-        <v>553.755</v>
+        <v>607.01300000000003</v>
       </c>
       <c r="J27">
         <f ca="1"/>
-        <v>467.67599999999999</v>
+        <v>418.91699999999997</v>
       </c>
       <c r="K27">
         <f ca="1"/>
-        <v>465.70699999999999</v>
+        <v>454.65199999999999</v>
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>19.484999999999999</v>
+        <v>235.642</v>
       </c>
       <c r="M27">
         <f ca="1"/>
-        <v>88.048000000000002</v>
+        <v>152.36099999999999</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12515,51 +12515,51 @@
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>378.26799999999997</v>
+        <v>475.97399999999999</v>
       </c>
       <c r="C28">
         <f ca="1"/>
-        <v>427.57</v>
+        <v>380.19299999999998</v>
       </c>
       <c r="D28">
         <f ca="1"/>
-        <v>271.22000000000003</v>
+        <v>334.13200000000001</v>
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>310.416</v>
+        <v>353.58</v>
       </c>
       <c r="F28">
         <f ca="1"/>
-        <v>107.048</v>
+        <v>141.84100000000001</v>
       </c>
       <c r="G28">
         <f ca="1"/>
-        <v>117.154</v>
+        <v>26.613</v>
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>378.26799999999997</v>
+        <v>475.97399999999999</v>
       </c>
       <c r="I28">
         <f ca="1"/>
-        <v>427.57</v>
+        <v>380.19299999999998</v>
       </c>
       <c r="J28">
         <f ca="1"/>
-        <v>271.22000000000003</v>
+        <v>334.13200000000001</v>
       </c>
       <c r="K28">
         <f ca="1"/>
-        <v>310.416</v>
+        <v>353.58</v>
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>107.048</v>
+        <v>141.84100000000001</v>
       </c>
       <c r="M28">
         <f ca="1"/>
-        <v>117.154</v>
+        <v>26.613</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12568,51 +12568,51 @@
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>947.78599999999994</v>
+        <v>600.99599999999998</v>
       </c>
       <c r="C29">
         <f ca="1"/>
-        <v>170.11099999999999</v>
+        <v>399.65600000000001</v>
       </c>
       <c r="D29">
         <f ca="1"/>
-        <v>843.52800000000002</v>
+        <v>477.19099999999997</v>
       </c>
       <c r="E29">
         <f ca="1"/>
-        <v>99.853999999999999</v>
+        <v>294.54700000000003</v>
       </c>
       <c r="F29">
         <f ca="1"/>
-        <v>104.258</v>
+        <v>123.80500000000001</v>
       </c>
       <c r="G29">
         <f ca="1"/>
-        <v>70.257000000000005</v>
+        <v>105.10899999999999</v>
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>947.78599999999994</v>
+        <v>600.99599999999998</v>
       </c>
       <c r="I29">
         <f ca="1"/>
-        <v>170.11099999999999</v>
+        <v>399.65600000000001</v>
       </c>
       <c r="J29">
         <f ca="1"/>
-        <v>843.52800000000002</v>
+        <v>477.19099999999997</v>
       </c>
       <c r="K29">
         <f ca="1"/>
-        <v>99.853999999999999</v>
+        <v>294.54700000000003</v>
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>104.258</v>
+        <v>123.80500000000001</v>
       </c>
       <c r="M29">
         <f ca="1"/>
-        <v>70.257000000000005</v>
+        <v>105.10899999999999</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/example2-with-sims.xlsx
+++ b/inst/extdata/example2-with-sims.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaelsola/Github-Collabs/mocaredd/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DF2BE8-2CE4-7847-A242-5A5A63D0394E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806DF80D-6811-B546-8415-4D2CFF70057C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="760" windowWidth="28860" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="760" windowWidth="28860" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="11" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="140">
   <si>
     <t>trunc_pdf</t>
   </si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>redd_activity</t>
+  </si>
+  <si>
+    <t>round_digits</t>
   </si>
 </sst>
 </file>
@@ -2106,51 +2109,51 @@
       </c>
       <c r="B14" s="84">
         <f t="shared" ref="B14:M14" ca="1" si="0">MEDIAN(_xlfn.ANCHORARRAY(B20))</f>
-        <v>21732.5</v>
+        <v>21640.5</v>
       </c>
       <c r="C14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>11672</v>
+        <v>10820</v>
       </c>
       <c r="D14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>57795</v>
+        <v>44513</v>
       </c>
       <c r="E14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>16884</v>
+        <v>17368</v>
       </c>
       <c r="F14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>312948</v>
+        <v>306375.5</v>
       </c>
       <c r="G14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>22836</v>
+        <v>22113</v>
       </c>
       <c r="H14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>2178</v>
+        <v>1870</v>
       </c>
       <c r="I14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>1826</v>
+        <v>2530</v>
       </c>
       <c r="J14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>6495</v>
+        <v>5963.5</v>
       </c>
       <c r="K14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>6785</v>
+        <v>5845</v>
       </c>
       <c r="L14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>46156</v>
+        <v>45583.5</v>
       </c>
       <c r="M14" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>5644</v>
+        <v>5614.5</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2159,51 +2162,51 @@
       </c>
       <c r="B15" s="87">
         <f t="shared" ref="B15:M15" ca="1" si="1">ROUND(B16/B14,2)</f>
-        <v>0.69</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21</v>
+        <v>0.6</v>
       </c>
       <c r="D15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="E15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="F15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="G15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="H15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="I15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="J15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="K15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="L15" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M15" s="89">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2212,51 +2215,51 @@
       </c>
       <c r="B16" s="90">
         <f t="shared" ref="B16:M16" ca="1" si="2">(B18-B17)/2</f>
-        <v>14902.650000000001</v>
+        <v>6318.5499999999993</v>
       </c>
       <c r="C16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>2430.5</v>
+        <v>6524.6749999999993</v>
       </c>
       <c r="D16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>20340.650000000001</v>
+        <v>20988.424999999996</v>
       </c>
       <c r="E16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>5099.4250000000002</v>
+        <v>4714.4500000000007</v>
       </c>
       <c r="F16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>49590.875</v>
+        <v>26833.324999999983</v>
       </c>
       <c r="G16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>2921.7250000000004</v>
+        <v>2240.625</v>
       </c>
       <c r="H16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>533.25</v>
+        <v>659.35</v>
       </c>
       <c r="I16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>420.44999999999993</v>
+        <v>909.35000000000014</v>
       </c>
       <c r="J16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>1718.1749999999997</v>
+        <v>1261.9499999999998</v>
       </c>
       <c r="K16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>2209.9</v>
+        <v>1982.7750000000001</v>
       </c>
       <c r="L16" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>3136.3250000000007</v>
+        <v>6275.2750000000015</v>
       </c>
       <c r="M16" s="92">
         <f t="shared" ca="1" si="2"/>
-        <v>538.94999999999982</v>
+        <v>1058.1500000000001</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2265,51 +2268,51 @@
       </c>
       <c r="B17" s="90">
         <f t="shared" ref="B17:M17" ca="1" si="3">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20),ci_alpha/2),2)</f>
-        <v>3511.85</v>
+        <v>13030.95</v>
       </c>
       <c r="C17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>8695.35</v>
+        <v>5265.95</v>
       </c>
       <c r="D17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>30410.2</v>
+        <v>29176.799999999999</v>
       </c>
       <c r="E17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>12819.9</v>
+        <v>12154.8</v>
       </c>
       <c r="F17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>273653.75</v>
+        <v>287474.95</v>
       </c>
       <c r="G17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>19615.55</v>
+        <v>21057.65</v>
       </c>
       <c r="H17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>1486.15</v>
+        <v>1409.95</v>
       </c>
       <c r="I17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>1436.05</v>
+        <v>1579.35</v>
       </c>
       <c r="J17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>5146.7</v>
+        <v>4660.5</v>
       </c>
       <c r="K17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>3860.2</v>
+        <v>3267</v>
       </c>
       <c r="L17" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>42213.65</v>
+        <v>39690.75</v>
       </c>
       <c r="M17" s="92">
         <f t="shared" ca="1" si="3"/>
-        <v>5217.8500000000004</v>
+        <v>4280.95</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2318,51 +2321,51 @@
       </c>
       <c r="B18" s="90">
         <f t="shared" ref="B18:M18" ca="1" si="4">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20), 1 - ci_alpha / 2), 2)</f>
-        <v>33317.15</v>
+        <v>25668.05</v>
       </c>
       <c r="C18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>13556.35</v>
+        <v>18315.3</v>
       </c>
       <c r="D18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>71091.5</v>
+        <v>71153.649999999994</v>
       </c>
       <c r="E18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>23018.75</v>
+        <v>21583.7</v>
       </c>
       <c r="F18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>372835.5</v>
+        <v>341141.6</v>
       </c>
       <c r="G18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>25459</v>
+        <v>25538.9</v>
       </c>
       <c r="H18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>2552.65</v>
+        <v>2728.65</v>
       </c>
       <c r="I18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>2276.9499999999998</v>
+        <v>3398.05</v>
       </c>
       <c r="J18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>8583.0499999999993</v>
+        <v>7184.4</v>
       </c>
       <c r="K18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>8280</v>
+        <v>7232.55</v>
       </c>
       <c r="L18" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>48486.3</v>
+        <v>52241.3</v>
       </c>
       <c r="M18" s="92">
         <f t="shared" ca="1" si="4"/>
-        <v>6295.75</v>
+        <v>6397.25</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2387,51 +2390,51 @@
       </c>
       <c r="B20" s="94" cm="1">
         <f t="array" aca="1" ref="B20:B29" ca="1">IF(B12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),B6,B7),0),_xlfn.SEQUENCE(n_iter, 1, B6, 0))</f>
-        <v>27788</v>
+        <v>25618</v>
       </c>
       <c r="C20" s="95" cm="1">
         <f t="array" aca="1" ref="C20:C29" ca="1">IF(C12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),C6,C7),0),_xlfn.SEQUENCE(n_iter, 1, C6, 0))</f>
-        <v>11822</v>
+        <v>16178</v>
       </c>
       <c r="D20" s="95" cm="1">
         <f t="array" aca="1" ref="D20:D29" ca="1">IF(D12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),D6,D7),0),_xlfn.SEQUENCE(n_iter, 1, D6, 0))</f>
-        <v>68721</v>
+        <v>56612</v>
       </c>
       <c r="E20" s="95" cm="1">
         <f t="array" aca="1" ref="E20:E29" ca="1">IF(E12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),E6,E7),0),_xlfn.SEQUENCE(n_iter, 1, E6, 0))</f>
-        <v>22235</v>
+        <v>10263</v>
       </c>
       <c r="F20" s="95" cm="1">
         <f t="array" aca="1" ref="F20:F29" ca="1">IF(F12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),F6,F7),0),_xlfn.SEQUENCE(n_iter, 1, F6, 0))</f>
-        <v>274003</v>
+        <v>318552</v>
       </c>
       <c r="G20" s="95" cm="1">
         <f t="array" aca="1" ref="G20:G29" ca="1">IF(G12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),G6,G7),0),_xlfn.SEQUENCE(n_iter, 1, G6, 0))</f>
-        <v>22640</v>
+        <v>21423</v>
       </c>
       <c r="H20" s="95" cm="1">
         <f t="array" aca="1" ref="H20:H29" ca="1">IF(H12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),H6,H7),0),_xlfn.SEQUENCE(n_iter, 1, H6, 0))</f>
-        <v>2180</v>
+        <v>1849</v>
       </c>
       <c r="I20" s="95" cm="1">
         <f t="array" aca="1" ref="I20:I29" ca="1">IF(I12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),I6,I7),0),_xlfn.SEQUENCE(n_iter, 1, I6, 0))</f>
-        <v>2299</v>
+        <v>1664</v>
       </c>
       <c r="J20" s="95" cm="1">
         <f t="array" aca="1" ref="J20:J29" ca="1">IF(J12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),J6,J7),0),_xlfn.SEQUENCE(n_iter, 1, J6, 0))</f>
-        <v>6557</v>
+        <v>6230</v>
       </c>
       <c r="K20" s="95" cm="1">
         <f t="array" aca="1" ref="K20:K29" ca="1">IF(K12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),K6,K7),0),_xlfn.SEQUENCE(n_iter, 1, K6, 0))</f>
-        <v>6890</v>
+        <v>4379</v>
       </c>
       <c r="L20" s="95" cm="1">
         <f t="array" aca="1" ref="L20:L29" ca="1">IF(L12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),L6,L7),0),_xlfn.SEQUENCE(n_iter, 1, L6, 0))</f>
-        <v>47528</v>
+        <v>40128</v>
       </c>
       <c r="M20" s="95" cm="1">
         <f t="array" aca="1" ref="M20:M29" ca="1">IF(M12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),M6,M7),0),_xlfn.SEQUENCE(n_iter, 1, M6, 0))</f>
-        <v>5434</v>
+        <v>5487</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2440,51 +2443,51 @@
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>23807</v>
+        <v>21726</v>
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>11510</v>
+        <v>11697</v>
       </c>
       <c r="D21">
         <f ca="1"/>
-        <v>55599</v>
+        <v>40741</v>
       </c>
       <c r="E21">
         <f ca="1"/>
-        <v>11415</v>
+        <v>18914</v>
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>273368</v>
+        <v>299981</v>
       </c>
       <c r="G21">
         <f ca="1"/>
-        <v>24124</v>
+        <v>22334</v>
       </c>
       <c r="H21">
         <f ca="1"/>
-        <v>1688</v>
+        <v>1603</v>
       </c>
       <c r="I21">
         <f ca="1"/>
-        <v>1691</v>
+        <v>2747</v>
       </c>
       <c r="J21">
         <f ca="1"/>
-        <v>6084</v>
+        <v>4842</v>
       </c>
       <c r="K21">
         <f ca="1"/>
-        <v>7109</v>
+        <v>5977</v>
       </c>
       <c r="L21">
         <f ca="1"/>
-        <v>48016</v>
+        <v>44126</v>
       </c>
       <c r="M21">
         <f ca="1"/>
-        <v>5742</v>
+        <v>6312</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2493,51 +2496,51 @@
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>36014</v>
+        <v>18633</v>
       </c>
       <c r="C22">
         <f ca="1"/>
-        <v>13897</v>
+        <v>7071</v>
       </c>
       <c r="D22">
         <f ca="1"/>
-        <v>73031</v>
+        <v>61703</v>
       </c>
       <c r="E22">
         <f ca="1"/>
-        <v>14537</v>
+        <v>23120</v>
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>324593</v>
+        <v>347825</v>
       </c>
       <c r="G22">
         <f ca="1"/>
-        <v>21584</v>
+        <v>25144</v>
       </c>
       <c r="H22">
         <f ca="1"/>
-        <v>2441</v>
+        <v>1853</v>
       </c>
       <c r="I22">
         <f ca="1"/>
-        <v>1813</v>
+        <v>1542</v>
       </c>
       <c r="J22">
         <f ca="1"/>
-        <v>6498</v>
+        <v>6786</v>
       </c>
       <c r="K22">
         <f ca="1"/>
-        <v>6680</v>
+        <v>6869</v>
       </c>
       <c r="L22">
         <f ca="1"/>
-        <v>45455</v>
+        <v>45219</v>
       </c>
       <c r="M22">
         <f ca="1"/>
-        <v>6568</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2546,51 +2549,51 @@
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>17485</v>
+        <v>19072</v>
       </c>
       <c r="C23">
         <f ca="1"/>
-        <v>10061</v>
+        <v>5180</v>
       </c>
       <c r="D23">
         <f ca="1"/>
-        <v>55190</v>
+        <v>39678</v>
       </c>
       <c r="E23">
         <f ca="1"/>
-        <v>16775</v>
+        <v>18432</v>
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>347654</v>
+        <v>295500</v>
       </c>
       <c r="G23">
         <f ca="1"/>
-        <v>22011</v>
+        <v>23054</v>
       </c>
       <c r="H23">
         <f ca="1"/>
-        <v>2258</v>
+        <v>2694</v>
       </c>
       <c r="I23">
         <f ca="1"/>
-        <v>2250</v>
+        <v>2004</v>
       </c>
       <c r="J23">
         <f ca="1"/>
-        <v>8456</v>
+        <v>5915</v>
       </c>
       <c r="K23">
         <f ca="1"/>
-        <v>6065</v>
+        <v>3597</v>
       </c>
       <c r="L23">
         <f ca="1"/>
-        <v>48120</v>
+        <v>46012</v>
       </c>
       <c r="M23">
         <f ca="1"/>
-        <v>5122</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2599,51 +2602,51 @@
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>30021</v>
+        <v>18053</v>
       </c>
       <c r="C24">
         <f ca="1"/>
-        <v>7578</v>
+        <v>10295</v>
       </c>
       <c r="D24">
         <f ca="1"/>
-        <v>59991</v>
+        <v>53552</v>
       </c>
       <c r="E24">
         <f ca="1"/>
-        <v>15951</v>
+        <v>14467</v>
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>304630</v>
+        <v>309936</v>
       </c>
       <c r="G24">
         <f ca="1"/>
-        <v>18833</v>
+        <v>21892</v>
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>1689</v>
+        <v>1697</v>
       </c>
       <c r="I24">
         <f ca="1"/>
-        <v>1315</v>
+        <v>3160</v>
       </c>
       <c r="J24">
         <f ca="1"/>
-        <v>4550</v>
+        <v>6012</v>
       </c>
       <c r="K24">
         <f ca="1"/>
-        <v>7708</v>
+        <v>6062</v>
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>42443</v>
+        <v>56402</v>
       </c>
       <c r="M24">
         <f ca="1"/>
-        <v>5335</v>
+        <v>5762</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2652,51 +2655,51 @@
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>374</v>
+        <v>8922</v>
       </c>
       <c r="C25">
         <f ca="1"/>
-        <v>12889</v>
+        <v>9575</v>
       </c>
       <c r="D25">
         <f ca="1"/>
-        <v>46479</v>
+        <v>22848</v>
       </c>
       <c r="E25">
         <f ca="1"/>
-        <v>16993</v>
+        <v>16089</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>359663</v>
+        <v>332973</v>
       </c>
       <c r="G25">
         <f ca="1"/>
-        <v>23032</v>
+        <v>20816</v>
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>2176</v>
+        <v>1887</v>
       </c>
       <c r="I25">
         <f ca="1"/>
-        <v>1623</v>
+        <v>2851</v>
       </c>
       <c r="J25">
         <f ca="1"/>
-        <v>6492</v>
+        <v>7136</v>
       </c>
       <c r="K25">
         <f ca="1"/>
-        <v>8748</v>
+        <v>4914</v>
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>42026</v>
+        <v>45982</v>
       </c>
       <c r="M25">
         <f ca="1"/>
-        <v>5612</v>
+        <v>6467</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2705,51 +2708,51 @@
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>7347</v>
+        <v>21555</v>
       </c>
       <c r="C26">
         <f ca="1"/>
-        <v>12590</v>
+        <v>12152</v>
       </c>
       <c r="D26">
         <f ca="1"/>
-        <v>68032</v>
+        <v>78886</v>
       </c>
       <c r="E26">
         <f ca="1"/>
-        <v>19640</v>
+        <v>16775</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>290304</v>
+        <v>323838</v>
       </c>
       <c r="G26">
         <f ca="1"/>
-        <v>20572</v>
+        <v>21707</v>
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>1979</v>
+        <v>2152</v>
       </c>
       <c r="I26">
         <f ca="1"/>
-        <v>1839</v>
+        <v>1625</v>
       </c>
       <c r="J26">
         <f ca="1"/>
-        <v>6162</v>
+        <v>4943</v>
       </c>
       <c r="K26">
         <f ca="1"/>
-        <v>4771</v>
+        <v>6644</v>
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>43590</v>
+        <v>44889</v>
       </c>
       <c r="M26">
         <f ca="1"/>
-        <v>5963</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2758,51 +2761,51 @@
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>14038</v>
+        <v>22072</v>
       </c>
       <c r="C27">
         <f ca="1"/>
-        <v>11522</v>
+        <v>11345</v>
       </c>
       <c r="D27">
         <f ca="1"/>
-        <v>49745</v>
+        <v>45154</v>
       </c>
       <c r="E27">
         <f ca="1"/>
-        <v>15157</v>
+        <v>17961</v>
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>383613</v>
+        <v>280909</v>
       </c>
       <c r="G27">
         <f ca="1"/>
-        <v>24733</v>
+        <v>21353</v>
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>2644</v>
+        <v>1252</v>
       </c>
       <c r="I27">
         <f ca="1"/>
-        <v>1851</v>
+        <v>2313</v>
       </c>
       <c r="J27">
         <f ca="1"/>
-        <v>5876</v>
+        <v>4831</v>
       </c>
       <c r="K27">
         <f ca="1"/>
-        <v>3115</v>
+        <v>2997</v>
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>48786</v>
+        <v>39333</v>
       </c>
       <c r="M27">
         <f ca="1"/>
-        <v>5602</v>
+        <v>5749</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2811,51 +2814,51 @@
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>19658</v>
+        <v>25709</v>
       </c>
       <c r="C28">
         <f ca="1"/>
-        <v>13140</v>
+        <v>5371</v>
       </c>
       <c r="D28">
         <f ca="1"/>
-        <v>64942</v>
+        <v>43872</v>
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>18763</v>
+        <v>19706</v>
       </c>
       <c r="F28">
         <f ca="1"/>
-        <v>274252</v>
+        <v>299929</v>
       </c>
       <c r="G28">
         <f ca="1"/>
-        <v>26053</v>
+        <v>25862</v>
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>2347</v>
+        <v>2757</v>
       </c>
       <c r="I28">
         <f ca="1"/>
-        <v>2079</v>
+        <v>3205</v>
       </c>
       <c r="J28">
         <f ca="1"/>
-        <v>8687</v>
+        <v>4521</v>
       </c>
       <c r="K28">
         <f ca="1"/>
-        <v>6309</v>
+        <v>5713</v>
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>46154</v>
+        <v>45948</v>
       </c>
       <c r="M28">
         <f ca="1"/>
-        <v>5676</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2864,51 +2867,51 @@
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>27357</v>
+        <v>25350</v>
       </c>
       <c r="C29">
         <f ca="1"/>
-        <v>10509</v>
+        <v>20064</v>
       </c>
       <c r="D29">
         <f ca="1"/>
-        <v>17263</v>
+        <v>36912</v>
       </c>
       <c r="E29">
         <f ca="1"/>
-        <v>23660</v>
+        <v>14548</v>
       </c>
       <c r="F29">
         <f ca="1"/>
-        <v>321266</v>
+        <v>302815</v>
       </c>
       <c r="G29">
         <f ca="1"/>
-        <v>24173</v>
+        <v>24257</v>
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>1321</v>
+        <v>2044</v>
       </c>
       <c r="I29">
         <f ca="1"/>
-        <v>1584</v>
+        <v>3556</v>
       </c>
       <c r="J29">
         <f ca="1"/>
-        <v>7035</v>
+        <v>7224</v>
       </c>
       <c r="K29">
         <f ca="1"/>
-        <v>7313</v>
+        <v>7530</v>
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>46158</v>
+        <v>47156</v>
       </c>
       <c r="M29">
         <f ca="1"/>
-        <v>5871</v>
+        <v>4650</v>
       </c>
     </row>
   </sheetData>
@@ -3352,82 +3355,82 @@
       </c>
       <c r="B14" s="84">
         <f t="shared" ref="B14:W14" ca="1" si="0">MEDIAN(_xlfn.ANCHORARRAY(B20))</f>
-        <v>14026898</v>
+        <v>14574201.5</v>
       </c>
       <c r="C14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>5426681.5</v>
+        <v>5202001.5</v>
       </c>
       <c r="D14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>31401396</v>
+        <v>17947516.5</v>
       </c>
       <c r="E14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>6523698</v>
+        <v>7415531</v>
       </c>
       <c r="F14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>43728169.5</v>
+        <v>57399550.5</v>
       </c>
       <c r="G14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>2584538.5</v>
+        <v>2360804.5</v>
       </c>
       <c r="H14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>1333066.5</v>
+        <v>1303271</v>
       </c>
       <c r="I14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>870888.5</v>
+        <v>1213908.5</v>
       </c>
       <c r="J14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>3269087</v>
+        <v>2289339.5</v>
       </c>
       <c r="K14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>2218934</v>
+        <v>2117391</v>
       </c>
       <c r="L14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>7305498.5</v>
+        <v>8387043</v>
       </c>
       <c r="M14" s="110">
         <f t="shared" ca="1" si="0"/>
-        <v>631925.5</v>
+        <v>461660.5</v>
       </c>
       <c r="N14" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>11850801</v>
+        <v>9646344</v>
       </c>
       <c r="O14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>9283585.5</v>
+        <v>11750730.5</v>
       </c>
       <c r="P14" s="109"/>
       <c r="Q14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>3859794</v>
+        <v>3636542</v>
       </c>
       <c r="R14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>3876647.5</v>
+        <v>4500064.5</v>
       </c>
       <c r="S14" s="109"/>
       <c r="T14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>20309610.5</v>
+        <v>21361677.5</v>
       </c>
       <c r="U14" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>7536411</v>
+        <v>8423781.5</v>
       </c>
       <c r="V14" s="109"/>
       <c r="W14" s="110">
         <f t="shared" ca="1" si="0"/>
-        <v>12413375.5</v>
+        <v>13555723</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3436,7 +3439,7 @@
       </c>
       <c r="B15" s="87">
         <f t="shared" ref="B15:W15" ca="1" si="1">ROUND(B16/B14,2)</f>
-        <v>0.73</v>
+        <v>0.41</v>
       </c>
       <c r="C15" s="75">
         <f t="shared" ca="1" si="1"/>
@@ -3444,74 +3447,74 @@
       </c>
       <c r="D15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47</v>
+        <v>0.79</v>
       </c>
       <c r="E15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="F15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>1.19</v>
+        <v>0.84</v>
       </c>
       <c r="G15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="H15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26</v>
+        <v>0.41</v>
       </c>
       <c r="I15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="J15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
       <c r="K15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="L15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>1.08</v>
+        <v>0.91</v>
       </c>
       <c r="M15" s="76">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="N15" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31</v>
+        <v>0.41</v>
       </c>
       <c r="O15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1299999999999999</v>
+        <v>0.81</v>
       </c>
       <c r="P15" s="75"/>
       <c r="Q15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="R15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>1.05</v>
+        <v>0.84</v>
       </c>
       <c r="S15" s="75"/>
       <c r="T15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="U15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="V15" s="75"/>
       <c r="W15" s="76">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3520,82 +3523,82 @@
       </c>
       <c r="B16" s="84">
         <f t="shared" ref="B16:W16" ca="1" si="2">(B18-B17)/2</f>
-        <v>10260025.925000001</v>
+        <v>5992173.75</v>
       </c>
       <c r="C16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>2229258.5</v>
+        <v>2117818.5499999998</v>
       </c>
       <c r="D16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>14681378.725</v>
+        <v>14244244.625000002</v>
       </c>
       <c r="E16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>2710407.7250000001</v>
+        <v>3961695.2</v>
       </c>
       <c r="F16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>51823082.350000001</v>
+        <v>48109315.825000003</v>
       </c>
       <c r="G16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>1873697.15</v>
+        <v>1439216.4</v>
       </c>
       <c r="H16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>347853.375</v>
+        <v>536393</v>
       </c>
       <c r="I16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>365580.54999999993</v>
+        <v>542503.82499999995</v>
       </c>
       <c r="J16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>1032991.5</v>
+        <v>1017547.2</v>
       </c>
       <c r="K16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>974153.60000000009</v>
+        <v>994804.60000000009</v>
       </c>
       <c r="L16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>7881039.4749999996</v>
+        <v>7617523.5499999998</v>
       </c>
       <c r="M16" s="110">
         <f t="shared" ca="1" si="2"/>
-        <v>422148.92500000005</v>
+        <v>288427.47500000003</v>
       </c>
       <c r="N16" s="90">
         <f t="shared" ca="1" si="2"/>
-        <v>3644453.8000000003</v>
+        <v>3930924.9999999995</v>
       </c>
       <c r="O16" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>10457840.1</v>
+        <v>9535753.5</v>
       </c>
       <c r="P16" s="111"/>
       <c r="Q16" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>807580.52499999991</v>
+        <v>861292.35000000009</v>
       </c>
       <c r="R16" s="111">
         <f ca="1">(R18-R17)/2</f>
-        <v>4051823.8000000003</v>
+        <v>3758089.2749999999</v>
       </c>
       <c r="S16" s="111"/>
       <c r="T16" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>9146761.75</v>
+        <v>11512800.450000001</v>
       </c>
       <c r="U16" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>3948210.5999999996</v>
+        <v>4472859.45</v>
       </c>
       <c r="V16" s="111"/>
       <c r="W16" s="112">
         <f t="shared" ca="1" si="2"/>
-        <v>5391592.1500000004</v>
+        <v>7728024.4249999998</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3604,82 +3607,82 @@
       </c>
       <c r="B17" s="84">
         <f t="shared" ref="B17:O17" ca="1" si="3">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20),ci_alpha/2),2)</f>
-        <v>2026186.65</v>
+        <v>5159983.25</v>
       </c>
       <c r="C17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>3424718.2</v>
+        <v>3154254.95</v>
       </c>
       <c r="D17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>12044651.699999999</v>
+        <v>8038220.9500000002</v>
       </c>
       <c r="E17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>4362960.95</v>
+        <v>2748903.75</v>
       </c>
       <c r="F17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>-9786245.0500000007</v>
+        <v>18854288.850000001</v>
       </c>
       <c r="G17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>558025.69999999995</v>
+        <v>862299.1</v>
       </c>
       <c r="H17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>939353.75</v>
+        <v>578349.9</v>
       </c>
       <c r="I17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>551193.55000000005</v>
+        <v>768537.55</v>
       </c>
       <c r="J17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>2390434.9500000002</v>
+        <v>1448447.35</v>
       </c>
       <c r="K17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>1572090.4</v>
+        <v>1259549.5</v>
       </c>
       <c r="L17" s="109">
         <f t="shared" ca="1" si="3"/>
-        <v>-1467846.5</v>
+        <v>2790442.9</v>
       </c>
       <c r="M17" s="110">
         <f t="shared" ca="1" si="3"/>
-        <v>147062.54999999999</v>
+        <v>244350.1</v>
       </c>
       <c r="N17" s="90">
         <f t="shared" ca="1" si="3"/>
-        <v>6444301.7999999998</v>
+        <v>5132580.95</v>
       </c>
       <c r="O17" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v>-1756371.25</v>
+        <v>4297252.7</v>
       </c>
       <c r="P17" s="111"/>
       <c r="Q17" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(Q20),ci_alpha/2),2)</f>
-        <v>3236375.5</v>
+        <v>2464847.15</v>
       </c>
       <c r="R17" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(R20),ci_alpha/2),2)</f>
-        <v>-586629.9</v>
+        <v>1674617.8</v>
       </c>
       <c r="S17" s="111"/>
       <c r="T17" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(T20),ci_alpha/2),2)</f>
-        <v>11955733.35</v>
+        <v>10677366.550000001</v>
       </c>
       <c r="U17" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(U20),ci_alpha/2),2)</f>
-        <v>3733002.65</v>
+        <v>4155869.35</v>
       </c>
       <c r="V17" s="111"/>
       <c r="W17" s="112">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(W20),ci_alpha/2),2)</f>
-        <v>7836648.7000000002</v>
+        <v>6458554.9000000004</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3688,82 +3691,82 @@
       </c>
       <c r="B18" s="84">
         <f t="shared" ref="B18:O18" ca="1" si="4">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20), 1 - ci_alpha / 2), 2)</f>
-        <v>22546238.5</v>
+        <v>17144330.75</v>
       </c>
       <c r="C18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>7883235.2000000002</v>
+        <v>7389892.0499999998</v>
       </c>
       <c r="D18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>41407409.149999999</v>
+        <v>36526710.200000003</v>
       </c>
       <c r="E18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>9783776.4000000004</v>
+        <v>10672294.15</v>
       </c>
       <c r="F18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>93859919.650000006</v>
+        <v>115072920.5</v>
       </c>
       <c r="G18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>4305420</v>
+        <v>3740731.9</v>
       </c>
       <c r="H18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>1635060.5</v>
+        <v>1651135.9</v>
       </c>
       <c r="I18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>1282354.6499999999</v>
+        <v>1853545.2</v>
       </c>
       <c r="J18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>4456417.95</v>
+        <v>3483541.75</v>
       </c>
       <c r="K18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>3520397.6</v>
+        <v>3249158.7</v>
       </c>
       <c r="L18" s="109">
         <f t="shared" ca="1" si="4"/>
-        <v>14294232.449999999</v>
+        <v>18025490</v>
       </c>
       <c r="M18" s="110">
         <f t="shared" ca="1" si="4"/>
-        <v>991360.4</v>
+        <v>821205.05</v>
       </c>
       <c r="N18" s="90">
         <f t="shared" ca="1" si="4"/>
-        <v>13733209.4</v>
+        <v>12994430.949999999</v>
       </c>
       <c r="O18" s="111">
         <f t="shared" ca="1" si="4"/>
-        <v>19159308.949999999</v>
+        <v>23368759.699999999</v>
       </c>
       <c r="P18" s="111"/>
       <c r="Q18" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(Q20), 1 - ci_alpha / 2), 2)</f>
-        <v>4851536.55</v>
+        <v>4187431.85</v>
       </c>
       <c r="R18" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(R20), 1 - ci_alpha / 2), 2)</f>
-        <v>7517017.7000000002</v>
+        <v>9190796.3499999996</v>
       </c>
       <c r="S18" s="111"/>
       <c r="T18" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(T20), 1 - ci_alpha / 2), 2)</f>
-        <v>30249256.850000001</v>
+        <v>33702967.450000003</v>
       </c>
       <c r="U18" s="111">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(U20), 1 - ci_alpha / 2), 2)</f>
-        <v>11629423.85</v>
+        <v>13101588.25</v>
       </c>
       <c r="V18" s="111"/>
       <c r="W18" s="112">
         <f ca="1">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(W20), 1 - ci_alpha / 2), 2)</f>
-        <v>18619833</v>
+        <v>21914603.75</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3782,7 +3785,7 @@
       <c r="M19" s="115"/>
       <c r="N19" s="116">
         <f ca="1">ROUND(SUM(B20:E20) / year_ref,0)</f>
-        <v>12592475</v>
+        <v>11954662</v>
       </c>
       <c r="O19" s="114"/>
       <c r="P19" s="54"/>
@@ -3801,82 +3804,82 @@
       </c>
       <c r="B20" s="126" cm="1">
         <f t="array" aca="1" ref="B20:B29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!B20) *_xlfn.ANCHORARRAY( SIMS_EF!B20), 0)</f>
-        <v>18317044</v>
+        <v>17646011</v>
       </c>
       <c r="C20" s="126" cm="1">
         <f t="array" aca="1" ref="C20:C29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!C20) *_xlfn.ANCHORARRAY( SIMS_EF!C20), 0)</f>
-        <v>4892097</v>
+        <v>7439712</v>
       </c>
       <c r="D20" s="126" cm="1">
         <f t="array" aca="1" ref="D20:D29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!D20) *_xlfn.ANCHORARRAY( SIMS_EF!D20), 0)</f>
-        <v>33340062</v>
+        <v>31313060</v>
       </c>
       <c r="E20" s="126" cm="1">
         <f t="array" aca="1" ref="E20:E29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!E20) *_xlfn.ANCHORARRAY( SIMS_EF!E20), 0)</f>
-        <v>6413174</v>
+        <v>3374526</v>
       </c>
       <c r="F20" s="126" cm="1">
         <f t="array" aca="1" ref="F20:F29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!F20) *_xlfn.ANCHORARRAY( SIMS_EF!F20), 0)</f>
-        <v>47682002</v>
+        <v>43226232</v>
       </c>
       <c r="G20" s="126" cm="1">
         <f t="array" aca="1" ref="G20:G29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!G20) *_xlfn.ANCHORARRAY( SIMS_EF!G20), 0)</f>
-        <v>2838716</v>
+        <v>2807720</v>
       </c>
       <c r="H20" s="126" cm="1">
         <f t="array" aca="1" ref="H20:H29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!H20) *_xlfn.ANCHORARRAY( SIMS_EF!H20), 0)</f>
-        <v>1436993</v>
+        <v>1273615</v>
       </c>
       <c r="I20" s="126" cm="1">
         <f t="array" aca="1" ref="I20:I29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!I20) *_xlfn.ANCHORARRAY( SIMS_EF!I20), 0)</f>
-        <v>951356</v>
+        <v>765217</v>
       </c>
       <c r="J20" s="126" cm="1">
         <f t="array" aca="1" ref="J20:J29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!J20) *_xlfn.ANCHORARRAY( SIMS_EF!J20), 0)</f>
-        <v>3181135</v>
+        <v>3445919</v>
       </c>
       <c r="K20" s="126" cm="1">
         <f t="array" aca="1" ref="K20:K29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!K20) *_xlfn.ANCHORARRAY( SIMS_EF!K20), 0)</f>
-        <v>1987262</v>
+        <v>1439837</v>
       </c>
       <c r="L20" s="126" cm="1">
         <f t="array" aca="1" ref="L20:L29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!L20) *_xlfn.ANCHORARRAY( SIMS_EF!L20), 0)</f>
-        <v>8270823</v>
+        <v>5445209</v>
       </c>
       <c r="M20" s="126" cm="1">
         <f t="array" aca="1" ref="M20:M29" ca="1">ROUND(_xlfn.ANCHORARRAY(SIMS_AD!M20) *_xlfn.ANCHORARRAY( SIMS_EF!M20), 0)</f>
-        <v>681342</v>
+        <v>719132</v>
       </c>
       <c r="N20" s="117" cm="1">
         <f t="array" aca="1" ref="N20:N29" ca="1">_xlfn.BYROW(_xlfn.ANCHORARRAY(B20):_xlfn.ANCHORARRAY(E20),_xlfn.LAMBDA(_xlpm.x, ROUND(SUM(_xlpm.x)/year_ref,0)))</f>
-        <v>12592475</v>
+        <v>11954662</v>
       </c>
       <c r="O20" s="117" cm="1">
         <f t="array" aca="1" ref="O20:O29" ca="1">_xlfn.BYROW(_xlfn.ANCHORARRAY(F20):_xlfn.ANCHORARRAY(G20),_xlfn.LAMBDA(_xlpm.x, ROUND(SUM(_xlpm.x)/year_ref,0)))</f>
-        <v>10104144</v>
+        <v>9206790</v>
       </c>
       <c r="P20" s="118"/>
       <c r="Q20" s="117" cm="1">
         <f t="array" aca="1" ref="Q20:Q29" ca="1">_xlfn.BYROW(_xlfn.ANCHORARRAY(H20):_xlfn.ANCHORARRAY(K20),_xlfn.LAMBDA(_xlpm.x, ROUND(SUM(_xlpm.x)/year_mon,0)))</f>
-        <v>3778373</v>
+        <v>3462294</v>
       </c>
       <c r="R20" s="117" cm="1">
         <f t="array" aca="1" ref="R20:R29" ca="1">_xlfn.BYROW(_xlfn.ANCHORARRAY(L20):_xlfn.ANCHORARRAY(M20),_xlfn.LAMBDA(_xlpm.x, ROUND(SUM(_xlpm.x)/year_mon,0)))</f>
-        <v>4476083</v>
+        <v>3082171</v>
       </c>
       <c r="S20" s="118"/>
       <c r="T20" s="117" cm="1">
         <f t="array" aca="1" ref="T20:T29" ca="1">_xlfn.ANCHORARRAY(N20) +_xlfn.ANCHORARRAY( O20)</f>
-        <v>22696619</v>
+        <v>21161452</v>
       </c>
       <c r="U20" s="117" cm="1">
         <f t="array" aca="1" ref="U20:U29" ca="1">_xlfn.ANCHORARRAY(Q20) +_xlfn.ANCHORARRAY( R20)</f>
-        <v>8254456</v>
+        <v>6544465</v>
       </c>
       <c r="V20" s="118"/>
       <c r="W20" s="117" cm="1">
         <f t="array" aca="1" ref="W20:W29" ca="1">_xlfn.ANCHORARRAY(T20) -_xlfn.ANCHORARRAY( U20)</f>
-        <v>14442163</v>
+        <v>14616987</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3885,79 +3888,79 @@
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>21412540</v>
+        <v>14048792</v>
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>7007864</v>
+        <v>7329001</v>
       </c>
       <c r="D21">
         <f ca="1"/>
-        <v>30804292</v>
+        <v>17018534</v>
       </c>
       <c r="E21">
         <f ca="1"/>
-        <v>5664283</v>
+        <v>10808065</v>
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>94415293</v>
+        <v>68668651</v>
       </c>
       <c r="G21">
         <f ca="1"/>
-        <v>2717231</v>
+        <v>1231474</v>
       </c>
       <c r="H21">
         <f ca="1"/>
-        <v>1518224</v>
+        <v>1036556</v>
       </c>
       <c r="I21">
         <f ca="1"/>
-        <v>1029565</v>
+        <v>1721191</v>
       </c>
       <c r="J21">
         <f ca="1"/>
-        <v>3370804</v>
+        <v>2022624</v>
       </c>
       <c r="K21">
         <f ca="1"/>
-        <v>3527585</v>
+        <v>3415449</v>
       </c>
       <c r="L21">
         <f ca="1"/>
-        <v>16583670</v>
+        <v>10100883</v>
       </c>
       <c r="M21">
         <f ca="1"/>
-        <v>646756</v>
+        <v>348037</v>
       </c>
       <c r="N21">
         <f ca="1"/>
-        <v>12977796</v>
+        <v>9840878</v>
       </c>
       <c r="O21">
         <f ca="1"/>
-        <v>19426505</v>
+        <v>13980025</v>
       </c>
       <c r="Q21">
         <f ca="1"/>
-        <v>4723089</v>
+        <v>4097910</v>
       </c>
       <c r="R21">
         <f ca="1"/>
-        <v>8615213</v>
+        <v>5224460</v>
       </c>
       <c r="T21">
         <f ca="1"/>
-        <v>32404301</v>
+        <v>23820903</v>
       </c>
       <c r="U21">
         <f ca="1"/>
-        <v>13338302</v>
+        <v>9322370</v>
       </c>
       <c r="W21">
         <f ca="1"/>
-        <v>19065999</v>
+        <v>14498533</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3966,79 +3969,79 @@
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>19312652</v>
+        <v>14211315</v>
       </c>
       <c r="C22">
         <f ca="1"/>
-        <v>5349219</v>
+        <v>3542818</v>
       </c>
       <c r="D22">
         <f ca="1"/>
-        <v>39241601</v>
+        <v>26024413</v>
       </c>
       <c r="E22">
         <f ca="1"/>
-        <v>5237434</v>
+        <v>9452473</v>
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>-348613</v>
+        <v>118582934</v>
       </c>
       <c r="G22">
         <f ca="1"/>
-        <v>531743</v>
+        <v>2318051</v>
       </c>
       <c r="H22">
         <f ca="1"/>
-        <v>1308996</v>
+        <v>1413276</v>
       </c>
       <c r="I22">
         <f ca="1"/>
-        <v>697858</v>
+        <v>772596</v>
       </c>
       <c r="J22">
         <f ca="1"/>
-        <v>3491557</v>
+        <v>2862124</v>
       </c>
       <c r="K22">
         <f ca="1"/>
-        <v>2406690</v>
+        <v>2808349</v>
       </c>
       <c r="L22">
         <f ca="1"/>
-        <v>-48819</v>
+        <v>15416378</v>
       </c>
       <c r="M22">
         <f ca="1"/>
-        <v>161809</v>
+        <v>436801</v>
       </c>
       <c r="N22">
         <f ca="1"/>
-        <v>13828181</v>
+        <v>10646204</v>
       </c>
       <c r="O22">
         <f ca="1"/>
-        <v>36626</v>
+        <v>24180197</v>
       </c>
       <c r="Q22">
         <f ca="1"/>
-        <v>3952551</v>
+        <v>3928173</v>
       </c>
       <c r="R22">
         <f ca="1"/>
-        <v>56495</v>
+        <v>7926590</v>
       </c>
       <c r="T22">
         <f ca="1"/>
-        <v>13864807</v>
+        <v>34826401</v>
       </c>
       <c r="U22">
         <f ca="1"/>
-        <v>4009046</v>
+        <v>11854763</v>
       </c>
       <c r="W22">
         <f ca="1"/>
-        <v>9855761</v>
+        <v>22971638</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4047,79 +4050,79 @@
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>11612348</v>
+        <v>7307971</v>
       </c>
       <c r="C23">
         <f ca="1"/>
-        <v>5830148</v>
+        <v>3045089</v>
       </c>
       <c r="D23">
         <f ca="1"/>
-        <v>31998500</v>
+        <v>12862417</v>
       </c>
       <c r="E23">
         <f ca="1"/>
-        <v>6104641</v>
+        <v>8581607</v>
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>29322529</v>
+        <v>17436864</v>
       </c>
       <c r="G23">
         <f ca="1"/>
-        <v>4744845</v>
+        <v>2818859</v>
       </c>
       <c r="H23">
         <f ca="1"/>
-        <v>1499610</v>
+        <v>1032282</v>
       </c>
       <c r="I23">
         <f ca="1"/>
-        <v>1303830</v>
+        <v>1178061</v>
       </c>
       <c r="J23">
         <f ca="1"/>
-        <v>4902687</v>
+        <v>1917466</v>
       </c>
       <c r="K23">
         <f ca="1"/>
-        <v>2207132</v>
+        <v>1674698</v>
       </c>
       <c r="L23">
         <f ca="1"/>
-        <v>4058633</v>
+        <v>2715076</v>
       </c>
       <c r="M23">
         <f ca="1"/>
-        <v>1104134</v>
+        <v>486520</v>
       </c>
       <c r="N23">
         <f ca="1"/>
-        <v>11109127</v>
+        <v>6359417</v>
       </c>
       <c r="O23">
         <f ca="1"/>
-        <v>6813475</v>
+        <v>4051145</v>
       </c>
       <c r="Q23">
         <f ca="1"/>
-        <v>4956630</v>
+        <v>2901254</v>
       </c>
       <c r="R23">
         <f ca="1"/>
-        <v>2581384</v>
+        <v>1600798</v>
       </c>
       <c r="T23">
         <f ca="1"/>
-        <v>17922602</v>
+        <v>10410562</v>
       </c>
       <c r="U23">
         <f ca="1"/>
-        <v>7538014</v>
+        <v>4502052</v>
       </c>
       <c r="W23">
         <f ca="1"/>
-        <v>10384588</v>
+        <v>5908510</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4128,79 +4131,79 @@
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>23473810</v>
+        <v>14937088</v>
       </c>
       <c r="C24">
         <f ca="1"/>
-        <v>2790409</v>
+        <v>4318938</v>
       </c>
       <c r="D24">
         <f ca="1"/>
-        <v>35509033</v>
+        <v>25167512</v>
       </c>
       <c r="E24">
         <f ca="1"/>
-        <v>3647483</v>
+        <v>5340855</v>
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>57881832</v>
+        <v>110782904</v>
       </c>
       <c r="G24">
         <f ca="1"/>
-        <v>2628277</v>
+        <v>1102109</v>
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>1320651</v>
+        <v>1404101</v>
       </c>
       <c r="I24">
         <f ca="1"/>
-        <v>484216</v>
+        <v>1325677</v>
       </c>
       <c r="J24">
         <f ca="1"/>
-        <v>2693172</v>
+        <v>2825424</v>
       </c>
       <c r="K24">
         <f ca="1"/>
-        <v>1762573</v>
+        <v>2237939</v>
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>8064467</v>
+        <v>20160218</v>
       </c>
       <c r="M24">
         <f ca="1"/>
-        <v>744537</v>
+        <v>290076</v>
       </c>
       <c r="N24">
         <f ca="1"/>
-        <v>13084147</v>
+        <v>9952879</v>
       </c>
       <c r="O24">
         <f ca="1"/>
-        <v>12102022</v>
+        <v>22377003</v>
       </c>
       <c r="Q24">
         <f ca="1"/>
-        <v>3130306</v>
+        <v>3896571</v>
       </c>
       <c r="R24">
         <f ca="1"/>
-        <v>4404502</v>
+        <v>10225147</v>
       </c>
       <c r="T24">
         <f ca="1"/>
-        <v>25186169</v>
+        <v>32329882</v>
       </c>
       <c r="U24">
         <f ca="1"/>
-        <v>7534808</v>
+        <v>14121718</v>
       </c>
       <c r="W24">
         <f ca="1"/>
-        <v>17651361</v>
+        <v>18208164</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4209,79 +4212,79 @@
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>231255</v>
+        <v>3867446</v>
       </c>
       <c r="C25">
         <f ca="1"/>
-        <v>5504144</v>
+        <v>4197268</v>
       </c>
       <c r="D25">
         <f ca="1"/>
-        <v>16697534</v>
+        <v>6041422</v>
       </c>
       <c r="E25">
         <f ca="1"/>
-        <v>6821313</v>
+        <v>6537894</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>93181130</v>
+        <v>56290751</v>
       </c>
       <c r="G25">
         <f ca="1"/>
-        <v>590149</v>
+        <v>666091</v>
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>1345482</v>
+        <v>817964</v>
       </c>
       <c r="I25">
         <f ca="1"/>
-        <v>693089</v>
+        <v>1249756</v>
       </c>
       <c r="J25">
         <f ca="1"/>
-        <v>2332245</v>
+        <v>1886887</v>
       </c>
       <c r="K25">
         <f ca="1"/>
-        <v>3511613</v>
+        <v>1996843</v>
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>10888054</v>
+        <v>7773487</v>
       </c>
       <c r="M25">
         <f ca="1"/>
-        <v>143796</v>
+        <v>206938</v>
       </c>
       <c r="N25">
         <f ca="1"/>
-        <v>5850849</v>
+        <v>4128806</v>
       </c>
       <c r="O25">
         <f ca="1"/>
-        <v>18754256</v>
+        <v>11391368</v>
       </c>
       <c r="Q25">
         <f ca="1"/>
-        <v>3941215</v>
+        <v>2975725</v>
       </c>
       <c r="R25">
         <f ca="1"/>
-        <v>5515925</v>
+        <v>3990213</v>
       </c>
       <c r="T25">
         <f ca="1"/>
-        <v>24605105</v>
+        <v>15520174</v>
       </c>
       <c r="U25">
         <f ca="1"/>
-        <v>9457140</v>
+        <v>6965938</v>
       </c>
       <c r="W25">
         <f ca="1"/>
-        <v>15147965</v>
+        <v>8554236</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4290,79 +4293,79 @@
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>4219992</v>
+        <v>16367444</v>
       </c>
       <c r="C26">
         <f ca="1"/>
-        <v>8599448</v>
+        <v>6085065</v>
       </c>
       <c r="D26">
         <f ca="1"/>
-        <v>43179434</v>
+        <v>40792424</v>
       </c>
       <c r="E26">
         <f ca="1"/>
-        <v>12086790</v>
+        <v>5980824</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>-17507944</v>
+        <v>78442307</v>
       </c>
       <c r="G26">
         <f ca="1"/>
-        <v>1391099</v>
+        <v>3130453</v>
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>1136704</v>
+        <v>1634087</v>
       </c>
       <c r="I26">
         <f ca="1"/>
-        <v>1256107</v>
+        <v>813712</v>
       </c>
       <c r="J26">
         <f ca="1"/>
-        <v>3910978</v>
+        <v>2556055</v>
       </c>
       <c r="K26">
         <f ca="1"/>
-        <v>2936155</v>
+        <v>2368799</v>
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>-2628869</v>
+        <v>10873328</v>
       </c>
       <c r="M26">
         <f ca="1"/>
-        <v>403224</v>
+        <v>828077</v>
       </c>
       <c r="N26">
         <f ca="1"/>
-        <v>13617133</v>
+        <v>13845151</v>
       </c>
       <c r="O26">
         <f ca="1"/>
-        <v>-3223369</v>
+        <v>16314552</v>
       </c>
       <c r="Q26">
         <f ca="1"/>
-        <v>4619972</v>
+        <v>3686327</v>
       </c>
       <c r="R26">
         <f ca="1"/>
-        <v>-1112823</v>
+        <v>5850703</v>
       </c>
       <c r="T26">
         <f ca="1"/>
-        <v>10393764</v>
+        <v>30159703</v>
       </c>
       <c r="U26">
         <f ca="1"/>
-        <v>3507149</v>
+        <v>9537030</v>
       </c>
       <c r="W26">
         <f ca="1"/>
-        <v>6886615</v>
+        <v>20622673</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4371,79 +4374,79 @@
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>9188699</v>
+        <v>6739751</v>
       </c>
       <c r="C27">
         <f ca="1"/>
-        <v>6994004</v>
+        <v>6515377</v>
       </c>
       <c r="D27">
         <f ca="1"/>
-        <v>20839026</v>
+        <v>10478753</v>
       </c>
       <c r="E27">
         <f ca="1"/>
-        <v>6891160</v>
+        <v>8293168</v>
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>90395335</v>
+        <v>20586697</v>
       </c>
       <c r="G27">
         <f ca="1"/>
-        <v>3768345</v>
+        <v>2403558</v>
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>1730654</v>
+        <v>382302</v>
       </c>
       <c r="I27">
         <f ca="1"/>
-        <v>1123581</v>
+        <v>1328344</v>
       </c>
       <c r="J27">
         <f ca="1"/>
-        <v>2461556</v>
+        <v>1121116</v>
       </c>
       <c r="K27">
         <f ca="1"/>
-        <v>1416241</v>
+        <v>1383811</v>
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>11496031</v>
+        <v>2882558</v>
       </c>
       <c r="M27">
         <f ca="1"/>
-        <v>853526</v>
+        <v>647125</v>
       </c>
       <c r="N27">
         <f ca="1"/>
-        <v>8782578</v>
+        <v>6405410</v>
       </c>
       <c r="O27">
         <f ca="1"/>
-        <v>18832736</v>
+        <v>4598051</v>
       </c>
       <c r="Q27">
         <f ca="1"/>
-        <v>3366016</v>
+        <v>2107787</v>
       </c>
       <c r="R27">
         <f ca="1"/>
-        <v>6174779</v>
+        <v>1764842</v>
       </c>
       <c r="T27">
         <f ca="1"/>
-        <v>27615314</v>
+        <v>11003461</v>
       </c>
       <c r="U27">
         <f ca="1"/>
-        <v>9540795</v>
+        <v>3872629</v>
       </c>
       <c r="W27">
         <f ca="1"/>
-        <v>18074519</v>
+        <v>7130832</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4452,79 +4455,79 @@
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>9356697</v>
+        <v>15526899</v>
       </c>
       <c r="C28">
         <f ca="1"/>
-        <v>4995736</v>
+        <v>3287680</v>
       </c>
       <c r="D28">
         <f ca="1"/>
-        <v>21699200</v>
+        <v>17938120</v>
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>6634222</v>
+        <v>10506352</v>
       </c>
       <c r="F28">
         <f ca="1"/>
-        <v>38900178</v>
+        <v>58508350</v>
       </c>
       <c r="G28">
         <f ca="1"/>
-        <v>693348</v>
+        <v>2042115</v>
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>1117111</v>
+        <v>1665085</v>
       </c>
       <c r="I28">
         <f ca="1"/>
-        <v>790421</v>
+        <v>1961835</v>
       </c>
       <c r="J28">
         <f ca="1"/>
-        <v>2902605</v>
+        <v>1848519</v>
       </c>
       <c r="K28">
         <f ca="1"/>
-        <v>2230736</v>
+        <v>3045915</v>
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>6546530</v>
+        <v>8963260</v>
       </c>
       <c r="M28">
         <f ca="1"/>
-        <v>151055</v>
+        <v>413366</v>
       </c>
       <c r="N28">
         <f ca="1"/>
-        <v>8537171</v>
+        <v>9451810</v>
       </c>
       <c r="O28">
         <f ca="1"/>
-        <v>7918705</v>
+        <v>12110093</v>
       </c>
       <c r="Q28">
         <f ca="1"/>
-        <v>3520437</v>
+        <v>4260677</v>
       </c>
       <c r="R28">
         <f ca="1"/>
-        <v>3348793</v>
+        <v>4688313</v>
       </c>
       <c r="T28">
         <f ca="1"/>
-        <v>16455876</v>
+        <v>21561903</v>
       </c>
       <c r="U28">
         <f ca="1"/>
-        <v>6869230</v>
+        <v>8948990</v>
       </c>
       <c r="W28">
         <f ca="1"/>
-        <v>9586646</v>
+        <v>12612913</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4533,79 +4536,79 @@
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>16441448</v>
+        <v>16531166</v>
       </c>
       <c r="C29">
         <f ca="1"/>
-        <v>4199985</v>
+        <v>6592348</v>
       </c>
       <c r="D29">
         <f ca="1"/>
-        <v>8237748</v>
+        <v>17956913</v>
       </c>
       <c r="E29">
         <f ca="1"/>
-        <v>6968982</v>
+        <v>2237031</v>
       </c>
       <c r="F29">
         <f ca="1"/>
-        <v>39774337</v>
+        <v>50157671</v>
       </c>
       <c r="G29">
         <f ca="1"/>
-        <v>2540800</v>
+        <v>4240051</v>
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>793916</v>
+        <v>1332927</v>
       </c>
       <c r="I29">
         <f ca="1"/>
-        <v>633055</v>
+        <v>1168381</v>
       </c>
       <c r="J29">
         <f ca="1"/>
-        <v>3357039</v>
+        <v>3514324</v>
       </c>
       <c r="K29">
         <f ca="1"/>
-        <v>2154022</v>
+        <v>1157881</v>
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>5714591</v>
+        <v>7810826</v>
       </c>
       <c r="M29">
         <f ca="1"/>
-        <v>617095</v>
+        <v>812806</v>
       </c>
       <c r="N29">
         <f ca="1"/>
-        <v>7169633</v>
+        <v>8663492</v>
       </c>
       <c r="O29">
         <f ca="1"/>
-        <v>8463027</v>
+        <v>10879544</v>
       </c>
       <c r="Q29">
         <f ca="1"/>
-        <v>3469016</v>
+        <v>3586757</v>
       </c>
       <c r="R29">
         <f ca="1"/>
-        <v>3165843</v>
+        <v>4311816</v>
       </c>
       <c r="T29">
         <f ca="1"/>
-        <v>15632660</v>
+        <v>19543036</v>
       </c>
       <c r="U29">
         <f ca="1"/>
-        <v>6634859</v>
+        <v>7898573</v>
       </c>
       <c r="W29">
         <f ca="1"/>
-        <v>8997801</v>
+        <v>11644463</v>
       </c>
     </row>
   </sheetData>
@@ -5720,10 +5723,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5738,10 +5741,11 @@
     <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="26" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="141" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="141" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
@@ -5775,8 +5779,11 @@
       <c r="K1" s="141" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L1" s="141" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="b">
         <v>0</v>
       </c>
@@ -5810,21 +5817,24 @@
       <c r="K2" s="2">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="L2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9430,7 +9440,7 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+    <sheetView zoomScale="140" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -9855,11 +9865,11 @@
       </c>
       <c r="I5" s="16">
         <f ca="1">SIMS_E!W14</f>
-        <v>12413375.5</v>
+        <v>13555723</v>
       </c>
       <c r="J5" s="17">
         <f ca="1">SIMS_E!W15</f>
-        <v>0.43</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="16" x14ac:dyDescent="0.2">
@@ -9905,15 +9915,15 @@
       <c r="F9" s="11"/>
       <c r="H9" s="18">
         <f ca="1">I5* (1 - 0.524417 * J5 / 1.645006)</f>
-        <v>10711735.743050236</v>
+        <v>11092482.497874251</v>
       </c>
       <c r="I9" s="18">
         <f ca="1">I5 * (1-I12)</f>
-        <v>11420305.460000001</v>
+        <v>12471265.16</v>
       </c>
       <c r="J9" s="18">
         <f ca="1">I5* ( 1 - 2/44)</f>
-        <v>11849131.15909091</v>
+        <v>12939553.772727273</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="16" x14ac:dyDescent="0.2">
@@ -10457,31 +10467,31 @@
       </c>
       <c r="B14" s="119">
         <f ca="1">MEDIAN(_xlfn.ANCHORARRAY(B20))</f>
-        <v>0.46650000000000003</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C14" s="58">
         <f t="shared" ref="C14:P14" ca="1" si="2">MEDIAN(_xlfn.ANCHORARRAY(C20))</f>
-        <v>273.37700000000001</v>
+        <v>281.64400000000001</v>
       </c>
       <c r="D14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>171.80500000000001</v>
+        <v>205.93599999999998</v>
       </c>
       <c r="E14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32700000000000001</v>
+        <v>0.34450000000000003</v>
       </c>
       <c r="F14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39150000000000001</v>
+        <v>0.40900000000000003</v>
       </c>
       <c r="G14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74649999999999994</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="H14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78200000000000003</v>
+        <v>0.81</v>
       </c>
       <c r="I14" s="60">
         <f t="shared" ca="1" si="2"/>
@@ -10489,27 +10499,27 @@
       </c>
       <c r="J14" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>90.774000000000001</v>
+        <v>98.617500000000007</v>
       </c>
       <c r="K14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>72.254999999999995</v>
+        <v>82.584499999999991</v>
       </c>
       <c r="L14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>173.57549999999998</v>
+        <v>177.10249999999999</v>
       </c>
       <c r="M14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>114.66200000000001</v>
+        <v>136.60649999999998</v>
       </c>
       <c r="N14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>139.429</v>
+        <v>114.4765</v>
       </c>
       <c r="O14" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>98.753999999999991</v>
+        <v>111.164</v>
       </c>
       <c r="P14" s="60">
         <f t="shared" ca="1" si="2"/>
@@ -10525,31 +10535,31 @@
       </c>
       <c r="B15" s="61">
         <f t="shared" ref="B15" ca="1" si="3">ROUND(B16/B14,2)</f>
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="C15" s="62">
         <f t="shared" ref="C15:P15" ca="1" si="4">ROUND(C16/C14,2)</f>
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="D15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="G15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="H15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I15" s="64" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -10557,27 +10567,27 @@
       </c>
       <c r="J15" s="62">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="K15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="M15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="N15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="O15" s="63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="P15" s="64" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -10592,31 +10602,31 @@
       </c>
       <c r="B16" s="65">
         <f t="shared" ref="B16" ca="1" si="5">(B18-B17)/2</f>
-        <v>1.999999999999999E-2</v>
+        <v>1.4999999999999986E-2</v>
       </c>
       <c r="C16" s="66">
         <f t="shared" ref="C16:P16" ca="1" si="6">(C18-C17)/2</f>
-        <v>63.24499999999999</v>
+        <v>97.86999999999999</v>
       </c>
       <c r="D16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>64.314999999999984</v>
+        <v>57.230000000000004</v>
       </c>
       <c r="E16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5000000000000012E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5000000000000012E-2</v>
+        <v>1.999999999999999E-2</v>
       </c>
       <c r="G16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>0.23000000000000004</v>
+        <v>0.13499999999999995</v>
       </c>
       <c r="H16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>0.15999999999999998</v>
+        <v>0.17000000000000004</v>
       </c>
       <c r="I16" s="68">
         <f t="shared" ca="1" si="6"/>
@@ -10624,27 +10634,27 @@
       </c>
       <c r="J16" s="66">
         <f t="shared" ca="1" si="6"/>
-        <v>28.93</v>
+        <v>30.99</v>
       </c>
       <c r="K16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>24.715</v>
+        <v>23.364999999999998</v>
       </c>
       <c r="L16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>46.834999999999994</v>
+        <v>62.440000000000005</v>
       </c>
       <c r="M16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>37.645000000000003</v>
+        <v>34.170000000000009</v>
       </c>
       <c r="N16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>36.82</v>
+        <v>39.585000000000001</v>
       </c>
       <c r="O16" s="67">
         <f t="shared" ca="1" si="6"/>
-        <v>41.755000000000003</v>
+        <v>43.865000000000002</v>
       </c>
       <c r="P16" s="68">
         <f t="shared" ca="1" si="6"/>
@@ -10659,31 +10669,31 @@
       </c>
       <c r="B17" s="120">
         <f t="shared" ref="B17:P17" ca="1" si="7">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20),ci_alpha/2),2)</f>
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="C17" s="66">
         <f t="shared" ca="1" si="7"/>
-        <v>233.71</v>
+        <v>146.04</v>
       </c>
       <c r="D17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>152.71</v>
+        <v>148.72</v>
       </c>
       <c r="E17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="F17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="G17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>0.62</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I17" s="68">
         <f t="shared" ca="1" si="7"/>
@@ -10691,27 +10701,27 @@
       </c>
       <c r="J17" s="66">
         <f t="shared" ca="1" si="7"/>
-        <v>71.17</v>
+        <v>50.65</v>
       </c>
       <c r="K17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>59.12</v>
+        <v>59.68</v>
       </c>
       <c r="L17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>137.21</v>
+        <v>92.83</v>
       </c>
       <c r="M17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>101.89</v>
+        <v>100.77</v>
       </c>
       <c r="N17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>94.21</v>
+        <v>67.260000000000005</v>
       </c>
       <c r="O17" s="67">
         <f t="shared" ca="1" si="7"/>
-        <v>69.7</v>
+        <v>63.42</v>
       </c>
       <c r="P17" s="68">
         <f t="shared" ca="1" si="7"/>
@@ -10730,27 +10740,27 @@
       </c>
       <c r="C18" s="66">
         <f t="shared" ca="1" si="8"/>
-        <v>360.2</v>
+        <v>341.78</v>
       </c>
       <c r="D18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>281.33999999999997</v>
+        <v>263.18</v>
       </c>
       <c r="E18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="F18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="G18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>1.06</v>
+        <v>0.83</v>
       </c>
       <c r="H18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="I18" s="68">
         <f t="shared" ca="1" si="8"/>
@@ -10758,27 +10768,27 @@
       </c>
       <c r="J18" s="66">
         <f t="shared" ca="1" si="8"/>
-        <v>129.03</v>
+        <v>112.63</v>
       </c>
       <c r="K18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>108.55</v>
+        <v>106.41</v>
       </c>
       <c r="L18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>230.88</v>
+        <v>217.71</v>
       </c>
       <c r="M18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>177.18</v>
+        <v>169.11</v>
       </c>
       <c r="N18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>167.85</v>
+        <v>146.43</v>
       </c>
       <c r="O18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>153.21</v>
+        <v>151.15</v>
       </c>
       <c r="P18" s="68">
         <f t="shared" ca="1" si="8"/>
@@ -10799,17 +10809,17 @@
       <c r="I19" s="56"/>
       <c r="J19" s="69">
         <f ca="1">ROUND(C20*E20, 3)</f>
-        <v>108.465</v>
+        <v>103.562</v>
       </c>
       <c r="K19" s="54"/>
       <c r="L19" s="70">
         <f ca="1">ROUND(C20 * (1  + E20) * $B20,3)</f>
-        <v>179.774</v>
+        <v>187.858</v>
       </c>
       <c r="M19" s="70"/>
       <c r="N19" s="70">
         <f ca="1">ROUND(L20*G20, 3)</f>
-        <v>132.31399999999999</v>
+        <v>150.85</v>
       </c>
       <c r="O19" s="54"/>
       <c r="P19" s="56"/>
@@ -10821,31 +10831,31 @@
       </c>
       <c r="B20" s="72" cm="1">
         <f t="array" aca="1" ref="B20:B29" ca="1">IF(B12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),B6,B7),3),_xlfn.SEQUENCE(n_iter, 1, B6, 0))</f>
-        <v>0.45900000000000002</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="C20" s="72" cm="1">
         <f t="array" aca="1" ref="C20:C29" ca="1">IF(C12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),C6,C7),3),_xlfn.SEQUENCE(n_iter, 1, C6, 0))</f>
-        <v>283.19900000000001</v>
+        <v>282.18400000000003</v>
       </c>
       <c r="D20" s="72" cm="1">
         <f t="array" aca="1" ref="D20:D29" ca="1">IF(D12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),D6,D7),3),_xlfn.SEQUENCE(n_iter, 1, D6, 0))</f>
-        <v>172.78800000000001</v>
+        <v>184.876</v>
       </c>
       <c r="E20" s="72" cm="1">
         <f t="array" aca="1" ref="E20:E29" ca="1">IF(E12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),E6,E7),3),_xlfn.SEQUENCE(n_iter, 1, E6, 0))</f>
-        <v>0.38300000000000001</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="F20" s="72" cm="1">
         <f t="array" aca="1" ref="F20:F29" ca="1">IF(F12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),F6,F7),3),_xlfn.SEQUENCE(n_iter, 1, F6, 0))</f>
-        <v>0.42299999999999999</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="G20" s="72" cm="1">
         <f t="array" aca="1" ref="G20:G29" ca="1">IF(G12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),G6,G7),3),_xlfn.SEQUENCE(n_iter, 1, G6, 0))</f>
-        <v>0.73599999999999999</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="H20" s="72" cm="1">
         <f t="array" aca="1" ref="H20:H29" ca="1">IF(H12=1, ROUND(BETAINV(_xlfn.RANDARRAY(n_iter, 1),H9,H10),3),_xlfn.SEQUENCE(n_iter, 1, H6, 0))</f>
-        <v>0.69699999999999995</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="I20" s="72" cm="1">
         <f t="array" aca="1" ref="I20:I29" ca="1">IF(I12=1, ROUND(NORMINV(_xlfn.RANDARRAY(n_iter, 1),I6,I7),3),_xlfn.SEQUENCE(n_iter, 1, I6, 0))</f>
@@ -10853,27 +10863,27 @@
       </c>
       <c r="J20" s="121" cm="1">
         <f t="array" aca="1" ref="J20:J29" ca="1">ROUND(_xlfn.ANCHORARRAY(C20) *_xlfn.ANCHORARRAY( E20), 3)</f>
-        <v>108.465</v>
+        <v>103.562</v>
       </c>
       <c r="K20" s="121" cm="1">
         <f t="array" aca="1" ref="K20:K29" ca="1">ROUND(_xlfn.ANCHORARRAY(D20) *_xlfn.ANCHORARRAY( F20), 3)</f>
-        <v>73.088999999999999</v>
+        <v>72.656000000000006</v>
       </c>
       <c r="L20" s="121" cm="1">
         <f t="array" aca="1" ref="L20:L29" ca="1">ROUND(_xlfn.ANCHORARRAY(C20) * (1 +_xlfn.ANCHORARRAY( E20)) *_xlfn.ANCHORARRAY( $B20), 3)</f>
-        <v>179.774</v>
+        <v>187.858</v>
       </c>
       <c r="M20" s="121" cm="1">
         <f t="array" aca="1" ref="M20:M29" ca="1">ROUND(_xlfn.ANCHORARRAY(D20) * (1 +_xlfn.ANCHORARRAY( F20)) *_xlfn.ANCHORARRAY( $B20), 3)</f>
-        <v>112.858</v>
+        <v>125.41800000000001</v>
       </c>
       <c r="N20" s="121" cm="1">
         <f t="array" aca="1" ref="N20:N29" ca="1">ROUND(_xlfn.ANCHORARRAY(L20) *_xlfn.ANCHORARRAY( G20), 3)</f>
-        <v>132.31399999999999</v>
+        <v>150.85</v>
       </c>
       <c r="O20" s="121" cm="1">
         <f t="array" aca="1" ref="O20:O29" ca="1">ROUND(_xlfn.ANCHORARRAY(M20) *_xlfn.ANCHORARRAY( H20), 3)</f>
-        <v>78.662000000000006</v>
+        <v>89.674000000000007</v>
       </c>
       <c r="P20" s="122" cm="1">
         <f t="array" aca="1" ref="P20:P29" ca="1">_xlfn.ANCHORARRAY(I20)</f>
@@ -10887,31 +10897,31 @@
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>0.46700000000000003</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>381.45299999999997</v>
+        <v>281.10399999999998</v>
       </c>
       <c r="D21">
         <f ca="1"/>
-        <v>259.91699999999997</v>
+        <v>261.017</v>
       </c>
       <c r="E21">
         <f ca="1"/>
-        <v>0.377</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>0.36799999999999999</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="G21">
         <f ca="1"/>
-        <v>0.61599999999999999</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="H21">
         <f ca="1"/>
-        <v>0.81499999999999995</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="I21">
         <f ca="1"/>
@@ -10919,27 +10929,27 @@
       </c>
       <c r="J21">
         <f ca="1"/>
-        <v>143.80799999999999</v>
+        <v>99.792000000000002</v>
       </c>
       <c r="K21">
         <f ca="1"/>
-        <v>95.649000000000001</v>
+        <v>108.06100000000001</v>
       </c>
       <c r="L21">
         <f ca="1"/>
-        <v>245.297</v>
+        <v>176.35499999999999</v>
       </c>
       <c r="M21">
         <f ca="1"/>
-        <v>166.05</v>
+        <v>170.88300000000001</v>
       </c>
       <c r="N21">
         <f ca="1"/>
-        <v>151.10300000000001</v>
+        <v>113.925</v>
       </c>
       <c r="O21">
         <f ca="1"/>
-        <v>135.33099999999999</v>
+        <v>155.845</v>
       </c>
       <c r="P21">
         <f ca="1"/>
@@ -10952,31 +10962,31 @@
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>0.44500000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="C22">
         <f ca="1"/>
-        <v>253.39500000000001</v>
+        <v>328.07299999999998</v>
       </c>
       <c r="D22">
         <f ca="1"/>
-        <v>170.822</v>
+        <v>206.78299999999999</v>
       </c>
       <c r="E22">
         <f ca="1"/>
-        <v>0.29699999999999999</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>0.38100000000000001</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="G22">
         <f ca="1"/>
-        <v>1.002</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="H22">
         <f ca="1"/>
-        <v>0.93600000000000005</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="I22">
         <f ca="1"/>
@@ -10984,27 +10994,27 @@
       </c>
       <c r="J22">
         <f ca="1"/>
-        <v>75.257999999999996</v>
+        <v>114.497</v>
       </c>
       <c r="K22">
         <f ca="1"/>
-        <v>65.082999999999998</v>
+        <v>83.953999999999994</v>
       </c>
       <c r="L22">
         <f ca="1"/>
-        <v>146.251</v>
+        <v>208.00800000000001</v>
       </c>
       <c r="M22">
         <f ca="1"/>
-        <v>104.97799999999999</v>
+        <v>136.64599999999999</v>
       </c>
       <c r="N22">
         <f ca="1"/>
-        <v>146.54400000000001</v>
+        <v>115.02800000000001</v>
       </c>
       <c r="O22">
         <f ca="1"/>
-        <v>98.259</v>
+        <v>111.503</v>
       </c>
       <c r="P22">
         <f ca="1"/>
@@ -11017,31 +11027,31 @@
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>0.46800000000000003</v>
+        <v>0.47</v>
       </c>
       <c r="C23">
         <f ca="1"/>
-        <v>290.33999999999997</v>
+        <v>165.93100000000001</v>
       </c>
       <c r="D23">
         <f ca="1"/>
-        <v>251.63300000000001</v>
+        <v>241.24100000000001</v>
       </c>
       <c r="E23">
         <f ca="1"/>
-        <v>0.33300000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>0.34200000000000003</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="G23">
         <f ca="1"/>
-        <v>0.873</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="H23">
         <f ca="1"/>
-        <v>0.628</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="I23">
         <f ca="1"/>
@@ -11049,27 +11059,27 @@
       </c>
       <c r="J23">
         <f ca="1"/>
-        <v>96.683000000000007</v>
+        <v>56.417000000000002</v>
       </c>
       <c r="K23">
         <f ca="1"/>
-        <v>86.058000000000007</v>
+        <v>99.873999999999995</v>
       </c>
       <c r="L23">
         <f ca="1"/>
-        <v>181.12700000000001</v>
+        <v>104.503</v>
       </c>
       <c r="M23">
         <f ca="1"/>
-        <v>158.04</v>
+        <v>160.32400000000001</v>
       </c>
       <c r="N23">
         <f ca="1"/>
-        <v>158.124</v>
+        <v>88.41</v>
       </c>
       <c r="O23">
         <f ca="1"/>
-        <v>99.248999999999995</v>
+        <v>126.977</v>
       </c>
       <c r="P23">
         <f ca="1"/>
@@ -11082,31 +11092,31 @@
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>0.47899999999999998</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="C24">
         <f ca="1"/>
-        <v>334.23200000000003</v>
+        <v>349.22699999999998</v>
       </c>
       <c r="D24">
         <f ca="1"/>
-        <v>149.221</v>
+        <v>163.87</v>
       </c>
       <c r="E24">
         <f ca="1"/>
-        <v>0.33200000000000002</v>
+        <v>0.316</v>
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>0.40500000000000003</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="G24">
         <f ca="1"/>
-        <v>0.75700000000000001</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>0.621</v>
+        <v>0.88</v>
       </c>
       <c r="I24">
         <f ca="1"/>
@@ -11114,27 +11124,27 @@
       </c>
       <c r="J24">
         <f ca="1"/>
-        <v>110.965</v>
+        <v>110.35599999999999</v>
       </c>
       <c r="K24">
         <f ca="1"/>
-        <v>60.435000000000002</v>
+        <v>69.153000000000006</v>
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>213.249</v>
+        <v>225.655</v>
       </c>
       <c r="M24">
         <f ca="1"/>
-        <v>100.425</v>
+        <v>114.414</v>
       </c>
       <c r="N24">
         <f ca="1"/>
-        <v>161.429</v>
+        <v>128.172</v>
       </c>
       <c r="O24">
         <f ca="1"/>
-        <v>62.363999999999997</v>
+        <v>100.684</v>
       </c>
       <c r="P24">
         <f ca="1"/>
@@ -11147,31 +11157,31 @@
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>0.48399999999999999</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="C25">
         <f ca="1"/>
-        <v>263.55500000000001</v>
+        <v>186.12799999999999</v>
       </c>
       <c r="D25">
         <f ca="1"/>
-        <v>170.29900000000001</v>
+        <v>176.761</v>
       </c>
       <c r="E25">
         <f ca="1"/>
-        <v>0.32200000000000001</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>0.41299999999999998</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="G25">
         <f ca="1"/>
-        <v>0.58099999999999996</v>
+        <v>0.61</v>
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>0.94</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="I25">
         <f ca="1"/>
@@ -11179,27 +11189,27 @@
       </c>
       <c r="J25">
         <f ca="1"/>
-        <v>84.864999999999995</v>
+        <v>60.677999999999997</v>
       </c>
       <c r="K25">
         <f ca="1"/>
-        <v>70.332999999999998</v>
+        <v>72.825999999999993</v>
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>168.63499999999999</v>
+        <v>118.22</v>
       </c>
       <c r="M25">
         <f ca="1"/>
-        <v>116.46599999999999</v>
+        <v>119.55200000000001</v>
       </c>
       <c r="N25">
         <f ca="1"/>
-        <v>97.977000000000004</v>
+        <v>72.114000000000004</v>
       </c>
       <c r="O25">
         <f ca="1"/>
-        <v>109.47799999999999</v>
+        <v>110.825</v>
       </c>
       <c r="P25">
         <f ca="1"/>
@@ -11212,31 +11222,31 @@
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>0.45100000000000001</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="C26">
         <f ca="1"/>
-        <v>263.13600000000002</v>
+        <v>332.685</v>
       </c>
       <c r="D26">
         <f ca="1"/>
-        <v>298.875</v>
+        <v>205.089</v>
       </c>
       <c r="E26">
         <f ca="1"/>
-        <v>0.32</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>0.38200000000000001</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="G26">
         <f ca="1"/>
-        <v>1.105</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>0.90100000000000002</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="I26">
         <f ca="1"/>
@@ -11244,27 +11254,27 @@
       </c>
       <c r="J26">
         <f ca="1"/>
-        <v>84.203999999999994</v>
+        <v>101.46899999999999</v>
       </c>
       <c r="K26">
         <f ca="1"/>
-        <v>114.17</v>
+        <v>81.215000000000003</v>
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>156.65</v>
+        <v>207.09100000000001</v>
       </c>
       <c r="M26">
         <f ca="1"/>
-        <v>186.28299999999999</v>
+        <v>136.56700000000001</v>
       </c>
       <c r="N26">
         <f ca="1"/>
-        <v>173.09800000000001</v>
+        <v>141.029</v>
       </c>
       <c r="O26">
         <f ca="1"/>
-        <v>167.84100000000001</v>
+        <v>97.236000000000004</v>
       </c>
       <c r="P26">
         <f ca="1"/>
@@ -11277,31 +11287,31 @@
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>0.46600000000000003</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C27">
         <f ca="1"/>
-        <v>286.09500000000003</v>
+        <v>129.75800000000001</v>
       </c>
       <c r="D27">
         <f ca="1"/>
-        <v>253.572</v>
+        <v>230.589</v>
       </c>
       <c r="E27">
         <f ca="1"/>
-        <v>0.33900000000000002</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>0.40100000000000002</v>
+        <v>0.433</v>
       </c>
       <c r="G27">
         <f ca="1"/>
-        <v>0.64</v>
+        <v>0.76</v>
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>0.749</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="I27">
         <f ca="1"/>
@@ -11309,27 +11319,27 @@
       </c>
       <c r="J27">
         <f ca="1"/>
-        <v>96.986000000000004</v>
+        <v>45.933999999999997</v>
       </c>
       <c r="K27">
         <f ca="1"/>
-        <v>101.682</v>
+        <v>99.844999999999999</v>
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>178.51599999999999</v>
+        <v>83.278000000000006</v>
       </c>
       <c r="M27">
         <f ca="1"/>
-        <v>165.54900000000001</v>
+        <v>156.626</v>
       </c>
       <c r="N27">
         <f ca="1"/>
-        <v>114.25</v>
+        <v>63.290999999999997</v>
       </c>
       <c r="O27">
         <f ca="1"/>
-        <v>123.996</v>
+        <v>125.92700000000001</v>
       </c>
       <c r="P27">
         <f ca="1"/>
@@ -11342,31 +11352,31 @@
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>0.45400000000000001</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="C28">
         <f ca="1"/>
-        <v>217.6</v>
+        <v>266.96699999999998</v>
       </c>
       <c r="D28">
         <f ca="1"/>
-        <v>156.96899999999999</v>
+        <v>264.94799999999998</v>
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>0.314</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="F28">
         <f ca="1"/>
-        <v>0.45500000000000002</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="G28">
         <f ca="1"/>
-        <v>0.70199999999999996</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>0.93</v>
+        <v>0.871</v>
       </c>
       <c r="I28">
         <f ca="1"/>
@@ -11374,27 +11384,27 @@
       </c>
       <c r="J28">
         <f ca="1"/>
-        <v>68.325999999999993</v>
+        <v>97.442999999999998</v>
       </c>
       <c r="K28">
         <f ca="1"/>
-        <v>71.421000000000006</v>
+        <v>104.39</v>
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>129.81100000000001</v>
+        <v>164.71299999999999</v>
       </c>
       <c r="M28">
         <f ca="1"/>
-        <v>103.68899999999999</v>
+        <v>166.941</v>
       </c>
       <c r="N28">
         <f ca="1"/>
-        <v>91.126999999999995</v>
+        <v>111.511</v>
       </c>
       <c r="O28">
         <f ca="1"/>
-        <v>96.430999999999997</v>
+        <v>145.40600000000001</v>
       </c>
       <c r="P28">
         <f ca="1"/>
@@ -11407,31 +11417,31 @@
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>0.49099999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="C29">
         <f ca="1"/>
-        <v>259.18</v>
+        <v>287.63299999999998</v>
       </c>
       <c r="D29">
         <f ca="1"/>
-        <v>163.95099999999999</v>
+        <v>136.31800000000001</v>
       </c>
       <c r="E29">
         <f ca="1"/>
-        <v>0.28799999999999998</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="F29">
         <f ca="1"/>
-        <v>0.35399999999999998</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="G29">
         <f ca="1"/>
-        <v>0.79400000000000004</v>
+        <v>0.746</v>
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>0.73699999999999999</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="I29">
         <f ca="1"/>
@@ -11439,27 +11449,27 @@
       </c>
       <c r="J29">
         <f ca="1"/>
-        <v>74.644000000000005</v>
+        <v>86.001999999999995</v>
       </c>
       <c r="K29">
         <f ca="1"/>
-        <v>58.039000000000001</v>
+        <v>51.936999999999998</v>
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>163.90799999999999</v>
+        <v>177.85</v>
       </c>
       <c r="M29">
         <f ca="1"/>
-        <v>108.997</v>
+        <v>89.608999999999995</v>
       </c>
       <c r="N29">
         <f ca="1"/>
-        <v>130.143</v>
+        <v>132.67599999999999</v>
       </c>
       <c r="O29">
         <f ca="1"/>
-        <v>80.331000000000003</v>
+        <v>41.936999999999998</v>
       </c>
       <c r="P29">
         <f ca="1"/>
@@ -11804,51 +11814,51 @@
       </c>
       <c r="B14" s="58">
         <f t="shared" ref="B14:M14" ca="1" si="0">MEDIAN(_xlfn.ANCHORARRAY(B20))</f>
-        <v>636.44349999999997</v>
+        <v>649.37599999999998</v>
       </c>
       <c r="C14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>420.42750000000001</v>
+        <v>500.89049999999997</v>
       </c>
       <c r="D14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>511.23950000000002</v>
+        <v>419.74700000000001</v>
       </c>
       <c r="E14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>362.09800000000001</v>
+        <v>407.601</v>
       </c>
       <c r="F14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>157.93049999999999</v>
+        <v>182.06450000000001</v>
       </c>
       <c r="G14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>108.8725</v>
+        <v>102.37700000000001</v>
       </c>
       <c r="H14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>636.44349999999997</v>
+        <v>649.37599999999998</v>
       </c>
       <c r="I14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>420.42750000000001</v>
+        <v>500.89049999999997</v>
       </c>
       <c r="J14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>511.23950000000002</v>
+        <v>419.74700000000001</v>
       </c>
       <c r="K14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>362.09800000000001</v>
+        <v>407.601</v>
       </c>
       <c r="L14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>157.93049999999999</v>
+        <v>182.06450000000001</v>
       </c>
       <c r="M14" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>108.8725</v>
+        <v>102.37700000000001</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11857,51 +11867,51 @@
       </c>
       <c r="B15" s="62">
         <f t="shared" ref="B15:M15" ca="1" si="1">ROUND(B16/B14,2)</f>
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="C15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="D15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="E15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="F15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>1.08</v>
+        <v>0.78</v>
       </c>
       <c r="G15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="H15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="I15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="J15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="K15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="L15" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>1.08</v>
+        <v>0.78</v>
       </c>
       <c r="M15" s="76">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11910,51 +11920,51 @@
       </c>
       <c r="B16" s="58">
         <f t="shared" ref="B16:M16" ca="1" si="2">(B18-B17)/2</f>
-        <v>171.71999999999997</v>
+        <v>228.95499999999998</v>
       </c>
       <c r="C16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>138.01999999999998</v>
+        <v>125.29000000000002</v>
       </c>
       <c r="D16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>135.00500000000002</v>
+        <v>145.14499999999998</v>
       </c>
       <c r="E16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>153.10999999999999</v>
+        <v>160.83500000000004</v>
       </c>
       <c r="F16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>170.095</v>
+        <v>142.29</v>
       </c>
       <c r="G16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>81.02000000000001</v>
+        <v>60.39</v>
       </c>
       <c r="H16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>171.71999999999997</v>
+        <v>228.95499999999998</v>
       </c>
       <c r="I16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>138.01999999999998</v>
+        <v>125.29000000000002</v>
       </c>
       <c r="J16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>135.00500000000002</v>
+        <v>145.14499999999998</v>
       </c>
       <c r="K16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>153.10999999999999</v>
+        <v>160.83500000000004</v>
       </c>
       <c r="L16" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>170.095</v>
+        <v>142.29</v>
       </c>
       <c r="M16" s="74">
         <f t="shared" ca="1" si="2"/>
-        <v>81.02000000000001</v>
+        <v>60.39</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11963,51 +11973,51 @@
       </c>
       <c r="B17" s="58">
         <f t="shared" ref="B17:M17" ca="1" si="3">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20),ci_alpha/2),2)</f>
-        <v>503.1</v>
+        <v>340.37</v>
       </c>
       <c r="C17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>373.61</v>
+        <v>369.49</v>
       </c>
       <c r="D17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>345.43</v>
+        <v>246.62</v>
       </c>
       <c r="E17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>255.56</v>
+        <v>232.54</v>
       </c>
       <c r="F17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>-33.65</v>
+        <v>65.430000000000007</v>
       </c>
       <c r="G17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>25.08</v>
+        <v>40.25</v>
       </c>
       <c r="H17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>503.1</v>
+        <v>340.37</v>
       </c>
       <c r="I17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>373.61</v>
+        <v>369.49</v>
       </c>
       <c r="J17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>345.43</v>
+        <v>246.62</v>
       </c>
       <c r="K17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>255.56</v>
+        <v>232.54</v>
       </c>
       <c r="L17" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>-33.65</v>
+        <v>65.430000000000007</v>
       </c>
       <c r="M17" s="74">
         <f t="shared" ca="1" si="3"/>
-        <v>25.08</v>
+        <v>40.25</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12016,62 +12026,62 @@
       </c>
       <c r="B18" s="58">
         <f t="shared" ref="B18:M18" ca="1" si="4">ROUND(PERCENTILE(_xlfn.ANCHORARRAY(B20), 1 - ci_alpha / 2), 2)</f>
-        <v>846.54</v>
+        <v>798.28</v>
       </c>
       <c r="C18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>649.65</v>
+        <v>620.07000000000005</v>
       </c>
       <c r="D18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>615.44000000000005</v>
+        <v>536.91</v>
       </c>
       <c r="E18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>561.78</v>
+        <v>554.21</v>
       </c>
       <c r="F18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>306.54000000000002</v>
+        <v>350.01</v>
       </c>
       <c r="G18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>187.12</v>
+        <v>161.03</v>
       </c>
       <c r="H18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>846.54</v>
+        <v>798.28</v>
       </c>
       <c r="I18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>649.65</v>
+        <v>620.07000000000005</v>
       </c>
       <c r="J18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>615.44000000000005</v>
+        <v>536.91</v>
       </c>
       <c r="K18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>561.78</v>
+        <v>554.21</v>
       </c>
       <c r="L18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>306.54000000000002</v>
+        <v>350.01</v>
       </c>
       <c r="M18" s="74">
         <f t="shared" ca="1" si="4"/>
-        <v>187.12</v>
+        <v>161.03</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="69">
         <f ca="1">ROUND((SIMS_EF_preparation!L20 - SIMS_EF_preparation!P20) * 44 / 12, 3)</f>
-        <v>659.17100000000005</v>
+        <v>688.81299999999999</v>
       </c>
       <c r="C19" s="127">
         <f ca="1">ROUND((SIMS_EF_preparation!M20 - SIMS_EF_preparation!P20) * 44 / 12, 3)</f>
-        <v>413.81299999999999</v>
+        <v>459.86599999999999</v>
       </c>
       <c r="D19" s="54"/>
       <c r="E19" s="54"/>
@@ -12091,51 +12101,51 @@
       </c>
       <c r="B20" s="72" cm="1">
         <f t="array" aca="1" ref="B20:B29" ca="1">ROUND((_xlfn.XLOOKUP(B$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(B$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>659.17100000000005</v>
+        <v>688.81299999999999</v>
       </c>
       <c r="C20" s="72" cm="1">
         <f t="array" aca="1" ref="C20:C29" ca="1">ROUND((_xlfn.XLOOKUP(C$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(C$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>413.81299999999999</v>
+        <v>459.86599999999999</v>
       </c>
       <c r="D20" s="72" cm="1">
         <f t="array" aca="1" ref="D20:D29" ca="1">ROUND((_xlfn.XLOOKUP(D$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(D$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>485.15100000000001</v>
+        <v>553.11699999999996</v>
       </c>
       <c r="E20" s="72" cm="1">
         <f t="array" aca="1" ref="E20:E29" ca="1">ROUND((_xlfn.XLOOKUP(E$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(E$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>288.42700000000002</v>
+        <v>328.80500000000001</v>
       </c>
       <c r="F20" s="72" cm="1">
         <f t="array" aca="1" ref="F20:F29" ca="1">ROUND((_xlfn.XLOOKUP(F$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(F$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>174.02</v>
+        <v>135.696</v>
       </c>
       <c r="G20" s="72" cm="1">
         <f t="array" aca="1" ref="G20:G29" ca="1">ROUND((_xlfn.XLOOKUP(G$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(G$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>125.38500000000001</v>
+        <v>131.06100000000001</v>
       </c>
       <c r="H20" s="72" cm="1">
         <f t="array" aca="1" ref="H20:H29" ca="1">ROUND((_xlfn.XLOOKUP(H$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(H$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>659.17100000000005</v>
+        <v>688.81299999999999</v>
       </c>
       <c r="I20" s="72" cm="1">
         <f t="array" aca="1" ref="I20:I29" ca="1">ROUND((_xlfn.XLOOKUP(I$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(I$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>413.81299999999999</v>
+        <v>459.86599999999999</v>
       </c>
       <c r="J20" s="72" cm="1">
         <f t="array" aca="1" ref="J20:J29" ca="1">ROUND((_xlfn.XLOOKUP(J$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(J$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>485.15100000000001</v>
+        <v>553.11699999999996</v>
       </c>
       <c r="K20" s="72" cm="1">
         <f t="array" aca="1" ref="K20:K29" ca="1">ROUND((_xlfn.XLOOKUP(K$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(K$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>288.42700000000002</v>
+        <v>328.80500000000001</v>
       </c>
       <c r="L20" s="72" cm="1">
         <f t="array" aca="1" ref="L20:L29" ca="1">ROUND((_xlfn.XLOOKUP(L$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(L$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>174.02</v>
+        <v>135.696</v>
       </c>
       <c r="M20" s="72" cm="1">
         <f t="array" aca="1" ref="M20:M29" ca="1">ROUND((_xlfn.XLOOKUP(M$4, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0) - _xlfn.XLOOKUP(M$5, SIMS_EF_preparation!$L$4:$P$4,_xlfn.ANCHORARRAY( SIMS_EF_preparation!$L20):_xlfn.ANCHORARRAY(SIMS_EF_preparation!$P20),0)) * 44/12, 3)</f>
-        <v>125.38500000000001</v>
+        <v>131.06100000000001</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12144,51 +12154,51 @@
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>899.42200000000003</v>
+        <v>646.63499999999999</v>
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>608.85</v>
+        <v>626.57100000000003</v>
       </c>
       <c r="D21">
         <f ca="1"/>
-        <v>554.04399999999998</v>
+        <v>417.72500000000002</v>
       </c>
       <c r="E21">
         <f ca="1"/>
-        <v>496.214</v>
+        <v>571.43200000000002</v>
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>345.37799999999999</v>
+        <v>228.91</v>
       </c>
       <c r="G21">
         <f ca="1"/>
-        <v>112.636</v>
+        <v>55.139000000000003</v>
       </c>
       <c r="H21">
         <f ca="1"/>
-        <v>899.42200000000003</v>
+        <v>646.63499999999999</v>
       </c>
       <c r="I21">
         <f ca="1"/>
-        <v>608.85</v>
+        <v>626.57100000000003</v>
       </c>
       <c r="J21">
         <f ca="1"/>
-        <v>554.04399999999998</v>
+        <v>417.72500000000002</v>
       </c>
       <c r="K21">
         <f ca="1"/>
-        <v>496.214</v>
+        <v>571.43200000000002</v>
       </c>
       <c r="L21">
         <f ca="1"/>
-        <v>345.37799999999999</v>
+        <v>228.91</v>
       </c>
       <c r="M21">
         <f ca="1"/>
-        <v>112.636</v>
+        <v>55.139000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12197,51 +12207,51 @@
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>536.25400000000002</v>
+        <v>762.69600000000003</v>
       </c>
       <c r="C22">
         <f ca="1"/>
-        <v>384.91899999999998</v>
+        <v>501.03500000000003</v>
       </c>
       <c r="D22">
         <f ca="1"/>
-        <v>537.32799999999997</v>
+        <v>421.76900000000001</v>
       </c>
       <c r="E22">
         <f ca="1"/>
-        <v>360.28300000000002</v>
+        <v>408.84399999999999</v>
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>-1.0740000000000001</v>
+        <v>340.92700000000002</v>
       </c>
       <c r="G22">
         <f ca="1"/>
-        <v>24.635999999999999</v>
+        <v>92.191000000000003</v>
       </c>
       <c r="H22">
         <f ca="1"/>
-        <v>536.25400000000002</v>
+        <v>762.69600000000003</v>
       </c>
       <c r="I22">
         <f ca="1"/>
-        <v>384.91899999999998</v>
+        <v>501.03500000000003</v>
       </c>
       <c r="J22">
         <f ca="1"/>
-        <v>537.32799999999997</v>
+        <v>421.76900000000001</v>
       </c>
       <c r="K22">
         <f ca="1"/>
-        <v>360.28300000000002</v>
+        <v>408.84399999999999</v>
       </c>
       <c r="L22">
         <f ca="1"/>
-        <v>-1.0740000000000001</v>
+        <v>340.92700000000002</v>
       </c>
       <c r="M22">
         <f ca="1"/>
-        <v>24.635999999999999</v>
+        <v>92.191000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12250,51 +12260,51 @@
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>664.13199999999995</v>
+        <v>383.178</v>
       </c>
       <c r="C23">
         <f ca="1"/>
-        <v>579.48</v>
+        <v>587.85500000000002</v>
       </c>
       <c r="D23">
         <f ca="1"/>
-        <v>579.78800000000001</v>
+        <v>324.17</v>
       </c>
       <c r="E23">
         <f ca="1"/>
-        <v>363.91300000000001</v>
+        <v>465.58199999999999</v>
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>84.343999999999994</v>
+        <v>59.008000000000003</v>
       </c>
       <c r="G23">
         <f ca="1"/>
-        <v>215.56700000000001</v>
+        <v>122.27200000000001</v>
       </c>
       <c r="H23">
         <f ca="1"/>
-        <v>664.13199999999995</v>
+        <v>383.178</v>
       </c>
       <c r="I23">
         <f ca="1"/>
-        <v>579.48</v>
+        <v>587.85500000000002</v>
       </c>
       <c r="J23">
         <f ca="1"/>
-        <v>579.78800000000001</v>
+        <v>324.17</v>
       </c>
       <c r="K23">
         <f ca="1"/>
-        <v>363.91300000000001</v>
+        <v>465.58199999999999</v>
       </c>
       <c r="L23">
         <f ca="1"/>
-        <v>84.343999999999994</v>
+        <v>59.008000000000003</v>
       </c>
       <c r="M23">
         <f ca="1"/>
-        <v>215.56700000000001</v>
+        <v>122.27200000000001</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12303,51 +12313,51 @@
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>781.91300000000001</v>
+        <v>827.40200000000004</v>
       </c>
       <c r="C24">
         <f ca="1"/>
-        <v>368.22500000000002</v>
+        <v>419.51799999999997</v>
       </c>
       <c r="D24">
         <f ca="1"/>
-        <v>591.90599999999995</v>
+        <v>469.964</v>
       </c>
       <c r="E24">
         <f ca="1"/>
-        <v>228.66800000000001</v>
+        <v>369.17500000000001</v>
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>190.00700000000001</v>
+        <v>357.43799999999999</v>
       </c>
       <c r="G24">
         <f ca="1"/>
-        <v>139.55699999999999</v>
+        <v>50.343000000000004</v>
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>781.91300000000001</v>
+        <v>827.40200000000004</v>
       </c>
       <c r="I24">
         <f ca="1"/>
-        <v>368.22500000000002</v>
+        <v>419.51799999999997</v>
       </c>
       <c r="J24">
         <f ca="1"/>
-        <v>591.90599999999995</v>
+        <v>469.964</v>
       </c>
       <c r="K24">
         <f ca="1"/>
-        <v>228.66800000000001</v>
+        <v>369.17500000000001</v>
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>190.00700000000001</v>
+        <v>357.43799999999999</v>
       </c>
       <c r="M24">
         <f ca="1"/>
-        <v>139.55699999999999</v>
+        <v>50.343000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12356,51 +12366,51 @@
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>618.32799999999997</v>
+        <v>433.47300000000001</v>
       </c>
       <c r="C25">
         <f ca="1"/>
-        <v>427.04199999999997</v>
+        <v>438.35700000000003</v>
       </c>
       <c r="D25">
         <f ca="1"/>
-        <v>359.24900000000002</v>
+        <v>264.41800000000001</v>
       </c>
       <c r="E25">
         <f ca="1"/>
-        <v>401.41899999999998</v>
+        <v>406.358</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>259.07900000000001</v>
+        <v>169.05500000000001</v>
       </c>
       <c r="G25">
         <f ca="1"/>
-        <v>25.623000000000001</v>
+        <v>31.998999999999999</v>
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>618.32799999999997</v>
+        <v>433.47300000000001</v>
       </c>
       <c r="I25">
         <f ca="1"/>
-        <v>427.04199999999997</v>
+        <v>438.35700000000003</v>
       </c>
       <c r="J25">
         <f ca="1"/>
-        <v>359.24900000000002</v>
+        <v>264.41800000000001</v>
       </c>
       <c r="K25">
         <f ca="1"/>
-        <v>401.41899999999998</v>
+        <v>406.358</v>
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>259.07900000000001</v>
+        <v>169.05500000000001</v>
       </c>
       <c r="M25">
         <f ca="1"/>
-        <v>25.623000000000001</v>
+        <v>31.998999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12409,51 +12419,51 @@
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>574.38300000000004</v>
+        <v>759.33399999999995</v>
       </c>
       <c r="C26">
         <f ca="1"/>
-        <v>683.03800000000001</v>
+        <v>500.74599999999998</v>
       </c>
       <c r="D26">
         <f ca="1"/>
-        <v>634.69299999999998</v>
+        <v>517.10599999999999</v>
       </c>
       <c r="E26">
         <f ca="1"/>
-        <v>615.41700000000003</v>
+        <v>356.53199999999998</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>-60.308999999999997</v>
+        <v>242.227</v>
       </c>
       <c r="G26">
         <f ca="1"/>
-        <v>67.620999999999995</v>
+        <v>144.214</v>
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>574.38300000000004</v>
+        <v>759.33399999999995</v>
       </c>
       <c r="I26">
         <f ca="1"/>
-        <v>683.03800000000001</v>
+        <v>500.74599999999998</v>
       </c>
       <c r="J26">
         <f ca="1"/>
-        <v>634.69299999999998</v>
+        <v>517.10599999999999</v>
       </c>
       <c r="K26">
         <f ca="1"/>
-        <v>615.41700000000003</v>
+        <v>356.53199999999998</v>
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>-60.308999999999997</v>
+        <v>242.227</v>
       </c>
       <c r="M26">
         <f ca="1"/>
-        <v>67.620999999999995</v>
+        <v>144.214</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12462,51 +12472,51 @@
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>654.55899999999997</v>
+        <v>305.35300000000001</v>
       </c>
       <c r="C27">
         <f ca="1"/>
-        <v>607.01300000000003</v>
+        <v>574.29499999999996</v>
       </c>
       <c r="D27">
         <f ca="1"/>
-        <v>418.91699999999997</v>
+        <v>232.06700000000001</v>
       </c>
       <c r="E27">
         <f ca="1"/>
-        <v>454.65199999999999</v>
+        <v>461.73200000000003</v>
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>235.642</v>
+        <v>73.286000000000001</v>
       </c>
       <c r="G27">
         <f ca="1"/>
-        <v>152.36099999999999</v>
+        <v>112.563</v>
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>654.55899999999997</v>
+        <v>305.35300000000001</v>
       </c>
       <c r="I27">
         <f ca="1"/>
-        <v>607.01300000000003</v>
+        <v>574.29499999999996</v>
       </c>
       <c r="J27">
         <f ca="1"/>
-        <v>418.91699999999997</v>
+        <v>232.06700000000001</v>
       </c>
       <c r="K27">
         <f ca="1"/>
-        <v>454.65199999999999</v>
+        <v>461.73200000000003</v>
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>235.642</v>
+        <v>73.286000000000001</v>
       </c>
       <c r="M27">
         <f ca="1"/>
-        <v>152.36099999999999</v>
+        <v>112.563</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12515,51 +12525,51 @@
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>475.97399999999999</v>
+        <v>603.94799999999998</v>
       </c>
       <c r="C28">
         <f ca="1"/>
-        <v>380.19299999999998</v>
+        <v>612.11699999999996</v>
       </c>
       <c r="D28">
         <f ca="1"/>
-        <v>334.13200000000001</v>
+        <v>408.87400000000002</v>
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>353.58</v>
+        <v>533.15499999999997</v>
       </c>
       <c r="F28">
         <f ca="1"/>
-        <v>141.84100000000001</v>
+        <v>195.07400000000001</v>
       </c>
       <c r="G28">
         <f ca="1"/>
-        <v>26.613</v>
+        <v>78.962000000000003</v>
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>475.97399999999999</v>
+        <v>603.94799999999998</v>
       </c>
       <c r="I28">
         <f ca="1"/>
-        <v>380.19299999999998</v>
+        <v>612.11699999999996</v>
       </c>
       <c r="J28">
         <f ca="1"/>
-        <v>334.13200000000001</v>
+        <v>408.87400000000002</v>
       </c>
       <c r="K28">
         <f ca="1"/>
-        <v>353.58</v>
+        <v>533.15499999999997</v>
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>141.84100000000001</v>
+        <v>195.07400000000001</v>
       </c>
       <c r="M28">
         <f ca="1"/>
-        <v>26.613</v>
+        <v>78.962000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12568,51 +12578,51 @@
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>600.99599999999998</v>
+        <v>652.11699999999996</v>
       </c>
       <c r="C29">
         <f ca="1"/>
-        <v>399.65600000000001</v>
+        <v>328.56599999999997</v>
       </c>
       <c r="D29">
         <f ca="1"/>
-        <v>477.19099999999997</v>
+        <v>486.47899999999998</v>
       </c>
       <c r="E29">
         <f ca="1"/>
-        <v>294.54700000000003</v>
+        <v>153.76900000000001</v>
       </c>
       <c r="F29">
         <f ca="1"/>
-        <v>123.80500000000001</v>
+        <v>165.63800000000001</v>
       </c>
       <c r="G29">
         <f ca="1"/>
-        <v>105.10899999999999</v>
+        <v>174.797</v>
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>600.99599999999998</v>
+        <v>652.11699999999996</v>
       </c>
       <c r="I29">
         <f ca="1"/>
-        <v>399.65600000000001</v>
+        <v>328.56599999999997</v>
       </c>
       <c r="J29">
         <f ca="1"/>
-        <v>477.19099999999997</v>
+        <v>486.47899999999998</v>
       </c>
       <c r="K29">
         <f ca="1"/>
-        <v>294.54700000000003</v>
+        <v>153.76900000000001</v>
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>123.80500000000001</v>
+        <v>165.63800000000001</v>
       </c>
       <c r="M29">
         <f ca="1"/>
-        <v>105.10899999999999</v>
+        <v>174.797</v>
       </c>
     </row>
   </sheetData>
